--- a/news_ann/news/tmp/600674.xlsx
+++ b/news_ann/news/tmp/600674.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>128</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>川投能源11月01日获沪股通增持51.68万股</t>
+          <t>川投能源11月02日被沪股通减持74万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-02 07:51</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,600674,1241801443.html</t>
+          <t>/news,600674,1242326355.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>130</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1119.71万元，融资余额6.71亿元（11-01）</t>
+          <t>川投能源：融资净偿还1427万元，融资余额6.57亿元（11-02）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-03 07:29</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,600674,1241800687.html</t>
+          <t>/news,600674,1242321485.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>174</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>川投能源10月31日被沪股通减持78.36万股</t>
+          <t>川投能源11月01日获沪股通增持51.68万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-01 07:52</t>
+          <t>11-02 07:51</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,600674,1241297048.html</t>
+          <t>/news,600674,1241801443.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>162</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还1371.17万元，融资余额6.6亿元（10-31）</t>
+          <t>川投能源：融资净买入1119.71万元，融资余额6.71亿元（11-01）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-01 07:28</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,600674,1241293200.html</t>
+          <t>/news,600674,1241800687.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,29 +595,29 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>川财证券维持川投能源增持评级 预计2022年净利润同比增长11.76%</t>
+          <t>川投能源10月31日被沪股通减持78.36万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>10-31 22:05</t>
+          <t>11-01 07:52</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,600674,1241253673.html</t>
+          <t>/news,600674,1241297048.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>川财证券给予川投能源增持评级</t>
+          <t>川投能源：融资净偿还1371.17万元，融资余额6.6亿元（10-31）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10-31 22:03</t>
+          <t>11-01 07:28</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,600674,1241261790.html</t>
+          <t>/news,600674,1241293200.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,29 +659,29 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入2973.07万元，居电力行业板块第八</t>
+          <t>川财证券维持川投能源增持评级 预计2022年净利润同比增长11.76%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>10-31 22:05</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,600674,1240712918.html</t>
+          <t>/news,600674,1241253673.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,29 +691,29 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值减少4460.01万元，居电力行业板块第五</t>
+          <t>川财证券给予川投能源增持评级</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10-30 14:08</t>
+          <t>10-31 22:03</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,600674,1240707423.html</t>
+          <t>/news,600674,1241261790.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,29 +723,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>川投能源10月28日被沪股通减持16.12万股</t>
+          <t>川投能源本周融资净买入2973.07万元，居电力行业板块第八</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10-29 07:56</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,600674,1240600933.html</t>
+          <t>/news,600674,1240712918.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,29 +755,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净买入累计2728.82万元（10-28）</t>
+          <t>川投能源本周沪股通持股市值减少4460.01万元，居电力行业板块第五</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10-29 07:33</t>
+          <t>10-30 14:08</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,600674,1240597339.html</t>
+          <t>/news,600674,1240707423.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>422</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>川投能源10月27日被沪股通减持11.71万股</t>
+          <t>川投能源10月28日被沪股通减持16.12万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10-28 07:42</t>
+          <t>10-29 07:56</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,600674,1240046616.html</t>
+          <t>/news,600674,1240600933.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入499.33万元，融资余额6.68亿元（10-27）</t>
+          <t>川投能源：连续3日融资净买入累计2728.82万元（10-28）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>10-28 07:29</t>
+          <t>10-29 07:33</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,600674,1240044380.html</t>
+          <t>/news,600674,1240597339.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>川投能源10月26日被沪股通减持79.49万股</t>
+          <t>川投能源10月27日被沪股通减持11.71万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>10-27 07:44</t>
+          <t>10-28 07:42</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,600674,1239496318.html</t>
+          <t>/news,600674,1240046616.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1740.9万元，融资余额6.63亿元（10-26）</t>
+          <t>川投能源：融资净买入499.33万元，融资余额6.68亿元（10-27）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10-27 07:33</t>
+          <t>10-28 07:29</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,600674,1239494829.html</t>
+          <t>/news,600674,1240044380.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>川投能源10月25日被沪股通减持173.77万股</t>
+          <t>川投能源10月26日被沪股通减持79.49万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10-26 07:58</t>
+          <t>10-27 07:44</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,600674,1238970260.html</t>
+          <t>/news,600674,1239496318.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还1821.77万元，融资余额6.46亿元（10-25）</t>
+          <t>川投能源：融资净买入1740.9万元，融资余额6.63亿元（10-26）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10-26 07:31</t>
+          <t>10-27 07:33</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,600674,1238965647.html</t>
+          <t>/news,600674,1239494829.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,29 +979,29 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>长城证券维持川投能源增持评级 预计2022年净利润同比增长16.75%</t>
+          <t>川投能源10月25日被沪股通减持173.77万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10-25 21:21</t>
+          <t>10-26 07:58</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,600674,1238894339.html</t>
+          <t>/news,600674,1238970260.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>首创证券给予川投能源买入评级 来水影响发电量 雅砻江公司成为业绩保障</t>
+          <t>川投能源：融资净偿还1821.77万元，融资余额6.46亿元（10-25）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-25 13:22</t>
+          <t>10-26 07:31</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,600674,1238695111.html</t>
+          <t>/news,600674,1238965647.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>309</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>首创证券维持川投能源买入评级 预计2022年净利润同比增长9.15%</t>
+          <t>长城证券维持川投能源增持评级 预计2022年净利润同比增长16.75%</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-25 13:17</t>
+          <t>10-25 21:21</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,600674,1238689042.html</t>
+          <t>/news,600674,1238894339.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>川投能源10月24日被沪股通减持111.56万股</t>
+          <t>首创证券给予川投能源买入评级 来水影响发电量 雅砻江公司成为业绩保障</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-25 07:47</t>
+          <t>10-25 13:22</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,600674,1238447684.html</t>
+          <t>/news,600674,1238695111.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,29 +1107,29 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>川投能源：连续7日融资净买入累计1.09亿元（10-24）</t>
+          <t>首创证券维持川投能源买入评级 预计2022年净利润同比增长9.15%</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-25 07:29</t>
+          <t>10-25 13:17</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,600674,1238443879.html</t>
+          <t>/news,600674,1238689042.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>国海证券给予川投能源买入评级</t>
+          <t>川投能源10月24日被沪股通减持111.56万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-25 07:08</t>
+          <t>10-25 07:47</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,600674,1238441787.html</t>
+          <t>/news,600674,1238447684.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,29 +1171,29 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>国海证券维持川投能源买入评级 预计2022年净利润同比增长8.05%</t>
+          <t>川投能源：连续7日融资净买入累计1.09亿元（10-24）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-25 06:53</t>
+          <t>10-25 07:29</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,600674,1238440213.html</t>
+          <t>/news,600674,1238443879.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,61 +1203,61 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
+          <t>国海证券给予川投能源买入评级</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-24 09:11</t>
+          <t>10-25 07:08</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,600674,1237928643.html</t>
+          <t>/news,600674,1238441787.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>中国银河给予川投能源推荐评级：雅砻江Q3发电量实现正增长 沿江新能源打开新成长空间</t>
+          <t>国海证券维持川投能源买入评级 预计2022年净利润同比增长8.05%</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-24 07:23</t>
+          <t>10-25 06:53</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,600674,1237915624.html</t>
+          <t>/news,600674,1238440213.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>309</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,61 +1267,61 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>东吴证券给予川投能源买入评级 自然灾害拖累发电量表现 利润增长主要来自于雅砻江水电</t>
+          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-24 07:09</t>
+          <t>10-24 09:11</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,600674,1237914624.html</t>
+          <t>/news,600674,1237928643.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>401</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>中国银河维持川投能源推荐评级 预计2022年净利润同比增长7.02%</t>
+          <t>中国银河给予川投能源推荐评级：雅砻江Q3发电量实现正增长 沿江新能源打开新成长空间</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-24 07:06</t>
+          <t>10-24 07:23</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,600674,1237914166.html</t>
+          <t>/news,600674,1237915624.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>346</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,29 +1331,29 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>东吴证券维持川投能源买入评级 预计2022年净利润同比增长14.24%</t>
+          <t>东吴证券给予川投能源买入评级 自然灾害拖累发电量表现 利润增长主要来自于雅砻江水电</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-24 06:30</t>
+          <t>10-24 07:09</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,600674,1237913185.html</t>
+          <t>/news,600674,1237914624.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,29 +1363,29 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入8535.19万元，居电力行业板块第三</t>
+          <t>中国银河维持川投能源推荐评级 预计2022年净利润同比增长7.02%</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-23 15:08</t>
+          <t>10-24 07:06</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,600674,1237864909.html</t>
+          <t>/news,600674,1237914166.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>华泰证券维持川投能源买入评级 目标价14.72元</t>
+          <t>东吴证券维持川投能源买入评级 预计2022年净利润同比增长14.24%</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-23 14:10</t>
+          <t>10-24 06:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,600674,1237860794.html</t>
+          <t>/news,600674,1237913185.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>385</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,29 +1427,29 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加4373.88万元，居电力行业板块第八</t>
+          <t>川投能源本周融资净买入8535.19万元，居电力行业板块第三</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-23 14:06</t>
+          <t>10-23 15:08</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,600674,1237860359.html</t>
+          <t>/news,600674,1237864909.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,29 +1459,29 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>民生证券给予川投能源谨慎推荐评级：缺水、地震接踵而至 雅砻江稳中有增</t>
+          <t>华泰证券维持川投能源买入评级 目标价14.72元</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-23 14:02</t>
+          <t>10-23 14:10</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,600674,1237860656.html</t>
+          <t>/news,600674,1237860794.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,29 +1491,29 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>民生证券维持川投能源谨慎推荐评级 目标价12.8元</t>
+          <t>川投能源本周沪股通持股市值增加4373.88万元，居电力行业板块第八</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-23 13:05</t>
+          <t>10-23 14:06</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,600674,1237856960.html</t>
+          <t>/news,600674,1237860359.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>410</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>川投能源10月21日获沪股通增持62.34万股</t>
+          <t>民生证券给予川投能源谨慎推荐评级：缺水、地震接踵而至 雅砻江稳中有增</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-22 07:45</t>
+          <t>10-23 14:02</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,600674,1237796375.html</t>
+          <t>/news,600674,1237860656.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,29 +1555,29 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>川投能源：连续6日融资净买入累计8807.37万元（10-21）</t>
+          <t>民生证券维持川投能源谨慎推荐评级 目标价12.8元</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-22 07:33</t>
+          <t>10-23 13:05</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,600674,1237794834.html</t>
+          <t>/news,600674,1237856960.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>【图解季报】川投能源：2022年前三季度归母净利润同比增长5%，约为29.2亿元</t>
+          <t>川投能源10月21日获沪股通增持62.34万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-21 22:10</t>
+          <t>10-22 07:45</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,600674,1237763963.html</t>
+          <t>/news,600674,1237796375.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>787</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>川投能源：前三季度归母净利润29.19亿元</t>
+          <t>川投能源：连续6日融资净买入累计8807.37万元（10-21）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-21 20:03</t>
+          <t>10-22 07:33</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,600674,1237738860.html</t>
+          <t>/news,600674,1237794834.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>367</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>川投能源：2022年前三季度净利润约29.19亿元</t>
+          <t>【图解季报】川投能源：2022年前三季度归母净利润同比增长5%，约为29.2亿元</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-21 19:07</t>
+          <t>10-21 22:10</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,600674,1237728875.html</t>
+          <t>/news,600674,1237763963.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>788</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>川投能源股东户数下降8.85%，户均持股151.04万元</t>
+          <t>川投能源：前三季度归母净利润29.19亿元</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-21 18:55</t>
+          <t>10-21 20:03</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,600674,1237726629.html</t>
+          <t>/news,600674,1237738860.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,29 +1715,29 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>川投能源：2022年前三季度净利润同比增长5.02%</t>
+          <t>川投能源：2022年前三季度净利润约29.19亿元</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-21 18:49</t>
+          <t>10-21 19:07</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,600674,1237725578.html</t>
+          <t>/news,600674,1237728875.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>川投能源10月20日被沪股通减持148.64万股</t>
+          <t>川投能源股东户数下降8.85%，户均持股151.04万元</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-21 07:48</t>
+          <t>10-21 18:55</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,600674,1237347913.html</t>
+          <t>/news,600674,1237726629.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>484</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,29 +1779,29 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入6385.46万元，创近一年新高（10-20）</t>
+          <t>川投能源：2022年前三季度净利润同比增长5.02%</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-21 07:28</t>
+          <t>10-21 18:49</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,600674,1237344669.html</t>
+          <t>/news,600674,1237725578.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>川投能源10月19日被沪股通减持25.69万股</t>
+          <t>川投能源10月20日被沪股通减持148.64万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-20 07:44</t>
+          <t>10-21 07:48</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,600674,1236888079.html</t>
+          <t>/news,600674,1237347913.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>川投能源：连续4日融资净买入累计1823.92万元（10-19）</t>
+          <t>川投能源：融资净买入6385.46万元，创近一年新高（10-20）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-20 07:29</t>
+          <t>10-21 07:28</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,600674,1236885665.html</t>
+          <t>/news,600674,1237344669.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>天风证券给予川投能源买入评级 雅砻江水电克服汛期来水不利影响 带动前三季度业绩同比+5%</t>
+          <t>川投能源10月19日被沪股通减持25.69万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-19 10:52</t>
+          <t>10-20 07:44</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,600674,1236573020.html</t>
+          <t>/news,600674,1236888079.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,29 +1907,29 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>天风证券维持川投能源买入评级 预计2022年净利润同比增长6.58%</t>
+          <t>川投能源：连续4日融资净买入累计1823.92万元（10-19）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-19 10:45</t>
+          <t>10-20 07:29</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,600674,1236564121.html</t>
+          <t>/news,600674,1236885665.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>385</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净买入累计1122.77万元（10-18）</t>
+          <t>天风证券给予川投能源买入评级 雅砻江水电克服汛期来水不利影响 带动前三季度业绩同比+5%</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-19 07:30</t>
+          <t>10-19 10:52</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,600674,1236436661.html</t>
+          <t>/news,600674,1236573020.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>383</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,29 +1971,29 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>川投能源10月17日获沪股通增持152.96万股</t>
+          <t>天风证券维持川投能源买入评级 预计2022年净利润同比增长6.58%</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-18 07:49</t>
+          <t>10-19 10:45</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,600674,1236042157.html</t>
+          <t>/news,600674,1236564121.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入514.06万元，融资余额5.63亿元（10-17）</t>
+          <t>川投能源：连续3日融资净买入累计1122.77万元（10-18）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-18 07:30</t>
+          <t>10-19 07:30</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,600674,1236039511.html</t>
+          <t>/news,600674,1236436661.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,29 +2035,29 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>中信证券维持川投能源买入评级 目标价14.5元</t>
+          <t>川投能源10月17日获沪股通增持152.96万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-17 16:48</t>
+          <t>10-18 07:49</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,600674,1235939724.html</t>
+          <t>/news,600674,1236042157.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,29 +2067,29 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
+          <t>川投能源：融资净买入514.06万元，融资余额5.63亿元（10-17）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-17 16:32</t>
+          <t>10-18 07:30</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,600674,1235935773.html</t>
+          <t>/news,600674,1236039511.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>477</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,29 +2099,29 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>川投能源本周融资净偿还1157.49万元，居电力行业板块第十一</t>
+          <t>中信证券维持川投能源买入评级 目标价14.5元</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-16 15:07</t>
+          <t>10-17 16:48</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,600674,1235580977.html</t>
+          <t>/news,600674,1235939724.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,29 +2131,29 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值减少1159.25万元，居电力行业板块第六</t>
+          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-16 14:05</t>
+          <t>10-17 16:32</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,600674,1235575593.html</t>
+          <t>/news,600674,1235935773.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>527</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,29 +2163,29 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>川投能源10月14日被沪股通减持19.47万股</t>
+          <t>川投能源本周融资净偿还1157.49万元，居电力行业板块第十一</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-15 07:55</t>
+          <t>10-16 15:07</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,600674,1235512220.html</t>
+          <t>/news,600674,1235580977.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>468</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,39 +2195,39 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入272.18万元，融资余额5.58亿元（10-14）</t>
+          <t>川投能源本周沪股通持股市值减少1159.25万元，居电力行业板块第六</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-15 07:33</t>
+          <t>10-16 14:05</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,600674,1235509517.html</t>
+          <t>/news,600674,1235575593.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>398</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>川投能源：前三季度公司控股电力企业累计完成发电量同比减少11.13%</t>
+          <t>川投能源10月14日被沪股通减持19.47万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-14 20:02</t>
+          <t>10-15 07:55</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,600674,1235433323.html</t>
+          <t>/news,600674,1235512220.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>336</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>川投能源：参股公司投资收益增加 前三季度归母净利29.19亿元</t>
+          <t>川投能源：融资净买入272.18万元，融资余额5.58亿元（10-14）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-14 19:42</t>
+          <t>10-15 07:33</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,600674,1235430800.html</t>
+          <t>/news,600674,1235509517.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>569</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>业绩快报：川投能源2022年三季度净利润29.19亿 同比增长5.02%</t>
+          <t>川投能源：前三季度公司控股电力企业累计完成发电量同比减少11.13%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-14 18:18</t>
+          <t>10-14 20:02</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,600674,1235412024.html</t>
+          <t>/news,600674,1235433323.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>598</t>
+          <t>411</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>川投能源：2022年前三季度净利润约29.19亿元 同比增加5.02%</t>
+          <t>川投能源：参股公司投资收益增加 前三季度归母净利29.19亿元</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-14 18:18</t>
+          <t>10-14 19:42</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,600674,1235412584.html</t>
+          <t>/news,600674,1235430800.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>川投能源10月13日获沪股通增持32.74万股</t>
+          <t>业绩快报：川投能源2022年三季度净利润29.19亿 同比增长5.02%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-14 07:45</t>
+          <t>10-14 18:18</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,600674,1235081459.html</t>
+          <t>/news,600674,1235412024.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>599</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还1199.77万元，融资余额5.56亿元（10-13）</t>
+          <t>川投能源：2022年前三季度净利润约29.19亿元 同比增加5.02%</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-14 07:30</t>
+          <t>10-14 18:18</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,600674,1235079068.html</t>
+          <t>/news,600674,1235412584.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>川投能源10月12日被沪股通减持142.78万股</t>
+          <t>川投能源10月13日获沪股通增持32.74万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-13 07:50</t>
+          <t>10-14 07:45</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,600674,1234645656.html</t>
+          <t>/news,600674,1235081459.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还66.98万元，融资余额5.68亿元（10-12）</t>
+          <t>川投能源：融资净偿还1199.77万元，融资余额5.56亿元（10-13）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-13 07:32</t>
+          <t>10-14 07:30</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,600674,1234643058.html</t>
+          <t>/news,600674,1235079068.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>川投能源10月11日获沪股通增持25.09万股</t>
+          <t>川投能源10月12日被沪股通减持142.78万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-12 07:49</t>
+          <t>10-13 07:50</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,600674,1234212748.html</t>
+          <t>/news,600674,1234645656.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入307.1万元，融资余额5.68亿元（10-11）</t>
+          <t>川投能源：融资净偿还66.98万元，融资余额5.68亿元（10-12）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-12 07:30</t>
+          <t>10-13 07:32</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,600674,1234209738.html</t>
+          <t>/news,600674,1234643058.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>321</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还470.03万元，融资余额5.65亿元（10-10）</t>
+          <t>川投能源10月11日获沪股通增持25.09万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,51 +2557,51 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-11 07:30</t>
+          <t>10-12 07:49</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,600674,1233833561.html</t>
+          <t>/news,600674,1234212748.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>606</t>
+          <t>386</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入540.96万元，居电力行业板块第十二</t>
+          <t>川投能源：融资净买入307.1万元，融资余额5.68亿元（10-11）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-09 15:06</t>
+          <t>10-12 07:30</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,600674,1233322964.html</t>
+          <t>/news,600674,1234209738.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>548</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,29 +2611,29 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加2136.93万元，居电力行业板块第七</t>
+          <t>川投能源：融资净偿还470.03万元，融资余额5.65亿元（10-10）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-09 14:07</t>
+          <t>10-11 07:30</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,600674,1233317486.html</t>
+          <t>/news,600674,1233833561.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>629</t>
+          <t>608</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,29 +2643,29 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
+          <t>川投能源本周融资净买入540.96万元，居电力行业板块第十二</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-09 10:44</t>
+          <t>10-09 15:06</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,600674,1233306706.html</t>
+          <t>/news,600674,1233322964.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>609</t>
+          <t>550</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,29 +2675,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>川投能源09月29日获沪股通增持59.74万股</t>
+          <t>川投能源本周沪股通持股市值增加2136.93万元，居电力行业板块第七</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>09-30 07:57</t>
+          <t>10-09 14:07</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,600674,1232537091.html</t>
+          <t>/news,600674,1233317486.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>591</t>
+          <t>630</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,29 +2707,29 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1220.55万元，融资余额5.77亿元（09-29）</t>
+          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09-30 07:35</t>
+          <t>10-09 10:44</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,600674,1232533618.html</t>
+          <t>/news,600674,1233306706.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>川投能源09月28日被沪股通减持51.15万股</t>
+          <t>川投能源09月29日获沪股通增持59.74万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>09-29 08:00</t>
+          <t>09-30 07:57</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,600674,1232089156.html</t>
+          <t>/news,600674,1232537091.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还299.06万元，融资余额5.65亿元（09-28）</t>
+          <t>川投能源：融资净买入1220.55万元，融资余额5.77亿元（09-29）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>09-29 07:44</t>
+          <t>09-30 07:35</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,600674,1232086841.html</t>
+          <t>/news,600674,1232533618.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>385</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>川投能源09月27日获沪股通增持95.01万股</t>
+          <t>川投能源09月28日被沪股通减持51.15万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>09-28 07:47</t>
+          <t>09-29 08:00</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,600674,1231636756.html</t>
+          <t>/news,600674,1232089156.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>397</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入345.86万元，融资余额5.68亿元（09-27）</t>
+          <t>川投能源：融资净偿还299.06万元，融资余额5.65亿元（09-28）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09-28 07:29</t>
+          <t>09-29 07:44</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,600674,1231634177.html</t>
+          <t>/news,600674,1232086841.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>391</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>川投能源：子公司田湾河公司流域6台机组全部恢复并网发电 暂无法确定本次地震造成的损失</t>
+          <t>川投能源09月27日获沪股通增持95.01万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09-27 16:36</t>
+          <t>09-28 07:47</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,600674,1231524893.html</t>
+          <t>/news,600674,1231636756.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>778</t>
+          <t>377</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>川投能源：田湾河公司流域6台机组全部恢复并网发电</t>
+          <t>川投能源：融资净买入345.86万元，融资余额5.68亿元（09-27）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-27 16:23</t>
+          <t>09-28 07:29</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,600674,1231522022.html</t>
+          <t>/news,600674,1231634177.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>884</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>川投能源09月26日获沪股通增持19.2万股</t>
+          <t>川投能源：子公司田湾河公司流域6台机组全部恢复并网发电 暂无法确定本次地震造成的损失</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-27 07:41</t>
+          <t>09-27 16:36</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,600674,1231246017.html</t>
+          <t>/news,600674,1231524893.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>779</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入22.57万元，融资余额5.65亿元（09-26）</t>
+          <t>川投能源：田湾河公司流域6台机组全部恢复并网发电</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-27 07:31</t>
+          <t>09-27 16:23</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,600674,1231244244.html</t>
+          <t>/news,600674,1231522022.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>814</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>川投能源本周融资净偿还667.89万元，居电力行业板块第九</t>
+          <t>川投能源09月26日获沪股通增持19.2万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-25 15:07</t>
+          <t>09-27 07:41</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,600674,1230728333.html</t>
+          <t>/news,600674,1231246017.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/600674.xlsx
+++ b/news_ann/news/tmp/600674.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>川投能源11月02日被沪股通减持74万股</t>
+          <t>川投能源11月03日被沪股通减持82.42万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-04 07:47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,600674,1242326355.html</t>
+          <t>/news,600674,1242816855.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>93</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还1427万元，融资余额6.57亿元（11-02）</t>
+          <t>川投能源：融资净偿还635.52万元，融资余额6.5亿元（11-03）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-03 07:29</t>
+          <t>11-04 07:30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,600674,1242321485.html</t>
+          <t>/news,600674,1242813737.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>川投能源11月01日获沪股通增持51.68万股</t>
+          <t>川投能源11月02日被沪股通减持74万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-02 07:51</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,600674,1241801443.html</t>
+          <t>/news,600674,1242326355.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1119.71万元，融资余额6.71亿元（11-01）</t>
+          <t>川投能源：融资净偿还1427万元，融资余额6.57亿元（11-02）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-03 07:29</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,600674,1241800687.html</t>
+          <t>/news,600674,1242321485.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>川投能源10月31日被沪股通减持78.36万股</t>
+          <t>川投能源11月01日获沪股通增持51.68万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-01 07:52</t>
+          <t>11-02 07:51</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,600674,1241297048.html</t>
+          <t>/news,600674,1241801443.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还1371.17万元，融资余额6.6亿元（10-31）</t>
+          <t>川投能源：融资净买入1119.71万元，融资余额6.71亿元（11-01）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-01 07:28</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,600674,1241293200.html</t>
+          <t>/news,600674,1241800687.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,29 +659,29 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>川财证券维持川投能源增持评级 预计2022年净利润同比增长11.76%</t>
+          <t>川投能源10月31日被沪股通减持78.36万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>10-31 22:05</t>
+          <t>11-01 07:52</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,600674,1241253673.html</t>
+          <t>/news,600674,1241297048.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>川财证券给予川投能源增持评级</t>
+          <t>川投能源：融资净偿还1371.17万元，融资余额6.6亿元（10-31）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10-31 22:03</t>
+          <t>11-01 07:28</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,600674,1241261790.html</t>
+          <t>/news,600674,1241293200.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,29 +723,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入2973.07万元，居电力行业板块第八</t>
+          <t>川财证券维持川投能源增持评级 预计2022年净利润同比增长11.76%</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>10-31 22:05</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,600674,1240712918.html</t>
+          <t>/news,600674,1241253673.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,29 +755,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值减少4460.01万元，居电力行业板块第五</t>
+          <t>川财证券给予川投能源增持评级</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10-30 14:08</t>
+          <t>10-31 22:03</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,600674,1240707423.html</t>
+          <t>/news,600674,1241261790.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>383</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,29 +787,29 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>川投能源10月28日被沪股通减持16.12万股</t>
+          <t>川投能源本周融资净买入2973.07万元，居电力行业板块第八</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10-29 07:56</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,600674,1240600933.html</t>
+          <t>/news,600674,1240712918.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,29 +819,29 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净买入累计2728.82万元（10-28）</t>
+          <t>川投能源本周沪股通持股市值减少4460.01万元，居电力行业板块第五</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>10-29 07:33</t>
+          <t>10-30 14:08</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,600674,1240597339.html</t>
+          <t>/news,600674,1240707423.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>426</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>川投能源10月27日被沪股通减持11.71万股</t>
+          <t>川投能源10月28日被沪股通减持16.12万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>10-28 07:42</t>
+          <t>10-29 07:56</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,600674,1240046616.html</t>
+          <t>/news,600674,1240600933.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入499.33万元，融资余额6.68亿元（10-27）</t>
+          <t>川投能源：连续3日融资净买入累计2728.82万元（10-28）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10-28 07:29</t>
+          <t>10-29 07:33</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,600674,1240044380.html</t>
+          <t>/news,600674,1240597339.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>川投能源10月26日被沪股通减持79.49万股</t>
+          <t>川投能源10月27日被沪股通减持11.71万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10-27 07:44</t>
+          <t>10-28 07:42</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,600674,1239496318.html</t>
+          <t>/news,600674,1240046616.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1740.9万元，融资余额6.63亿元（10-26）</t>
+          <t>川投能源：融资净买入499.33万元，融资余额6.68亿元（10-27）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10-27 07:33</t>
+          <t>10-28 07:29</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,600674,1239494829.html</t>
+          <t>/news,600674,1240044380.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>川投能源10月25日被沪股通减持173.77万股</t>
+          <t>川投能源10月26日被沪股通减持79.49万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10-26 07:58</t>
+          <t>10-27 07:44</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,600674,1238970260.html</t>
+          <t>/news,600674,1239496318.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还1821.77万元，融资余额6.46亿元（10-25）</t>
+          <t>川投能源：融资净买入1740.9万元，融资余额6.63亿元（10-26）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-26 07:31</t>
+          <t>10-27 07:33</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,600674,1238965647.html</t>
+          <t>/news,600674,1239494829.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,29 +1043,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>长城证券维持川投能源增持评级 预计2022年净利润同比增长16.75%</t>
+          <t>川投能源10月25日被沪股通减持173.77万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-25 21:21</t>
+          <t>10-26 07:58</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,600674,1238894339.html</t>
+          <t>/news,600674,1238970260.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>首创证券给予川投能源买入评级 来水影响发电量 雅砻江公司成为业绩保障</t>
+          <t>川投能源：融资净偿还1821.77万元，融资余额6.46亿元（10-25）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-25 13:22</t>
+          <t>10-26 07:31</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,600674,1238695111.html</t>
+          <t>/news,600674,1238965647.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>388</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>首创证券维持川投能源买入评级 预计2022年净利润同比增长9.15%</t>
+          <t>长城证券维持川投能源增持评级 预计2022年净利润同比增长16.75%</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-25 13:17</t>
+          <t>10-25 21:21</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,600674,1238689042.html</t>
+          <t>/news,600674,1238894339.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>川投能源10月24日被沪股通减持111.56万股</t>
+          <t>首创证券给予川投能源买入评级 来水影响发电量 雅砻江公司成为业绩保障</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-25 07:47</t>
+          <t>10-25 13:22</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,600674,1238447684.html</t>
+          <t>/news,600674,1238695111.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,29 +1171,29 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>川投能源：连续7日融资净买入累计1.09亿元（10-24）</t>
+          <t>首创证券维持川投能源买入评级 预计2022年净利润同比增长9.15%</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-25 07:29</t>
+          <t>10-25 13:17</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,600674,1238443879.html</t>
+          <t>/news,600674,1238689042.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>国海证券给予川投能源买入评级</t>
+          <t>川投能源10月24日被沪股通减持111.56万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-25 07:08</t>
+          <t>10-25 07:47</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,600674,1238441787.html</t>
+          <t>/news,600674,1238447684.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,29 +1235,29 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>国海证券维持川投能源买入评级 预计2022年净利润同比增长8.05%</t>
+          <t>川投能源：连续7日融资净买入累计1.09亿元（10-24）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-25 06:53</t>
+          <t>10-25 07:29</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,600674,1238440213.html</t>
+          <t>/news,600674,1238443879.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,61 +1267,61 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
+          <t>国海证券给予川投能源买入评级</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-24 09:11</t>
+          <t>10-25 07:08</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,600674,1237928643.html</t>
+          <t>/news,600674,1238441787.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>中国银河给予川投能源推荐评级：雅砻江Q3发电量实现正增长 沿江新能源打开新成长空间</t>
+          <t>国海证券维持川投能源买入评级 预计2022年净利润同比增长8.05%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-24 07:23</t>
+          <t>10-25 06:53</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,600674,1237915624.html</t>
+          <t>/news,600674,1238440213.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,61 +1331,61 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>东吴证券给予川投能源买入评级 自然灾害拖累发电量表现 利润增长主要来自于雅砻江水电</t>
+          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-24 07:09</t>
+          <t>10-24 09:11</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,600674,1237914624.html</t>
+          <t>/news,600674,1237928643.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>中国银河维持川投能源推荐评级 预计2022年净利润同比增长7.02%</t>
+          <t>中国银河给予川投能源推荐评级：雅砻江Q3发电量实现正增长 沿江新能源打开新成长空间</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-24 07:06</t>
+          <t>10-24 07:23</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,600674,1237914166.html</t>
+          <t>/news,600674,1237915624.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,29 +1395,29 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>东吴证券维持川投能源买入评级 预计2022年净利润同比增长14.24%</t>
+          <t>东吴证券给予川投能源买入评级 自然灾害拖累发电量表现 利润增长主要来自于雅砻江水电</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-24 06:30</t>
+          <t>10-24 07:09</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,600674,1237913185.html</t>
+          <t>/news,600674,1237914624.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,29 +1427,29 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入8535.19万元，居电力行业板块第三</t>
+          <t>中国银河维持川投能源推荐评级 预计2022年净利润同比增长7.02%</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-23 15:08</t>
+          <t>10-24 07:06</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,600674,1237864909.html</t>
+          <t>/news,600674,1237914166.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>华泰证券维持川投能源买入评级 目标价14.72元</t>
+          <t>东吴证券维持川投能源买入评级 预计2022年净利润同比增长14.24%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-23 14:10</t>
+          <t>10-24 06:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,600674,1237860794.html</t>
+          <t>/news,600674,1237913185.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>408</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,29 +1491,29 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加4373.88万元，居电力行业板块第八</t>
+          <t>川投能源本周融资净买入8535.19万元，居电力行业板块第三</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-23 14:06</t>
+          <t>10-23 15:08</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,600674,1237860359.html</t>
+          <t>/news,600674,1237864909.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>317</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,29 +1523,29 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>民生证券给予川投能源谨慎推荐评级：缺水、地震接踵而至 雅砻江稳中有增</t>
+          <t>华泰证券维持川投能源买入评级 目标价14.72元</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-23 14:02</t>
+          <t>10-23 14:10</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,600674,1237860656.html</t>
+          <t>/news,600674,1237860794.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>389</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,29 +1555,29 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>民生证券维持川投能源谨慎推荐评级 目标价12.8元</t>
+          <t>川投能源本周沪股通持股市值增加4373.88万元，居电力行业板块第八</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-23 13:05</t>
+          <t>10-23 14:06</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,600674,1237856960.html</t>
+          <t>/news,600674,1237860359.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>412</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>川投能源10月21日获沪股通增持62.34万股</t>
+          <t>民生证券给予川投能源谨慎推荐评级：缺水、地震接踵而至 雅砻江稳中有增</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-22 07:45</t>
+          <t>10-23 14:02</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,600674,1237796375.html</t>
+          <t>/news,600674,1237860656.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,29 +1619,29 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>川投能源：连续6日融资净买入累计8807.37万元（10-21）</t>
+          <t>民生证券维持川投能源谨慎推荐评级 目标价12.8元</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-22 07:33</t>
+          <t>10-23 13:05</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,600674,1237794834.html</t>
+          <t>/news,600674,1237856960.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>【图解季报】川投能源：2022年前三季度归母净利润同比增长5%，约为29.2亿元</t>
+          <t>川投能源10月21日获沪股通增持62.34万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-21 22:10</t>
+          <t>10-22 07:45</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,600674,1237763963.html</t>
+          <t>/news,600674,1237796375.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>788</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>川投能源：前三季度归母净利润29.19亿元</t>
+          <t>川投能源：连续6日融资净买入累计8807.37万元（10-21）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-21 20:03</t>
+          <t>10-22 07:33</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,600674,1237738860.html</t>
+          <t>/news,600674,1237794834.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>川投能源：2022年前三季度净利润约29.19亿元</t>
+          <t>【图解季报】川投能源：2022年前三季度归母净利润同比增长5%，约为29.2亿元</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-21 19:07</t>
+          <t>10-21 22:10</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,600674,1237728875.html</t>
+          <t>/news,600674,1237763963.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>791</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>川投能源股东户数下降8.85%，户均持股151.04万元</t>
+          <t>川投能源：前三季度归母净利润29.19亿元</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-21 18:55</t>
+          <t>10-21 20:03</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,600674,1237726629.html</t>
+          <t>/news,600674,1237738860.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>484</t>
+          <t>409</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,29 +1779,29 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>川投能源：2022年前三季度净利润同比增长5.02%</t>
+          <t>川投能源：2022年前三季度净利润约29.19亿元</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-21 18:49</t>
+          <t>10-21 19:07</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,600674,1237725578.html</t>
+          <t>/news,600674,1237728875.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>川投能源10月20日被沪股通减持148.64万股</t>
+          <t>川投能源股东户数下降8.85%，户均持股151.04万元</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-21 07:48</t>
+          <t>10-21 18:55</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,600674,1237347913.html</t>
+          <t>/news,600674,1237726629.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>503</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,29 +1843,29 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入6385.46万元，创近一年新高（10-20）</t>
+          <t>川投能源：2022年前三季度净利润同比增长5.02%</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-21 07:28</t>
+          <t>10-21 18:49</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,600674,1237344669.html</t>
+          <t>/news,600674,1237725578.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>川投能源10月19日被沪股通减持25.69万股</t>
+          <t>川投能源10月20日被沪股通减持148.64万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-20 07:44</t>
+          <t>10-21 07:48</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,600674,1236888079.html</t>
+          <t>/news,600674,1237347913.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>川投能源：连续4日融资净买入累计1823.92万元（10-19）</t>
+          <t>川投能源：融资净买入6385.46万元，创近一年新高（10-20）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-20 07:29</t>
+          <t>10-21 07:28</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,600674,1236885665.html</t>
+          <t>/news,600674,1237344669.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>天风证券给予川投能源买入评级 雅砻江水电克服汛期来水不利影响 带动前三季度业绩同比+5%</t>
+          <t>川投能源10月19日被沪股通减持25.69万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-19 10:52</t>
+          <t>10-20 07:44</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,600674,1236573020.html</t>
+          <t>/news,600674,1236888079.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,29 +1971,29 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>天风证券维持川投能源买入评级 预计2022年净利润同比增长6.58%</t>
+          <t>川投能源：连续4日融资净买入累计1823.92万元（10-19）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-19 10:45</t>
+          <t>10-20 07:29</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,600674,1236564121.html</t>
+          <t>/news,600674,1236885665.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>386</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净买入累计1122.77万元（10-18）</t>
+          <t>天风证券给予川投能源买入评级 雅砻江水电克服汛期来水不利影响 带动前三季度业绩同比+5%</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-19 07:30</t>
+          <t>10-19 10:52</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,600674,1236436661.html</t>
+          <t>/news,600674,1236573020.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>383</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,29 +2035,29 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>川投能源10月17日获沪股通增持152.96万股</t>
+          <t>天风证券维持川投能源买入评级 预计2022年净利润同比增长6.58%</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-18 07:49</t>
+          <t>10-19 10:45</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,600674,1236042157.html</t>
+          <t>/news,600674,1236564121.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入514.06万元，融资余额5.63亿元（10-17）</t>
+          <t>川投能源：连续3日融资净买入累计1122.77万元（10-18）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-18 07:30</t>
+          <t>10-19 07:30</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,600674,1236039511.html</t>
+          <t>/news,600674,1236436661.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,29 +2099,29 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>中信证券维持川投能源买入评级 目标价14.5元</t>
+          <t>川投能源10月17日获沪股通增持152.96万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-17 16:48</t>
+          <t>10-18 07:49</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,600674,1235939724.html</t>
+          <t>/news,600674,1236042157.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,29 +2131,29 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
+          <t>川投能源：融资净买入514.06万元，融资余额5.63亿元（10-17）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-17 16:32</t>
+          <t>10-18 07:30</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,600674,1235935773.html</t>
+          <t>/news,600674,1236039511.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>478</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,29 +2163,29 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>川投能源本周融资净偿还1157.49万元，居电力行业板块第十一</t>
+          <t>中信证券维持川投能源买入评级 目标价14.5元</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-16 15:07</t>
+          <t>10-17 16:48</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,600674,1235580977.html</t>
+          <t>/news,600674,1235939724.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>468</t>
+          <t>372</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,29 +2195,29 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值减少1159.25万元，居电力行业板块第六</t>
+          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-16 14:05</t>
+          <t>10-17 16:32</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,600674,1235575593.html</t>
+          <t>/news,600674,1235935773.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>527</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,29 +2227,29 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>川投能源10月14日被沪股通减持19.47万股</t>
+          <t>川投能源本周融资净偿还1157.49万元，居电力行业板块第十一</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-15 07:55</t>
+          <t>10-16 15:07</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,600674,1235512220.html</t>
+          <t>/news,600674,1235580977.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>469</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,39 +2259,39 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入272.18万元，融资余额5.58亿元（10-14）</t>
+          <t>川投能源本周沪股通持股市值减少1159.25万元，居电力行业板块第六</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-15 07:33</t>
+          <t>10-16 14:05</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,600674,1235509517.html</t>
+          <t>/news,600674,1235575593.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>569</t>
+          <t>399</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>川投能源：前三季度公司控股电力企业累计完成发电量同比减少11.13%</t>
+          <t>川投能源10月14日被沪股通减持19.47万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-14 20:02</t>
+          <t>10-15 07:55</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,600674,1235433323.html</t>
+          <t>/news,600674,1235512220.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>川投能源：参股公司投资收益增加 前三季度归母净利29.19亿元</t>
+          <t>川投能源：融资净买入272.18万元，融资余额5.58亿元（10-14）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-14 19:42</t>
+          <t>10-15 07:33</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,600674,1235430800.html</t>
+          <t>/news,600674,1235509517.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>570</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>业绩快报：川投能源2022年三季度净利润29.19亿 同比增长5.02%</t>
+          <t>川投能源：前三季度公司控股电力企业累计完成发电量同比减少11.13%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-14 18:18</t>
+          <t>10-14 20:02</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,600674,1235412024.html</t>
+          <t>/news,600674,1235433323.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>599</t>
+          <t>412</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>川投能源：2022年前三季度净利润约29.19亿元 同比增加5.02%</t>
+          <t>川投能源：参股公司投资收益增加 前三季度归母净利29.19亿元</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-14 18:18</t>
+          <t>10-14 19:42</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,600674,1235412584.html</t>
+          <t>/news,600674,1235430800.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>369</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>川投能源10月13日获沪股通增持32.74万股</t>
+          <t>业绩快报：川投能源2022年三季度净利润29.19亿 同比增长5.02%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-14 07:45</t>
+          <t>10-14 18:18</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,600674,1235081459.html</t>
+          <t>/news,600674,1235412024.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>600</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还1199.77万元，融资余额5.56亿元（10-13）</t>
+          <t>川投能源：2022年前三季度净利润约29.19亿元 同比增加5.02%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-14 07:30</t>
+          <t>10-14 18:18</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,600674,1235079068.html</t>
+          <t>/news,600674,1235412584.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>川投能源10月12日被沪股通减持142.78万股</t>
+          <t>川投能源10月13日获沪股通增持32.74万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-13 07:50</t>
+          <t>10-14 07:45</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,600674,1234645656.html</t>
+          <t>/news,600674,1235081459.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还66.98万元，融资余额5.68亿元（10-12）</t>
+          <t>川投能源：融资净偿还1199.77万元，融资余额5.56亿元（10-13）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-13 07:32</t>
+          <t>10-14 07:30</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,600674,1234643058.html</t>
+          <t>/news,600674,1235079068.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>317</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>川投能源10月11日获沪股通增持25.09万股</t>
+          <t>川投能源10月12日被沪股通减持142.78万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-12 07:49</t>
+          <t>10-13 07:50</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,600674,1234212748.html</t>
+          <t>/news,600674,1234645656.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入307.1万元，融资余额5.68亿元（10-11）</t>
+          <t>川投能源：融资净偿还66.98万元，融资余额5.68亿元（10-12）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-12 07:30</t>
+          <t>10-13 07:32</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,600674,1234209738.html</t>
+          <t>/news,600674,1234643058.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还470.03万元，融资余额5.65亿元（10-10）</t>
+          <t>川投能源10月11日获沪股通增持25.09万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,51 +2621,51 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-11 07:30</t>
+          <t>10-12 07:49</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,600674,1233833561.html</t>
+          <t>/news,600674,1234212748.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>386</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入540.96万元，居电力行业板块第十二</t>
+          <t>川投能源：融资净买入307.1万元，融资余额5.68亿元（10-11）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-09 15:06</t>
+          <t>10-12 07:30</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,600674,1233322964.html</t>
+          <t>/news,600674,1234209738.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,29 +2675,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加2136.93万元，居电力行业板块第七</t>
+          <t>川投能源：融资净偿还470.03万元，融资余额5.65亿元（10-10）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-09 14:07</t>
+          <t>10-11 07:30</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,600674,1233317486.html</t>
+          <t>/news,600674,1233833561.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>630</t>
+          <t>609</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,29 +2707,29 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
+          <t>川投能源本周融资净买入540.96万元，居电力行业板块第十二</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-09 10:44</t>
+          <t>10-09 15:06</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,600674,1233306706.html</t>
+          <t>/news,600674,1233322964.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>551</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,29 +2739,29 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>川投能源09月29日获沪股通增持59.74万股</t>
+          <t>川投能源本周沪股通持股市值增加2136.93万元，居电力行业板块第七</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>09-30 07:57</t>
+          <t>10-09 14:07</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,600674,1232537091.html</t>
+          <t>/news,600674,1233317486.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>631</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,29 +2771,29 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1220.55万元，融资余额5.77亿元（09-29）</t>
+          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>09-30 07:35</t>
+          <t>10-09 10:44</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,600674,1232533618.html</t>
+          <t>/news,600674,1233306706.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>610</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>川投能源09月28日被沪股通减持51.15万股</t>
+          <t>川投能源09月29日获沪股通增持59.74万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>09-29 08:00</t>
+          <t>09-30 07:57</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,600674,1232089156.html</t>
+          <t>/news,600674,1232537091.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>592</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还299.06万元，融资余额5.65亿元（09-28）</t>
+          <t>川投能源：融资净买入1220.55万元，融资余额5.77亿元（09-29）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09-29 07:44</t>
+          <t>09-30 07:35</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,600674,1232086841.html</t>
+          <t>/news,600674,1232533618.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>384</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>川投能源09月27日获沪股通增持95.01万股</t>
+          <t>川投能源09月28日被沪股通减持51.15万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09-28 07:47</t>
+          <t>09-29 08:00</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,600674,1231636756.html</t>
+          <t>/news,600674,1232089156.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>396</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入345.86万元，融资余额5.68亿元（09-27）</t>
+          <t>川投能源：融资净偿还299.06万元，融资余额5.65亿元（09-28）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-28 07:29</t>
+          <t>09-29 07:44</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,600674,1231634177.html</t>
+          <t>/news,600674,1232086841.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>884</t>
+          <t>391</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>川投能源：子公司田湾河公司流域6台机组全部恢复并网发电 暂无法确定本次地震造成的损失</t>
+          <t>川投能源09月27日获沪股通增持95.01万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-27 16:36</t>
+          <t>09-28 07:47</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,600674,1231524893.html</t>
+          <t>/news,600674,1231636756.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>779</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>川投能源：田湾河公司流域6台机组全部恢复并网发电</t>
+          <t>川投能源：融资净买入345.86万元，融资余额5.68亿元（09-27）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-27 16:23</t>
+          <t>09-28 07:29</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,600674,1231522022.html</t>
+          <t>/news,600674,1231634177.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>881</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>川投能源09月26日获沪股通增持19.2万股</t>
+          <t>川投能源：子公司田湾河公司流域6台机组全部恢复并网发电 暂无法确定本次地震造成的损失</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-27 07:41</t>
+          <t>09-27 16:36</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,600674,1231246017.html</t>
+          <t>/news,600674,1231524893.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/600674.xlsx
+++ b/news_ann/news/tmp/600674.xlsx
@@ -457,39 +457,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>川投能源11月03日被沪股通减持82.42万股</t>
+          <t>川投能源本周融资净偿还2823.08万元，居电力行业板块第二</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-04 07:47</t>
+          <t>11-06 15:20</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,600674,1242816855.html</t>
+          <t>/news,600674,1243413079.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,29 +499,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还635.52万元，融资余额6.5亿元（11-03）</t>
+          <t>沪股通连续2周净卖出川投能源 累计净卖出6599.4万元</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-04 07:30</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,600674,1242813737.html</t>
+          <t>/news,600674,1243404704.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>川投能源11月02日被沪股通减持74万股</t>
+          <t>川投能源：连续3日融资净偿还累计2571.62万元（11-04）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-05 07:40</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,600674,1242326355.html</t>
+          <t>/news,600674,1243317219.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>396</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还1427万元，融资余额6.57亿元（11-02）</t>
+          <t>川投能源11月03日被沪股通减持82.42万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-03 07:29</t>
+          <t>11-04 07:47</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,600674,1242321485.html</t>
+          <t>/news,600674,1242816855.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>川投能源11月01日获沪股通增持51.68万股</t>
+          <t>川投能源：融资净偿还635.52万元，融资余额6.5亿元（11-03）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-02 07:51</t>
+          <t>11-04 07:30</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,600674,1241801443.html</t>
+          <t>/news,600674,1242813737.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1119.71万元，融资余额6.71亿元（11-01）</t>
+          <t>川投能源11月02日被沪股通减持74万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,600674,1241800687.html</t>
+          <t>/news,600674,1242326355.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>川投能源10月31日被沪股通减持78.36万股</t>
+          <t>川投能源：融资净偿还1427万元，融资余额6.57亿元（11-02）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-01 07:52</t>
+          <t>11-03 07:29</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,600674,1241297048.html</t>
+          <t>/news,600674,1242321485.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还1371.17万元，融资余额6.6亿元（10-31）</t>
+          <t>川投能源11月01日获沪股通增持51.68万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-01 07:28</t>
+          <t>11-02 07:51</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,600674,1241293200.html</t>
+          <t>/news,600674,1241801443.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,29 +723,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>川财证券维持川投能源增持评级 预计2022年净利润同比增长11.76%</t>
+          <t>川投能源：融资净买入1119.71万元，融资余额6.71亿元（11-01）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10-31 22:05</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,600674,1241253673.html</t>
+          <t>/news,600674,1241800687.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>川财证券给予川投能源增持评级</t>
+          <t>川投能源10月31日被沪股通减持78.36万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10-31 22:03</t>
+          <t>11-01 07:52</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,600674,1241261790.html</t>
+          <t>/news,600674,1241297048.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,29 +787,29 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入2973.07万元，居电力行业板块第八</t>
+          <t>川投能源：融资净偿还1371.17万元，融资余额6.6亿元（10-31）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>11-01 07:28</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,600674,1240712918.html</t>
+          <t>/news,600674,1241293200.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,29 +819,29 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值减少4460.01万元，居电力行业板块第五</t>
+          <t>川财证券维持川投能源增持评级 预计2022年净利润同比增长11.76%</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>10-30 14:08</t>
+          <t>10-31 22:05</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,600674,1240707423.html</t>
+          <t>/news,600674,1241253673.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>川投能源10月28日被沪股通减持16.12万股</t>
+          <t>川财证券给予川投能源增持评级</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>10-29 07:56</t>
+          <t>10-31 22:03</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,600674,1240600933.html</t>
+          <t>/news,600674,1241261790.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>470</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,29 +883,29 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净买入累计2728.82万元（10-28）</t>
+          <t>川投能源本周融资净买入2973.07万元，居电力行业板块第八</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10-29 07:33</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,600674,1240597339.html</t>
+          <t>/news,600674,1240712918.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,29 +915,29 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>川投能源10月27日被沪股通减持11.71万股</t>
+          <t>川投能源本周沪股通持股市值减少4460.01万元，居电力行业板块第五</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10-28 07:42</t>
+          <t>10-30 14:08</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,600674,1240046616.html</t>
+          <t>/news,600674,1240707423.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入499.33万元，融资余额6.68亿元（10-27）</t>
+          <t>川投能源10月28日被沪股通减持16.12万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10-28 07:29</t>
+          <t>10-29 07:56</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,600674,1240044380.html</t>
+          <t>/news,600674,1240600933.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>川投能源10月26日被沪股通减持79.49万股</t>
+          <t>川投能源：连续3日融资净买入累计2728.82万元（10-28）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10-27 07:44</t>
+          <t>10-29 07:33</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,600674,1239496318.html</t>
+          <t>/news,600674,1240597339.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1740.9万元，融资余额6.63亿元（10-26）</t>
+          <t>川投能源10月27日被沪股通减持11.71万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-27 07:33</t>
+          <t>10-28 07:42</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,600674,1239494829.html</t>
+          <t>/news,600674,1240046616.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>川投能源10月25日被沪股通减持173.77万股</t>
+          <t>川投能源：融资净买入499.33万元，融资余额6.68亿元（10-27）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-26 07:58</t>
+          <t>10-28 07:29</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,600674,1238970260.html</t>
+          <t>/news,600674,1240044380.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还1821.77万元，融资余额6.46亿元（10-25）</t>
+          <t>川投能源10月26日被沪股通减持79.49万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-26 07:31</t>
+          <t>10-27 07:44</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,600674,1238965647.html</t>
+          <t>/news,600674,1239496318.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,29 +1107,29 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>长城证券维持川投能源增持评级 预计2022年净利润同比增长16.75%</t>
+          <t>川投能源：融资净买入1740.9万元，融资余额6.63亿元（10-26）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-25 21:21</t>
+          <t>10-27 07:33</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,600674,1238894339.html</t>
+          <t>/news,600674,1239494829.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>首创证券给予川投能源买入评级 来水影响发电量 雅砻江公司成为业绩保障</t>
+          <t>川投能源10月25日被沪股通减持173.77万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-25 13:22</t>
+          <t>10-26 07:58</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,600674,1238695111.html</t>
+          <t>/news,600674,1238970260.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,29 +1171,29 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>首创证券维持川投能源买入评级 预计2022年净利润同比增长9.15%</t>
+          <t>川投能源：融资净偿还1821.77万元，融资余额6.46亿元（10-25）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-25 13:17</t>
+          <t>10-26 07:31</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,600674,1238689042.html</t>
+          <t>/news,600674,1238965647.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>471</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,29 +1203,29 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>川投能源10月24日被沪股通减持111.56万股</t>
+          <t>长城证券维持川投能源增持评级 预计2022年净利润同比增长16.75%</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-25 07:47</t>
+          <t>10-25 21:21</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,600674,1238447684.html</t>
+          <t>/news,600674,1238894339.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>川投能源：连续7日融资净买入累计1.09亿元（10-24）</t>
+          <t>首创证券给予川投能源买入评级 来水影响发电量 雅砻江公司成为业绩保障</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-25 07:29</t>
+          <t>10-25 13:22</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,600674,1238443879.html</t>
+          <t>/news,600674,1238695111.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>412</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,29 +1267,29 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>国海证券给予川投能源买入评级</t>
+          <t>首创证券维持川投能源买入评级 预计2022年净利润同比增长9.15%</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-25 07:08</t>
+          <t>10-25 13:17</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,600674,1238441787.html</t>
+          <t>/news,600674,1238689042.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,29 +1299,29 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>国海证券维持川投能源买入评级 预计2022年净利润同比增长8.05%</t>
+          <t>川投能源10月24日被沪股通减持111.56万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-25 06:53</t>
+          <t>10-25 07:47</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,600674,1238440213.html</t>
+          <t>/news,600674,1238447684.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,39 +1331,39 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
+          <t>川投能源：连续7日融资净买入累计1.09亿元（10-24）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-24 09:11</t>
+          <t>10-25 07:29</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,600674,1237928643.html</t>
+          <t>/news,600674,1238443879.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>中国银河给予川投能源推荐评级：雅砻江Q3发电量实现正增长 沿江新能源打开新成长空间</t>
+          <t>国海证券给予川投能源买入评级</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-24 07:23</t>
+          <t>10-25 07:08</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,600674,1237915624.html</t>
+          <t>/news,600674,1238441787.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,29 +1395,29 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>东吴证券给予川投能源买入评级 自然灾害拖累发电量表现 利润增长主要来自于雅砻江水电</t>
+          <t>国海证券维持川投能源买入评级 预计2022年净利润同比增长8.05%</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-24 07:09</t>
+          <t>10-25 06:53</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,600674,1237914624.html</t>
+          <t>/news,600674,1238440213.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>317</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>中国银河维持川投能源推荐评级 预计2022年净利润同比增长7.02%</t>
+          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,51 +1437,51 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-24 07:06</t>
+          <t>10-24 09:11</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,600674,1237914166.html</t>
+          <t>/news,600674,1237928643.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>东吴证券维持川投能源买入评级 预计2022年净利润同比增长14.24%</t>
+          <t>中国银河给予川投能源推荐评级：雅砻江Q3发电量实现正增长 沿江新能源打开新成长空间</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-24 06:30</t>
+          <t>10-24 07:23</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,600674,1237913185.html</t>
+          <t>/news,600674,1237915624.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,29 +1491,29 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入8535.19万元，居电力行业板块第三</t>
+          <t>东吴证券给予川投能源买入评级 自然灾害拖累发电量表现 利润增长主要来自于雅砻江水电</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-23 15:08</t>
+          <t>10-24 07:09</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,600674,1237864909.html</t>
+          <t>/news,600674,1237914624.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>华泰证券维持川投能源买入评级 目标价14.72元</t>
+          <t>中国银河维持川投能源推荐评级 预计2022年净利润同比增长7.02%</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-23 14:10</t>
+          <t>10-24 07:06</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,600674,1237860794.html</t>
+          <t>/news,600674,1237914166.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,22 +1555,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加4373.88万元，居电力行业板块第八</t>
+          <t>东吴证券维持川投能源买入评级 预计2022年净利润同比增长14.24%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-23 14:06</t>
+          <t>10-24 06:30</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,600674,1237860359.html</t>
+          <t>/news,600674,1237913185.html</t>
         </is>
       </c>
     </row>
@@ -1587,29 +1587,29 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>民生证券给予川投能源谨慎推荐评级：缺水、地震接踵而至 雅砻江稳中有增</t>
+          <t>川投能源本周融资净买入8535.19万元，居电力行业板块第三</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-23 14:02</t>
+          <t>10-23 15:08</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,600674,1237860656.html</t>
+          <t>/news,600674,1237864909.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>民生证券维持川投能源谨慎推荐评级 目标价12.8元</t>
+          <t>华泰证券维持川投能源买入评级 目标价14.72元</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-23 13:05</t>
+          <t>10-23 14:10</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,600674,1237856960.html</t>
+          <t>/news,600674,1237860794.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>393</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,29 +1651,29 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>川投能源10月21日获沪股通增持62.34万股</t>
+          <t>川投能源本周沪股通持股市值增加4373.88万元，居电力行业板块第八</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-22 07:45</t>
+          <t>10-23 14:06</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,600674,1237796375.html</t>
+          <t>/news,600674,1237860359.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>川投能源：连续6日融资净买入累计8807.37万元（10-21）</t>
+          <t>民生证券给予川投能源谨慎推荐评级：缺水、地震接踵而至 雅砻江稳中有增</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-22 07:33</t>
+          <t>10-23 14:02</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,600674,1237794834.html</t>
+          <t>/news,600674,1237860656.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>334</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,39 +1715,39 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>【图解季报】川投能源：2022年前三季度归母净利润同比增长5%，约为29.2亿元</t>
+          <t>民生证券维持川投能源谨慎推荐评级 目标价12.8元</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-21 22:10</t>
+          <t>10-23 13:05</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,600674,1237763963.html</t>
+          <t>/news,600674,1237856960.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>791</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>川投能源：前三季度归母净利润29.19亿元</t>
+          <t>川投能源10月21日获沪股通增持62.34万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-21 20:03</t>
+          <t>10-22 07:45</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,600674,1237738860.html</t>
+          <t>/news,600674,1237796375.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>309</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>川投能源：2022年前三季度净利润约29.19亿元</t>
+          <t>川投能源：连续6日融资净买入累计8807.37万元（10-21）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-21 19:07</t>
+          <t>10-22 07:33</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,600674,1237728875.html</t>
+          <t>/news,600674,1237794834.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>380</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>川投能源股东户数下降8.85%，户均持股151.04万元</t>
+          <t>【图解季报】川投能源：2022年前三季度归母净利润同比增长5%，约为29.2亿元</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,51 +1821,51 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-21 18:55</t>
+          <t>10-21 22:10</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,600674,1237726629.html</t>
+          <t>/news,600674,1237763963.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>797</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>川投能源：2022年前三季度净利润同比增长5.02%</t>
+          <t>川投能源：前三季度归母净利润29.19亿元</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-21 18:49</t>
+          <t>10-21 20:03</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,600674,1237725578.html</t>
+          <t>/news,600674,1237738860.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>422</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>川投能源10月20日被沪股通减持148.64万股</t>
+          <t>川投能源：2022年前三季度净利润约29.19亿元</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-21 07:48</t>
+          <t>10-21 19:07</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,600674,1237347913.html</t>
+          <t>/news,600674,1237728875.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入6385.46万元，创近一年新高（10-20）</t>
+          <t>川投能源股东户数下降8.85%，户均持股151.04万元</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-21 07:28</t>
+          <t>10-21 18:55</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,600674,1237344669.html</t>
+          <t>/news,600674,1237726629.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>512</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,29 +1939,29 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>川投能源10月19日被沪股通减持25.69万股</t>
+          <t>川投能源：2022年前三季度净利润同比增长5.02%</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-20 07:44</t>
+          <t>10-21 18:49</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,600674,1236888079.html</t>
+          <t>/news,600674,1237725578.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>川投能源：连续4日融资净买入累计1823.92万元（10-19）</t>
+          <t>川投能源10月20日被沪股通减持148.64万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-20 07:29</t>
+          <t>10-21 07:48</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,600674,1236885665.html</t>
+          <t>/news,600674,1237347913.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>天风证券给予川投能源买入评级 雅砻江水电克服汛期来水不利影响 带动前三季度业绩同比+5%</t>
+          <t>川投能源：融资净买入6385.46万元，创近一年新高（10-20）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-19 10:52</t>
+          <t>10-21 07:28</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,600674,1236573020.html</t>
+          <t>/news,600674,1237344669.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,29 +2035,29 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>天风证券维持川投能源买入评级 预计2022年净利润同比增长6.58%</t>
+          <t>川投能源10月19日被沪股通减持25.69万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-19 10:45</t>
+          <t>10-20 07:44</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,600674,1236564121.html</t>
+          <t>/news,600674,1236888079.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净买入累计1122.77万元（10-18）</t>
+          <t>川投能源：连续4日融资净买入累计1823.92万元（10-19）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-19 07:30</t>
+          <t>10-20 07:29</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,600674,1236436661.html</t>
+          <t>/news,600674,1236885665.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>391</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>川投能源10月17日获沪股通增持152.96万股</t>
+          <t>天风证券给予川投能源买入评级 雅砻江水电克服汛期来水不利影响 带动前三季度业绩同比+5%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-18 07:49</t>
+          <t>10-19 10:52</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,600674,1236042157.html</t>
+          <t>/news,600674,1236573020.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>389</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,29 +2131,29 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入514.06万元，融资余额5.63亿元（10-17）</t>
+          <t>天风证券维持川投能源买入评级 预计2022年净利润同比增长6.58%</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-18 07:30</t>
+          <t>10-19 10:45</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,600674,1236039511.html</t>
+          <t>/news,600674,1236564121.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,29 +2163,29 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>中信证券维持川投能源买入评级 目标价14.5元</t>
+          <t>川投能源：连续3日融资净买入累计1122.77万元（10-18）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-17 16:48</t>
+          <t>10-19 07:30</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,600674,1235939724.html</t>
+          <t>/news,600674,1236436661.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,29 +2195,29 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
+          <t>川投能源10月17日获沪股通增持152.96万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-17 16:32</t>
+          <t>10-18 07:49</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,600674,1235935773.html</t>
+          <t>/news,600674,1236042157.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,29 +2227,29 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>川投能源本周融资净偿还1157.49万元，居电力行业板块第十一</t>
+          <t>川投能源：融资净买入514.06万元，融资余额5.63亿元（10-17）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-16 15:07</t>
+          <t>10-18 07:30</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,600674,1235580977.html</t>
+          <t>/news,600674,1236039511.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>487</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,29 +2259,29 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值减少1159.25万元，居电力行业板块第六</t>
+          <t>中信证券维持川投能源买入评级 目标价14.5元</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-16 14:05</t>
+          <t>10-17 16:48</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,600674,1235575593.html</t>
+          <t>/news,600674,1235939724.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,29 +2291,29 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>川投能源10月14日被沪股通减持19.47万股</t>
+          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-15 07:55</t>
+          <t>10-17 16:32</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,600674,1235512220.html</t>
+          <t>/news,600674,1235935773.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>531</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,71 +2323,71 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入272.18万元，融资余额5.58亿元（10-14）</t>
+          <t>川投能源本周融资净偿还1157.49万元，居电力行业板块第十一</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-15 07:33</t>
+          <t>10-16 15:07</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,600674,1235509517.html</t>
+          <t>/news,600674,1235580977.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>475</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>川投能源：前三季度公司控股电力企业累计完成发电量同比减少11.13%</t>
+          <t>川投能源本周沪股通持股市值减少1159.25万元，居电力行业板块第六</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-14 20:02</t>
+          <t>10-16 14:05</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,600674,1235433323.html</t>
+          <t>/news,600674,1235575593.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>川投能源：参股公司投资收益增加 前三季度归母净利29.19亿元</t>
+          <t>川投能源10月14日被沪股通减持19.47万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-14 19:42</t>
+          <t>10-15 07:55</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,600674,1235430800.html</t>
+          <t>/news,600674,1235512220.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>业绩快报：川投能源2022年三季度净利润29.19亿 同比增长5.02%</t>
+          <t>川投能源：融资净买入272.18万元，融资余额5.58亿元（10-14）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-14 18:18</t>
+          <t>10-15 07:33</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,600674,1235412024.html</t>
+          <t>/news,600674,1235509517.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>573</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>川投能源：2022年前三季度净利润约29.19亿元 同比增加5.02%</t>
+          <t>川投能源：前三季度公司控股电力企业累计完成发电量同比减少11.13%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-14 18:18</t>
+          <t>10-14 20:02</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,600674,1235412584.html</t>
+          <t>/news,600674,1235433323.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>川投能源10月13日获沪股通增持32.74万股</t>
+          <t>川投能源：参股公司投资收益增加 前三季度归母净利29.19亿元</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-14 07:45</t>
+          <t>10-14 19:42</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,600674,1235081459.html</t>
+          <t>/news,600674,1235430800.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>379</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还1199.77万元，融资余额5.56亿元（10-13）</t>
+          <t>业绩快报：川投能源2022年三季度净利润29.19亿 同比增长5.02%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-14 07:30</t>
+          <t>10-14 18:18</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,600674,1235079068.html</t>
+          <t>/news,600674,1235412024.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>611</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>川投能源10月12日被沪股通减持142.78万股</t>
+          <t>川投能源：2022年前三季度净利润约29.19亿元 同比增加5.02%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-13 07:50</t>
+          <t>10-14 18:18</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,600674,1234645656.html</t>
+          <t>/news,600674,1235412584.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还66.98万元，融资余额5.68亿元（10-12）</t>
+          <t>川投能源10月13日获沪股通增持32.74万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-13 07:32</t>
+          <t>10-14 07:45</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,600674,1234643058.html</t>
+          <t>/news,600674,1235081459.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>川投能源10月11日获沪股通增持25.09万股</t>
+          <t>川投能源：融资净偿还1199.77万元，融资余额5.56亿元（10-13）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-12 07:49</t>
+          <t>10-14 07:30</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,600674,1234212748.html</t>
+          <t>/news,600674,1235079068.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入307.1万元，融资余额5.68亿元（10-11）</t>
+          <t>川投能源10月12日被沪股通减持142.78万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-12 07:30</t>
+          <t>10-13 07:50</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,600674,1234209738.html</t>
+          <t>/news,600674,1234645656.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还470.03万元，融资余额5.65亿元（10-10）</t>
+          <t>川投能源：融资净偿还66.98万元，融资余额5.68亿元（10-12）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-11 07:30</t>
+          <t>10-13 07:32</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,600674,1233833561.html</t>
+          <t>/news,600674,1234643058.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>609</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,61 +2707,61 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入540.96万元，居电力行业板块第十二</t>
+          <t>川投能源10月11日获沪股通增持25.09万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-09 15:06</t>
+          <t>10-12 07:49</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,600674,1233322964.html</t>
+          <t>/news,600674,1234212748.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>551</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加2136.93万元，居电力行业板块第七</t>
+          <t>川投能源：融资净买入307.1万元，融资余额5.68亿元（10-11）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-09 14:07</t>
+          <t>10-12 07:30</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,600674,1233317486.html</t>
+          <t>/news,600674,1234209738.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>631</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,29 +2771,29 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
+          <t>川投能源：融资净偿还470.03万元，融资余额5.65亿元（10-10）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-09 10:44</t>
+          <t>10-11 07:30</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,600674,1233306706.html</t>
+          <t>/news,600674,1233833561.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>610</t>
+          <t>613</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,29 +2803,29 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>川投能源09月29日获沪股通增持59.74万股</t>
+          <t>川投能源本周融资净买入540.96万元，居电力行业板块第十二</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>09-30 07:57</t>
+          <t>10-09 15:06</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,600674,1232537091.html</t>
+          <t>/news,600674,1233322964.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>554</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,29 +2835,29 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1220.55万元，融资余额5.77亿元（09-29）</t>
+          <t>川投能源本周沪股通持股市值增加2136.93万元，居电力行业板块第七</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09-30 07:35</t>
+          <t>10-09 14:07</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,600674,1232533618.html</t>
+          <t>/news,600674,1233317486.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>634</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,29 +2867,29 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>川投能源09月28日被沪股通减持51.15万股</t>
+          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09-29 08:00</t>
+          <t>10-09 10:44</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,600674,1232089156.html</t>
+          <t>/news,600674,1233306706.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>611</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还299.06万元，融资余额5.65亿元（09-28）</t>
+          <t>川投能源09月29日获沪股通增持59.74万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-29 07:44</t>
+          <t>09-30 07:57</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,600674,1232086841.html</t>
+          <t>/news,600674,1232537091.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>599</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>川投能源09月27日获沪股通增持95.01万股</t>
+          <t>川投能源：融资净买入1220.55万元，融资余额5.77亿元（09-29）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-28 07:47</t>
+          <t>09-30 07:35</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,600674,1231636756.html</t>
+          <t>/news,600674,1232533618.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>388</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入345.86万元，融资余额5.68亿元（09-27）</t>
+          <t>川投能源09月28日被沪股通减持51.15万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-28 07:29</t>
+          <t>09-29 08:00</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,600674,1231634177.html</t>
+          <t>/news,600674,1232089156.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>881</t>
+          <t>397</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>川投能源：子公司田湾河公司流域6台机组全部恢复并网发电 暂无法确定本次地震造成的损失</t>
+          <t>川投能源：融资净偿还299.06万元，融资余额5.65亿元（09-28）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-27 16:36</t>
+          <t>09-29 07:44</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,600674,1231524893.html</t>
+          <t>/news,600674,1232086841.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/600674.xlsx
+++ b/news_ann/news/tmp/600674.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>118</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,29 +467,29 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>川投能源本周融资净偿还2823.08万元，居电力行业板块第二</t>
+          <t>川投能源11月07日获沪股通增持11.99万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-06 15:20</t>
+          <t>11-08 07:50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,600674,1243413079.html</t>
+          <t>/news,600674,1243974523.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>113</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,22 +499,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>沪股通连续2周净卖出川投能源 累计净卖出6599.4万元</t>
+          <t>川投能源：融资净买入1002.96万元，融资余额6.55亿元（11-07）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-08 07:29</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,600674,1243404704.html</t>
+          <t>/news,600674,1243971057.html</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净偿还累计2571.62万元（11-04）</t>
+          <t>川投能源：公司及控股子公司之间的担保余额共计约2.89亿元</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,44 +541,44 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-05 07:40</t>
+          <t>11-07 16:50</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,600674,1243317219.html</t>
+          <t>/news,600674,1243839821.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>川投能源11月03日被沪股通减持82.42万股</t>
+          <t>川投能源本周融资净偿还2823.08万元，居电力行业板块第二</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-04 07:47</t>
+          <t>11-06 15:20</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,600674,1242816855.html</t>
+          <t>/news,600674,1243413079.html</t>
         </is>
       </c>
     </row>
@@ -595,29 +595,29 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还635.52万元，融资余额6.5亿元（11-03）</t>
+          <t>沪股通连续2周净卖出川投能源 累计净卖出6599.4万元</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-04 07:30</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,600674,1242813737.html</t>
+          <t>/news,600674,1243404704.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>川投能源11月02日被沪股通减持74万股</t>
+          <t>川投能源：连续3日融资净偿还累计2571.62万元（11-04）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-05 07:40</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,600674,1242326355.html</t>
+          <t>/news,600674,1243317219.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>407</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还1427万元，融资余额6.57亿元（11-02）</t>
+          <t>川投能源11月03日被沪股通减持82.42万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-03 07:29</t>
+          <t>11-04 07:47</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,600674,1242321485.html</t>
+          <t>/news,600674,1242816855.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>川投能源11月01日获沪股通增持51.68万股</t>
+          <t>川投能源：融资净偿还635.52万元，融资余额6.5亿元（11-03）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-02 07:51</t>
+          <t>11-04 07:30</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,600674,1241801443.html</t>
+          <t>/news,600674,1242813737.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1119.71万元，融资余额6.71亿元（11-01）</t>
+          <t>川投能源11月02日被沪股通减持74万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,600674,1241800687.html</t>
+          <t>/news,600674,1242326355.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>川投能源10月31日被沪股通减持78.36万股</t>
+          <t>川投能源：融资净偿还1427万元，融资余额6.57亿元（11-02）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-01 07:52</t>
+          <t>11-03 07:29</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,600674,1241297048.html</t>
+          <t>/news,600674,1242321485.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还1371.17万元，融资余额6.6亿元（10-31）</t>
+          <t>川投能源11月01日获沪股通增持51.68万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-01 07:28</t>
+          <t>11-02 07:51</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,600674,1241293200.html</t>
+          <t>/news,600674,1241801443.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,29 +819,29 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>川财证券维持川投能源增持评级 预计2022年净利润同比增长11.76%</t>
+          <t>川投能源：融资净买入1119.71万元，融资余额6.71亿元（11-01）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>10-31 22:05</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,600674,1241253673.html</t>
+          <t>/news,600674,1241800687.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>川财证券给予川投能源增持评级</t>
+          <t>川投能源10月31日被沪股通减持78.36万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>10-31 22:03</t>
+          <t>11-01 07:52</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,600674,1241261790.html</t>
+          <t>/news,600674,1241297048.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>470</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,29 +883,29 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入2973.07万元，居电力行业板块第八</t>
+          <t>川投能源：融资净偿还1371.17万元，融资余额6.6亿元（10-31）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>11-01 07:28</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,600674,1240712918.html</t>
+          <t>/news,600674,1241293200.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,29 +915,29 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值减少4460.01万元，居电力行业板块第五</t>
+          <t>川财证券维持川投能源增持评级 预计2022年净利润同比增长11.76%</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10-30 14:08</t>
+          <t>10-31 22:05</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,600674,1240707423.html</t>
+          <t>/news,600674,1241253673.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>川投能源10月28日被沪股通减持16.12万股</t>
+          <t>川财证券给予川投能源增持评级</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10-29 07:56</t>
+          <t>10-31 22:03</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,600674,1240600933.html</t>
+          <t>/news,600674,1241261790.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>487</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,29 +979,29 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净买入累计2728.82万元（10-28）</t>
+          <t>川投能源本周融资净买入2973.07万元，居电力行业板块第八</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10-29 07:33</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,600674,1240597339.html</t>
+          <t>/news,600674,1240712918.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>394</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,29 +1011,29 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>川投能源10月27日被沪股通减持11.71万股</t>
+          <t>川投能源本周沪股通持股市值减少4460.01万元，居电力行业板块第五</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-28 07:42</t>
+          <t>10-30 14:08</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,600674,1240046616.html</t>
+          <t>/news,600674,1240707423.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入499.33万元，融资余额6.68亿元（10-27）</t>
+          <t>川投能源10月28日被沪股通减持16.12万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-28 07:29</t>
+          <t>10-29 07:56</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,600674,1240044380.html</t>
+          <t>/news,600674,1240600933.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>川投能源10月26日被沪股通减持79.49万股</t>
+          <t>川投能源：连续3日融资净买入累计2728.82万元（10-28）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-27 07:44</t>
+          <t>10-29 07:33</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,600674,1239496318.html</t>
+          <t>/news,600674,1240597339.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1740.9万元，融资余额6.63亿元（10-26）</t>
+          <t>川投能源10月27日被沪股通减持11.71万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-27 07:33</t>
+          <t>10-28 07:42</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,600674,1239494829.html</t>
+          <t>/news,600674,1240046616.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>川投能源10月25日被沪股通减持173.77万股</t>
+          <t>川投能源：融资净买入499.33万元，融资余额6.68亿元（10-27）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-26 07:58</t>
+          <t>10-28 07:29</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,600674,1238970260.html</t>
+          <t>/news,600674,1240044380.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还1821.77万元，融资余额6.46亿元（10-25）</t>
+          <t>川投能源10月26日被沪股通减持79.49万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-26 07:31</t>
+          <t>10-27 07:44</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,600674,1238965647.html</t>
+          <t>/news,600674,1239496318.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>471</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,29 +1203,29 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>长城证券维持川投能源增持评级 预计2022年净利润同比增长16.75%</t>
+          <t>川投能源：融资净买入1740.9万元，融资余额6.63亿元（10-26）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-25 21:21</t>
+          <t>10-27 07:33</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,600674,1238894339.html</t>
+          <t>/news,600674,1239494829.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>首创证券给予川投能源买入评级 来水影响发电量 雅砻江公司成为业绩保障</t>
+          <t>川投能源10月25日被沪股通减持173.77万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-25 13:22</t>
+          <t>10-26 07:58</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,600674,1238695111.html</t>
+          <t>/news,600674,1238970260.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,29 +1267,29 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>首创证券维持川投能源买入评级 预计2022年净利润同比增长9.15%</t>
+          <t>川投能源：融资净偿还1821.77万元，融资余额6.46亿元（10-25）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-25 13:17</t>
+          <t>10-26 07:31</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,600674,1238689042.html</t>
+          <t>/news,600674,1238965647.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>474</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,29 +1299,29 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>川投能源10月24日被沪股通减持111.56万股</t>
+          <t>长城证券维持川投能源增持评级 预计2022年净利润同比增长16.75%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-25 07:47</t>
+          <t>10-25 21:21</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,600674,1238447684.html</t>
+          <t>/news,600674,1238894339.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>366</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>川投能源：连续7日融资净买入累计1.09亿元（10-24）</t>
+          <t>首创证券给予川投能源买入评级 来水影响发电量 雅砻江公司成为业绩保障</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-25 07:29</t>
+          <t>10-25 13:22</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,600674,1238443879.html</t>
+          <t>/news,600674,1238695111.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,29 +1363,29 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>国海证券给予川投能源买入评级</t>
+          <t>首创证券维持川投能源买入评级 预计2022年净利润同比增长9.15%</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-25 07:08</t>
+          <t>10-25 13:17</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,600674,1238441787.html</t>
+          <t>/news,600674,1238689042.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,29 +1395,29 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>国海证券维持川投能源买入评级 预计2022年净利润同比增长8.05%</t>
+          <t>川投能源10月24日被沪股通减持111.56万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-25 06:53</t>
+          <t>10-25 07:47</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,600674,1238440213.html</t>
+          <t>/news,600674,1238447684.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,39 +1427,39 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
+          <t>川投能源：连续7日融资净买入累计1.09亿元（10-24）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-24 09:11</t>
+          <t>10-25 07:29</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,600674,1237928643.html</t>
+          <t>/news,600674,1238443879.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>中国银河给予川投能源推荐评级：雅砻江Q3发电量实现正增长 沿江新能源打开新成长空间</t>
+          <t>国海证券给予川投能源买入评级</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-24 07:23</t>
+          <t>10-25 07:08</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,600674,1237915624.html</t>
+          <t>/news,600674,1238441787.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,29 +1491,29 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>东吴证券给予川投能源买入评级 自然灾害拖累发电量表现 利润增长主要来自于雅砻江水电</t>
+          <t>国海证券维持川投能源买入评级 预计2022年净利润同比增长8.05%</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-24 07:09</t>
+          <t>10-25 06:53</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,600674,1237914624.html</t>
+          <t>/news,600674,1238440213.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>中国银河维持川投能源推荐评级 预计2022年净利润同比增长7.02%</t>
+          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,51 +1533,51 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-24 07:06</t>
+          <t>10-24 09:11</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,600674,1237914166.html</t>
+          <t>/news,600674,1237928643.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>419</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>东吴证券维持川投能源买入评级 预计2022年净利润同比增长14.24%</t>
+          <t>中国银河给予川投能源推荐评级：雅砻江Q3发电量实现正增长 沿江新能源打开新成长空间</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-24 06:30</t>
+          <t>10-24 07:23</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,600674,1237913185.html</t>
+          <t>/news,600674,1237915624.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,29 +1587,29 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入8535.19万元，居电力行业板块第三</t>
+          <t>东吴证券给予川投能源买入评级 自然灾害拖累发电量表现 利润增长主要来自于雅砻江水电</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-23 15:08</t>
+          <t>10-24 07:09</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,600674,1237864909.html</t>
+          <t>/news,600674,1237914624.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>华泰证券维持川投能源买入评级 目标价14.72元</t>
+          <t>中国银河维持川投能源推荐评级 预计2022年净利润同比增长7.02%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-23 14:10</t>
+          <t>10-24 07:06</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,600674,1237860794.html</t>
+          <t>/news,600674,1237914166.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,29 +1651,29 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加4373.88万元，居电力行业板块第八</t>
+          <t>东吴证券维持川投能源买入评级 预计2022年净利润同比增长14.24%</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-23 14:06</t>
+          <t>10-24 06:30</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,600674,1237860359.html</t>
+          <t>/news,600674,1237913185.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>416</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,29 +1683,29 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>民生证券给予川投能源谨慎推荐评级：缺水、地震接踵而至 雅砻江稳中有增</t>
+          <t>川投能源本周融资净买入8535.19万元，居电力行业板块第三</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-23 14:02</t>
+          <t>10-23 15:08</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,600674,1237860656.html</t>
+          <t>/news,600674,1237864909.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>327</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>民生证券维持川投能源谨慎推荐评级 目标价12.8元</t>
+          <t>华泰证券维持川投能源买入评级 目标价14.72元</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-23 13:05</t>
+          <t>10-23 14:10</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,600674,1237856960.html</t>
+          <t>/news,600674,1237860794.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>398</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,29 +1747,29 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>川投能源10月21日获沪股通增持62.34万股</t>
+          <t>川投能源本周沪股通持股市值增加4373.88万元，居电力行业板块第八</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-22 07:45</t>
+          <t>10-23 14:06</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,600674,1237796375.html</t>
+          <t>/news,600674,1237860359.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>421</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>川投能源：连续6日融资净买入累计8807.37万元（10-21）</t>
+          <t>民生证券给予川投能源谨慎推荐评级：缺水、地震接踵而至 雅砻江稳中有增</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-22 07:33</t>
+          <t>10-23 14:02</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,600674,1237794834.html</t>
+          <t>/news,600674,1237860656.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,39 +1811,39 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>【图解季报】川投能源：2022年前三季度归母净利润同比增长5%，约为29.2亿元</t>
+          <t>民生证券维持川投能源谨慎推荐评级 目标价12.8元</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-21 22:10</t>
+          <t>10-23 13:05</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,600674,1237763963.html</t>
+          <t>/news,600674,1237856960.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>797</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>川投能源：前三季度归母净利润29.19亿元</t>
+          <t>川投能源10月21日获沪股通增持62.34万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-21 20:03</t>
+          <t>10-22 07:45</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,600674,1237738860.html</t>
+          <t>/news,600674,1237796375.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>川投能源：2022年前三季度净利润约29.19亿元</t>
+          <t>川投能源：连续6日融资净买入累计8807.37万元（10-21）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-21 19:07</t>
+          <t>10-22 07:33</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,600674,1237728875.html</t>
+          <t>/news,600674,1237794834.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>385</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>川投能源股东户数下降8.85%，户均持股151.04万元</t>
+          <t>【图解季报】川投能源：2022年前三季度归母净利润同比增长5%，约为29.2亿元</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,51 +1917,51 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-21 18:55</t>
+          <t>10-21 22:10</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,600674,1237726629.html</t>
+          <t>/news,600674,1237763963.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>801</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>川投能源：2022年前三季度净利润同比增长5.02%</t>
+          <t>川投能源：前三季度归母净利润29.19亿元</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-21 18:49</t>
+          <t>10-21 20:03</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,600674,1237725578.html</t>
+          <t>/news,600674,1237738860.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>432</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>川投能源10月20日被沪股通减持148.64万股</t>
+          <t>川投能源：2022年前三季度净利润约29.19亿元</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-21 07:48</t>
+          <t>10-21 19:07</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,600674,1237347913.html</t>
+          <t>/news,600674,1237728875.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入6385.46万元，创近一年新高（10-20）</t>
+          <t>川投能源股东户数下降8.85%，户均持股151.04万元</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-21 07:28</t>
+          <t>10-21 18:55</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,600674,1237344669.html</t>
+          <t>/news,600674,1237726629.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>515</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,29 +2035,29 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>川投能源10月19日被沪股通减持25.69万股</t>
+          <t>川投能源：2022年前三季度净利润同比增长5.02%</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-20 07:44</t>
+          <t>10-21 18:49</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,600674,1236888079.html</t>
+          <t>/news,600674,1237725578.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>川投能源：连续4日融资净买入累计1823.92万元（10-19）</t>
+          <t>川投能源10月20日被沪股通减持148.64万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-20 07:29</t>
+          <t>10-21 07:48</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,600674,1236885665.html</t>
+          <t>/news,600674,1237347913.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>天风证券给予川投能源买入评级 雅砻江水电克服汛期来水不利影响 带动前三季度业绩同比+5%</t>
+          <t>川投能源：融资净买入6385.46万元，创近一年新高（10-20）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-19 10:52</t>
+          <t>10-21 07:28</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,600674,1236573020.html</t>
+          <t>/news,600674,1237344669.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,29 +2131,29 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>天风证券维持川投能源买入评级 预计2022年净利润同比增长6.58%</t>
+          <t>川投能源10月19日被沪股通减持25.69万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-19 10:45</t>
+          <t>10-20 07:44</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,600674,1236564121.html</t>
+          <t>/news,600674,1236888079.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净买入累计1122.77万元（10-18）</t>
+          <t>川投能源：连续4日融资净买入累计1823.92万元（10-19）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-19 07:30</t>
+          <t>10-20 07:29</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,600674,1236436661.html</t>
+          <t>/news,600674,1236885665.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>393</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>川投能源10月17日获沪股通增持152.96万股</t>
+          <t>天风证券给予川投能源买入评级 雅砻江水电克服汛期来水不利影响 带动前三季度业绩同比+5%</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-18 07:49</t>
+          <t>10-19 10:52</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,600674,1236042157.html</t>
+          <t>/news,600674,1236573020.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,29 +2227,29 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入514.06万元，融资余额5.63亿元（10-17）</t>
+          <t>天风证券维持川投能源买入评级 预计2022年净利润同比增长6.58%</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-18 07:30</t>
+          <t>10-19 10:45</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,600674,1236039511.html</t>
+          <t>/news,600674,1236564121.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,29 +2259,29 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>中信证券维持川投能源买入评级 目标价14.5元</t>
+          <t>川投能源：连续3日融资净买入累计1122.77万元（10-18）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-17 16:48</t>
+          <t>10-19 07:30</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,600674,1235939724.html</t>
+          <t>/news,600674,1236436661.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,29 +2291,29 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
+          <t>川投能源10月17日获沪股通增持152.96万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-17 16:32</t>
+          <t>10-18 07:49</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,600674,1235935773.html</t>
+          <t>/news,600674,1236042157.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,29 +2323,29 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>川投能源本周融资净偿还1157.49万元，居电力行业板块第十一</t>
+          <t>川投能源：融资净买入514.06万元，融资余额5.63亿元（10-17）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-16 15:07</t>
+          <t>10-18 07:30</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,600674,1235580977.html</t>
+          <t>/news,600674,1236039511.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>490</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,29 +2355,29 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值减少1159.25万元，居电力行业板块第六</t>
+          <t>中信证券维持川投能源买入评级 目标价14.5元</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-16 14:05</t>
+          <t>10-17 16:48</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,600674,1235575593.html</t>
+          <t>/news,600674,1235939724.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>380</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,29 +2387,29 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>川投能源10月14日被沪股通减持19.47万股</t>
+          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-15 07:55</t>
+          <t>10-17 16:32</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,600674,1235512220.html</t>
+          <t>/news,600674,1235935773.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>533</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,71 +2419,71 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入272.18万元，融资余额5.58亿元（10-14）</t>
+          <t>川投能源本周融资净偿还1157.49万元，居电力行业板块第十一</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-15 07:33</t>
+          <t>10-16 15:07</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,600674,1235509517.html</t>
+          <t>/news,600674,1235580977.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>573</t>
+          <t>479</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>川投能源：前三季度公司控股电力企业累计完成发电量同比减少11.13%</t>
+          <t>川投能源本周沪股通持股市值减少1159.25万元，居电力行业板块第六</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-14 20:02</t>
+          <t>10-16 14:05</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,600674,1235433323.html</t>
+          <t>/news,600674,1235575593.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>川投能源：参股公司投资收益增加 前三季度归母净利29.19亿元</t>
+          <t>川投能源10月14日被沪股通减持19.47万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-14 19:42</t>
+          <t>10-15 07:55</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,600674,1235430800.html</t>
+          <t>/news,600674,1235512220.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>业绩快报：川投能源2022年三季度净利润29.19亿 同比增长5.02%</t>
+          <t>川投能源：融资净买入272.18万元，融资余额5.58亿元（10-14）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-14 18:18</t>
+          <t>10-15 07:33</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,600674,1235412024.html</t>
+          <t>/news,600674,1235509517.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>578</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>川投能源：2022年前三季度净利润约29.19亿元 同比增加5.02%</t>
+          <t>川投能源：前三季度公司控股电力企业累计完成发电量同比减少11.13%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-14 18:18</t>
+          <t>10-14 20:02</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,600674,1235412584.html</t>
+          <t>/news,600674,1235433323.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>419</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>川投能源10月13日获沪股通增持32.74万股</t>
+          <t>川投能源：参股公司投资收益增加 前三季度归母净利29.19亿元</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-14 07:45</t>
+          <t>10-14 19:42</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,600674,1235081459.html</t>
+          <t>/news,600674,1235430800.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>382</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还1199.77万元，融资余额5.56亿元（10-13）</t>
+          <t>业绩快报：川投能源2022年三季度净利润29.19亿 同比增长5.02%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-14 07:30</t>
+          <t>10-14 18:18</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,600674,1235079068.html</t>
+          <t>/news,600674,1235412024.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>川投能源10月12日被沪股通减持142.78万股</t>
+          <t>川投能源：2022年前三季度净利润约29.19亿元 同比增加5.02%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-13 07:50</t>
+          <t>10-14 18:18</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,600674,1234645656.html</t>
+          <t>/news,600674,1235412584.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还66.98万元，融资余额5.68亿元（10-12）</t>
+          <t>川投能源10月13日获沪股通增持32.74万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-13 07:32</t>
+          <t>10-14 07:45</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,600674,1234643058.html</t>
+          <t>/news,600674,1235081459.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>川投能源10月11日获沪股通增持25.09万股</t>
+          <t>川投能源：融资净偿还1199.77万元，融资余额5.56亿元（10-13）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-12 07:49</t>
+          <t>10-14 07:30</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,600674,1234212748.html</t>
+          <t>/news,600674,1235079068.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入307.1万元，融资余额5.68亿元（10-11）</t>
+          <t>川投能源10月12日被沪股通减持142.78万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-12 07:30</t>
+          <t>10-13 07:50</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,600674,1234209738.html</t>
+          <t>/news,600674,1234645656.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还470.03万元，融资余额5.65亿元（10-10）</t>
+          <t>川投能源：融资净偿还66.98万元，融资余额5.68亿元（10-12）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-11 07:30</t>
+          <t>10-13 07:32</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,600674,1233833561.html</t>
+          <t>/news,600674,1234643058.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>327</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,61 +2803,61 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入540.96万元，居电力行业板块第十二</t>
+          <t>川投能源10月11日获沪股通增持25.09万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-09 15:06</t>
+          <t>10-12 07:49</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,600674,1233322964.html</t>
+          <t>/news,600674,1234212748.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加2136.93万元，居电力行业板块第七</t>
+          <t>川投能源：融资净买入307.1万元，融资余额5.68亿元（10-11）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-09 14:07</t>
+          <t>10-12 07:30</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,600674,1233317486.html</t>
+          <t>/news,600674,1234209738.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,29 +2867,29 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
+          <t>川投能源：融资净偿还470.03万元，融资余额5.65亿元（10-10）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-09 10:44</t>
+          <t>10-11 07:30</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,600674,1233306706.html</t>
+          <t>/news,600674,1233833561.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,29 +2899,29 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>川投能源09月29日获沪股通增持59.74万股</t>
+          <t>川投能源本周融资净买入540.96万元，居电力行业板块第十二</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-30 07:57</t>
+          <t>10-09 15:06</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,600674,1232537091.html</t>
+          <t>/news,600674,1233322964.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>599</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,29 +2931,29 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1220.55万元，融资余额5.77亿元（09-29）</t>
+          <t>川投能源本周沪股通持股市值增加2136.93万元，居电力行业板块第七</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-30 07:35</t>
+          <t>10-09 14:07</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,600674,1232533618.html</t>
+          <t>/news,600674,1233317486.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>636</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,29 +2963,29 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>川投能源09月28日被沪股通减持51.15万股</t>
+          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-29 08:00</t>
+          <t>10-09 10:44</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,600674,1232089156.html</t>
+          <t>/news,600674,1233306706.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>612</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还299.06万元，融资余额5.65亿元（09-28）</t>
+          <t>川投能源09月29日获沪股通增持59.74万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-29 07:44</t>
+          <t>09-30 07:57</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,600674,1232086841.html</t>
+          <t>/news,600674,1232537091.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/600674.xlsx
+++ b/news_ann/news/tmp/600674.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>132</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -489,7 +489,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>127</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -521,7 +521,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -553,7 +553,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -617,7 +617,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -649,7 +649,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>413</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -681,7 +681,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -713,7 +713,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -745,7 +745,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -777,7 +777,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -809,7 +809,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -841,7 +841,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -873,7 +873,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -905,7 +905,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>327</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -937,7 +937,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -969,7 +969,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>495</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1001,7 +1001,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>400</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1321,7 +1321,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>367</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1449,7 +1449,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1577,7 +1577,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2345,7 +2345,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>491</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2505,7 +2505,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2537,7 +2537,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>578</t>
+          <t>579</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2601,7 +2601,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>383</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2665,7 +2665,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>327</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2697,7 +2697,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2729,7 +2729,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2761,7 +2761,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2825,7 +2825,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>396</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2921,7 +2921,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>557</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2953,7 +2953,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>637</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2985,7 +2985,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>617</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">

--- a/news_ann/news/tmp/600674.xlsx
+++ b/news_ann/news/tmp/600674.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>126</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>川投能源11月07日获沪股通增持11.99万股</t>
+          <t>川投能源：融资净买入1153.08万元，融资余额6.67亿元（11-08）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-08 07:50</t>
+          <t>11-09 07:31</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,600674,1243974523.html</t>
+          <t>/news,600674,1244424771.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1002.96万元，融资余额6.55亿元（11-07）</t>
+          <t>川投能源11月07日获沪股通增持11.99万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-08 07:29</t>
+          <t>11-08 07:50</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,600674,1243971057.html</t>
+          <t>/news,600674,1243974523.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>川投能源：公司及控股子公司之间的担保余额共计约2.89亿元</t>
+          <t>川投能源：融资净买入1002.96万元，融资余额6.55亿元（11-07）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,51 +541,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-07 16:50</t>
+          <t>11-08 07:29</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,600674,1243839821.html</t>
+          <t>/news,600674,1243971057.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>川投能源本周融资净偿还2823.08万元，居电力行业板块第二</t>
+          <t>川投能源：公司及控股子公司之间的担保余额共计约2.89亿元</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-06 15:20</t>
+          <t>11-07 16:50</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,600674,1243413079.html</t>
+          <t>/news,600674,1243839821.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,29 +595,29 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>沪股通连续2周净卖出川投能源 累计净卖出6599.4万元</t>
+          <t>川投能源本周融资净偿还2823.08万元，居电力行业板块第二</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-06 15:20</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,600674,1243404704.html</t>
+          <t>/news,600674,1243413079.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,39 +627,39 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净偿还累计2571.62万元（11-04）</t>
+          <t>沪股通连续2周净卖出川投能源 累计净卖出6599.4万元</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-05 07:40</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,600674,1243317219.html</t>
+          <t>/news,600674,1243404704.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>川投能源11月03日被沪股通减持82.42万股</t>
+          <t>川投能源：连续3日融资净偿还累计2571.62万元（11-04）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-04 07:47</t>
+          <t>11-05 07:40</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,600674,1242816855.html</t>
+          <t>/news,600674,1243317219.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>422</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还635.52万元，融资余额6.5亿元（11-03）</t>
+          <t>川投能源11月03日被沪股通减持82.42万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-04 07:30</t>
+          <t>11-04 07:47</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,600674,1242813737.html</t>
+          <t>/news,600674,1242816855.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>川投能源11月02日被沪股通减持74万股</t>
+          <t>川投能源：融资净偿还635.52万元，融资余额6.5亿元（11-03）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-04 07:30</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,600674,1242326355.html</t>
+          <t>/news,600674,1242813737.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还1427万元，融资余额6.57亿元（11-02）</t>
+          <t>川投能源11月02日被沪股通减持74万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-03 07:29</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,600674,1242321485.html</t>
+          <t>/news,600674,1242326355.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>川投能源11月01日获沪股通增持51.68万股</t>
+          <t>川投能源：融资净偿还1427万元，融资余额6.57亿元（11-02）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-02 07:51</t>
+          <t>11-03 07:29</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,600674,1241801443.html</t>
+          <t>/news,600674,1242321485.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1119.71万元，融资余额6.71亿元（11-01）</t>
+          <t>川投能源11月01日获沪股通增持51.68万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-02 07:51</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,600674,1241800687.html</t>
+          <t>/news,600674,1241801443.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>川投能源10月31日被沪股通减持78.36万股</t>
+          <t>川投能源：融资净买入1119.71万元，融资余额6.71亿元（11-01）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-01 07:52</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,600674,1241297048.html</t>
+          <t>/news,600674,1241800687.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还1371.17万元，融资余额6.6亿元（10-31）</t>
+          <t>川投能源10月31日被沪股通减持78.36万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-01 07:28</t>
+          <t>11-01 07:52</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,600674,1241293200.html</t>
+          <t>/news,600674,1241297048.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,29 +915,29 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>川财证券维持川投能源增持评级 预计2022年净利润同比增长11.76%</t>
+          <t>川投能源：融资净偿还1371.17万元，融资余额6.6亿元（10-31）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10-31 22:05</t>
+          <t>11-01 07:28</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,600674,1241253673.html</t>
+          <t>/news,600674,1241293200.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,29 +947,29 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>川财证券给予川投能源增持评级</t>
+          <t>川财证券维持川投能源增持评级 预计2022年净利润同比增长11.76%</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10-31 22:03</t>
+          <t>10-31 22:05</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,600674,1241261790.html</t>
+          <t>/news,600674,1241253673.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,29 +979,29 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入2973.07万元，居电力行业板块第八</t>
+          <t>川财证券给予川投能源增持评级</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>10-31 22:03</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,600674,1240712918.html</t>
+          <t>/news,600674,1241261790.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>531</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,29 +1011,29 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值减少4460.01万元，居电力行业板块第五</t>
+          <t>川投能源本周融资净买入2973.07万元，居电力行业板块第八</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-30 14:08</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,600674,1240707423.html</t>
+          <t>/news,600674,1240712918.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,29 +1043,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>川投能源10月28日被沪股通减持16.12万股</t>
+          <t>川投能源本周沪股通持股市值减少4460.01万元，居电力行业板块第五</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-29 07:56</t>
+          <t>10-30 14:08</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,600674,1240600933.html</t>
+          <t>/news,600674,1240707423.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>442</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净买入累计2728.82万元（10-28）</t>
+          <t>川投能源10月28日被沪股通减持16.12万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-29 07:33</t>
+          <t>10-29 07:56</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,600674,1240597339.html</t>
+          <t>/news,600674,1240600933.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>川投能源10月27日被沪股通减持11.71万股</t>
+          <t>川投能源：连续3日融资净买入累计2728.82万元（10-28）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-28 07:42</t>
+          <t>10-29 07:33</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,600674,1240046616.html</t>
+          <t>/news,600674,1240597339.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入499.33万元，融资余额6.68亿元（10-27）</t>
+          <t>川投能源10月27日被沪股通减持11.71万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-28 07:29</t>
+          <t>10-28 07:42</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,600674,1240044380.html</t>
+          <t>/news,600674,1240046616.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>川投能源10月26日被沪股通减持79.49万股</t>
+          <t>川投能源：融资净买入499.33万元，融资余额6.68亿元（10-27）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-27 07:44</t>
+          <t>10-28 07:29</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,600674,1239496318.html</t>
+          <t>/news,600674,1240044380.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1740.9万元，融资余额6.63亿元（10-26）</t>
+          <t>川投能源10月26日被沪股通减持79.49万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-27 07:33</t>
+          <t>10-27 07:44</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,600674,1239494829.html</t>
+          <t>/news,600674,1239496318.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>川投能源10月25日被沪股通减持173.77万股</t>
+          <t>川投能源：融资净买入1740.9万元，融资余额6.63亿元（10-26）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-26 07:58</t>
+          <t>10-27 07:33</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,600674,1238970260.html</t>
+          <t>/news,600674,1239494829.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还1821.77万元，融资余额6.46亿元（10-25）</t>
+          <t>川投能源10月25日被沪股通减持173.77万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-26 07:31</t>
+          <t>10-26 07:58</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,600674,1238965647.html</t>
+          <t>/news,600674,1238970260.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>474</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,29 +1299,29 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>长城证券维持川投能源增持评级 预计2022年净利润同比增长16.75%</t>
+          <t>川投能源：融资净偿还1821.77万元，融资余额6.46亿元（10-25）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-25 21:21</t>
+          <t>10-26 07:31</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,600674,1238894339.html</t>
+          <t>/news,600674,1238965647.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>478</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,29 +1331,29 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>首创证券给予川投能源买入评级 来水影响发电量 雅砻江公司成为业绩保障</t>
+          <t>长城证券维持川投能源增持评级 预计2022年净利润同比增长16.75%</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-25 13:22</t>
+          <t>10-25 21:21</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,600674,1238695111.html</t>
+          <t>/news,600674,1238894339.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,29 +1363,29 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>首创证券维持川投能源买入评级 预计2022年净利润同比增长9.15%</t>
+          <t>首创证券给予川投能源买入评级 来水影响发电量 雅砻江公司成为业绩保障</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-25 13:17</t>
+          <t>10-25 13:22</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,600674,1238689042.html</t>
+          <t>/news,600674,1238695111.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>427</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,29 +1395,29 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>川投能源10月24日被沪股通减持111.56万股</t>
+          <t>首创证券维持川投能源买入评级 预计2022年净利润同比增长9.15%</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-25 07:47</t>
+          <t>10-25 13:17</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,600674,1238447684.html</t>
+          <t>/news,600674,1238689042.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>川投能源：连续7日融资净买入累计1.09亿元（10-24）</t>
+          <t>川投能源10月24日被沪股通减持111.56万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-25 07:29</t>
+          <t>10-25 07:47</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,600674,1238443879.html</t>
+          <t>/news,600674,1238447684.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>国海证券给予川投能源买入评级</t>
+          <t>川投能源：连续7日融资净买入累计1.09亿元（10-24）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-25 07:08</t>
+          <t>10-25 07:29</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,600674,1238441787.html</t>
+          <t>/news,600674,1238443879.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,29 +1491,29 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>国海证券维持川投能源买入评级 预计2022年净利润同比增长8.05%</t>
+          <t>国海证券给予川投能源买入评级</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-25 06:53</t>
+          <t>10-25 07:08</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,600674,1238440213.html</t>
+          <t>/news,600674,1238441787.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
+          <t>国海证券维持川投能源买入评级 预计2022年净利润同比增长8.05%</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,61 +1533,61 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-24 09:11</t>
+          <t>10-25 06:53</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,600674,1237928643.html</t>
+          <t>/news,600674,1238440213.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>中国银河给予川投能源推荐评级：雅砻江Q3发电量实现正增长 沿江新能源打开新成长空间</t>
+          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-24 07:23</t>
+          <t>10-24 09:11</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,600674,1237915624.html</t>
+          <t>/news,600674,1237928643.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>422</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>东吴证券给予川投能源买入评级 自然灾害拖累发电量表现 利润增长主要来自于雅砻江水电</t>
+          <t>中国银河给予川投能源推荐评级：雅砻江Q3发电量实现正增长 沿江新能源打开新成长空间</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-24 07:09</t>
+          <t>10-24 07:23</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,600674,1237914624.html</t>
+          <t>/news,600674,1237915624.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>366</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,29 +1619,29 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>中国银河维持川投能源推荐评级 预计2022年净利润同比增长7.02%</t>
+          <t>东吴证券给予川投能源买入评级 自然灾害拖累发电量表现 利润增长主要来自于雅砻江水电</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-24 07:06</t>
+          <t>10-24 07:09</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,600674,1237914166.html</t>
+          <t>/news,600674,1237914624.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>东吴证券维持川投能源买入评级 预计2022年净利润同比增长14.24%</t>
+          <t>中国银河维持川投能源推荐评级 预计2022年净利润同比增长7.02%</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-24 06:30</t>
+          <t>10-24 07:06</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,600674,1237913185.html</t>
+          <t>/news,600674,1237914166.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,29 +1683,29 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入8535.19万元，居电力行业板块第三</t>
+          <t>东吴证券维持川投能源买入评级 预计2022年净利润同比增长14.24%</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-23 15:08</t>
+          <t>10-24 06:30</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,600674,1237864909.html</t>
+          <t>/news,600674,1237913185.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>417</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,29 +1715,29 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>华泰证券维持川投能源买入评级 目标价14.72元</t>
+          <t>川投能源本周融资净买入8535.19万元，居电力行业板块第三</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-23 14:10</t>
+          <t>10-23 15:08</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,600674,1237860794.html</t>
+          <t>/news,600674,1237864909.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,29 +1747,29 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加4373.88万元，居电力行业板块第八</t>
+          <t>华泰证券维持川投能源买入评级 目标价14.72元</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-23 14:06</t>
+          <t>10-23 14:10</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,600674,1237860359.html</t>
+          <t>/news,600674,1237860794.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>399</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,29 +1779,29 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>民生证券给予川投能源谨慎推荐评级：缺水、地震接踵而至 雅砻江稳中有增</t>
+          <t>川投能源本周沪股通持股市值增加4373.88万元，居电力行业板块第八</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-23 14:02</t>
+          <t>10-23 14:06</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,600674,1237860656.html</t>
+          <t>/news,600674,1237860359.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>425</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,29 +1811,29 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>民生证券维持川投能源谨慎推荐评级 目标价12.8元</t>
+          <t>民生证券给予川投能源谨慎推荐评级：缺水、地震接踵而至 雅砻江稳中有增</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-23 13:05</t>
+          <t>10-23 14:02</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,600674,1237856960.html</t>
+          <t>/news,600674,1237860656.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,29 +1843,29 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>川投能源10月21日获沪股通增持62.34万股</t>
+          <t>民生证券维持川投能源谨慎推荐评级 目标价12.8元</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-22 07:45</t>
+          <t>10-23 13:05</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,600674,1237796375.html</t>
+          <t>/news,600674,1237856960.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>川投能源：连续6日融资净买入累计8807.37万元（10-21）</t>
+          <t>川投能源10月21日获沪股通增持62.34万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-22 07:33</t>
+          <t>10-22 07:45</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,600674,1237794834.html</t>
+          <t>/news,600674,1237796375.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>【图解季报】川投能源：2022年前三季度归母净利润同比增长5%，约为29.2亿元</t>
+          <t>川投能源：连续6日融资净买入累计8807.37万元（10-21）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-21 22:10</t>
+          <t>10-22 07:33</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,600674,1237763963.html</t>
+          <t>/news,600674,1237794834.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>801</t>
+          <t>387</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>川投能源：前三季度归母净利润29.19亿元</t>
+          <t>【图解季报】川投能源：2022年前三季度归母净利润同比增长5%，约为29.2亿元</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-21 20:03</t>
+          <t>10-21 22:10</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,600674,1237738860.html</t>
+          <t>/news,600674,1237763963.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>805</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>川投能源：2022年前三季度净利润约29.19亿元</t>
+          <t>川投能源：前三季度归母净利润29.19亿元</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-21 19:07</t>
+          <t>10-21 20:03</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,600674,1237728875.html</t>
+          <t>/news,600674,1237738860.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>川投能源股东户数下降8.85%，户均持股151.04万元</t>
+          <t>川投能源：2022年前三季度净利润约29.19亿元</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-21 18:55</t>
+          <t>10-21 19:07</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,600674,1237726629.html</t>
+          <t>/news,600674,1237728875.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,29 +2035,29 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>川投能源：2022年前三季度净利润同比增长5.02%</t>
+          <t>川投能源股东户数下降8.85%，户均持股151.04万元</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-21 18:49</t>
+          <t>10-21 18:55</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,600674,1237725578.html</t>
+          <t>/news,600674,1237726629.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>516</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,29 +2067,29 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>川投能源10月20日被沪股通减持148.64万股</t>
+          <t>川投能源：2022年前三季度净利润同比增长5.02%</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-21 07:48</t>
+          <t>10-21 18:49</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,600674,1237347913.html</t>
+          <t>/news,600674,1237725578.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入6385.46万元，创近一年新高（10-20）</t>
+          <t>川投能源10月20日被沪股通减持148.64万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-21 07:28</t>
+          <t>10-21 07:48</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,600674,1237344669.html</t>
+          <t>/news,600674,1237347913.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>川投能源10月19日被沪股通减持25.69万股</t>
+          <t>川投能源：融资净买入6385.46万元，创近一年新高（10-20）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-20 07:44</t>
+          <t>10-21 07:28</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,600674,1236888079.html</t>
+          <t>/news,600674,1237344669.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>川投能源：连续4日融资净买入累计1823.92万元（10-19）</t>
+          <t>川投能源10月19日被沪股通减持25.69万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-20 07:29</t>
+          <t>10-20 07:44</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,600674,1236885665.html</t>
+          <t>/news,600674,1236888079.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>天风证券给予川投能源买入评级 雅砻江水电克服汛期来水不利影响 带动前三季度业绩同比+5%</t>
+          <t>川投能源：连续4日融资净买入累计1823.92万元（10-19）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-19 10:52</t>
+          <t>10-20 07:29</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,600674,1236573020.html</t>
+          <t>/news,600674,1236885665.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>396</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,29 +2227,29 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>天风证券维持川投能源买入评级 预计2022年净利润同比增长6.58%</t>
+          <t>天风证券给予川投能源买入评级 雅砻江水电克服汛期来水不利影响 带动前三季度业绩同比+5%</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-19 10:45</t>
+          <t>10-19 10:52</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,600674,1236564121.html</t>
+          <t>/news,600674,1236573020.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>396</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,29 +2259,29 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净买入累计1122.77万元（10-18）</t>
+          <t>天风证券维持川投能源买入评级 预计2022年净利润同比增长6.58%</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-19 07:30</t>
+          <t>10-19 10:45</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,600674,1236436661.html</t>
+          <t>/news,600674,1236564121.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>川投能源10月17日获沪股通增持152.96万股</t>
+          <t>川投能源：连续3日融资净买入累计1122.77万元（10-18）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-18 07:49</t>
+          <t>10-19 07:30</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,600674,1236042157.html</t>
+          <t>/news,600674,1236436661.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入514.06万元，融资余额5.63亿元（10-17）</t>
+          <t>川投能源10月17日获沪股通增持152.96万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-18 07:30</t>
+          <t>10-18 07:49</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,600674,1236039511.html</t>
+          <t>/news,600674,1236042157.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,29 +2355,29 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>中信证券维持川投能源买入评级 目标价14.5元</t>
+          <t>川投能源：融资净买入514.06万元，融资余额5.63亿元（10-17）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-17 16:48</t>
+          <t>10-18 07:30</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,600674,1235939724.html</t>
+          <t>/news,600674,1236039511.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>496</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
+          <t>中信证券维持川投能源买入评级 目标价14.5元</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-17 16:32</t>
+          <t>10-17 16:48</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,600674,1235935773.html</t>
+          <t>/news,600674,1235939724.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>533</t>
+          <t>384</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,29 +2419,29 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>川投能源本周融资净偿还1157.49万元，居电力行业板块第十一</t>
+          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-16 15:07</t>
+          <t>10-17 16:32</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,600674,1235580977.html</t>
+          <t>/news,600674,1235935773.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>533</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,29 +2451,29 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值减少1159.25万元，居电力行业板块第六</t>
+          <t>川投能源本周融资净偿还1157.49万元，居电力行业板块第十一</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-16 14:05</t>
+          <t>10-16 15:07</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,600674,1235575593.html</t>
+          <t>/news,600674,1235580977.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>482</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,29 +2483,29 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>川投能源10月14日被沪股通减持19.47万股</t>
+          <t>川投能源本周沪股通持股市值减少1159.25万元，居电力行业板块第六</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-15 07:55</t>
+          <t>10-16 14:05</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,600674,1235512220.html</t>
+          <t>/news,600674,1235575593.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>407</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入272.18万元，融资余额5.58亿元（10-14）</t>
+          <t>川投能源10月14日被沪股通减持19.47万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-15 07:33</t>
+          <t>10-15 07:55</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,600674,1235509517.html</t>
+          <t>/news,600674,1235512220.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>346</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>川投能源：前三季度公司控股电力企业累计完成发电量同比减少11.13%</t>
+          <t>川投能源：融资净买入272.18万元，融资余额5.58亿元（10-14）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-14 20:02</t>
+          <t>10-15 07:33</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,600674,1235433323.html</t>
+          <t>/news,600674,1235509517.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>579</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>川投能源：参股公司投资收益增加 前三季度归母净利29.19亿元</t>
+          <t>川投能源：前三季度公司控股电力企业累计完成发电量同比减少11.13%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-14 19:42</t>
+          <t>10-14 20:02</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,600674,1235430800.html</t>
+          <t>/news,600674,1235433323.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>421</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>业绩快报：川投能源2022年三季度净利润29.19亿 同比增长5.02%</t>
+          <t>川投能源：参股公司投资收益增加 前三季度归母净利29.19亿元</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-14 18:18</t>
+          <t>10-14 19:42</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,600674,1235412024.html</t>
+          <t>/news,600674,1235430800.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>386</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>川投能源：2022年前三季度净利润约29.19亿元 同比增加5.02%</t>
+          <t>业绩快报：川投能源2022年三季度净利润29.19亿 同比增长5.02%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2658,24 +2658,24 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,600674,1235412584.html</t>
+          <t>/news,600674,1235412024.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>617</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>川投能源10月13日获沪股通增持32.74万股</t>
+          <t>川投能源：2022年前三季度净利润约29.19亿元 同比增加5.02%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-14 07:45</t>
+          <t>10-14 18:18</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,600674,1235081459.html</t>
+          <t>/news,600674,1235412584.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>328</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还1199.77万元，融资余额5.56亿元（10-13）</t>
+          <t>川投能源10月13日获沪股通增持32.74万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-14 07:30</t>
+          <t>10-14 07:45</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,600674,1235079068.html</t>
+          <t>/news,600674,1235081459.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>川投能源10月12日被沪股通减持142.78万股</t>
+          <t>川投能源：融资净偿还1199.77万元，融资余额5.56亿元（10-13）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-13 07:50</t>
+          <t>10-14 07:30</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,600674,1234645656.html</t>
+          <t>/news,600674,1235079068.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还66.98万元，融资余额5.68亿元（10-12）</t>
+          <t>川投能源10月12日被沪股通减持142.78万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-13 07:32</t>
+          <t>10-13 07:50</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,600674,1234643058.html</t>
+          <t>/news,600674,1234645656.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>川投能源10月11日获沪股通增持25.09万股</t>
+          <t>川投能源：融资净偿还66.98万元，融资余额5.68亿元（10-12）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-12 07:49</t>
+          <t>10-13 07:32</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,600674,1234212748.html</t>
+          <t>/news,600674,1234643058.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>327</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入307.1万元，融资余额5.68亿元（10-11）</t>
+          <t>川投能源10月11日获沪股通增持25.09万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-12 07:30</t>
+          <t>10-12 07:49</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,600674,1234209738.html</t>
+          <t>/news,600674,1234212748.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>398</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还470.03万元，融资余额5.65亿元（10-10）</t>
+          <t>川投能源：融资净买入307.1万元，融资余额5.68亿元（10-11）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-11 07:30</t>
+          <t>10-12 07:30</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,600674,1233833561.html</t>
+          <t>/news,600674,1234209738.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,29 +2899,29 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入540.96万元，居电力行业板块第十二</t>
+          <t>川投能源：融资净偿还470.03万元，融资余额5.65亿元（10-10）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-09 15:06</t>
+          <t>10-11 07:30</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,600674,1233322964.html</t>
+          <t>/news,600674,1233833561.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>616</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,29 +2931,29 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加2136.93万元，居电力行业板块第七</t>
+          <t>川投能源本周融资净买入540.96万元，居电力行业板块第十二</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-09 14:07</t>
+          <t>10-09 15:06</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,600674,1233317486.html</t>
+          <t>/news,600674,1233322964.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>637</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,29 +2963,29 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
+          <t>川投能源本周沪股通持股市值增加2136.93万元，居电力行业板块第七</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-09 10:44</t>
+          <t>10-09 14:07</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,600674,1233306706.html</t>
+          <t>/news,600674,1233317486.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>639</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>川投能源09月29日获沪股通增持59.74万股</t>
+          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-30 07:57</t>
+          <t>10-09 10:44</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,600674,1232537091.html</t>
+          <t>/news,600674,1233306706.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/600674.xlsx
+++ b/news_ann/news/tmp/600674.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>119</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1153.08万元，融资余额6.67亿元（11-08）</t>
+          <t>川投能源11月09日获沪股通增持22.29万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-09 07:31</t>
+          <t>11-10 07:39</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,600674,1244424771.html</t>
+          <t>/news,600674,1244888907.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>129</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>川投能源11月07日获沪股通增持11.99万股</t>
+          <t>川投能源：连续3日融资净买入累计2307.22万元（11-09）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-08 07:50</t>
+          <t>11-10 07:27</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,600674,1243974523.html</t>
+          <t>/news,600674,1244886962.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1002.96万元，融资余额6.55亿元（11-07）</t>
+          <t>川投能源：融资净买入1153.08万元，融资余额6.67亿元（11-08）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-08 07:29</t>
+          <t>11-09 07:31</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,600674,1243971057.html</t>
+          <t>/news,600674,1244424771.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>川投能源：公司及控股子公司之间的担保余额共计约2.89亿元</t>
+          <t>川投能源11月07日获沪股通增持11.99万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-07 16:50</t>
+          <t>11-08 07:50</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,600674,1243839821.html</t>
+          <t>/news,600674,1243974523.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,61 +595,61 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>川投能源本周融资净偿还2823.08万元，居电力行业板块第二</t>
+          <t>川投能源：融资净买入1002.96万元，融资余额6.55亿元（11-07）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-06 15:20</t>
+          <t>11-08 07:29</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,600674,1243413079.html</t>
+          <t>/news,600674,1243971057.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>427</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>沪股通连续2周净卖出川投能源 累计净卖出6599.4万元</t>
+          <t>川投能源：公司及控股子公司之间的担保余额共计约2.89亿元</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-07 16:50</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,600674,1243404704.html</t>
+          <t>/news,600674,1243839821.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,61 +659,61 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净偿还累计2571.62万元（11-04）</t>
+          <t>川投能源本周融资净偿还2823.08万元，居电力行业板块第二</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-05 07:40</t>
+          <t>11-06 15:20</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,600674,1243317219.html</t>
+          <t>/news,600674,1243413079.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>川投能源11月03日被沪股通减持82.42万股</t>
+          <t>沪股通连续2周净卖出川投能源 累计净卖出6599.4万元</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-04 07:47</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,600674,1242816855.html</t>
+          <t>/news,600674,1243404704.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还635.52万元，融资余额6.5亿元（11-03）</t>
+          <t>川投能源：连续3日融资净偿还累计2571.62万元（11-04）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-04 07:30</t>
+          <t>11-05 07:40</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,600674,1242813737.html</t>
+          <t>/news,600674,1243317219.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>川投能源11月02日被沪股通减持74万股</t>
+          <t>川投能源11月03日被沪股通减持82.42万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-04 07:47</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,600674,1242326355.html</t>
+          <t>/news,600674,1242816855.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还1427万元，融资余额6.57亿元（11-02）</t>
+          <t>川投能源：融资净偿还635.52万元，融资余额6.5亿元（11-03）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-03 07:29</t>
+          <t>11-04 07:30</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,600674,1242321485.html</t>
+          <t>/news,600674,1242813737.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>川投能源11月01日获沪股通增持51.68万股</t>
+          <t>川投能源11月02日被沪股通减持74万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-02 07:51</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,600674,1241801443.html</t>
+          <t>/news,600674,1242326355.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1119.71万元，融资余额6.71亿元（11-01）</t>
+          <t>川投能源：融资净偿还1427万元，融资余额6.57亿元（11-02）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-03 07:29</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,600674,1241800687.html</t>
+          <t>/news,600674,1242321485.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>川投能源10月31日被沪股通减持78.36万股</t>
+          <t>川投能源11月01日获沪股通增持51.68万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-01 07:52</t>
+          <t>11-02 07:51</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,600674,1241297048.html</t>
+          <t>/news,600674,1241801443.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还1371.17万元，融资余额6.6亿元（10-31）</t>
+          <t>川投能源：融资净买入1119.71万元，融资余额6.71亿元（11-01）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-01 07:28</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,600674,1241293200.html</t>
+          <t>/news,600674,1241800687.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,29 +947,29 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>川财证券维持川投能源增持评级 预计2022年净利润同比增长11.76%</t>
+          <t>川投能源10月31日被沪股通减持78.36万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10-31 22:05</t>
+          <t>11-01 07:52</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,600674,1241253673.html</t>
+          <t>/news,600674,1241297048.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>川财证券给予川投能源增持评级</t>
+          <t>川投能源：融资净偿还1371.17万元，融资余额6.6亿元（10-31）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10-31 22:03</t>
+          <t>11-01 07:28</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,600674,1241261790.html</t>
+          <t>/news,600674,1241293200.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>379</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,29 +1011,29 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入2973.07万元，居电力行业板块第八</t>
+          <t>川财证券维持川投能源增持评级 预计2022年净利润同比增长11.76%</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>10-31 22:05</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,600674,1240712918.html</t>
+          <t>/news,600674,1241253673.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,29 +1043,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值减少4460.01万元，居电力行业板块第五</t>
+          <t>川财证券给予川投能源增持评级</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-30 14:08</t>
+          <t>10-31 22:03</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,600674,1240707423.html</t>
+          <t>/news,600674,1241261790.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,29 +1075,29 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>川投能源10月28日被沪股通减持16.12万股</t>
+          <t>川投能源本周融资净买入2973.07万元，居电力行业板块第八</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-29 07:56</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,600674,1240600933.html</t>
+          <t>/news,600674,1240712918.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>470</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,29 +1107,29 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净买入累计2728.82万元（10-28）</t>
+          <t>川投能源本周沪股通持股市值减少4460.01万元，居电力行业板块第五</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-29 07:33</t>
+          <t>10-30 14:08</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,600674,1240597339.html</t>
+          <t>/news,600674,1240707423.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>449</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>川投能源10月27日被沪股通减持11.71万股</t>
+          <t>川投能源10月28日被沪股通减持16.12万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-28 07:42</t>
+          <t>10-29 07:56</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,600674,1240046616.html</t>
+          <t>/news,600674,1240600933.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入499.33万元，融资余额6.68亿元（10-27）</t>
+          <t>川投能源：连续3日融资净买入累计2728.82万元（10-28）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-28 07:29</t>
+          <t>10-29 07:33</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,600674,1240044380.html</t>
+          <t>/news,600674,1240597339.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>川投能源10月26日被沪股通减持79.49万股</t>
+          <t>川投能源10月27日被沪股通减持11.71万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-27 07:44</t>
+          <t>10-28 07:42</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,600674,1239496318.html</t>
+          <t>/news,600674,1240046616.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1740.9万元，融资余额6.63亿元（10-26）</t>
+          <t>川投能源：融资净买入499.33万元，融资余额6.68亿元（10-27）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-27 07:33</t>
+          <t>10-28 07:29</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,600674,1239494829.html</t>
+          <t>/news,600674,1240044380.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>川投能源10月25日被沪股通减持173.77万股</t>
+          <t>川投能源10月26日被沪股通减持79.49万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-26 07:58</t>
+          <t>10-27 07:44</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,600674,1238970260.html</t>
+          <t>/news,600674,1239496318.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还1821.77万元，融资余额6.46亿元（10-25）</t>
+          <t>川投能源：融资净买入1740.9万元，融资余额6.63亿元（10-26）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-26 07:31</t>
+          <t>10-27 07:33</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,600674,1238965647.html</t>
+          <t>/news,600674,1239494829.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,29 +1331,29 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>长城证券维持川投能源增持评级 预计2022年净利润同比增长16.75%</t>
+          <t>川投能源10月25日被沪股通减持173.77万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-25 21:21</t>
+          <t>10-26 07:58</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,600674,1238894339.html</t>
+          <t>/news,600674,1238970260.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>首创证券给予川投能源买入评级 来水影响发电量 雅砻江公司成为业绩保障</t>
+          <t>川投能源：融资净偿还1821.77万元，融资余额6.46亿元（10-25）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-25 13:22</t>
+          <t>10-26 07:31</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,600674,1238695111.html</t>
+          <t>/news,600674,1238965647.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>490</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>首创证券维持川投能源买入评级 预计2022年净利润同比增长9.15%</t>
+          <t>长城证券维持川投能源增持评级 预计2022年净利润同比增长16.75%</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-25 13:17</t>
+          <t>10-25 21:21</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,600674,1238689042.html</t>
+          <t>/news,600674,1238894339.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>384</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>川投能源10月24日被沪股通减持111.56万股</t>
+          <t>首创证券给予川投能源买入评级 来水影响发电量 雅砻江公司成为业绩保障</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-25 07:47</t>
+          <t>10-25 13:22</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,600674,1238447684.html</t>
+          <t>/news,600674,1238695111.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,29 +1459,29 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>川投能源：连续7日融资净买入累计1.09亿元（10-24）</t>
+          <t>首创证券维持川投能源买入评级 预计2022年净利润同比增长9.15%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-25 07:29</t>
+          <t>10-25 13:17</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,600674,1238443879.html</t>
+          <t>/news,600674,1238689042.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>国海证券给予川投能源买入评级</t>
+          <t>川投能源10月24日被沪股通减持111.56万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-25 07:08</t>
+          <t>10-25 07:47</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,600674,1238441787.html</t>
+          <t>/news,600674,1238447684.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,29 +1523,29 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>国海证券维持川投能源买入评级 预计2022年净利润同比增长8.05%</t>
+          <t>川投能源：连续7日融资净买入累计1.09亿元（10-24）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-25 06:53</t>
+          <t>10-25 07:29</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,600674,1238440213.html</t>
+          <t>/news,600674,1238443879.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,61 +1555,61 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
+          <t>国海证券给予川投能源买入评级</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-24 09:11</t>
+          <t>10-25 07:08</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,600674,1237928643.html</t>
+          <t>/news,600674,1238441787.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>中国银河给予川投能源推荐评级：雅砻江Q3发电量实现正增长 沿江新能源打开新成长空间</t>
+          <t>国海证券维持川投能源买入评级 预计2022年净利润同比增长8.05%</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-24 07:23</t>
+          <t>10-25 06:53</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,600674,1237915624.html</t>
+          <t>/news,600674,1238440213.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>327</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,61 +1619,61 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>东吴证券给予川投能源买入评级 自然灾害拖累发电量表现 利润增长主要来自于雅砻江水电</t>
+          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-24 07:09</t>
+          <t>10-24 09:11</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,600674,1237914624.html</t>
+          <t>/news,600674,1237928643.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>430</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>中国银河维持川投能源推荐评级 预计2022年净利润同比增长7.02%</t>
+          <t>中国银河给予川投能源推荐评级：雅砻江Q3发电量实现正增长 沿江新能源打开新成长空间</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-24 07:06</t>
+          <t>10-24 07:23</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,600674,1237914166.html</t>
+          <t>/news,600674,1237915624.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,29 +1683,29 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>东吴证券维持川投能源买入评级 预计2022年净利润同比增长14.24%</t>
+          <t>东吴证券给予川投能源买入评级 自然灾害拖累发电量表现 利润增长主要来自于雅砻江水电</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-24 06:30</t>
+          <t>10-24 07:09</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,600674,1237913185.html</t>
+          <t>/news,600674,1237914624.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,29 +1715,29 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入8535.19万元，居电力行业板块第三</t>
+          <t>中国银河维持川投能源推荐评级 预计2022年净利润同比增长7.02%</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-23 15:08</t>
+          <t>10-24 07:06</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,600674,1237864909.html</t>
+          <t>/news,600674,1237914166.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>华泰证券维持川投能源买入评级 目标价14.72元</t>
+          <t>东吴证券维持川投能源买入评级 预计2022年净利润同比增长14.24%</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-23 14:10</t>
+          <t>10-24 06:30</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,600674,1237860794.html</t>
+          <t>/news,600674,1237913185.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>419</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,29 +1779,29 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加4373.88万元，居电力行业板块第八</t>
+          <t>川投能源本周融资净买入8535.19万元，居电力行业板块第三</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-23 14:06</t>
+          <t>10-23 15:08</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,600674,1237860359.html</t>
+          <t>/news,600674,1237864909.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>336</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,29 +1811,29 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>民生证券给予川投能源谨慎推荐评级：缺水、地震接踵而至 雅砻江稳中有增</t>
+          <t>华泰证券维持川投能源买入评级 目标价14.72元</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-23 14:02</t>
+          <t>10-23 14:10</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,600674,1237860656.html</t>
+          <t>/news,600674,1237860794.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,29 +1843,29 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>民生证券维持川投能源谨慎推荐评级 目标价12.8元</t>
+          <t>川投能源本周沪股通持股市值增加4373.88万元，居电力行业板块第八</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-23 13:05</t>
+          <t>10-23 14:06</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,600674,1237856960.html</t>
+          <t>/news,600674,1237860359.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>427</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>川投能源10月21日获沪股通增持62.34万股</t>
+          <t>民生证券给予川投能源谨慎推荐评级：缺水、地震接踵而至 雅砻江稳中有增</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-22 07:45</t>
+          <t>10-23 14:02</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,600674,1237796375.html</t>
+          <t>/news,600674,1237860656.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,29 +1907,29 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>川投能源：连续6日融资净买入累计8807.37万元（10-21）</t>
+          <t>民生证券维持川投能源谨慎推荐评级 目标价12.8元</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-22 07:33</t>
+          <t>10-23 13:05</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,600674,1237794834.html</t>
+          <t>/news,600674,1237856960.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>【图解季报】川投能源：2022年前三季度归母净利润同比增长5%，约为29.2亿元</t>
+          <t>川投能源10月21日获沪股通增持62.34万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-21 22:10</t>
+          <t>10-22 07:45</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,600674,1237763963.html</t>
+          <t>/news,600674,1237796375.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>805</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>川投能源：前三季度归母净利润29.19亿元</t>
+          <t>川投能源：连续6日融资净买入累计8807.37万元（10-21）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-21 20:03</t>
+          <t>10-22 07:33</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,600674,1237738860.html</t>
+          <t>/news,600674,1237794834.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>川投能源：2022年前三季度净利润约29.19亿元</t>
+          <t>【图解季报】川投能源：2022年前三季度归母净利润同比增长5%，约为29.2亿元</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-21 19:07</t>
+          <t>10-21 22:10</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,600674,1237728875.html</t>
+          <t>/news,600674,1237763963.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>811</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>川投能源股东户数下降8.85%，户均持股151.04万元</t>
+          <t>川投能源：前三季度归母净利润29.19亿元</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-21 18:55</t>
+          <t>10-21 20:03</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,600674,1237726629.html</t>
+          <t>/news,600674,1237738860.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>516</t>
+          <t>441</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,29 +2067,29 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>川投能源：2022年前三季度净利润同比增长5.02%</t>
+          <t>川投能源：2022年前三季度净利润约29.19亿元</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-21 18:49</t>
+          <t>10-21 19:07</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,600674,1237725578.html</t>
+          <t>/news,600674,1237728875.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>川投能源10月20日被沪股通减持148.64万股</t>
+          <t>川投能源股东户数下降8.85%，户均持股151.04万元</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-21 07:48</t>
+          <t>10-21 18:55</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,600674,1237347913.html</t>
+          <t>/news,600674,1237726629.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,29 +2131,29 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入6385.46万元，创近一年新高（10-20）</t>
+          <t>川投能源：2022年前三季度净利润同比增长5.02%</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-21 07:28</t>
+          <t>10-21 18:49</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,600674,1237344669.html</t>
+          <t>/news,600674,1237725578.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>川投能源10月19日被沪股通减持25.69万股</t>
+          <t>川投能源10月20日被沪股通减持148.64万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-20 07:44</t>
+          <t>10-21 07:48</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,600674,1236888079.html</t>
+          <t>/news,600674,1237347913.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>309</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>川投能源：连续4日融资净买入累计1823.92万元（10-19）</t>
+          <t>川投能源：融资净买入6385.46万元，创近一年新高（10-20）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-20 07:29</t>
+          <t>10-21 07:28</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,600674,1236885665.html</t>
+          <t>/news,600674,1237344669.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>天风证券给予川投能源买入评级 雅砻江水电克服汛期来水不利影响 带动前三季度业绩同比+5%</t>
+          <t>川投能源10月19日被沪股通减持25.69万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-19 10:52</t>
+          <t>10-20 07:44</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,600674,1236573020.html</t>
+          <t>/news,600674,1236888079.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,29 +2259,29 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>天风证券维持川投能源买入评级 预计2022年净利润同比增长6.58%</t>
+          <t>川投能源：连续4日融资净买入累计1823.92万元（10-19）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-19 10:45</t>
+          <t>10-20 07:29</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,600674,1236564121.html</t>
+          <t>/news,600674,1236885665.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>401</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净买入累计1122.77万元（10-18）</t>
+          <t>天风证券给予川投能源买入评级 雅砻江水电克服汛期来水不利影响 带动前三季度业绩同比+5%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-19 07:30</t>
+          <t>10-19 10:52</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,600674,1236436661.html</t>
+          <t>/news,600674,1236573020.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>401</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,29 +2323,29 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>川投能源10月17日获沪股通增持152.96万股</t>
+          <t>天风证券维持川投能源买入评级 预计2022年净利润同比增长6.58%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-18 07:49</t>
+          <t>10-19 10:45</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,600674,1236042157.html</t>
+          <t>/news,600674,1236564121.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入514.06万元，融资余额5.63亿元（10-17）</t>
+          <t>川投能源：连续3日融资净买入累计1122.77万元（10-18）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-18 07:30</t>
+          <t>10-19 07:30</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,600674,1236039511.html</t>
+          <t>/news,600674,1236436661.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,29 +2387,29 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>中信证券维持川投能源买入评级 目标价14.5元</t>
+          <t>川投能源10月17日获沪股通增持152.96万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-17 16:48</t>
+          <t>10-18 07:49</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,600674,1235939724.html</t>
+          <t>/news,600674,1236042157.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,29 +2419,29 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
+          <t>川投能源：融资净买入514.06万元，融资余额5.63亿元（10-17）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-17 16:32</t>
+          <t>10-18 07:30</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,600674,1235935773.html</t>
+          <t>/news,600674,1236039511.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>533</t>
+          <t>500</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,29 +2451,29 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>川投能源本周融资净偿还1157.49万元，居电力行业板块第十一</t>
+          <t>中信证券维持川投能源买入评级 目标价14.5元</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-16 15:07</t>
+          <t>10-17 16:48</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,600674,1235580977.html</t>
+          <t>/news,600674,1235939724.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>387</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,29 +2483,29 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值减少1159.25万元，居电力行业板块第六</t>
+          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-16 14:05</t>
+          <t>10-17 16:32</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,600674,1235575593.html</t>
+          <t>/news,600674,1235935773.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>537</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,29 +2515,29 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>川投能源10月14日被沪股通减持19.47万股</t>
+          <t>川投能源本周融资净偿还1157.49万元，居电力行业板块第十一</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-15 07:55</t>
+          <t>10-16 15:07</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,600674,1235512220.html</t>
+          <t>/news,600674,1235580977.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>486</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,39 +2547,39 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入272.18万元，融资余额5.58亿元（10-14）</t>
+          <t>川投能源本周沪股通持股市值减少1159.25万元，居电力行业板块第六</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-15 07:33</t>
+          <t>10-16 14:05</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,600674,1235509517.html</t>
+          <t>/news,600674,1235575593.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>411</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>川投能源：前三季度公司控股电力企业累计完成发电量同比减少11.13%</t>
+          <t>川投能源10月14日被沪股通减持19.47万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-14 20:02</t>
+          <t>10-15 07:55</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,600674,1235433323.html</t>
+          <t>/news,600674,1235512220.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>川投能源：参股公司投资收益增加 前三季度归母净利29.19亿元</t>
+          <t>川投能源：融资净买入272.18万元，融资余额5.58亿元（10-14）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-14 19:42</t>
+          <t>10-15 07:33</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,600674,1235430800.html</t>
+          <t>/news,600674,1235509517.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>588</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>业绩快报：川投能源2022年三季度净利润29.19亿 同比增长5.02%</t>
+          <t>川投能源：前三季度公司控股电力企业累计完成发电量同比减少11.13%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-14 18:18</t>
+          <t>10-14 20:02</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,600674,1235412024.html</t>
+          <t>/news,600674,1235433323.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>428</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>川投能源：2022年前三季度净利润约29.19亿元 同比增加5.02%</t>
+          <t>川投能源：参股公司投资收益增加 前三季度归母净利29.19亿元</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-14 18:18</t>
+          <t>10-14 19:42</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,600674,1235412584.html</t>
+          <t>/news,600674,1235430800.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>川投能源10月13日获沪股通增持32.74万股</t>
+          <t>业绩快报：川投能源2022年三季度净利润29.19亿 同比增长5.02%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-14 07:45</t>
+          <t>10-14 18:18</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,600674,1235081459.html</t>
+          <t>/news,600674,1235412024.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>621</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还1199.77万元，融资余额5.56亿元（10-13）</t>
+          <t>川投能源：2022年前三季度净利润约29.19亿元 同比增加5.02%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-14 07:30</t>
+          <t>10-14 18:18</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,600674,1235079068.html</t>
+          <t>/news,600674,1235412584.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>川投能源10月12日被沪股通减持142.78万股</t>
+          <t>川投能源10月13日获沪股通增持32.74万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-13 07:50</t>
+          <t>10-14 07:45</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,600674,1234645656.html</t>
+          <t>/news,600674,1235081459.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还66.98万元，融资余额5.68亿元（10-12）</t>
+          <t>川投能源：融资净偿还1199.77万元，融资余额5.56亿元（10-13）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-13 07:32</t>
+          <t>10-14 07:30</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,600674,1234643058.html</t>
+          <t>/news,600674,1235079068.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>川投能源10月11日获沪股通增持25.09万股</t>
+          <t>川投能源10月12日被沪股通减持142.78万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-12 07:49</t>
+          <t>10-13 07:50</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,600674,1234212748.html</t>
+          <t>/news,600674,1234645656.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入307.1万元，融资余额5.68亿元（10-11）</t>
+          <t>川投能源：融资净偿还66.98万元，融资余额5.68亿元（10-12）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-12 07:30</t>
+          <t>10-13 07:32</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,600674,1234209738.html</t>
+          <t>/news,600674,1234643058.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还470.03万元，融资余额5.65亿元（10-10）</t>
+          <t>川投能源10月11日获沪股通增持25.09万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,51 +2909,51 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-11 07:30</t>
+          <t>10-12 07:49</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,600674,1233833561.html</t>
+          <t>/news,600674,1234212748.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>616</t>
+          <t>399</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入540.96万元，居电力行业板块第十二</t>
+          <t>川投能源：融资净买入307.1万元，融资余额5.68亿元（10-11）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-09 15:06</t>
+          <t>10-12 07:30</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,600674,1233322964.html</t>
+          <t>/news,600674,1234209738.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>367</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,29 +2963,29 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加2136.93万元，居电力行业板块第七</t>
+          <t>川投能源：融资净偿还470.03万元，融资余额5.65亿元（10-10）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-09 14:07</t>
+          <t>10-11 07:30</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,600674,1233317486.html</t>
+          <t>/news,600674,1233833561.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>639</t>
+          <t>616</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
+          <t>川投能源本周融资净买入540.96万元，居电力行业板块第十二</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-09 10:44</t>
+          <t>10-09 15:06</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,600674,1233306706.html</t>
+          <t>/news,600674,1233322964.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/600674.xlsx
+++ b/news_ann/news/tmp/600674.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>125</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>川投能源11月09日获沪股通增持22.29万股</t>
+          <t>川投能源：连续4日融资净买入累计3140.35万元（11-10）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-10 07:39</t>
+          <t>11-11 07:37</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,600674,1244888907.html</t>
+          <t>/news,600674,1245410017.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净买入累计2307.22万元（11-09）</t>
+          <t>川投能源11月09日获沪股通增持22.29万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,12 +509,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-10 07:27</t>
+          <t>11-10 07:39</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,600674,1244886962.html</t>
+          <t>/news,600674,1244888907.html</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1153.08万元，融资余额6.67亿元（11-08）</t>
+          <t>川投能源：连续3日融资净买入累计2307.22万元（11-09）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-09 07:31</t>
+          <t>11-10 07:27</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,600674,1244424771.html</t>
+          <t>/news,600674,1244886962.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>川投能源11月07日获沪股通增持11.99万股</t>
+          <t>川投能源：融资净买入1153.08万元，融资余额6.67亿元（11-08）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-08 07:50</t>
+          <t>11-09 07:31</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,600674,1243974523.html</t>
+          <t>/news,600674,1244424771.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1002.96万元，融资余额6.55亿元（11-07）</t>
+          <t>川投能源11月07日获沪股通增持11.99万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-08 07:29</t>
+          <t>11-08 07:50</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,600674,1243971057.html</t>
+          <t>/news,600674,1243974523.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>川投能源：公司及控股子公司之间的担保余额共计约2.89亿元</t>
+          <t>川投能源：融资净买入1002.96万元，融资余额6.55亿元（11-07）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,51 +637,51 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-07 16:50</t>
+          <t>11-08 07:29</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,600674,1243839821.html</t>
+          <t>/news,600674,1243971057.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>450</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>川投能源本周融资净偿还2823.08万元，居电力行业板块第二</t>
+          <t>川投能源：公司及控股子公司之间的担保余额共计约2.89亿元</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-06 15:20</t>
+          <t>11-07 16:50</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,600674,1243413079.html</t>
+          <t>/news,600674,1243839821.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,29 +691,29 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>沪股通连续2周净卖出川投能源 累计净卖出6599.4万元</t>
+          <t>川投能源本周融资净偿还2823.08万元，居电力行业板块第二</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-06 15:20</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,600674,1243404704.html</t>
+          <t>/news,600674,1243413079.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>328</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,39 +723,39 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净偿还累计2571.62万元（11-04）</t>
+          <t>沪股通连续2周净卖出川投能源 累计净卖出6599.4万元</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-05 07:40</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,600674,1243317219.html</t>
+          <t>/news,600674,1243404704.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>川投能源11月03日被沪股通减持82.42万股</t>
+          <t>川投能源：连续3日融资净偿还累计2571.62万元（11-04）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-04 07:47</t>
+          <t>11-05 07:40</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,600674,1242816855.html</t>
+          <t>/news,600674,1243317219.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>441</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还635.52万元，融资余额6.5亿元（11-03）</t>
+          <t>川投能源11月03日被沪股通减持82.42万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-04 07:30</t>
+          <t>11-04 07:47</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,600674,1242813737.html</t>
+          <t>/news,600674,1242816855.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>川投能源11月02日被沪股通减持74万股</t>
+          <t>川投能源：融资净偿还635.52万元，融资余额6.5亿元（11-03）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-04 07:30</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,600674,1242326355.html</t>
+          <t>/news,600674,1242813737.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还1427万元，融资余额6.57亿元（11-02）</t>
+          <t>川投能源11月02日被沪股通减持74万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-03 07:29</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,600674,1242321485.html</t>
+          <t>/news,600674,1242326355.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>川投能源11月01日获沪股通增持51.68万股</t>
+          <t>川投能源：融资净偿还1427万元，融资余额6.57亿元（11-02）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-02 07:51</t>
+          <t>11-03 07:29</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,600674,1241801443.html</t>
+          <t>/news,600674,1242321485.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1119.71万元，融资余额6.71亿元（11-01）</t>
+          <t>川投能源11月01日获沪股通增持51.68万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-02 07:51</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,600674,1241800687.html</t>
+          <t>/news,600674,1241801443.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>川投能源10月31日被沪股通减持78.36万股</t>
+          <t>川投能源：融资净买入1119.71万元，融资余额6.71亿元（11-01）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-01 07:52</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,600674,1241297048.html</t>
+          <t>/news,600674,1241800687.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还1371.17万元，融资余额6.6亿元（10-31）</t>
+          <t>川投能源10月31日被沪股通减持78.36万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-01 07:28</t>
+          <t>11-01 07:52</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,600674,1241293200.html</t>
+          <t>/news,600674,1241297048.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,29 +1011,29 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>川财证券维持川投能源增持评级 预计2022年净利润同比增长11.76%</t>
+          <t>川投能源：融资净偿还1371.17万元，融资余额6.6亿元（10-31）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-31 22:05</t>
+          <t>11-01 07:28</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,600674,1241253673.html</t>
+          <t>/news,600674,1241293200.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>400</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,29 +1043,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>川财证券给予川投能源增持评级</t>
+          <t>川财证券维持川投能源增持评级 预计2022年净利润同比增长11.76%</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-31 22:03</t>
+          <t>10-31 22:05</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,600674,1241261790.html</t>
+          <t>/news,600674,1241253673.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,29 +1075,29 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入2973.07万元，居电力行业板块第八</t>
+          <t>川财证券给予川投能源增持评级</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>10-31 22:03</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,600674,1240712918.html</t>
+          <t>/news,600674,1241261790.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>470</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,29 +1107,29 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值减少4460.01万元，居电力行业板块第五</t>
+          <t>川投能源本周融资净买入2973.07万元，居电力行业板块第八</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-30 14:08</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,600674,1240707423.html</t>
+          <t>/news,600674,1240712918.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>487</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,29 +1139,29 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>川投能源10月28日被沪股通减持16.12万股</t>
+          <t>川投能源本周沪股通持股市值减少4460.01万元，居电力行业板块第五</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-29 07:56</t>
+          <t>10-30 14:08</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,600674,1240600933.html</t>
+          <t>/news,600674,1240707423.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>456</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净买入累计2728.82万元（10-28）</t>
+          <t>川投能源10月28日被沪股通减持16.12万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-29 07:33</t>
+          <t>10-29 07:56</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,600674,1240597339.html</t>
+          <t>/news,600674,1240600933.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>川投能源10月27日被沪股通减持11.71万股</t>
+          <t>川投能源：连续3日融资净买入累计2728.82万元（10-28）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-28 07:42</t>
+          <t>10-29 07:33</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,600674,1240046616.html</t>
+          <t>/news,600674,1240597339.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入499.33万元，融资余额6.68亿元（10-27）</t>
+          <t>川投能源10月27日被沪股通减持11.71万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-28 07:29</t>
+          <t>10-28 07:42</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,600674,1240044380.html</t>
+          <t>/news,600674,1240046616.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>川投能源10月26日被沪股通减持79.49万股</t>
+          <t>川投能源：融资净买入499.33万元，融资余额6.68亿元（10-27）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-27 07:44</t>
+          <t>10-28 07:29</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,600674,1239496318.html</t>
+          <t>/news,600674,1240044380.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1740.9万元，融资余额6.63亿元（10-26）</t>
+          <t>川投能源10月26日被沪股通减持79.49万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-27 07:33</t>
+          <t>10-27 07:44</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,600674,1239494829.html</t>
+          <t>/news,600674,1239496318.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>川投能源10月25日被沪股通减持173.77万股</t>
+          <t>川投能源：融资净买入1740.9万元，融资余额6.63亿元（10-26）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-26 07:58</t>
+          <t>10-27 07:33</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,600674,1238970260.html</t>
+          <t>/news,600674,1239494829.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还1821.77万元，融资余额6.46亿元（10-25）</t>
+          <t>川投能源10月25日被沪股通减持173.77万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-26 07:31</t>
+          <t>10-26 07:58</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,600674,1238965647.html</t>
+          <t>/news,600674,1238970260.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,29 +1395,29 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>长城证券维持川投能源增持评级 预计2022年净利润同比增长16.75%</t>
+          <t>川投能源：融资净偿还1821.77万元，融资余额6.46亿元（10-25）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-25 21:21</t>
+          <t>10-26 07:31</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,600674,1238894339.html</t>
+          <t>/news,600674,1238965647.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>493</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,29 +1427,29 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>首创证券给予川投能源买入评级 来水影响发电量 雅砻江公司成为业绩保障</t>
+          <t>长城证券维持川投能源增持评级 预计2022年净利润同比增长16.75%</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-25 13:22</t>
+          <t>10-25 21:21</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,600674,1238695111.html</t>
+          <t>/news,600674,1238894339.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>393</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,29 +1459,29 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>首创证券维持川投能源买入评级 预计2022年净利润同比增长9.15%</t>
+          <t>首创证券给予川投能源买入评级 来水影响发电量 雅砻江公司成为业绩保障</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-25 13:17</t>
+          <t>10-25 13:22</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,600674,1238689042.html</t>
+          <t>/news,600674,1238695111.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,29 +1491,29 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>川投能源10月24日被沪股通减持111.56万股</t>
+          <t>首创证券维持川投能源买入评级 预计2022年净利润同比增长9.15%</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-25 07:47</t>
+          <t>10-25 13:17</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,600674,1238447684.html</t>
+          <t>/news,600674,1238689042.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>川投能源：连续7日融资净买入累计1.09亿元（10-24）</t>
+          <t>川投能源10月24日被沪股通减持111.56万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-25 07:29</t>
+          <t>10-25 07:47</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,600674,1238443879.html</t>
+          <t>/news,600674,1238447684.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>国海证券给予川投能源买入评级</t>
+          <t>川投能源：连续7日融资净买入累计1.09亿元（10-24）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-25 07:08</t>
+          <t>10-25 07:29</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,600674,1238441787.html</t>
+          <t>/news,600674,1238443879.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,29 +1587,29 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>国海证券维持川投能源买入评级 预计2022年净利润同比增长8.05%</t>
+          <t>国海证券给予川投能源买入评级</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-25 06:53</t>
+          <t>10-25 07:08</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,600674,1238440213.html</t>
+          <t>/news,600674,1238441787.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
+          <t>国海证券维持川投能源买入评级 预计2022年净利润同比增长8.05%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,61 +1629,61 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-24 09:11</t>
+          <t>10-25 06:53</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,600674,1237928643.html</t>
+          <t>/news,600674,1238440213.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>中国银河给予川投能源推荐评级：雅砻江Q3发电量实现正增长 沿江新能源打开新成长空间</t>
+          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-24 07:23</t>
+          <t>10-24 09:11</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,600674,1237915624.html</t>
+          <t>/news,600674,1237928643.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>东吴证券给予川投能源买入评级 自然灾害拖累发电量表现 利润增长主要来自于雅砻江水电</t>
+          <t>中国银河给予川投能源推荐评级：雅砻江Q3发电量实现正增长 沿江新能源打开新成长空间</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-24 07:09</t>
+          <t>10-24 07:23</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,600674,1237914624.html</t>
+          <t>/news,600674,1237915624.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,29 +1715,29 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>中国银河维持川投能源推荐评级 预计2022年净利润同比增长7.02%</t>
+          <t>东吴证券给予川投能源买入评级 自然灾害拖累发电量表现 利润增长主要来自于雅砻江水电</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-24 07:06</t>
+          <t>10-24 07:09</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,600674,1237914166.html</t>
+          <t>/news,600674,1237914624.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>东吴证券维持川投能源买入评级 预计2022年净利润同比增长14.24%</t>
+          <t>中国银河维持川投能源推荐评级 预计2022年净利润同比增长7.02%</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-24 06:30</t>
+          <t>10-24 07:06</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,600674,1237913185.html</t>
+          <t>/news,600674,1237914166.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,29 +1779,29 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入8535.19万元，居电力行业板块第三</t>
+          <t>东吴证券维持川投能源买入评级 预计2022年净利润同比增长14.24%</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-23 15:08</t>
+          <t>10-24 06:30</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,600674,1237864909.html</t>
+          <t>/news,600674,1237913185.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,29 +1811,29 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>华泰证券维持川投能源买入评级 目标价14.72元</t>
+          <t>川投能源本周融资净买入8535.19万元，居电力行业板块第三</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-23 14:10</t>
+          <t>10-23 15:08</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,600674,1237860794.html</t>
+          <t>/news,600674,1237864909.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,29 +1843,29 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加4373.88万元，居电力行业板块第八</t>
+          <t>华泰证券维持川投能源买入评级 目标价14.72元</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-23 14:06</t>
+          <t>10-23 14:10</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,600674,1237860359.html</t>
+          <t>/news,600674,1237860794.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,29 +1875,29 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>民生证券给予川投能源谨慎推荐评级：缺水、地震接踵而至 雅砻江稳中有增</t>
+          <t>川投能源本周沪股通持股市值增加4373.88万元，居电力行业板块第八</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-23 14:02</t>
+          <t>10-23 14:06</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,600674,1237860656.html</t>
+          <t>/news,600674,1237860359.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>428</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,29 +1907,29 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>民生证券维持川投能源谨慎推荐评级 目标价12.8元</t>
+          <t>民生证券给予川投能源谨慎推荐评级：缺水、地震接踵而至 雅砻江稳中有增</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-23 13:05</t>
+          <t>10-23 14:02</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,600674,1237856960.html</t>
+          <t>/news,600674,1237860656.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,29 +1939,29 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>川投能源10月21日获沪股通增持62.34万股</t>
+          <t>民生证券维持川投能源谨慎推荐评级 目标价12.8元</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-22 07:45</t>
+          <t>10-23 13:05</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,600674,1237796375.html</t>
+          <t>/news,600674,1237856960.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>川投能源：连续6日融资净买入累计8807.37万元（10-21）</t>
+          <t>川投能源10月21日获沪股通增持62.34万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-22 07:33</t>
+          <t>10-22 07:45</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,600674,1237794834.html</t>
+          <t>/news,600674,1237796375.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>321</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>【图解季报】川投能源：2022年前三季度归母净利润同比增长5%，约为29.2亿元</t>
+          <t>川投能源：连续6日融资净买入累计8807.37万元（10-21）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-21 22:10</t>
+          <t>10-22 07:33</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,600674,1237763963.html</t>
+          <t>/news,600674,1237794834.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>811</t>
+          <t>401</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>川投能源：前三季度归母净利润29.19亿元</t>
+          <t>【图解季报】川投能源：2022年前三季度归母净利润同比增长5%，约为29.2亿元</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-21 20:03</t>
+          <t>10-21 22:10</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,600674,1237738860.html</t>
+          <t>/news,600674,1237763963.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>814</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>川投能源：2022年前三季度净利润约29.19亿元</t>
+          <t>川投能源：前三季度归母净利润29.19亿元</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-21 19:07</t>
+          <t>10-21 20:03</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,600674,1237728875.html</t>
+          <t>/news,600674,1237738860.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>川投能源股东户数下降8.85%，户均持股151.04万元</t>
+          <t>川投能源：2022年前三季度净利润约29.19亿元</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-21 18:55</t>
+          <t>10-21 19:07</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,600674,1237726629.html</t>
+          <t>/news,600674,1237728875.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,29 +2131,29 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>川投能源：2022年前三季度净利润同比增长5.02%</t>
+          <t>川投能源股东户数下降8.85%，户均持股151.04万元</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-21 18:49</t>
+          <t>10-21 18:55</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,600674,1237725578.html</t>
+          <t>/news,600674,1237726629.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,29 +2163,29 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>川投能源10月20日被沪股通减持148.64万股</t>
+          <t>川投能源：2022年前三季度净利润同比增长5.02%</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-21 07:48</t>
+          <t>10-21 18:49</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,600674,1237347913.html</t>
+          <t>/news,600674,1237725578.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入6385.46万元，创近一年新高（10-20）</t>
+          <t>川投能源10月20日被沪股通减持148.64万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-21 07:28</t>
+          <t>10-21 07:48</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,600674,1237344669.html</t>
+          <t>/news,600674,1237347913.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>川投能源10月19日被沪股通减持25.69万股</t>
+          <t>川投能源：融资净买入6385.46万元，创近一年新高（10-20）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-20 07:44</t>
+          <t>10-21 07:28</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,600674,1236888079.html</t>
+          <t>/news,600674,1237344669.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>川投能源：连续4日融资净买入累计1823.92万元（10-19）</t>
+          <t>川投能源10月19日被沪股通减持25.69万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-20 07:29</t>
+          <t>10-20 07:44</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,600674,1236885665.html</t>
+          <t>/news,600674,1236888079.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>天风证券给予川投能源买入评级 雅砻江水电克服汛期来水不利影响 带动前三季度业绩同比+5%</t>
+          <t>川投能源：连续4日融资净买入累计1823.92万元（10-19）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-19 10:52</t>
+          <t>10-20 07:29</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,600674,1236573020.html</t>
+          <t>/news,600674,1236885665.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,29 +2323,29 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>天风证券维持川投能源买入评级 预计2022年净利润同比增长6.58%</t>
+          <t>天风证券给予川投能源买入评级 雅砻江水电克服汛期来水不利影响 带动前三季度业绩同比+5%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-19 10:45</t>
+          <t>10-19 10:52</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,600674,1236564121.html</t>
+          <t>/news,600674,1236573020.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,22 +2355,22 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净买入累计1122.77万元（10-18）</t>
+          <t>天风证券维持川投能源买入评级 预计2022年净利润同比增长6.58%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-19 07:30</t>
+          <t>10-19 10:45</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,600674,1236436661.html</t>
+          <t>/news,600674,1236564121.html</t>
         </is>
       </c>
     </row>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>川投能源10月17日获沪股通增持152.96万股</t>
+          <t>川投能源：连续3日融资净买入累计1122.77万元（10-18）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-18 07:49</t>
+          <t>10-19 07:30</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,600674,1236042157.html</t>
+          <t>/news,600674,1236436661.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入514.06万元，融资余额5.63亿元（10-17）</t>
+          <t>川投能源10月17日获沪股通增持152.96万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-18 07:30</t>
+          <t>10-18 07:49</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,600674,1236039511.html</t>
+          <t>/news,600674,1236042157.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,29 +2451,29 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>中信证券维持川投能源买入评级 目标价14.5元</t>
+          <t>川投能源：融资净买入514.06万元，融资余额5.63亿元（10-17）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-17 16:48</t>
+          <t>10-18 07:30</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,600674,1235939724.html</t>
+          <t>/news,600674,1236039511.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>502</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
+          <t>中信证券维持川投能源买入评级 目标价14.5元</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-17 16:32</t>
+          <t>10-17 16:48</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,600674,1235935773.html</t>
+          <t>/news,600674,1235939724.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>391</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,29 +2515,29 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>川投能源本周融资净偿还1157.49万元，居电力行业板块第十一</t>
+          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-16 15:07</t>
+          <t>10-17 16:32</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,600674,1235580977.html</t>
+          <t>/news,600674,1235935773.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>538</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,29 +2547,29 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值减少1159.25万元，居电力行业板块第六</t>
+          <t>川投能源本周融资净偿还1157.49万元，居电力行业板块第十一</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-16 14:05</t>
+          <t>10-16 15:07</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,600674,1235575593.html</t>
+          <t>/news,600674,1235580977.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>486</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,29 +2579,29 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>川投能源10月14日被沪股通减持19.47万股</t>
+          <t>川投能源本周沪股通持股市值减少1159.25万元，居电力行业板块第六</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-15 07:55</t>
+          <t>10-16 14:05</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,600674,1235512220.html</t>
+          <t>/news,600674,1235575593.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>415</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入272.18万元，融资余额5.58亿元（10-14）</t>
+          <t>川投能源10月14日被沪股通减持19.47万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-15 07:33</t>
+          <t>10-15 07:55</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,600674,1235509517.html</t>
+          <t>/news,600674,1235512220.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>588</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>川投能源：前三季度公司控股电力企业累计完成发电量同比减少11.13%</t>
+          <t>川投能源：融资净买入272.18万元，融资余额5.58亿元（10-14）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-14 20:02</t>
+          <t>10-15 07:33</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,600674,1235433323.html</t>
+          <t>/news,600674,1235509517.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>591</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>川投能源：参股公司投资收益增加 前三季度归母净利29.19亿元</t>
+          <t>川投能源：前三季度公司控股电力企业累计完成发电量同比减少11.13%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-14 19:42</t>
+          <t>10-14 20:02</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,600674,1235430800.html</t>
+          <t>/news,600674,1235433323.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>433</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>业绩快报：川投能源2022年三季度净利润29.19亿 同比增长5.02%</t>
+          <t>川投能源：参股公司投资收益增加 前三季度归母净利29.19亿元</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-14 18:18</t>
+          <t>10-14 19:42</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,600674,1235412024.html</t>
+          <t>/news,600674,1235430800.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>391</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>川投能源：2022年前三季度净利润约29.19亿元 同比增加5.02%</t>
+          <t>业绩快报：川投能源2022年三季度净利润29.19亿 同比增长5.02%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2754,24 +2754,24 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,600674,1235412584.html</t>
+          <t>/news,600674,1235412024.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>627</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>川投能源10月13日获沪股通增持32.74万股</t>
+          <t>川投能源：2022年前三季度净利润约29.19亿元 同比增加5.02%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-14 07:45</t>
+          <t>10-14 18:18</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,600674,1235081459.html</t>
+          <t>/news,600674,1235412584.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还1199.77万元，融资余额5.56亿元（10-13）</t>
+          <t>川投能源10月13日获沪股通增持32.74万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-14 07:30</t>
+          <t>10-14 07:45</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,600674,1235079068.html</t>
+          <t>/news,600674,1235081459.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>川投能源10月12日被沪股通减持142.78万股</t>
+          <t>川投能源：融资净偿还1199.77万元，融资余额5.56亿元（10-13）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-13 07:50</t>
+          <t>10-14 07:30</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,600674,1234645656.html</t>
+          <t>/news,600674,1235079068.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还66.98万元，融资余额5.68亿元（10-12）</t>
+          <t>川投能源10月12日被沪股通减持142.78万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-13 07:32</t>
+          <t>10-13 07:50</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,600674,1234643058.html</t>
+          <t>/news,600674,1234645656.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>川投能源10月11日获沪股通增持25.09万股</t>
+          <t>川投能源：融资净偿还66.98万元，融资余额5.68亿元（10-12）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-12 07:49</t>
+          <t>10-13 07:32</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,600674,1234212748.html</t>
+          <t>/news,600674,1234643058.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入307.1万元，融资余额5.68亿元（10-11）</t>
+          <t>川投能源10月11日获沪股通增持25.09万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-12 07:30</t>
+          <t>10-12 07:49</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,600674,1234209738.html</t>
+          <t>/news,600674,1234212748.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还470.03万元，融资余额5.65亿元（10-10）</t>
+          <t>川投能源：融资净买入307.1万元，融资余额5.68亿元（10-11）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-11 07:30</t>
+          <t>10-12 07:30</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,600674,1233833561.html</t>
+          <t>/news,600674,1234209738.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>616</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入540.96万元，居电力行业板块第十二</t>
+          <t>川投能源：融资净偿还470.03万元，融资余额5.65亿元（10-10）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-09 15:06</t>
+          <t>10-11 07:30</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,600674,1233322964.html</t>
+          <t>/news,600674,1233833561.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/600674.xlsx
+++ b/news_ann/news/tmp/600674.xlsx
@@ -457,39 +457,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>川投能源：连续4日融资净买入累计3140.35万元（11-10）</t>
+          <t>川投能源本周融资净买入2574.49万元，居电力行业板块第七</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-11 07:37</t>
+          <t>11-13 15:07</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,600674,1245410017.html</t>
+          <t>/news,600674,1246099606.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,29 +499,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>川投能源11月09日获沪股通增持22.29万股</t>
+          <t>川投能源本周沪股通持股市值增加1350.02万元，居电力行业板块第二</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-10 07:39</t>
+          <t>11-13 14:10</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,600674,1244888907.html</t>
+          <t>/news,600674,1246094601.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净买入累计2307.22万元（11-09）</t>
+          <t>川投能源11月11日获沪股通增持90.7万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-10 07:27</t>
+          <t>11-12 07:43</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,600674,1244886962.html</t>
+          <t>/news,600674,1245985827.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1153.08万元，融资余额6.67亿元（11-08）</t>
+          <t>川投能源：融资净偿还565.86万元，融资余额6.71亿元（11-11）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-09 07:31</t>
+          <t>11-12 07:31</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,600674,1244424771.html</t>
+          <t>/news,600674,1245984248.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>川投能源11月07日获沪股通增持11.99万股</t>
+          <t>川投能源：连续4日融资净买入累计3140.35万元（11-10）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-08 07:50</t>
+          <t>11-11 07:37</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,600674,1243974523.html</t>
+          <t>/news,600674,1245410017.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1002.96万元，融资余额6.55亿元（11-07）</t>
+          <t>川投能源11月09日获沪股通增持22.29万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-08 07:29</t>
+          <t>11-10 07:39</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,600674,1243971057.html</t>
+          <t>/news,600674,1244888907.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>川投能源：公司及控股子公司之间的担保余额共计约2.89亿元</t>
+          <t>川投能源：连续3日融资净买入累计2307.22万元（11-09）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-07 16:50</t>
+          <t>11-10 07:27</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,600674,1243839821.html</t>
+          <t>/news,600674,1244886962.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,29 +691,29 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>川投能源本周融资净偿还2823.08万元，居电力行业板块第二</t>
+          <t>川投能源：融资净买入1153.08万元，融资余额6.67亿元（11-08）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-06 15:20</t>
+          <t>11-09 07:31</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,600674,1243413079.html</t>
+          <t>/news,600674,1244424771.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,29 +723,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>沪股通连续2周净卖出川投能源 累计净卖出6599.4万元</t>
+          <t>川投能源11月07日获沪股通增持11.99万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-08 07:50</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,600674,1243404704.html</t>
+          <t>/news,600674,1243974523.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净偿还累计2571.62万元（11-04）</t>
+          <t>川投能源：融资净买入1002.96万元，融资余额6.55亿元（11-07）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-05 07:40</t>
+          <t>11-08 07:29</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,600674,1243317219.html</t>
+          <t>/news,600674,1243971057.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>480</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>川投能源11月03日被沪股通减持82.42万股</t>
+          <t>川投能源：公司及控股子公司之间的担保余额共计约2.89亿元</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-04 07:47</t>
+          <t>11-07 16:50</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,600674,1242816855.html</t>
+          <t>/news,600674,1243839821.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,29 +819,29 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还635.52万元，融资余额6.5亿元（11-03）</t>
+          <t>川投能源本周融资净偿还2823.08万元，居电力行业板块第二</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-04 07:30</t>
+          <t>11-06 15:20</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,600674,1242813737.html</t>
+          <t>/news,600674,1243413079.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>422</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,29 +851,29 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>川投能源11月02日被沪股通减持74万股</t>
+          <t>沪股通连续2周净卖出川投能源 累计净卖出6599.4万元</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,600674,1242326355.html</t>
+          <t>/news,600674,1243404704.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>387</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还1427万元，融资余额6.57亿元（11-02）</t>
+          <t>川投能源：连续3日融资净偿还累计2571.62万元（11-04）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-03 07:29</t>
+          <t>11-05 07:40</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,600674,1242321485.html</t>
+          <t>/news,600674,1243317219.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>458</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>川投能源11月01日获沪股通增持51.68万股</t>
+          <t>川投能源11月03日被沪股通减持82.42万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-02 07:51</t>
+          <t>11-04 07:47</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,600674,1241801443.html</t>
+          <t>/news,600674,1242816855.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1119.71万元，融资余额6.71亿元（11-01）</t>
+          <t>川投能源：融资净偿还635.52万元，融资余额6.5亿元（11-03）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-04 07:30</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,600674,1241800687.html</t>
+          <t>/news,600674,1242813737.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>川投能源10月31日被沪股通减持78.36万股</t>
+          <t>川投能源11月02日被沪股通减持74万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-01 07:52</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,600674,1241297048.html</t>
+          <t>/news,600674,1242326355.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还1371.17万元，融资余额6.6亿元（10-31）</t>
+          <t>川投能源：融资净偿还1427万元，融资余额6.57亿元（11-02）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-01 07:28</t>
+          <t>11-03 07:29</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,600674,1241293200.html</t>
+          <t>/news,600674,1242321485.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,29 +1043,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>川财证券维持川投能源增持评级 预计2022年净利润同比增长11.76%</t>
+          <t>川投能源11月01日获沪股通增持51.68万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-31 22:05</t>
+          <t>11-02 07:51</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,600674,1241253673.html</t>
+          <t>/news,600674,1241801443.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>川财证券给予川投能源增持评级</t>
+          <t>川投能源：融资净买入1119.71万元，融资余额6.71亿元（11-01）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-31 22:03</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,600674,1241261790.html</t>
+          <t>/news,600674,1241800687.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,29 +1107,29 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入2973.07万元，居电力行业板块第八</t>
+          <t>川投能源10月31日被沪股通减持78.36万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>11-01 07:52</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,600674,1240712918.html</t>
+          <t>/news,600674,1241297048.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,29 +1139,29 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值减少4460.01万元，居电力行业板块第五</t>
+          <t>川投能源：融资净偿还1371.17万元，融资余额6.6亿元（10-31）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-30 14:08</t>
+          <t>11-01 07:28</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,600674,1240707423.html</t>
+          <t>/news,600674,1241293200.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>482</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,29 +1171,29 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>川投能源10月28日被沪股通减持16.12万股</t>
+          <t>川财证券维持川投能源增持评级 预计2022年净利润同比增长11.76%</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-29 07:56</t>
+          <t>10-31 22:05</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,600674,1240600933.html</t>
+          <t>/news,600674,1241253673.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净买入累计2728.82万元（10-28）</t>
+          <t>川财证券给予川投能源增持评级</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-29 07:33</t>
+          <t>10-31 22:03</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,600674,1240597339.html</t>
+          <t>/news,600674,1241261790.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>646</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,29 +1235,29 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>川投能源10月27日被沪股通减持11.71万股</t>
+          <t>川投能源本周融资净买入2973.07万元，居电力行业板块第八</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-28 07:42</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,600674,1240046616.html</t>
+          <t>/news,600674,1240712918.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>516</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,29 +1267,29 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入499.33万元，融资余额6.68亿元（10-27）</t>
+          <t>川投能源本周沪股通持股市值减少4460.01万元，居电力行业板块第五</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-28 07:29</t>
+          <t>10-30 14:08</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,600674,1240044380.html</t>
+          <t>/news,600674,1240707423.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>468</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>川投能源10月26日被沪股通减持79.49万股</t>
+          <t>川投能源10月28日被沪股通减持16.12万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-27 07:44</t>
+          <t>10-29 07:56</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,600674,1239496318.html</t>
+          <t>/news,600674,1240600933.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1740.9万元，融资余额6.63亿元（10-26）</t>
+          <t>川投能源：连续3日融资净买入累计2728.82万元（10-28）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,12 +1341,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-27 07:33</t>
+          <t>10-29 07:33</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,600674,1239494829.html</t>
+          <t>/news,600674,1240597339.html</t>
         </is>
       </c>
     </row>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>川投能源10月25日被沪股通减持173.77万股</t>
+          <t>川投能源10月27日被沪股通减持11.71万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-26 07:58</t>
+          <t>10-28 07:42</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,600674,1238970260.html</t>
+          <t>/news,600674,1240046616.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还1821.77万元，融资余额6.46亿元（10-25）</t>
+          <t>川投能源：融资净买入499.33万元，融资余额6.68亿元（10-27）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-26 07:31</t>
+          <t>10-28 07:29</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,600674,1238965647.html</t>
+          <t>/news,600674,1240044380.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,29 +1427,29 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>长城证券维持川投能源增持评级 预计2022年净利润同比增长16.75%</t>
+          <t>川投能源10月26日被沪股通减持79.49万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-25 21:21</t>
+          <t>10-27 07:44</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,600674,1238894339.html</t>
+          <t>/news,600674,1239496318.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>首创证券给予川投能源买入评级 来水影响发电量 雅砻江公司成为业绩保障</t>
+          <t>川投能源：融资净买入1740.9万元，融资余额6.63亿元（10-26）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-25 13:22</t>
+          <t>10-27 07:33</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,600674,1238695111.html</t>
+          <t>/news,600674,1239494829.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,29 +1491,29 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>首创证券维持川投能源买入评级 预计2022年净利润同比增长9.15%</t>
+          <t>川投能源10月25日被沪股通减持173.77万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-25 13:17</t>
+          <t>10-26 07:58</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,600674,1238689042.html</t>
+          <t>/news,600674,1238970260.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>川投能源10月24日被沪股通减持111.56万股</t>
+          <t>川投能源：融资净偿还1821.77万元，融资余额6.46亿元（10-25）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-25 07:47</t>
+          <t>10-26 07:31</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,600674,1238447684.html</t>
+          <t>/news,600674,1238965647.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>506</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,29 +1555,29 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>川投能源：连续7日融资净买入累计1.09亿元（10-24）</t>
+          <t>长城证券维持川投能源增持评级 预计2022年净利润同比增长16.75%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-25 07:29</t>
+          <t>10-25 21:21</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,600674,1238443879.html</t>
+          <t>/news,600674,1238894339.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>国海证券给予川投能源买入评级</t>
+          <t>首创证券给予川投能源买入评级 来水影响发电量 雅砻江公司成为业绩保障</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-25 07:08</t>
+          <t>10-25 13:22</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,600674,1238441787.html</t>
+          <t>/news,600674,1246194590.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,29 +1619,29 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>国海证券维持川投能源买入评级 预计2022年净利润同比增长8.05%</t>
+          <t>首创证券给予川投能源买入评级 来水影响发电量 雅砻江公司成为业绩保障</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-25 06:53</t>
+          <t>10-25 13:22</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,600674,1238440213.html</t>
+          <t>/news,600674,1238695111.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>442</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
+          <t>首创证券维持川投能源买入评级 预计2022年净利润同比增长9.15%</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-24 09:11</t>
+          <t>10-25 13:17</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,600674,1237928643.html</t>
+          <t>/news,600674,1238689042.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>中国银河给予川投能源推荐评级：雅砻江Q3发电量实现正增长 沿江新能源打开新成长空间</t>
+          <t>川投能源10月24日被沪股通减持111.56万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-24 07:23</t>
+          <t>10-25 07:47</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,600674,1237915624.html</t>
+          <t>/news,600674,1238447684.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>东吴证券给予川投能源买入评级 自然灾害拖累发电量表现 利润增长主要来自于雅砻江水电</t>
+          <t>川投能源：连续7日融资净买入累计1.09亿元（10-24）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-24 07:09</t>
+          <t>10-25 07:29</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,600674,1237914624.html</t>
+          <t>/news,600674,1238443879.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,29 +1747,29 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>中国银河维持川投能源推荐评级 预计2022年净利润同比增长7.02%</t>
+          <t>国海证券给予川投能源买入评级</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-24 07:06</t>
+          <t>10-25 07:08</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,600674,1237914166.html</t>
+          <t>/news,600674,1238441787.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>东吴证券维持川投能源买入评级 预计2022年净利润同比增长14.24%</t>
+          <t>国海证券维持川投能源买入评级 预计2022年净利润同比增长8.05%</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-24 06:30</t>
+          <t>10-25 06:53</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,600674,1237913185.html</t>
+          <t>/news,600674,1238440213.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,61 +1811,61 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入8535.19万元，居电力行业板块第三</t>
+          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-23 15:08</t>
+          <t>10-24 09:11</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,600674,1237864909.html</t>
+          <t>/news,600674,1237928643.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>444</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>华泰证券维持川投能源买入评级 目标价14.72元</t>
+          <t>中国银河给予川投能源推荐评级：雅砻江Q3发电量实现正增长 沿江新能源打开新成长空间</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-23 14:10</t>
+          <t>10-24 07:23</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,600674,1237860794.html</t>
+          <t>/news,600674,1237915624.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>391</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,29 +1875,29 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加4373.88万元，居电力行业板块第八</t>
+          <t>东吴证券给予川投能源买入评级 自然灾害拖累发电量表现 利润增长主要来自于雅砻江水电</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-23 14:06</t>
+          <t>10-24 07:09</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,600674,1237860359.html</t>
+          <t>/news,600674,1237914624.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,29 +1907,29 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>民生证券给予川投能源谨慎推荐评级：缺水、地震接踵而至 雅砻江稳中有增</t>
+          <t>中国银河维持川投能源推荐评级 预计2022年净利润同比增长7.02%</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-23 14:02</t>
+          <t>10-24 07:06</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,600674,1237860656.html</t>
+          <t>/news,600674,1237914166.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>民生证券维持川投能源谨慎推荐评级 目标价12.8元</t>
+          <t>东吴证券维持川投能源买入评级 预计2022年净利润同比增长14.24%</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-23 13:05</t>
+          <t>10-24 06:30</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,600674,1237856960.html</t>
+          <t>/news,600674,1237913185.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>429</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,29 +1971,29 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>川投能源10月21日获沪股通增持62.34万股</t>
+          <t>川投能源本周融资净买入8535.19万元，居电力行业板块第三</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-22 07:45</t>
+          <t>10-23 15:08</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,600674,1237796375.html</t>
+          <t>/news,600674,1237864909.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,29 +2003,29 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>川投能源：连续6日融资净买入累计8807.37万元（10-21）</t>
+          <t>华泰证券维持川投能源买入评级 目标价14.72元</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-22 07:33</t>
+          <t>10-23 14:10</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,600674,1237794834.html</t>
+          <t>/news,600674,1237860794.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>412</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,39 +2035,39 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>【图解季报】川投能源：2022年前三季度归母净利润同比增长5%，约为29.2亿元</t>
+          <t>川投能源本周沪股通持股市值增加4373.88万元，居电力行业板块第八</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-21 22:10</t>
+          <t>10-23 14:06</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,600674,1237763963.html</t>
+          <t>/news,600674,1237860359.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>814</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>川投能源：前三季度归母净利润29.19亿元</t>
+          <t>民生证券给予川投能源谨慎推荐评级：缺水、地震接踵而至 雅砻江稳中有增</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-21 20:03</t>
+          <t>10-23 14:02</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,600674,1237738860.html</t>
+          <t>/news,600674,1237860656.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,29 +2099,29 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>川投能源：2022年前三季度净利润约29.19亿元</t>
+          <t>民生证券维持川投能源谨慎推荐评级 目标价12.8元</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-21 19:07</t>
+          <t>10-23 13:05</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,600674,1237728875.html</t>
+          <t>/news,600674,1237856960.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>川投能源股东户数下降8.85%，户均持股151.04万元</t>
+          <t>川投能源10月21日获沪股通增持62.34万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-21 18:55</t>
+          <t>10-22 07:45</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,600674,1237726629.html</t>
+          <t>/news,600674,1237796375.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,29 +2163,29 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>川投能源：2022年前三季度净利润同比增长5.02%</t>
+          <t>川投能源：连续6日融资净买入累计8807.37万元（10-21）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-21 18:49</t>
+          <t>10-22 07:33</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,600674,1237725578.html</t>
+          <t>/news,600674,1237794834.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>407</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>川投能源10月20日被沪股通减持148.64万股</t>
+          <t>【图解季报】川投能源：2022年前三季度归母净利润同比增长5%，约为29.2亿元</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-21 07:48</t>
+          <t>10-21 22:10</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,600674,1237347913.html</t>
+          <t>/news,600674,1237763963.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>824</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入6385.46万元，创近一年新高（10-20）</t>
+          <t>川投能源：前三季度归母净利润29.19亿元</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-21 07:28</t>
+          <t>10-21 20:03</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,600674,1237344669.html</t>
+          <t>/news,600674,1237738860.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>450</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>川投能源10月19日被沪股通减持25.69万股</t>
+          <t>川投能源：2022年前三季度净利润约29.19亿元</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-20 07:44</t>
+          <t>10-21 19:07</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,600674,1236888079.html</t>
+          <t>/news,600674,1237728875.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>川投能源：连续4日融资净买入累计1823.92万元（10-19）</t>
+          <t>川投能源股东户数下降8.85%，户均持股151.04万元</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-20 07:29</t>
+          <t>10-21 18:55</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,600674,1236885665.html</t>
+          <t>/news,600674,1237726629.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>533</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,29 +2323,29 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>天风证券给予川投能源买入评级 雅砻江水电克服汛期来水不利影响 带动前三季度业绩同比+5%</t>
+          <t>川投能源：2022年前三季度净利润同比增长5.02%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-19 10:52</t>
+          <t>10-21 18:49</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,600674,1236573020.html</t>
+          <t>/news,600674,1237725578.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,29 +2355,29 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>天风证券维持川投能源买入评级 预计2022年净利润同比增长6.58%</t>
+          <t>川投能源10月20日被沪股通减持148.64万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-19 10:45</t>
+          <t>10-21 07:48</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,600674,1236564121.html</t>
+          <t>/news,600674,1237347913.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净买入累计1122.77万元（10-18）</t>
+          <t>川投能源：融资净买入6385.46万元，创近一年新高（10-20）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-19 07:30</t>
+          <t>10-21 07:28</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,600674,1236436661.html</t>
+          <t>/news,600674,1237344669.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>川投能源10月17日获沪股通增持152.96万股</t>
+          <t>川投能源10月19日被沪股通减持25.69万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-18 07:49</t>
+          <t>10-20 07:44</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,600674,1236042157.html</t>
+          <t>/news,600674,1236888079.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入514.06万元，融资余额5.63亿元（10-17）</t>
+          <t>川投能源：连续4日融资净买入累计1823.92万元（10-19）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-18 07:30</t>
+          <t>10-20 07:29</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,600674,1236039511.html</t>
+          <t>/news,600674,1236885665.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>410</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,29 +2483,29 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>中信证券维持川投能源买入评级 目标价14.5元</t>
+          <t>天风证券给予川投能源买入评级 雅砻江水电克服汛期来水不利影响 带动前三季度业绩同比+5%</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-17 16:48</t>
+          <t>10-19 10:52</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,600674,1235939724.html</t>
+          <t>/news,600674,1236573020.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
+          <t>天风证券维持川投能源买入评级 预计2022年净利润同比增长6.58%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-17 16:32</t>
+          <t>10-19 10:45</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,600674,1235935773.html</t>
+          <t>/news,600674,1236564121.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>538</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,29 +2547,29 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>川投能源本周融资净偿还1157.49万元，居电力行业板块第十一</t>
+          <t>川投能源：连续3日融资净买入累计1122.77万元（10-18）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-16 15:07</t>
+          <t>10-19 07:30</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,600674,1235580977.html</t>
+          <t>/news,600674,1236436661.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,29 +2579,29 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值减少1159.25万元，居电力行业板块第六</t>
+          <t>川投能源10月17日获沪股通增持152.96万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-16 14:05</t>
+          <t>10-18 07:49</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,600674,1235575593.html</t>
+          <t>/news,600674,1236042157.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>川投能源10月14日被沪股通减持19.47万股</t>
+          <t>川投能源：融资净买入514.06万元，融资余额5.63亿元（10-17）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-15 07:55</t>
+          <t>10-18 07:30</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,600674,1235512220.html</t>
+          <t>/news,600674,1236039511.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>507</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,93 +2643,93 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入272.18万元，融资余额5.58亿元（10-14）</t>
+          <t>中信证券维持川投能源买入评级 目标价14.5元</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-15 07:33</t>
+          <t>10-17 16:48</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,600674,1235509517.html</t>
+          <t>/news,600674,1235939724.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>591</t>
+          <t>401</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>川投能源：前三季度公司控股电力企业累计完成发电量同比减少11.13%</t>
+          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-14 20:02</t>
+          <t>10-17 16:32</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,600674,1235433323.html</t>
+          <t>/news,600674,1235935773.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>543</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>川投能源：参股公司投资收益增加 前三季度归母净利29.19亿元</t>
+          <t>川投能源本周融资净偿还1157.49万元，居电力行业板块第十一</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-14 19:42</t>
+          <t>10-16 15:07</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,600674,1235430800.html</t>
+          <t>/news,600674,1235580977.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>488</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,39 +2739,39 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>业绩快报：川投能源2022年三季度净利润29.19亿 同比增长5.02%</t>
+          <t>川投能源本周沪股通持股市值减少1159.25万元，居电力行业板块第六</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-14 18:18</t>
+          <t>10-16 14:05</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,600674,1235412024.html</t>
+          <t>/news,600674,1235575593.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>627</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>川投能源：2022年前三季度净利润约29.19亿元 同比增加5.02%</t>
+          <t>川投能源10月14日被沪股通减持19.47万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-14 18:18</t>
+          <t>10-15 07:55</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,600674,1235412584.html</t>
+          <t>/news,600674,1235512220.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>川投能源10月13日获沪股通增持32.74万股</t>
+          <t>川投能源：融资净买入272.18万元，融资余额5.58亿元（10-14）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-14 07:45</t>
+          <t>10-15 07:33</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,600674,1235081459.html</t>
+          <t>/news,600674,1235509517.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还1199.77万元，融资余额5.56亿元（10-13）</t>
+          <t>川投能源：前三季度公司控股电力企业累计完成发电量同比减少11.13%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-14 07:30</t>
+          <t>10-14 20:02</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,600674,1235079068.html</t>
+          <t>/news,600674,1235433323.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>川投能源10月12日被沪股通减持142.78万股</t>
+          <t>川投能源：参股公司投资收益增加 前三季度归母净利29.19亿元</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-13 07:50</t>
+          <t>10-14 19:42</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,600674,1234645656.html</t>
+          <t>/news,600674,1235430800.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>400</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还66.98万元，融资余额5.68亿元（10-12）</t>
+          <t>业绩快报：川投能源2022年三季度净利润29.19亿 同比增长5.02%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-13 07:32</t>
+          <t>10-14 18:18</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,600674,1234643058.html</t>
+          <t>/news,600674,1235412024.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>630</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>川投能源10月11日获沪股通增持25.09万股</t>
+          <t>川投能源：2022年前三季度净利润约29.19亿元 同比增加5.02%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-12 07:49</t>
+          <t>10-14 18:18</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,600674,1234212748.html</t>
+          <t>/news,600674,1235412584.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入307.1万元，融资余额5.68亿元（10-11）</t>
+          <t>川投能源10月13日获沪股通增持32.74万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-12 07:30</t>
+          <t>10-14 07:45</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,600674,1234209738.html</t>
+          <t>/news,600674,1235081459.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还470.03万元，融资余额5.65亿元（10-10）</t>
+          <t>川投能源：融资净偿还1199.77万元，融资余额5.56亿元（10-13）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-11 07:30</t>
+          <t>10-14 07:30</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,600674,1233833561.html</t>
+          <t>/news,600674,1235079068.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/600674.xlsx
+++ b/news_ann/news/tmp/600674.xlsx
@@ -457,39 +457,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>126</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入2574.49万元，居电力行业板块第七</t>
+          <t>川投能源11月14日被沪股通减持38.11万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-13 15:07</t>
+          <t>11-15 07:57</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,600674,1246099606.html</t>
+          <t>/news,600674,1246691419.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>126</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,61 +499,61 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加1350.02万元，居电力行业板块第二</t>
+          <t>川投能源：融资净买入1186.56万元，融资余额6.83亿元（11-14）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-13 14:10</t>
+          <t>11-15 07:37</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,600674,1246094601.html</t>
+          <t>/news,600674,1246688075.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>川投能源11月11日获沪股通增持90.7万股</t>
+          <t>川投能源本周融资净买入2574.49万元，居电力行业板块第七</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-12 07:43</t>
+          <t>11-13 15:07</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,600674,1245985827.html</t>
+          <t>/news,600674,1246099606.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,29 +563,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还565.86万元，融资余额6.71亿元（11-11）</t>
+          <t>川投能源本周沪股通持股市值增加1350.02万元，居电力行业板块第二</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-12 07:31</t>
+          <t>11-13 14:10</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,600674,1245984248.html</t>
+          <t>/news,600674,1246094601.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>川投能源：连续4日融资净买入累计3140.35万元（11-10）</t>
+          <t>川投能源11月11日获沪股通增持90.7万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-11 07:37</t>
+          <t>11-12 07:43</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,600674,1245410017.html</t>
+          <t>/news,600674,1245985827.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>川投能源11月09日获沪股通增持22.29万股</t>
+          <t>川投能源：融资净偿还565.86万元，融资余额6.71亿元（11-11）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-10 07:39</t>
+          <t>11-12 07:31</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,600674,1244888907.html</t>
+          <t>/news,600674,1245984248.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净买入累计2307.22万元（11-09）</t>
+          <t>川投能源：连续4日融资净买入累计3140.35万元（11-10）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-10 07:27</t>
+          <t>11-11 07:37</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,600674,1244886962.html</t>
+          <t>/news,600674,1245410017.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1153.08万元，融资余额6.67亿元（11-08）</t>
+          <t>川投能源11月09日获沪股通增持22.29万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-09 07:31</t>
+          <t>11-10 07:39</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,600674,1244424771.html</t>
+          <t>/news,600674,1244888907.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>川投能源11月07日获沪股通增持11.99万股</t>
+          <t>川投能源：连续3日融资净买入累计2307.22万元（11-09）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-08 07:50</t>
+          <t>11-10 07:27</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,600674,1243974523.html</t>
+          <t>/news,600674,1244886962.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1002.96万元，融资余额6.55亿元（11-07）</t>
+          <t>川投能源：融资净买入1153.08万元，融资余额6.67亿元（11-08）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-08 07:29</t>
+          <t>11-09 07:31</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,600674,1243971057.html</t>
+          <t>/news,600674,1244424771.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>川投能源：公司及控股子公司之间的担保余额共计约2.89亿元</t>
+          <t>川投能源11月07日获沪股通增持11.99万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-07 16:50</t>
+          <t>11-08 07:50</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,600674,1243839821.html</t>
+          <t>/news,600674,1243974523.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,61 +819,61 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>川投能源本周融资净偿还2823.08万元，居电力行业板块第二</t>
+          <t>川投能源：融资净买入1002.96万元，融资余额6.55亿元（11-07）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-06 15:20</t>
+          <t>11-08 07:29</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,600674,1243413079.html</t>
+          <t>/news,600674,1243971057.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>506</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>沪股通连续2周净卖出川投能源 累计净卖出6599.4万元</t>
+          <t>川投能源：公司及控股子公司之间的担保余额共计约2.89亿元</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-07 16:50</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,600674,1243404704.html</t>
+          <t>/news,600674,1243839821.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,61 +883,61 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净偿还累计2571.62万元（11-04）</t>
+          <t>川投能源本周融资净偿还2823.08万元，居电力行业板块第二</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-05 07:40</t>
+          <t>11-06 15:20</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,600674,1243317219.html</t>
+          <t>/news,600674,1243413079.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>川投能源11月03日被沪股通减持82.42万股</t>
+          <t>沪股通连续2周净卖出川投能源 累计净卖出6599.4万元</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-04 07:47</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,600674,1242816855.html</t>
+          <t>/news,600674,1243404704.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>400</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还635.52万元，融资余额6.5亿元（11-03）</t>
+          <t>川投能源：连续3日融资净偿还累计2571.62万元（11-04）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-04 07:30</t>
+          <t>11-05 07:40</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,600674,1242813737.html</t>
+          <t>/news,600674,1243317219.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>474</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>川投能源11月02日被沪股通减持74万股</t>
+          <t>川投能源11月03日被沪股通减持82.42万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-04 07:47</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,600674,1242326355.html</t>
+          <t>/news,600674,1242816855.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还1427万元，融资余额6.57亿元（11-02）</t>
+          <t>川投能源：融资净偿还635.52万元，融资余额6.5亿元（11-03）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-03 07:29</t>
+          <t>11-04 07:30</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,600674,1242321485.html</t>
+          <t>/news,600674,1242813737.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>川投能源11月01日获沪股通增持51.68万股</t>
+          <t>川投能源11月02日被沪股通减持74万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-02 07:51</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,600674,1241801443.html</t>
+          <t>/news,600674,1242326355.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1119.71万元，融资余额6.71亿元（11-01）</t>
+          <t>川投能源：融资净偿还1427万元，融资余额6.57亿元（11-02）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-03 07:29</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,600674,1241800687.html</t>
+          <t>/news,600674,1242321485.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>川投能源10月31日被沪股通减持78.36万股</t>
+          <t>川投能源11月01日获沪股通增持51.68万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-01 07:52</t>
+          <t>11-02 07:51</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,600674,1241297048.html</t>
+          <t>/news,600674,1241801443.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还1371.17万元，融资余额6.6亿元（10-31）</t>
+          <t>川投能源：融资净买入1119.71万元，融资余额6.71亿元（11-01）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-01 07:28</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,600674,1241293200.html</t>
+          <t>/news,600674,1241800687.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,29 +1171,29 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>川财证券维持川投能源增持评级 预计2022年净利润同比增长11.76%</t>
+          <t>川投能源10月31日被沪股通减持78.36万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-31 22:05</t>
+          <t>11-01 07:52</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,600674,1241253673.html</t>
+          <t>/news,600674,1241297048.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>川财证券给予川投能源增持评级</t>
+          <t>川投能源：融资净偿还1371.17万元，融资余额6.6亿元（10-31）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-31 22:03</t>
+          <t>11-01 07:28</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,600674,1241261790.html</t>
+          <t>/news,600674,1241293200.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>646</t>
+          <t>498</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,29 +1235,29 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入2973.07万元，居电力行业板块第八</t>
+          <t>川财证券维持川投能源增持评级 预计2022年净利润同比增长11.76%</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>10-31 22:05</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,600674,1240712918.html</t>
+          <t>/news,600674,1241253673.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>516</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,29 +1267,29 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值减少4460.01万元，居电力行业板块第五</t>
+          <t>川财证券给予川投能源增持评级</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-30 14:08</t>
+          <t>10-31 22:03</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,600674,1240707423.html</t>
+          <t>/news,600674,1241261790.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>468</t>
+          <t>664</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,29 +1299,29 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>川投能源10月28日被沪股通减持16.12万股</t>
+          <t>川投能源本周融资净买入2973.07万元，居电力行业板块第八</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-29 07:56</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,600674,1240600933.html</t>
+          <t>/news,600674,1240712918.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,29 +1331,29 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净买入累计2728.82万元（10-28）</t>
+          <t>川投能源本周沪股通持股市值减少4460.01万元，居电力行业板块第五</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-29 07:33</t>
+          <t>10-30 14:08</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,600674,1240597339.html</t>
+          <t>/news,600674,1240707423.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>479</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>川投能源10月27日被沪股通减持11.71万股</t>
+          <t>川投能源10月28日被沪股通减持16.12万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-28 07:42</t>
+          <t>10-29 07:56</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,600674,1240046616.html</t>
+          <t>/news,600674,1240600933.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入499.33万元，融资余额6.68亿元（10-27）</t>
+          <t>川投能源：连续3日融资净买入累计2728.82万元（10-28）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-28 07:29</t>
+          <t>10-29 07:33</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,600674,1240044380.html</t>
+          <t>/news,600674,1240597339.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>川投能源10月26日被沪股通减持79.49万股</t>
+          <t>川投能源10月27日被沪股通减持11.71万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-27 07:44</t>
+          <t>10-28 07:42</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,600674,1239496318.html</t>
+          <t>/news,600674,1240046616.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1740.9万元，融资余额6.63亿元（10-26）</t>
+          <t>川投能源：融资净买入499.33万元，融资余额6.68亿元（10-27）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-27 07:33</t>
+          <t>10-28 07:29</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,600674,1239494829.html</t>
+          <t>/news,600674,1240044380.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>川投能源10月25日被沪股通减持173.77万股</t>
+          <t>川投能源10月26日被沪股通减持79.49万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-26 07:58</t>
+          <t>10-27 07:44</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,600674,1238970260.html</t>
+          <t>/news,600674,1239496318.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还1821.77万元，融资余额6.46亿元（10-25）</t>
+          <t>川投能源：融资净买入1740.9万元，融资余额6.63亿元（10-26）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-26 07:31</t>
+          <t>10-27 07:33</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,600674,1238965647.html</t>
+          <t>/news,600674,1239494829.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>506</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,29 +1555,29 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>长城证券维持川投能源增持评级 预计2022年净利润同比增长16.75%</t>
+          <t>川投能源10月25日被沪股通减持173.77万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-25 21:21</t>
+          <t>10-26 07:58</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,600674,1238894339.html</t>
+          <t>/news,600674,1238970260.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>首创证券给予川投能源买入评级 来水影响发电量 雅砻江公司成为业绩保障</t>
+          <t>川投能源：融资净偿还1821.77万元，融资余额6.46亿元（10-25）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-25 13:22</t>
+          <t>10-26 07:31</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,600674,1246194590.html</t>
+          <t>/news,600674,1238965647.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>513</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,29 +1619,29 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>首创证券给予川投能源买入评级 来水影响发电量 雅砻江公司成为业绩保障</t>
+          <t>长城证券维持川投能源增持评级 预计2022年净利润同比增长16.75%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-25 13:22</t>
+          <t>10-25 21:21</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,600674,1238695111.html</t>
+          <t>/news,600674,1238894339.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>77</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,29 +1651,29 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>首创证券维持川投能源买入评级 预计2022年净利润同比增长9.15%</t>
+          <t>首创证券给予川投能源买入评级 来水影响发电量 雅砻江公司成为业绩保障</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-25 13:17</t>
+          <t>10-25 13:22</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,600674,1238689042.html</t>
+          <t>/news,600674,1246194590.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>川投能源10月24日被沪股通减持111.56万股</t>
+          <t>首创证券给予川投能源买入评级 来水影响发电量 雅砻江公司成为业绩保障</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-25 07:47</t>
+          <t>10-25 13:22</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,600674,1238447684.html</t>
+          <t>/news,600674,1238695111.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,29 +1715,29 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>川投能源：连续7日融资净买入累计1.09亿元（10-24）</t>
+          <t>首创证券维持川投能源买入评级 预计2022年净利润同比增长9.15%</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-25 07:29</t>
+          <t>10-25 13:17</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,600674,1238443879.html</t>
+          <t>/news,600674,1238689042.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>国海证券给予川投能源买入评级</t>
+          <t>川投能源10月24日被沪股通减持111.56万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-25 07:08</t>
+          <t>10-25 07:47</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,600674,1238441787.html</t>
+          <t>/news,600674,1238447684.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,29 +1779,29 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>国海证券维持川投能源买入评级 预计2022年净利润同比增长8.05%</t>
+          <t>川投能源：连续7日融资净买入累计1.09亿元（10-24）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-25 06:53</t>
+          <t>10-25 07:29</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,600674,1238440213.html</t>
+          <t>/news,600674,1238443879.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,61 +1811,61 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
+          <t>国海证券给予川投能源买入评级</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-24 09:11</t>
+          <t>10-25 07:08</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,600674,1237928643.html</t>
+          <t>/news,600674,1238441787.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>中国银河给予川投能源推荐评级：雅砻江Q3发电量实现正增长 沿江新能源打开新成长空间</t>
+          <t>国海证券维持川投能源买入评级 预计2022年净利润同比增长8.05%</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-24 07:23</t>
+          <t>10-25 06:53</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,600674,1237915624.html</t>
+          <t>/news,600674,1238440213.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,61 +1875,61 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>东吴证券给予川投能源买入评级 自然灾害拖累发电量表现 利润增长主要来自于雅砻江水电</t>
+          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-24 07:09</t>
+          <t>10-24 09:11</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,600674,1237914624.html</t>
+          <t>/news,600674,1237928643.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>中国银河维持川投能源推荐评级 预计2022年净利润同比增长7.02%</t>
+          <t>中国银河给予川投能源推荐评级：雅砻江Q3发电量实现正增长 沿江新能源打开新成长空间</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-24 07:06</t>
+          <t>10-24 07:23</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,600674,1237914166.html</t>
+          <t>/news,600674,1237915624.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,29 +1939,29 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>东吴证券维持川投能源买入评级 预计2022年净利润同比增长14.24%</t>
+          <t>东吴证券给予川投能源买入评级 自然灾害拖累发电量表现 利润增长主要来自于雅砻江水电</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-24 06:30</t>
+          <t>10-24 07:09</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,600674,1237913185.html</t>
+          <t>/news,600674,1237914624.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,29 +1971,29 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入8535.19万元，居电力行业板块第三</t>
+          <t>中国银河维持川投能源推荐评级 预计2022年净利润同比增长7.02%</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-23 15:08</t>
+          <t>10-24 07:06</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,600674,1237864909.html</t>
+          <t>/news,600674,1237914166.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>华泰证券维持川投能源买入评级 目标价14.72元</t>
+          <t>东吴证券维持川投能源买入评级 预计2022年净利润同比增长14.24%</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-23 14:10</t>
+          <t>10-24 06:30</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,600674,1237860794.html</t>
+          <t>/news,600674,1237913185.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>433</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,29 +2035,29 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加4373.88万元，居电力行业板块第八</t>
+          <t>川投能源本周融资净买入8535.19万元，居电力行业板块第三</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-23 14:06</t>
+          <t>10-23 15:08</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,600674,1237860359.html</t>
+          <t>/news,600674,1237864909.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,29 +2067,29 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>民生证券给予川投能源谨慎推荐评级：缺水、地震接踵而至 雅砻江稳中有增</t>
+          <t>华泰证券维持川投能源买入评级 目标价14.72元</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-23 14:02</t>
+          <t>10-23 14:10</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,600674,1237860656.html</t>
+          <t>/news,600674,1237860794.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>419</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,29 +2099,29 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>民生证券维持川投能源谨慎推荐评级 目标价12.8元</t>
+          <t>川投能源本周沪股通持股市值增加4373.88万元，居电力行业板块第八</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-23 13:05</t>
+          <t>10-23 14:06</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,600674,1237856960.html</t>
+          <t>/news,600674,1237860359.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>452</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>川投能源10月21日获沪股通增持62.34万股</t>
+          <t>民生证券给予川投能源谨慎推荐评级：缺水、地震接踵而至 雅砻江稳中有增</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-22 07:45</t>
+          <t>10-23 14:02</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,600674,1237796375.html</t>
+          <t>/news,600674,1237860656.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,29 +2163,29 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>川投能源：连续6日融资净买入累计8807.37万元（10-21）</t>
+          <t>民生证券维持川投能源谨慎推荐评级 目标价12.8元</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-22 07:33</t>
+          <t>10-23 13:05</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,600674,1237794834.html</t>
+          <t>/news,600674,1237856960.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>【图解季报】川投能源：2022年前三季度归母净利润同比增长5%，约为29.2亿元</t>
+          <t>川投能源10月21日获沪股通增持62.34万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-21 22:10</t>
+          <t>10-22 07:45</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,600674,1237763963.html</t>
+          <t>/news,600674,1237796375.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>824</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>川投能源：前三季度归母净利润29.19亿元</t>
+          <t>川投能源：连续6日融资净买入累计8807.37万元（10-21）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-21 20:03</t>
+          <t>10-22 07:33</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,600674,1237738860.html</t>
+          <t>/news,600674,1237794834.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>411</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>川投能源：2022年前三季度净利润约29.19亿元</t>
+          <t>【图解季报】川投能源：2022年前三季度归母净利润同比增长5%，约为29.2亿元</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-21 19:07</t>
+          <t>10-21 22:10</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,600674,1237728875.html</t>
+          <t>/news,600674,1237763963.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>828</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>川投能源股东户数下降8.85%，户均持股151.04万元</t>
+          <t>川投能源：前三季度归母净利润29.19亿元</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-21 18:55</t>
+          <t>10-21 20:03</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,600674,1237726629.html</t>
+          <t>/news,600674,1237738860.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>533</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,29 +2323,29 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>川投能源：2022年前三季度净利润同比增长5.02%</t>
+          <t>川投能源：2022年前三季度净利润约29.19亿元</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-21 18:49</t>
+          <t>10-21 19:07</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,600674,1237725578.html</t>
+          <t>/news,600674,1237728875.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>川投能源10月20日被沪股通减持148.64万股</t>
+          <t>川投能源股东户数下降8.85%，户均持股151.04万元</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-21 07:48</t>
+          <t>10-21 18:55</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,600674,1237347913.html</t>
+          <t>/news,600674,1237726629.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>547</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,29 +2387,29 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入6385.46万元，创近一年新高（10-20）</t>
+          <t>川投能源：2022年前三季度净利润同比增长5.02%</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-21 07:28</t>
+          <t>10-21 18:49</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,600674,1237344669.html</t>
+          <t>/news,600674,1237725578.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>328</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>川投能源10月19日被沪股通减持25.69万股</t>
+          <t>川投能源10月20日被沪股通减持148.64万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-20 07:44</t>
+          <t>10-21 07:48</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,600674,1236888079.html</t>
+          <t>/news,600674,1237347913.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>川投能源：连续4日融资净买入累计1823.92万元（10-19）</t>
+          <t>川投能源：融资净买入6385.46万元，创近一年新高（10-20）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-20 07:29</t>
+          <t>10-21 07:28</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,600674,1236885665.html</t>
+          <t>/news,600674,1237344669.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>天风证券给予川投能源买入评级 雅砻江水电克服汛期来水不利影响 带动前三季度业绩同比+5%</t>
+          <t>川投能源10月19日被沪股通减持25.69万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-19 10:52</t>
+          <t>10-20 07:44</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,600674,1236573020.html</t>
+          <t>/news,600674,1236888079.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,29 +2515,29 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>天风证券维持川投能源买入评级 预计2022年净利润同比增长6.58%</t>
+          <t>川投能源：连续4日融资净买入累计1823.92万元（10-19）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-19 10:45</t>
+          <t>10-20 07:29</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,600674,1236564121.html</t>
+          <t>/news,600674,1236885665.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>417</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净买入累计1122.77万元（10-18）</t>
+          <t>天风证券给予川投能源买入评级 雅砻江水电克服汛期来水不利影响 带动前三季度业绩同比+5%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-19 07:30</t>
+          <t>10-19 10:52</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,600674,1236436661.html</t>
+          <t>/news,600674,1236573020.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>408</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,22 +2579,22 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>川投能源10月17日获沪股通增持152.96万股</t>
+          <t>天风证券维持川投能源买入评级 预计2022年净利润同比增长6.58%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-18 07:49</t>
+          <t>10-19 10:45</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,600674,1236042157.html</t>
+          <t>/news,600674,1236564121.html</t>
         </is>
       </c>
     </row>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入514.06万元，融资余额5.63亿元（10-17）</t>
+          <t>川投能源：连续3日融资净买入累计1122.77万元（10-18）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-18 07:30</t>
+          <t>10-19 07:30</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,600674,1236039511.html</t>
+          <t>/news,600674,1236436661.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,29 +2643,29 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>中信证券维持川投能源买入评级 目标价14.5元</t>
+          <t>川投能源10月17日获沪股通增持152.96万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-17 16:48</t>
+          <t>10-18 07:49</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,600674,1235939724.html</t>
+          <t>/news,600674,1236042157.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,29 +2675,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
+          <t>川投能源：融资净买入514.06万元，融资余额5.63亿元（10-17）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-17 16:32</t>
+          <t>10-18 07:30</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,600674,1235935773.html</t>
+          <t>/news,600674,1236039511.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>543</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,29 +2707,29 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>川投能源本周融资净偿还1157.49万元，居电力行业板块第十一</t>
+          <t>中信证券维持川投能源买入评级 目标价14.5元</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-16 15:07</t>
+          <t>10-17 16:48</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,600674,1235580977.html</t>
+          <t>/news,600674,1235939724.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>488</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,29 +2739,29 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值减少1159.25万元，居电力行业板块第六</t>
+          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-16 14:05</t>
+          <t>10-17 16:32</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,600674,1235575593.html</t>
+          <t>/news,600674,1235935773.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>543</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,29 +2771,29 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>川投能源10月14日被沪股通减持19.47万股</t>
+          <t>川投能源本周融资净偿还1157.49万元，居电力行业板块第十一</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-15 07:55</t>
+          <t>10-16 15:07</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,600674,1235512220.html</t>
+          <t>/news,600674,1235580977.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>489</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,39 +2803,39 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入272.18万元，融资余额5.58亿元（10-14）</t>
+          <t>川投能源本周沪股通持股市值减少1159.25万元，居电力行业板块第六</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-15 07:33</t>
+          <t>10-16 14:05</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,600674,1235509517.html</t>
+          <t>/news,600674,1235575593.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>422</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>川投能源：前三季度公司控股电力企业累计完成发电量同比减少11.13%</t>
+          <t>川投能源10月14日被沪股通减持19.47万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-14 20:02</t>
+          <t>10-15 07:55</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,600674,1235433323.html</t>
+          <t>/news,600674,1235512220.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>川投能源：参股公司投资收益增加 前三季度归母净利29.19亿元</t>
+          <t>川投能源：融资净买入272.18万元，融资余额5.58亿元（10-14）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-14 19:42</t>
+          <t>10-15 07:33</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,600674,1235430800.html</t>
+          <t>/news,600674,1235509517.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>597</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>业绩快报：川投能源2022年三季度净利润29.19亿 同比增长5.02%</t>
+          <t>川投能源：前三季度公司控股电力企业累计完成发电量同比减少11.13%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-14 18:18</t>
+          <t>10-14 20:02</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,600674,1235412024.html</t>
+          <t>/news,600674,1235433323.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>630</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>川投能源：2022年前三季度净利润约29.19亿元 同比增加5.02%</t>
+          <t>川投能源：参股公司投资收益增加 前三季度归母净利29.19亿元</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-14 18:18</t>
+          <t>10-14 19:42</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,600674,1235412584.html</t>
+          <t>/news,600674,1235430800.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>400</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>川投能源10月13日获沪股通增持32.74万股</t>
+          <t>业绩快报：川投能源2022年三季度净利润29.19亿 同比增长5.02%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-14 07:45</t>
+          <t>10-14 18:18</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,600674,1235081459.html</t>
+          <t>/news,600674,1235412024.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>636</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还1199.77万元，融资余额5.56亿元（10-13）</t>
+          <t>川投能源：2022年前三季度净利润约29.19亿元 同比增加5.02%</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-14 07:30</t>
+          <t>10-14 18:18</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,600674,1235079068.html</t>
+          <t>/news,600674,1235412584.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/600674.xlsx
+++ b/news_ann/news/tmp/600674.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>14878</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>川投能源11月14日被沪股通减持38.11万股</t>
+          <t>510亿A股公司董事长被查！月初刚公开现身 发生了什么？多家券商提示“谨慎推荐”</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-15 07:57</t>
+          <t>11-17 08:14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,600674,1246691419.html</t>
+          <t>/news,600674,1247671546.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>118</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1186.56万元，融资余额6.83亿元（11-14）</t>
+          <t>川投能源：连续3日融资净买入累计1632.03万元（11-16）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,83 +509,83 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-15 07:37</t>
+          <t>11-17 07:46</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,600674,1246688075.html</t>
+          <t>/news,600674,1247666990.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>117</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入2574.49万元，居电力行业板块第七</t>
+          <t>川投能源11月16日获沪股通增持23.2万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-13 15:07</t>
+          <t>11-17 07:31</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,600674,1246099606.html</t>
+          <t>/news,600674,1247664225.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>1787</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加1350.02万元，居电力行业板块第二</t>
+          <t>川投能源董事长刘体斌遭立案调查：执掌川投集团3年半 历任长虹系多家上市公司董事长</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-13 14:10</t>
+          <t>11-17 07:19</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,600674,1246094601.html</t>
+          <t>/news,600674,1247663799.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>1025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>川投能源11月11日获沪股通增持90.7万股</t>
+          <t>川投集团董事长刘体斌被立案调查</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-12 07:43</t>
+          <t>11-17 06:27</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,600674,1245985827.html</t>
+          <t>/news,600674,1247658204.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>1989</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还565.86万元，融资余额6.71亿元（11-11）</t>
+          <t>突发！上市公司董事长被立案调查</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-12 07:31</t>
+          <t>11-16 22:26</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,600674,1245984248.html</t>
+          <t>/news,600674,1247612569.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>1018</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>川投能源：连续4日融资净买入累计3140.35万元（11-10）</t>
+          <t>川投能源董事长刘体斌被立案调查</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-11 07:37</t>
+          <t>11-16 22:06</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,600674,1245410017.html</t>
+          <t>/news,600674,1247606433.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>1573</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>川投能源11月09日获沪股通增持22.29万股</t>
+          <t>突发！500亿A股董事长被立案调查</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-10 07:39</t>
+          <t>11-16 19:20</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,600674,1244888907.html</t>
+          <t>/news,600674,1247560692.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>2457</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净买入累计2307.22万元（11-09）</t>
+          <t>川投能源董事长刘体斌被立案调查 曾担任多家四川上市公司一把手</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-10 07:27</t>
+          <t>11-16 18:27</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,600674,1244886962.html</t>
+          <t>/news,600674,1247548359.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>1261</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1153.08万元，融资余额6.67亿元（11-08）</t>
+          <t>川投集团董事长刘体斌被四川省监察委立案调查 月初尚在出席会议</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-09 07:31</t>
+          <t>11-16 17:22</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,600674,1244424771.html</t>
+          <t>/news,600674,1247535065.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>5073</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>川投能源11月07日获沪股通增持11.99万股</t>
+          <t>川投能源董事长刘体斌被四川省监察委员会立案调查及实施留置措施</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-08 07:50</t>
+          <t>11-16 16:31</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,600674,1243974523.html</t>
+          <t>/news,600674,1247520531.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>1136</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1002.96万元，融资余额6.55亿元（11-07）</t>
+          <t>川投能源：公司董事长刘体斌被立案调查</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-08 07:29</t>
+          <t>11-16 15:51</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,600674,1243971057.html</t>
+          <t>/news,600674,1247512404.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>506</t>
+          <t>10.0万</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>263</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>川投能源：公司及控股子公司之间的担保余额共计约2.89亿元</t>
+          <t>川投能源：公司董事长被立案调查</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-07 16:50</t>
+          <t>11-16 15:48</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,600674,1243839821.html</t>
+          <t>/news,600674,1247510787.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,29 +883,29 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>川投能源本周融资净偿还2823.08万元，居电力行业板块第二</t>
+          <t>川投能源11月15日获沪股通增持33.2万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-06 15:20</t>
+          <t>11-16 07:54</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,600674,1243413079.html</t>
+          <t>/news,600674,1247176211.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>165</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,29 +915,29 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>沪股通连续2周净卖出川投能源 累计净卖出6599.4万元</t>
+          <t>川投能源：融资净买入129.5万元，融资余额6.84亿元（11-15）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-16 07:27</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,600674,1243404704.html</t>
+          <t>/news,600674,1247171748.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净偿还累计2571.62万元（11-04）</t>
+          <t>川投能源11月14日被沪股通减持38.11万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-05 07:40</t>
+          <t>11-15 07:57</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,600674,1243317219.html</t>
+          <t>/news,600674,1246691419.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>474</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>川投能源11月03日被沪股通减持82.42万股</t>
+          <t>川投能源：融资净买入1186.56万元，融资余额6.83亿元（11-14）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,51 +989,51 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-04 07:47</t>
+          <t>11-15 07:37</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,600674,1242816855.html</t>
+          <t>/news,600674,1246688075.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还635.52万元，融资余额6.5亿元（11-03）</t>
+          <t>川投能源本周融资净买入2574.49万元，居电力行业板块第七</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-04 07:30</t>
+          <t>11-13 15:07</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,600674,1242813737.html</t>
+          <t>/news,600674,1246099606.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,29 +1043,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>川投能源11月02日被沪股通减持74万股</t>
+          <t>川投能源本周沪股通持股市值增加1350.02万元，居电力行业板块第二</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-13 14:10</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,600674,1242326355.html</t>
+          <t>/news,600674,1246094601.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>379</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还1427万元，融资余额6.57亿元（11-02）</t>
+          <t>川投能源11月11日获沪股通增持90.7万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-03 07:29</t>
+          <t>11-12 07:43</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,600674,1242321485.html</t>
+          <t>/news,600674,1245985827.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>川投能源11月01日获沪股通增持51.68万股</t>
+          <t>川投能源：融资净偿还565.86万元，融资余额6.71亿元（11-11）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-02 07:51</t>
+          <t>11-12 07:31</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,600674,1241801443.html</t>
+          <t>/news,600674,1245984248.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>317</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1119.71万元，融资余额6.71亿元（11-01）</t>
+          <t>川投能源：连续4日融资净买入累计3140.35万元（11-10）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-11 07:37</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,600674,1241800687.html</t>
+          <t>/news,600674,1245410017.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>317</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>川投能源10月31日被沪股通减持78.36万股</t>
+          <t>川投能源11月09日获沪股通增持22.29万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-01 07:52</t>
+          <t>11-10 07:39</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,600674,1241297048.html</t>
+          <t>/news,600674,1244888907.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还1371.17万元，融资余额6.6亿元（10-31）</t>
+          <t>川投能源：连续3日融资净买入累计2307.22万元（11-09）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-01 07:28</t>
+          <t>11-10 07:27</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,600674,1241293200.html</t>
+          <t>/news,600674,1244886962.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>498</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,29 +1235,29 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>川财证券维持川投能源增持评级 预计2022年净利润同比增长11.76%</t>
+          <t>川投能源：融资净买入1153.08万元，融资余额6.67亿元（11-08）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-31 22:05</t>
+          <t>11-09 07:31</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,600674,1241253673.html</t>
+          <t>/news,600674,1244424771.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>川财证券给予川投能源增持评级</t>
+          <t>川投能源11月07日获沪股通增持11.99万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-31 22:03</t>
+          <t>11-08 07:50</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,600674,1241261790.html</t>
+          <t>/news,600674,1243974523.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,61 +1299,61 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入2973.07万元，居电力行业板块第八</t>
+          <t>川投能源：融资净买入1002.96万元，</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>11-08 07:29</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,600674,1240712918.html</t>
+          <t>/news,600674,1243971057.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值减少4460.01万元，居电力行业板块第五</t>
+          <t>川投能源：公司及控股子公司之间的担保余额共计约2.89亿元</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-30 14:08</t>
+          <t>11-07 16:50</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,600674,1240707423.html</t>
+          <t>/news,600674,1243839821.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>484</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,29 +1363,29 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>川投能源10月28日被沪股通减持16.12万股</t>
+          <t>川投能源本周融资净偿还2823.08万元，居电力行业板块第二</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-29 07:56</t>
+          <t>11-06 15:20</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,600674,1240600933.html</t>
+          <t>/news,600674,1243413079.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>491</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,29 +1395,29 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净买入累计2728.82万元（10-28）</t>
+          <t>沪股通连续2周净卖出川投能源 累计净卖出6599.4万元</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-29 07:33</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,600674,1240597339.html</t>
+          <t>/news,600674,1243404704.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>川投能源10月27日被沪股通减持11.71万股</t>
+          <t>川投能源：连续3日融资净偿还累计2571.62万元（11-04）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-28 07:42</t>
+          <t>11-05 07:40</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,600674,1240046616.html</t>
+          <t>/news,600674,1243317219.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>481</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入499.33万元，融资余额6.68亿元（10-27）</t>
+          <t>川投能源11月03日被沪股通减持82.42万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-28 07:29</t>
+          <t>11-04 07:47</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,600674,1240044380.html</t>
+          <t>/news,600674,1242816855.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>川投能源10月26日被沪股通减持79.49万股</t>
+          <t>川投能源：融资净偿还635.52万元，融资余额6.5亿元（11-03）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-27 07:44</t>
+          <t>11-04 07:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,600674,1239496318.html</t>
+          <t>/news,600674,1242813737.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1740.9万元，融资余额6.63亿元（10-26）</t>
+          <t>川投能源11月02日被沪股通减持74万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-27 07:33</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,600674,1239494829.html</t>
+          <t>/news,600674,1242326355.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>川投能源10月25日被沪股通减持173.77万股</t>
+          <t>川投能源：融资净偿还1427万元，融资余额6.57亿元（11-02）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-26 07:58</t>
+          <t>11-03 07:29</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,600674,1238970260.html</t>
+          <t>/news,600674,1242321485.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还1821.77万元，融资余额6.46亿元（10-25）</t>
+          <t>川投能源11月01日获沪股通增持51.68万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-26 07:31</t>
+          <t>11-02 07:51</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,600674,1238965647.html</t>
+          <t>/news,600674,1241801443.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>513</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,29 +1619,29 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>长城证券维持川投能源增持评级 预计2022年净利润同比增长16.75%</t>
+          <t>川投能源：融资净买入1119.71万元，融资余额6.71亿元（11-01）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-25 21:21</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,600674,1238894339.html</t>
+          <t>/news,600674,1241800687.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>首创证券给予川投能源买入评级 来水影响发电量 雅砻江公司成为业绩保障</t>
+          <t>川投能源10月31日被沪股通减持78.36万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-25 13:22</t>
+          <t>11-01 07:52</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,600674,1246194590.html</t>
+          <t>/news,600674,1241297048.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>首创证券给予川投能源买入评级 来水影响发电量 雅砻江公司成为业绩保障</t>
+          <t>川投能源：融资净偿还1371.17万元，融资余额6.6亿元（10-31）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-25 13:22</t>
+          <t>11-01 07:28</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,600674,1238695111.html</t>
+          <t>/news,600674,1241293200.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>514</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>首创证券维持川投能源买入评级 预计2022年净利润同比增长9.15%</t>
+          <t>川财证券维持川投能源增持评级 预计2022年净利润同比增长11.76%</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-25 13:17</t>
+          <t>10-31 22:05</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,600674,1238689042.html</t>
+          <t>/news,600674,1241253673.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>川投能源10月24日被沪股通减持111.56万股</t>
+          <t>川财证券给予川投能源增持评级</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-25 07:47</t>
+          <t>10-31 22:03</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,600674,1238447684.html</t>
+          <t>/news,600674,1241261790.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>677</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,29 +1779,29 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>川投能源：连续7日融资净买入累计1.09亿元（10-24）</t>
+          <t>川投能源本周融资净买入2973.07万元，居电力行业板块第八</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-25 07:29</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,600674,1238443879.html</t>
+          <t>/news,600674,1240712918.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>527</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,29 +1811,29 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>国海证券给予川投能源买入评级</t>
+          <t>川投能源本周沪股通持股市值减少4460.01万元，居电力行业板块第五</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-25 07:08</t>
+          <t>10-30 14:08</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,600674,1238441787.html</t>
+          <t>/news,600674,1240707423.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>483</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,29 +1843,29 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>国海证券维持川投能源买入评级 预计2022年净利润同比增长8.05%</t>
+          <t>川投能源10月28日被沪股通减持16.12万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-25 06:53</t>
+          <t>10-29 07:56</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,600674,1238440213.html</t>
+          <t>/news,600674,1240600933.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,39 +1875,39 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
+          <t>川投能源：连续3日融资净买入累计2728.82万元（10-28）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-24 09:11</t>
+          <t>10-29 07:33</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,600674,1237928643.html</t>
+          <t>/news,600674,1240597339.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>中国银河给予川投能源推荐评级：雅砻江Q3发电量实现正增长 沿江新能源打开新成长空间</t>
+          <t>川投能源10月27日被沪股通减持11.71万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-24 07:23</t>
+          <t>10-28 07:42</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,600674,1237915624.html</t>
+          <t>/news,600674,1240046616.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>东吴证券给予川投能源买入评级 自然灾害拖累发电量表现 利润增长主要来自于雅砻江水电</t>
+          <t>川投能源：融资净买入499.33万元，融资余额6.68亿元（10-27）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-24 07:09</t>
+          <t>10-28 07:29</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,600674,1237914624.html</t>
+          <t>/news,600674,1240044380.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,29 +1971,29 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>中国银河维持川投能源推荐评级 预计2022年净利润同比增长7.02%</t>
+          <t>川投能源10月26日被沪股通减持79.49万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-24 07:06</t>
+          <t>10-27 07:44</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,600674,1237914166.html</t>
+          <t>/news,600674,1239496318.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,29 +2003,29 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>东吴证券维持川投能源买入评级 预计2022年净利润同比增长14.24%</t>
+          <t>川投能源：融资净买入1740.9万元，融资余额6.63亿元（10-26）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-24 06:30</t>
+          <t>10-27 07:33</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,600674,1237913185.html</t>
+          <t>/news,600674,1239494829.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,29 +2035,29 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入8535.19万元，居电力行业板块第三</t>
+          <t>川投能源10月25日被沪股通减持173.77万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-23 15:08</t>
+          <t>10-26 07:58</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,600674,1237864909.html</t>
+          <t>/news,600674,1238970260.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,29 +2067,29 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>华泰证券维持川投能源买入评级 目标价14.72元</t>
+          <t>川投能源：融资净偿还1821.77万元，融资余额6.46亿元（10-25）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-23 14:10</t>
+          <t>10-26 07:31</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,600674,1237860794.html</t>
+          <t>/news,600674,1238965647.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,29 +2099,29 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加4373.88万元，居电力行业板块第八</t>
+          <t>长城证券维持川投能源增持评级 预计2022年净利润同比增长16.75%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-23 14:06</t>
+          <t>10-25 21:21</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,600674,1237860359.html</t>
+          <t>/news,600674,1238894339.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>95</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>民生证券给予川投能源谨慎推荐评级：缺水、地震接踵而至 雅砻江稳中有增</t>
+          <t>首创证券给予川投能源买入评级 来水影响发电量 雅砻江公司成为业绩保障</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-23 14:02</t>
+          <t>10-25 13:22</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,600674,1237860656.html</t>
+          <t>/news,600674,1246194590.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,29 +2163,29 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>民生证券维持川投能源谨慎推荐评级 目标价12.8元</t>
+          <t>首创证券给予川投能源买入评级 来水影响发电量 雅砻江公司成为业绩保障</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-23 13:05</t>
+          <t>10-25 13:22</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,600674,1237856960.html</t>
+          <t>/news,600674,1238695111.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,29 +2195,29 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>川投能源10月21日获沪股通增持62.34万股</t>
+          <t>首创证券维持川投能源买入评级 预计2022年净利润同比增长9.15%</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-22 07:45</t>
+          <t>10-25 13:17</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,600674,1237796375.html</t>
+          <t>/news,600674,1238689042.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>川投能源：连续6日融资净买入累计8807.37万元（10-21）</t>
+          <t>川投能源10月24日被沪股通减持111.56万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-22 07:33</t>
+          <t>10-25 07:47</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,600674,1237794834.html</t>
+          <t>/news,600674,1238447684.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>【图解季报】川投能源：2022年前三季度归母净利润同比增长5%，约为29.2亿元</t>
+          <t>川投能源：连续7日融资净买入累计1.09亿元（10-24）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-21 22:10</t>
+          <t>10-25 07:29</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,600674,1237763963.html</t>
+          <t>/news,600674,1238443879.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>828</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>川投能源：前三季度归母净利润29.19亿元</t>
+          <t>国海证券给予川投能源买入评级</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-21 20:03</t>
+          <t>10-25 07:08</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,600674,1237738860.html</t>
+          <t>/news,600674,1238441787.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>327</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,29 +2323,29 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>川投能源：2022年前三季度净利润约29.19亿元</t>
+          <t>国海证券维持川投能源买入评级 预计2022年净利润同比增长8.05%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-21 19:07</t>
+          <t>10-25 06:53</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,600674,1237728875.html</t>
+          <t>/news,600674,1238440213.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,61 +2355,61 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>川投能源股东户数下降8.85%，户均持股151.04万元</t>
+          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-21 18:55</t>
+          <t>10-24 09:11</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,600674,1237726629.html</t>
+          <t>/news,600674,1237928643.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>469</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>川投能源：2022年前三季度净利润同比增长5.02%</t>
+          <t>中国银河给予川投能源推荐评级：雅砻江Q3发电量实现正增长 沿江新能源打开新成长空间</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-21 18:49</t>
+          <t>10-24 07:23</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,600674,1237725578.html</t>
+          <t>/news,600674,1237915624.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>412</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>川投能源10月20日被沪股通减持148.64万股</t>
+          <t>东吴证券给予川投能源买入评级 自然灾害拖累发电量表现 利润增长主要来自于雅砻江水电</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-21 07:48</t>
+          <t>10-24 07:09</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,600674,1237347913.html</t>
+          <t>/news,600674,1237914624.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,29 +2451,29 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入6385.46万元，创近一年新高（10-20）</t>
+          <t>中国银河维持川投能源推荐评级 预计2022年净利润同比增长7.02%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-21 07:28</t>
+          <t>10-24 07:06</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,600674,1237344669.html</t>
+          <t>/news,600674,1237914166.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,29 +2483,29 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>川投能源10月19日被沪股通减持25.69万股</t>
+          <t>东吴证券维持川投能源买入评级 预计2022年净利润同比增长14.24%</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-20 07:44</t>
+          <t>10-24 06:30</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,600674,1236888079.html</t>
+          <t>/news,600674,1237913185.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,29 +2515,29 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>川投能源：连续4日融资净买入累计1823.92万元（10-19）</t>
+          <t>川投能源本周融资净买入8535.19万元，居电力行业板块第三</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-20 07:29</t>
+          <t>10-23 15:08</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,600674,1236885665.html</t>
+          <t>/news,600674,1237864909.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,29 +2547,29 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>天风证券给予川投能源买入评级 雅砻江水电克服汛期来水不利影响 带动前三季度业绩同比+5%</t>
+          <t>华泰证券维持川投能源买入评级 目标价14.72元</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-19 10:52</t>
+          <t>10-23 14:10</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,600674,1236573020.html</t>
+          <t>/news,600674,1237860794.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>421</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,29 +2579,29 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>天风证券维持川投能源买入评级 预计2022年净利润同比增长6.58%</t>
+          <t>川投能源本周沪股通持股市值增加4373.88万元，居电力行业板块第八</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-19 10:45</t>
+          <t>10-23 14:06</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,600674,1236564121.html</t>
+          <t>/news,600674,1237860359.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>456</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净买入累计1122.77万元（10-18）</t>
+          <t>民生证券给予川投能源谨慎推荐评级：缺水、地震接踵而至 雅砻江稳中有增</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-19 07:30</t>
+          <t>10-23 14:02</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,600674,1236436661.html</t>
+          <t>/news,600674,1237860656.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,29 +2643,29 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>川投能源10月17日获沪股通增持152.96万股</t>
+          <t>民生证券维持川投能源谨慎推荐评级 目标价12.8元</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-18 07:49</t>
+          <t>10-23 13:05</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,600674,1236042157.html</t>
+          <t>/news,600674,1237856960.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入514.06万元，融资余额5.63亿元（10-17）</t>
+          <t>川投能源10月21日获沪股通增持62.34万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-18 07:30</t>
+          <t>10-22 07:45</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,600674,1236039511.html</t>
+          <t>/news,600674,1237796375.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>334</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,29 +2707,29 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>中信证券维持川投能源买入评级 目标价14.5元</t>
+          <t>川投能源：连续6日融资净买入累计8807.37万元（10-21）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-17 16:48</t>
+          <t>10-22 07:33</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,600674,1235939724.html</t>
+          <t>/news,600674,1237794834.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>430</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,61 +2739,61 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
+          <t>【图解季报】川投能源：2022年前三季度归母净利润同比增长5%，约为29.2亿元</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-17 16:32</t>
+          <t>10-21 22:10</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,600674,1235935773.html</t>
+          <t>/news,600674,1237763963.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>543</t>
+          <t>847</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>川投能源本周融资净偿还1157.49万元，居电力行业板块第十一</t>
+          <t>川投能源：前三季度归母净利润29.19亿元</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-16 15:07</t>
+          <t>10-21 20:03</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,600674,1235580977.html</t>
+          <t>/news,600674,1237738860.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>483</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,29 +2803,29 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值减少1159.25万元，居电力行业板块第六</t>
+          <t>川投能源：2022年前三季度净利润约29.19亿元</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-16 14:05</t>
+          <t>10-21 19:07</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,600674,1235575593.html</t>
+          <t>/news,600674,1237728875.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>321</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>川投能源10月14日被沪股通减持19.47万股</t>
+          <t>川投能源股东户数下降8.85%，户均持股151.04万元</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-15 07:55</t>
+          <t>10-21 18:55</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,600674,1235512220.html</t>
+          <t>/news,600674,1237726629.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,39 +2867,39 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入272.18万元，融资余额5.58亿元（10-14）</t>
+          <t>川投能源：2022年前三季度净利润同比增长5.02%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-15 07:33</t>
+          <t>10-21 18:49</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,600674,1235509517.html</t>
+          <t>/news,600674,1237725578.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>川投能源：前三季度公司控股电力企业累计完成发电量同比减少11.13%</t>
+          <t>川投能源10月20日被沪股通减持148.64万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-14 20:02</t>
+          <t>10-21 07:48</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,600674,1235433323.html</t>
+          <t>/news,600674,1237347913.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>川投能源：参股公司投资收益增加 前三季度归母净利29.19亿元</t>
+          <t>川投能源：融资净买入6385.46万元，创近一年新高（10-20）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-14 19:42</t>
+          <t>10-21 07:28</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,600674,1235430800.html</t>
+          <t>/news,600674,1237344669.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>业绩快报：川投能源2022年三季度净利润29.19亿 同比增长5.02%</t>
+          <t>川投能源10月19日被沪股通减持25.69万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-14 18:18</t>
+          <t>10-20 07:44</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,600674,1235412024.html</t>
+          <t>/news,600674,1236888079.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>309</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>川投能源：2022年前三季度净利润约29.19亿元 同比增加5.02%</t>
+          <t>川投能源：连续4日融资净买入累计1823.92万元（10-19）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-14 18:18</t>
+          <t>10-20 07:29</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,600674,1235412584.html</t>
+          <t>/news,600674,1236885665.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/600674.xlsx
+++ b/news_ann/news/tmp/600674.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>14878</t>
+          <t>125</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>510亿A股公司董事长被查！月初刚公开现身 发生了什么？多家券商提示“谨慎推荐”</t>
+          <t>川投能源11月17日获沪股通增持36.02万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-17 08:14</t>
+          <t>11-18 07:42</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,600674,1247671546.html</t>
+          <t>/news,600674,1248151786.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>114</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净买入累计1632.03万元（11-16）</t>
+          <t>川投能源：连续4日融资净买入累计5523.34万元（11-17）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-17 07:46</t>
+          <t>11-18 07:33</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,600674,1247666990.html</t>
+          <t>/news,600674,1248150190.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>1356</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>川投能源11月16日获沪股通增持23.2万股</t>
+          <t>现任董事长又被查 川投能源四任“掌门”接连落马</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-17 07:31</t>
+          <t>11-17 21:50</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,600674,1247664225.html</t>
+          <t>/news,600674,1248097891.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1787</t>
+          <t>22142</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>川投能源董事长刘体斌遭立案调查：执掌川投集团3年半 历任长虹系多家上市公司董事长</t>
+          <t>510亿A股公司董事长被查！月初刚公开现身 发生了什么？多家券商提示“谨慎推荐”</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-17 07:19</t>
+          <t>11-17 08:14</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,600674,1247663799.html</t>
+          <t>/news,600674,1247671546.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1025</t>
+          <t>147</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>川投集团董事长刘体斌被立案调查</t>
+          <t>川投能源：连续3日融资净买入累计1632.03万元（11-16）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-17 06:27</t>
+          <t>11-17 07:46</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,600674,1247658204.html</t>
+          <t>/news,600674,1247666990.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1989</t>
+          <t>144</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>突发！上市公司董事长被立案调查</t>
+          <t>川投能源11月16日获沪股通增持23.2万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-16 22:26</t>
+          <t>11-17 07:31</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,600674,1247612569.html</t>
+          <t>/news,600674,1247664225.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1018</t>
+          <t>2408</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>川投能源董事长刘体斌被立案调查</t>
+          <t>川投能源董事长刘体斌遭立案调查：执掌川投集团3年半 历任长虹系多家上市公司董事长</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-16 22:06</t>
+          <t>11-17 07:19</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,600674,1247606433.html</t>
+          <t>/news,600674,1247663799.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1573</t>
+          <t>1240</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>突发！500亿A股董事长被立案调查</t>
+          <t>川投集团董事长刘体斌被立案调查</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-16 19:20</t>
+          <t>11-17 06:27</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,600674,1247560692.html</t>
+          <t>/news,600674,1247658204.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2457</t>
+          <t>2094</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>川投能源董事长刘体斌被立案调查 曾担任多家四川上市公司一把手</t>
+          <t>突发！上市公司董事长被立案调查</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-16 18:27</t>
+          <t>11-16 22:26</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,600674,1247548359.html</t>
+          <t>/news,600674,1247612569.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1261</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>川投集团董事长刘体斌被四川省监察委立案调查 月初尚在出席会议</t>
+          <t>川投能源董事长刘体斌被立案调查</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-16 17:22</t>
+          <t>11-16 22:06</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,600674,1247535065.html</t>
+          <t>/news,600674,1247606433.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>5073</t>
+          <t>1638</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>川投能源董事长刘体斌被四川省监察委员会立案调查及实施留置措施</t>
+          <t>突发！500亿A股董事长被立案调查</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-16 16:31</t>
+          <t>11-16 19:20</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,600674,1247520531.html</t>
+          <t>/news,600674,1247560692.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1136</t>
+          <t>2530</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>川投能源：公司董事长刘体斌被立案调查</t>
+          <t>川投能源董事长刘体斌被立案调查 曾担任多家四川上市公司一把手</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-16 15:51</t>
+          <t>11-16 18:27</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,600674,1247512404.html</t>
+          <t>/news,600674,1247548359.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>10.0万</t>
+          <t>1333</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>川投能源：公司董事长被立案调查</t>
+          <t>川投集团董事长刘体斌被四川省监察委立案调查 月初尚在出席会议</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-16 15:48</t>
+          <t>11-16 17:22</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,600674,1247510787.html</t>
+          <t>/news,600674,1247535065.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>5127</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>川投能源11月15日获沪股通增持33.2万股</t>
+          <t>川投能源董事长刘体斌被四川省监察委员会立案调查及实施留置措施</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-16 07:54</t>
+          <t>11-16 16:31</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,600674,1247176211.html</t>
+          <t>/news,600674,1247520531.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>1164</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入129.5万元，融资余额6.84亿元（11-15）</t>
+          <t>川投能源：公司董事长刘体斌被立案调查</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-16 07:27</t>
+          <t>11-16 15:51</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,600674,1247171748.html</t>
+          <t>/news,600674,1247512404.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>10.1万</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>263</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>川投能源11月14日被沪股通减持38.11万股</t>
+          <t>川投能源：公司董事长被立案调查</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-15 07:57</t>
+          <t>11-16 15:48</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,600674,1246691419.html</t>
+          <t>/news,600674,1247510787.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1186.56万元，融资余额6.83亿元（11-14）</t>
+          <t>川投能源11月15日获沪股通增持33.2万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,51 +989,51 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-15 07:37</t>
+          <t>11-16 07:54</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,600674,1246688075.html</t>
+          <t>/news,600674,1247176211.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入2574.49万元，居电力行业板块第七</t>
+          <t>川投能源：融资净买入129.5万元，融资余额6.84亿元（11-15）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-13 15:07</t>
+          <t>11-16 07:27</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,600674,1246099606.html</t>
+          <t>/news,600674,1247171748.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,29 +1043,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加1350.02万元，居电力行业板块第二</t>
+          <t>川投能源11月14日被沪股通减持38.11万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-13 14:10</t>
+          <t>11-15 07:57</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,600674,1246094601.html</t>
+          <t>/news,600674,1246691419.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>川投能源11月11日获沪股通增持90.7万股</t>
+          <t>川投能源：融资净买入1186.56万元，融资余额6.83亿元（11-14）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,51 +1085,51 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-12 07:43</t>
+          <t>11-15 07:37</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,600674,1245985827.html</t>
+          <t>/news,600674,1246688075.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还565.86万元，融资余额6.71亿元（11-11）</t>
+          <t>川投能源本周融资净买入2574.49万元，居电力行业板块第七</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-12 07:31</t>
+          <t>11-13 15:07</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,600674,1245984248.html</t>
+          <t>/news,600674,1246099606.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,29 +1139,29 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>川投能源：连续4日融资净买入累计3140.35万元（11-10）</t>
+          <t>川投能源本周沪股通持股市值增加1350.02万元，居电力行业板块第二</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-11 07:37</t>
+          <t>11-13 14:10</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,600674,1245410017.html</t>
+          <t>/news,600674,1246094601.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>382</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>川投能源11月09日获沪股通增持22.29万股</t>
+          <t>川投能源11月11日获沪股通增持90.7万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-10 07:39</t>
+          <t>11-12 07:43</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,600674,1244888907.html</t>
+          <t>/news,600674,1245985827.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净买入累计2307.22万元（11-09）</t>
+          <t>川投能源：融资净偿还565.86万元，融资余额6.71亿元（11-11）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-10 07:27</t>
+          <t>11-12 07:31</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,600674,1244886962.html</t>
+          <t>/news,600674,1245984248.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1153.08万元，融资余额6.67亿元（11-08）</t>
+          <t>川投能源：连续4日融资净买入累计3140.35万元（11-10）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-09 07:31</t>
+          <t>11-11 07:37</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,600674,1244424771.html</t>
+          <t>/news,600674,1245410017.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>川投能源11月07日获沪股通增持11.99万股</t>
+          <t>川投能源11月09日获沪股通增持22.29万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-08 07:50</t>
+          <t>11-10 07:39</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,600674,1243974523.html</t>
+          <t>/news,600674,1244888907.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1002.96万元，</t>
+          <t>川投能源：连续3日融资净买入累计2307.22万元（11-09）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-08 07:29</t>
+          <t>11-10 07:27</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,600674,1243971057.html</t>
+          <t>/news,600674,1244886962.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>川投能源：公司及控股子公司之间的担保余额共计约2.89亿元</t>
+          <t>川投能源：融资净买入1153.08万元，融资余额6.67亿元（11-08）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-07 16:50</t>
+          <t>11-09 07:31</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,600674,1243839821.html</t>
+          <t>/news,600674,1244424771.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>484</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,29 +1363,29 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>川投能源本周融资净偿还2823.08万元，居电力行业板块第二</t>
+          <t>川投能源11月07日获沪股通增持11.99万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-06 15:20</t>
+          <t>11-08 07:50</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,600674,1243413079.html</t>
+          <t>/news,600674,1243974523.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,39 +1395,39 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>沪股通连续2周净卖出川投能源 累计净卖出6599.4万元</t>
+          <t>川投能源：融资净买入1002.96万元，融资余额6.55亿元（11-07）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-08 07:29</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,600674,1243404704.html</t>
+          <t>/news,600674,1243971057.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净偿还累计2571.62万元（11-04）</t>
+          <t>川投能源：公司及控股子公司之间的担保余额共计约2.89亿元</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,51 +1437,51 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-05 07:40</t>
+          <t>11-07 16:50</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,600674,1243317219.html</t>
+          <t>/news,600674,1243839821.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>486</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>川投能源11月03日被沪股通减持82.42万股</t>
+          <t>川投能源本周融资净偿还2823.08万元，居电力行业板块第二</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-04 07:47</t>
+          <t>11-06 15:20</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,600674,1242816855.html</t>
+          <t>/news,600674,1243413079.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>494</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,29 +1491,29 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还635.52万元，融资余额6.5亿元（11-03）</t>
+          <t>沪股通连续2周净卖出川投能源 累计净卖出6599.4万元</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-04 07:30</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,600674,1242813737.html</t>
+          <t>/news,600674,1243404704.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>川投能源11月02日被沪股通减持74万股</t>
+          <t>川投能源：连续3日融资净偿还累计2571.62万元（11-04）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-05 07:40</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,600674,1242326355.html</t>
+          <t>/news,600674,1243317219.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>481</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还1427万元，融资余额6.57亿元（11-02）</t>
+          <t>川投能源11月03日被沪股通减持82.42万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-03 07:29</t>
+          <t>11-04 07:47</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,600674,1242321485.html</t>
+          <t>/news,600674,1242816855.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>川投能源11月01日获沪股通增持51.68万股</t>
+          <t>川投能源：融资净偿还635.52万元，融资余额6.5亿元（11-03）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-02 07:51</t>
+          <t>11-04 07:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,600674,1241801443.html</t>
+          <t>/news,600674,1242813737.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1119.71万元，融资余额6.71亿元（11-01）</t>
+          <t>川投能源11月02日被沪股通减持74万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,600674,1241800687.html</t>
+          <t>/news,600674,1242326355.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>川投能源10月31日被沪股通减持78.36万股</t>
+          <t>川投能源：融资净偿还1427万元，融资余额6.57亿元（11-02）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-01 07:52</t>
+          <t>11-03 07:29</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,600674,1241297048.html</t>
+          <t>/news,600674,1242321485.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还1371.17万元，融资余额6.6亿元（10-31）</t>
+          <t>川投能源11月01日获沪股通增持51.68万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-01 07:28</t>
+          <t>11-02 07:51</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,600674,1241293200.html</t>
+          <t>/news,600674,1241801443.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,29 +1715,29 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>川财证券维持川投能源增持评级 预计2022年净利润同比增长11.76%</t>
+          <t>川投能源：融资净买入1119.71万元，融资余额6.71亿元（11-01）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-31 22:05</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,600674,1241253673.html</t>
+          <t>/news,600674,1241800687.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>川财证券给予川投能源增持评级</t>
+          <t>川投能源10月31日被沪股通减持78.36万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-31 22:03</t>
+          <t>11-01 07:52</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,600674,1241261790.html</t>
+          <t>/news,600674,1241297048.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>677</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,29 +1779,29 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入2973.07万元，居电力行业板块第八</t>
+          <t>川投能源：融资净偿还1371.17万元，融资余额6.6亿元（10-31）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>11-01 07:28</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,600674,1240712918.html</t>
+          <t>/news,600674,1241293200.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>516</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,29 +1811,29 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值减少4460.01万元，居电力行业板块第五</t>
+          <t>川财证券维持川投能源增持评级 预计2022年净利润同比增长11.76%</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-30 14:08</t>
+          <t>10-31 22:05</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,600674,1240707423.html</t>
+          <t>/news,600674,1241253673.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>328</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>川投能源10月28日被沪股通减持16.12万股</t>
+          <t>川财证券给予川投能源增持评级</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-29 07:56</t>
+          <t>10-31 22:03</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,600674,1240600933.html</t>
+          <t>/news,600674,1241261790.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>680</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,29 +1875,29 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净买入累计2728.82万元（10-28）</t>
+          <t>川投能源本周融资净买入2973.07万元，居电力行业板块第八</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-29 07:33</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,600674,1240597339.html</t>
+          <t>/news,600674,1240712918.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>527</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,29 +1907,29 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>川投能源10月27日被沪股通减持11.71万股</t>
+          <t>川投能源本周沪股通持股市值减少4460.01万元，居电力行业板块第五</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-28 07:42</t>
+          <t>10-30 14:08</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,600674,1240046616.html</t>
+          <t>/news,600674,1240707423.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>483</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入499.33万元，融资余额6.68亿元（10-27）</t>
+          <t>川投能源10月28日被沪股通减持16.12万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-28 07:29</t>
+          <t>10-29 07:56</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,600674,1240044380.html</t>
+          <t>/news,600674,1240600933.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>川投能源10月26日被沪股通减持79.49万股</t>
+          <t>川投能源：连续3日融资净买入累计2728.82万元（10-28）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-27 07:44</t>
+          <t>10-29 07:33</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,600674,1239496318.html</t>
+          <t>/news,600674,1240597339.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1740.9万元，融资余额6.63亿元（10-26）</t>
+          <t>川投能源10月27日被沪股通减持11.71万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-27 07:33</t>
+          <t>10-28 07:42</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,600674,1239494829.html</t>
+          <t>/news,600674,1240046616.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>川投能源10月25日被沪股通减持173.77万股</t>
+          <t>川投能源：融资净买入499.33万元，融资余额6.68亿元（10-27）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-26 07:58</t>
+          <t>10-28 07:29</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,600674,1238970260.html</t>
+          <t>/news,600674,1240044380.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还1821.77万元，融资余额6.46亿元（10-25）</t>
+          <t>川投能源10月26日被沪股通减持79.49万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-26 07:31</t>
+          <t>10-27 07:44</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,600674,1238965647.html</t>
+          <t>/news,600674,1239496318.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,29 +2099,29 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>长城证券维持川投能源增持评级 预计2022年净利润同比增长16.75%</t>
+          <t>川投能源：融资净买入1740.9万元，融资余额6.63亿元（10-26）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-25 21:21</t>
+          <t>10-27 07:33</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,600674,1238894339.html</t>
+          <t>/news,600674,1239494829.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>首创证券给予川投能源买入评级 来水影响发电量 雅砻江公司成为业绩保障</t>
+          <t>川投能源10月25日被沪股通减持173.77万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-25 13:22</t>
+          <t>10-26 07:58</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,600674,1246194590.html</t>
+          <t>/news,600674,1238970260.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>首创证券给予川投能源买入评级 来水影响发电量 雅砻江公司成为业绩保障</t>
+          <t>川投能源：融资净偿还1821.77万元，融资余额6.46亿元（10-25）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-25 13:22</t>
+          <t>10-26 07:31</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,600674,1238695111.html</t>
+          <t>/news,600674,1238965647.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>首创证券维持川投能源买入评级 预计2022年净利润同比增长9.15%</t>
+          <t>长城证券维持川投能源增持评级 预计2022年净利润同比增长16.75%</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-25 13:17</t>
+          <t>10-25 21:21</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,600674,1238689042.html</t>
+          <t>/news,600674,1238894339.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>99</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>川投能源10月24日被沪股通减持111.56万股</t>
+          <t>首创证券给予川投能源买入评级 来水影响发电量 雅砻江公司成为业绩保障</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-25 07:47</t>
+          <t>10-25 13:22</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,600674,1238447684.html</t>
+          <t>/news,600674,1246194590.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>川投能源：连续7日融资净买入累计1.09亿元（10-24）</t>
+          <t>首创证券给予川投能源买入评级 来水影响发电量 雅砻江公司成为业绩保障</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-25 07:29</t>
+          <t>10-25 13:22</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,600674,1238443879.html</t>
+          <t>/news,600674,1238695111.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,29 +2291,29 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>国海证券给予川投能源买入评级</t>
+          <t>首创证券维持川投能源买入评级 预计2022年净利润同比增长9.15%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-25 07:08</t>
+          <t>10-25 13:17</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,600674,1238441787.html</t>
+          <t>/news,600674,1238689042.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,29 +2323,29 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>国海证券维持川投能源买入评级 预计2022年净利润同比增长8.05%</t>
+          <t>川投能源10月24日被沪股通减持111.56万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-25 06:53</t>
+          <t>10-25 07:47</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,600674,1238440213.html</t>
+          <t>/news,600674,1238447684.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,39 +2355,39 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
+          <t>川投能源：连续7日融资净买入累计1.09亿元（10-24）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-24 09:11</t>
+          <t>10-25 07:29</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,600674,1237928643.html</t>
+          <t>/news,600674,1238443879.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>中国银河给予川投能源推荐评级：雅砻江Q3发电量实现正增长 沿江新能源打开新成长空间</t>
+          <t>国海证券给予川投能源买入评级</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-24 07:23</t>
+          <t>10-25 07:08</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,600674,1237915624.html</t>
+          <t>/news,600674,1238441787.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>327</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,29 +2419,29 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>东吴证券给予川投能源买入评级 自然灾害拖累发电量表现 利润增长主要来自于雅砻江水电</t>
+          <t>国海证券维持川投能源买入评级 预计2022年净利润同比增长8.05%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-24 07:09</t>
+          <t>10-25 06:53</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,600674,1237914624.html</t>
+          <t>/news,600674,1238440213.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>中国银河维持川投能源推荐评级 预计2022年净利润同比增长7.02%</t>
+          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,51 +2461,51 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-24 07:06</t>
+          <t>10-24 09:11</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,600674,1237914166.html</t>
+          <t>/news,600674,1237928643.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>472</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>东吴证券维持川投能源买入评级 预计2022年净利润同比增长14.24%</t>
+          <t>中国银河给予川投能源推荐评级：雅砻江Q3发电量实现正增长 沿江新能源打开新成长空间</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-24 06:30</t>
+          <t>10-24 07:23</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,600674,1237913185.html</t>
+          <t>/news,600674,1237915624.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,29 +2515,29 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入8535.19万元，居电力行业板块第三</t>
+          <t>东吴证券给予川投能源买入评级 自然灾害拖累发电量表现 利润增长主要来自于雅砻江水电</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-23 15:08</t>
+          <t>10-24 07:09</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,600674,1237864909.html</t>
+          <t>/news,600674,1237914624.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>华泰证券维持川投能源买入评级 目标价14.72元</t>
+          <t>中国银河维持川投能源推荐评级 预计2022年净利润同比增长7.02%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-23 14:10</t>
+          <t>10-24 07:06</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,600674,1237860794.html</t>
+          <t>/news,600674,1237914166.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,29 +2579,29 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加4373.88万元，居电力行业板块第八</t>
+          <t>东吴证券维持川投能源买入评级 预计2022年净利润同比增长14.24%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-23 14:06</t>
+          <t>10-24 06:30</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,600674,1237860359.html</t>
+          <t>/news,600674,1237913185.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,29 +2611,29 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>民生证券给予川投能源谨慎推荐评级：缺水、地震接踵而至 雅砻江稳中有增</t>
+          <t>川投能源本周融资净买入8535.19万元，居电力行业板块第三</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-23 14:02</t>
+          <t>10-23 15:08</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,600674,1237860656.html</t>
+          <t>/news,600674,1237864909.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>民生证券维持川投能源谨慎推荐评级 目标价12.8元</t>
+          <t>华泰证券维持川投能源买入评级 目标价14.72元</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-23 13:05</t>
+          <t>10-23 14:10</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,600674,1237856960.html</t>
+          <t>/news,600674,1237860794.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,29 +2675,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>川投能源10月21日获沪股通增持62.34万股</t>
+          <t>川投能源本周沪股通持股市值增加4373.88万元，居电力行业板块第八</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-22 07:45</t>
+          <t>10-23 14:06</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,600674,1237796375.html</t>
+          <t>/news,600674,1237860359.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>457</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>川投能源：连续6日融资净买入累计8807.37万元（10-21）</t>
+          <t>民生证券给予川投能源谨慎推荐评级：缺水、地震接踵而至 雅砻江稳中有增</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-22 07:33</t>
+          <t>10-23 14:02</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,600674,1237794834.html</t>
+          <t>/news,600674,1237860656.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,39 +2739,39 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>【图解季报】川投能源：2022年前三季度归母净利润同比增长5%，约为29.2亿元</t>
+          <t>民生证券维持川投能源谨慎推荐评级 目标价12.8元</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-21 22:10</t>
+          <t>10-23 13:05</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,600674,1237763963.html</t>
+          <t>/news,600674,1237856960.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>847</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>川投能源：前三季度归母净利润29.19亿元</t>
+          <t>川投能源10月21日获沪股通增持62.34万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-21 20:03</t>
+          <t>10-22 07:45</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,600674,1237738860.html</t>
+          <t>/news,600674,1237796375.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>336</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>川投能源：2022年前三季度净利润约29.19亿元</t>
+          <t>川投能源：连续6日融资净买入累计8807.37万元（10-21）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-21 19:07</t>
+          <t>10-22 07:33</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,600674,1237728875.html</t>
+          <t>/news,600674,1237794834.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>431</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>川投能源股东户数下降8.85%，户均持股151.04万元</t>
+          <t>【图解季报】川投能源：2022年前三季度归母净利润同比增长5%，约为29.2亿元</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,51 +2845,51 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-21 18:55</t>
+          <t>10-21 22:10</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,600674,1237726629.html</t>
+          <t>/news,600674,1237763963.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>850</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>川投能源：2022年前三季度净利润同比增长5.02%</t>
+          <t>川投能源：前三季度归母净利润29.19亿元</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-21 18:49</t>
+          <t>10-21 20:03</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,600674,1237725578.html</t>
+          <t>/news,600674,1237738860.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>487</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>川投能源10月20日被沪股通减持148.64万股</t>
+          <t>川投能源：2022年前三季度净利润约29.19亿元</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-21 07:48</t>
+          <t>10-21 19:07</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,600674,1237347913.html</t>
+          <t>/news,600674,1237728875.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>321</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入6385.46万元，创近一年新高（10-20）</t>
+          <t>川投能源股东户数下降8.85%，户均持股151.04万元</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-21 07:28</t>
+          <t>10-21 18:55</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,600674,1237344669.html</t>
+          <t>/news,600674,1237726629.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>550</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,29 +2963,29 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>川投能源10月19日被沪股通减持25.69万股</t>
+          <t>川投能源：2022年前三季度净利润同比增长5.02%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-20 07:44</t>
+          <t>10-21 18:49</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,600674,1236888079.html</t>
+          <t>/news,600674,1237725578.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>川投能源：连续4日融资净买入累计1823.92万元（10-19）</t>
+          <t>川投能源10月20日被沪股通减持148.64万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-20 07:29</t>
+          <t>10-21 07:48</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,600674,1236885665.html</t>
+          <t>/news,600674,1237347913.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/600674.xlsx
+++ b/news_ann/news/tmp/600674.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,29 +467,29 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>川投能源11月17日获沪股通增持36.02万股</t>
+          <t>川投能源本周融资净买入5281.47万元，居电力行业板块第四</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-18 07:42</t>
+          <t>11-20 15:07</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,600674,1248151786.html</t>
+          <t>/news,600674,1248769419.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,39 +499,39 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>川投能源：连续4日融资净买入累计5523.34万元（11-17）</t>
+          <t>川投能源本周沪股通持股市值增加1158.71万元，居电力行业板块第七</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-18 07:33</t>
+          <t>11-20 14:07</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,600674,1248150190.html</t>
+          <t>/news,600674,1248763255.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1356</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>现任董事长又被查 川投能源四任“掌门”接连落马</t>
+          <t>川投能源11月18日获沪股通增持47.68万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-17 21:50</t>
+          <t>11-19 07:50</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,600674,1248097891.html</t>
+          <t>/news,600674,1248638273.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>22142</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>510亿A股公司董事长被查！月初刚公开现身 发生了什么？多家券商提示“谨慎推荐”</t>
+          <t>川投能源：融资净偿还241.87万元，融资余额7.24亿元（11-18）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-17 08:14</t>
+          <t>11-19 07:30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,600674,1247671546.html</t>
+          <t>/news,600674,1248635633.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>1587</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净买入累计1632.03万元（11-16）</t>
+          <t>500亿元A股董事长被查！川投能源净利润超总营收2倍引关注 投资比主业还赚钱？</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-17 07:46</t>
+          <t>11-18 21:34</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,600674,1247666990.html</t>
+          <t>/news,600674,1248594560.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>川投能源11月16日获沪股通增持23.2万股</t>
+          <t>川投能源11月17日获沪股通增持36.02万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-17 07:31</t>
+          <t>11-18 07:42</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,600674,1247664225.html</t>
+          <t>/news,600674,1248151786.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2408</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>川投能源董事长刘体斌遭立案调查：执掌川投集团3年半 历任长虹系多家上市公司董事长</t>
+          <t>川投能源：连续4日融资净买入累计5523.34万元（11-17）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-17 07:19</t>
+          <t>11-18 07:33</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,600674,1247663799.html</t>
+          <t>/news,600674,1248150190.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1240</t>
+          <t>1923</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>川投集团董事长刘体斌被立案调查</t>
+          <t>现任董事长又被查 川投能源四任“掌门”接连落马</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-17 06:27</t>
+          <t>11-17 21:50</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,600674,1247658204.html</t>
+          <t>/news,600674,1248097891.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2094</t>
+          <t>22740</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>突发！上市公司董事长被立案调查</t>
+          <t>510亿A股公司董事长被查！月初刚公开现身 发生了什么？多家券商提示“谨慎推荐”</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-16 22:26</t>
+          <t>11-17 08:14</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,600674,1247612569.html</t>
+          <t>/news,600674,1247671546.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>174</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>川投能源董事长刘体斌被立案调查</t>
+          <t>川投能源：连续3日融资净买入累计1632.03万元（11-16）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-16 22:06</t>
+          <t>11-17 07:46</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,600674,1247606433.html</t>
+          <t>/news,600674,1247666990.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1638</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>突发！500亿A股董事长被立案调查</t>
+          <t>川投能源11月16日获沪股通增持23.2万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-16 19:20</t>
+          <t>11-17 07:31</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,600674,1247560692.html</t>
+          <t>/news,600674,1247664225.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2530</t>
+          <t>2644</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>川投能源董事长刘体斌被立案调查 曾担任多家四川上市公司一把手</t>
+          <t>川投能源董事长刘体斌遭立案调查：执掌川投集团3年半 历任长虹系多家上市公司董事长</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-16 18:27</t>
+          <t>11-17 07:19</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,600674,1247548359.html</t>
+          <t>/news,600674,1247663799.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1333</t>
+          <t>1439</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>川投集团董事长刘体斌被四川省监察委立案调查 月初尚在出席会议</t>
+          <t>川投集团董事长刘体斌被立案调查</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-16 17:22</t>
+          <t>11-17 06:27</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,600674,1247535065.html</t>
+          <t>/news,600674,1247658204.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5127</t>
+          <t>2289</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>川投能源董事长刘体斌被四川省监察委员会立案调查及实施留置措施</t>
+          <t>突发！上市公司董事长被立案调查</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-16 16:31</t>
+          <t>11-16 22:26</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,600674,1247520531.html</t>
+          <t>/news,600674,1247612569.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1164</t>
+          <t>1179</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>川投能源：公司董事长刘体斌被立案调查</t>
+          <t>川投能源董事长刘体斌被立案调查</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-16 15:51</t>
+          <t>11-16 22:06</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,600674,1247512404.html</t>
+          <t>/news,600674,1247606433.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>10.1万</t>
+          <t>1710</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>川投能源：公司董事长被立案调查</t>
+          <t>突发！500亿A股董事长被立案调查</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-16 15:48</t>
+          <t>11-16 19:20</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,600674,1247510787.html</t>
+          <t>/news,600674,1247560692.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>2616</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>川投能源11月15日获沪股通增持33.2万股</t>
+          <t>川投能源董事长刘体斌被立案调查 曾担任多家四川上市公司一把手</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-16 07:54</t>
+          <t>11-16 18:27</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,600674,1247176211.html</t>
+          <t>/news,600674,1247548359.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>1374</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入129.5万元，融资余额6.84亿元（11-15）</t>
+          <t>川投集团董事长刘体斌被四川省监察委立案调查 月初尚在出席会议</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-16 07:27</t>
+          <t>11-16 17:22</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,600674,1247171748.html</t>
+          <t>/news,600674,1247535065.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>5171</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>川投能源11月14日被沪股通减持38.11万股</t>
+          <t>川投能源董事长刘体斌被四川省监察委员会立案调查及实施留置措施</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-15 07:57</t>
+          <t>11-16 16:31</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,600674,1246691419.html</t>
+          <t>/news,600674,1247520531.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>1199</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1186.56万元，融资余额6.83亿元（11-14）</t>
+          <t>川投能源：公司董事长刘体斌被立案调查</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,51 +1085,51 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-15 07:37</t>
+          <t>11-16 15:51</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,600674,1246688075.html</t>
+          <t>/news,600674,1247512404.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>10.1万</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>264</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入2574.49万元，居电力行业板块第七</t>
+          <t>川投能源：公司董事长被立案调查</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-13 15:07</t>
+          <t>11-16 15:48</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,600674,1246099606.html</t>
+          <t>/news,600674,1247510787.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,29 +1139,29 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加1350.02万元，居电力行业板块第二</t>
+          <t>川投能源11月15日获沪股通增持33.2万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-13 14:10</t>
+          <t>11-16 07:54</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,600674,1246094601.html</t>
+          <t>/news,600674,1247176211.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>川投能源11月11日获沪股通增持90.7万股</t>
+          <t>川投能源：融资净买入129.5万元，融资余额6.84亿元（11-15）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-12 07:43</t>
+          <t>11-16 07:27</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,600674,1245985827.html</t>
+          <t>/news,600674,1247171748.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还565.86万元，融资余额6.71亿元（11-11）</t>
+          <t>川投能源11月14日被沪股通减持38.11万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-12 07:31</t>
+          <t>11-15 07:57</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,600674,1245984248.html</t>
+          <t>/news,600674,1246691419.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>川投能源：连续4日融资净买入累计3140.35万元（11-10）</t>
+          <t>川投能源：融资净买入1186.56万元，融资余额6.83亿元（11-14）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,51 +1245,51 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-11 07:37</t>
+          <t>11-15 07:37</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,600674,1245410017.html</t>
+          <t>/news,600674,1246688075.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>川投能源11月09日获沪股通增持22.29万股</t>
+          <t>川投能源本周融资净买入2574.49万元，居电力行业板块第七</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-10 07:39</t>
+          <t>11-13 15:07</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,600674,1244888907.html</t>
+          <t>/news,600674,1246099606.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,29 +1299,29 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净买入累计2307.22万元（11-09）</t>
+          <t>川投能源本周沪股通持股市值增加1350.02万元，居电力行业板块第二</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-10 07:27</t>
+          <t>11-13 14:10</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,600674,1244886962.html</t>
+          <t>/news,600674,1246094601.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1153.08万元，融资余额6.67亿元（11-08）</t>
+          <t>川投能源11月11日获沪股通增持90.7万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-09 07:31</t>
+          <t>11-12 07:43</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,600674,1244424771.html</t>
+          <t>/news,600674,1245985827.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>川投能源11月07日获沪股通增持11.99万股</t>
+          <t>川投能源：融资净偿还565.86万元，融资余额6.71亿元（11-11）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-08 07:50</t>
+          <t>11-12 07:31</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,600674,1243974523.html</t>
+          <t>/news,600674,1245984248.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>328</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1002.96万元，融资余额6.55亿元（11-07）</t>
+          <t>川投能源：连续4日融资净买入累计3140.35万元（11-10）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-08 07:29</t>
+          <t>11-11 07:37</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,600674,1243971057.html</t>
+          <t>/news,600674,1245410017.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>川投能源：公司及控股子公司之间的担保余额共计约2.89亿元</t>
+          <t>川投能源11月09日获沪股通增持22.29万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-07 16:50</t>
+          <t>11-10 07:39</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,600674,1243839821.html</t>
+          <t>/news,600674,1244888907.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,29 +1459,29 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>川投能源本周融资净偿还2823.08万元，居电力行业板块第二</t>
+          <t>川投能源：连续3日融资净买入累计2307.22万元（11-09）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-06 15:20</t>
+          <t>11-10 07:27</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,600674,1243413079.html</t>
+          <t>/news,600674,1244886962.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,29 +1491,29 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>沪股通连续2周净卖出川投能源 累计净卖出6599.4万元</t>
+          <t>川投能源：融资净买入1153.08万元，融资余额6.67亿元（11-08）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-09 07:31</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,600674,1243404704.html</t>
+          <t>/news,600674,1244424771.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净偿还累计2571.62万元（11-04）</t>
+          <t>川投能源11月07日获沪股通增持11.99万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-05 07:40</t>
+          <t>11-08 07:50</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,600674,1243317219.html</t>
+          <t>/news,600674,1243974523.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>川投能源11月03日被沪股通减持82.42万股</t>
+          <t>川投能源：融资净买入1002.96万元，融资余额6.55亿元（11-07）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-04 07:47</t>
+          <t>11-08 07:29</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,600674,1242816855.html</t>
+          <t>/news,600674,1243971057.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>531</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还635.52万元，融资余额6.5亿元（11-03）</t>
+          <t>川投能源：公司及控股子公司之间的担保余额共计约2.89亿元</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-04 07:30</t>
+          <t>11-07 16:50</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,600674,1242813737.html</t>
+          <t>/news,600674,1243839821.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>489</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,29 +1619,29 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>川投能源11月02日被沪股通减持74万股</t>
+          <t>川投能源本周融资净偿还2823.08万元，居电力行业板块第二</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-06 15:20</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,600674,1242326355.html</t>
+          <t>/news,600674,1243413079.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>495</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,29 +1651,29 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还1427万元，融资余额6.57亿元（11-02）</t>
+          <t>沪股通连续2周净卖出川投能源 累计净卖出6599.4万元</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-03 07:29</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,600674,1242321485.html</t>
+          <t>/news,600674,1243404704.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>川投能源11月01日获沪股通增持51.68万股</t>
+          <t>川投能源：连续3日融资净偿还累计2571.62万元（11-04）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-02 07:51</t>
+          <t>11-05 07:40</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,600674,1241801443.html</t>
+          <t>/news,600674,1243317219.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>482</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1119.71万元，融资余额6.71亿元（11-01）</t>
+          <t>川投能源11月03日被沪股通减持82.42万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-04 07:47</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,600674,1241800687.html</t>
+          <t>/news,600674,1242816855.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>川投能源10月31日被沪股通减持78.36万股</t>
+          <t>川投能源：融资净偿还635.52万元，融资余额6.5亿元（11-03）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-01 07:52</t>
+          <t>11-04 07:30</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,600674,1241297048.html</t>
+          <t>/news,600674,1242813737.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还1371.17万元，融资余额6.6亿元（10-31）</t>
+          <t>川投能源11月02日被沪股通减持74万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-01 07:28</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,600674,1241293200.html</t>
+          <t>/news,600674,1242326355.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>516</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,29 +1811,29 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>川财证券维持川投能源增持评级 预计2022年净利润同比增长11.76%</t>
+          <t>川投能源：融资净偿还1427万元，融资余额6.57亿元（11-02）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-31 22:05</t>
+          <t>11-03 07:29</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,600674,1241253673.html</t>
+          <t>/news,600674,1242321485.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>川财证券给予川投能源增持评级</t>
+          <t>川投能源11月01日获沪股通增持51.68万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-31 22:03</t>
+          <t>11-02 07:51</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,600674,1241261790.html</t>
+          <t>/news,600674,1241801443.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>680</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,29 +1875,29 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入2973.07万元，居电力行业板块第八</t>
+          <t>川投能源：融资净买入1119.71万元，融资余额6.71亿元（11-01）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,600674,1240712918.html</t>
+          <t>/news,600674,1241800687.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,29 +1907,29 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值减少4460.01万元，居电力行业板块第五</t>
+          <t>川投能源10月31日被沪股通减持78.36万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-30 14:08</t>
+          <t>11-01 07:52</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,600674,1240707423.html</t>
+          <t>/news,600674,1241297048.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>川投能源10月28日被沪股通减持16.12万股</t>
+          <t>川投能源：融资净偿还1371.17万元，融资余额6.6亿元（10-31）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-29 07:56</t>
+          <t>11-01 07:28</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,600674,1240600933.html</t>
+          <t>/news,600674,1241293200.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>518</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,29 +1971,29 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净买入累计2728.82万元（10-28）</t>
+          <t>川财证券维持川投能源增持评级 预计2022年净利润同比增长11.76%</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-29 07:33</t>
+          <t>10-31 22:05</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,600674,1240597339.html</t>
+          <t>/news,600674,1241253673.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>川投能源10月27日被沪股通减持11.71万股</t>
+          <t>川财证券给予川投能源增持评级</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-28 07:42</t>
+          <t>10-31 22:03</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,600674,1240046616.html</t>
+          <t>/news,600674,1241261790.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>683</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,29 +2035,29 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入499.33万元，融资余额6.68亿元（10-27）</t>
+          <t>川投能源本周融资净买入2973.07万元，居电力行业板块第八</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-28 07:29</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,600674,1240044380.html</t>
+          <t>/news,600674,1240712918.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>527</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,29 +2067,29 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>川投能源10月26日被沪股通减持79.49万股</t>
+          <t>川投能源本周沪股通持股市值减少4460.01万元，居电力行业板块第五</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-27 07:44</t>
+          <t>10-30 14:08</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,600674,1239496318.html</t>
+          <t>/news,600674,1240707423.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>484</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1740.9万元，融资余额6.63亿元（10-26）</t>
+          <t>川投能源10月28日被沪股通减持16.12万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-27 07:33</t>
+          <t>10-29 07:56</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,600674,1239494829.html</t>
+          <t>/news,600674,1240600933.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>川投能源10月25日被沪股通减持173.77万股</t>
+          <t>川投能源：连续3日融资净买入累计2728.82万元（10-28）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-26 07:58</t>
+          <t>10-29 07:33</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,600674,1238970260.html</t>
+          <t>/news,600674,1240597339.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还1821.77万元，融资余额6.46亿元（10-25）</t>
+          <t>川投能源10月27日被沪股通减持11.71万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-26 07:31</t>
+          <t>10-28 07:42</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,600674,1238965647.html</t>
+          <t>/news,600674,1240046616.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,29 +2195,29 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>长城证券维持川投能源增持评级 预计2022年净利润同比增长16.75%</t>
+          <t>川投能源：融资净买入499.33万元，融资余额6.68亿元（10-27）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-25 21:21</t>
+          <t>10-28 07:29</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,600674,1238894339.html</t>
+          <t>/news,600674,1240044380.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>首创证券给予川投能源买入评级 来水影响发电量 雅砻江公司成为业绩保障</t>
+          <t>川投能源10月26日被沪股通减持79.49万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-25 13:22</t>
+          <t>10-27 07:44</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,600674,1246194590.html</t>
+          <t>/news,600674,1239496318.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>首创证券给予川投能源买入评级 来水影响发电量 雅砻江公司成为业绩保障</t>
+          <t>川投能源：融资净买入1740.9万元，融资余额6.63亿元（10-26）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-25 13:22</t>
+          <t>10-27 07:33</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,600674,1238695111.html</t>
+          <t>/news,600674,1239494829.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,29 +2291,29 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>首创证券维持川投能源买入评级 预计2022年净利润同比增长9.15%</t>
+          <t>川投能源10月25日被沪股通减持173.77万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-25 13:17</t>
+          <t>10-26 07:58</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,600674,1238689042.html</t>
+          <t>/news,600674,1238970260.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>川投能源10月24日被沪股通减持111.56万股</t>
+          <t>川投能源：融资净偿还1821.77万元，融资余额6.46亿元（10-25）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-25 07:47</t>
+          <t>10-26 07:31</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,600674,1238447684.html</t>
+          <t>/news,600674,1238965647.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,29 +2355,29 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>川投能源：连续7日融资净买入累计1.09亿元（10-24）</t>
+          <t>长城证券维持川投能源增持评级 预计2022年净利润同比增长16.75%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-25 07:29</t>
+          <t>10-25 21:21</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,600674,1238443879.html</t>
+          <t>/news,600674,1238894339.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>105</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>国海证券给予川投能源买入评级</t>
+          <t>首创证券给予川投能源买入评级 来水影响发电量 雅砻江公司成为业绩保障</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-25 07:08</t>
+          <t>10-25 13:22</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,600674,1238441787.html</t>
+          <t>/news,600674,1246194590.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,29 +2419,29 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>国海证券维持川投能源买入评级 预计2022年净利润同比增长8.05%</t>
+          <t>首创证券给予川投能源买入评级 来水影响发电量 雅砻江公司成为业绩保障</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-25 06:53</t>
+          <t>10-25 13:22</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,600674,1238440213.html</t>
+          <t>/news,600674,1238695111.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>449</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
+          <t>首创证券维持川投能源买入评级 预计2022年净利润同比增长9.15%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-24 09:11</t>
+          <t>10-25 13:17</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,600674,1237928643.html</t>
+          <t>/news,600674,1238689042.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>中国银河给予川投能源推荐评级：雅砻江Q3发电量实现正增长 沿江新能源打开新成长空间</t>
+          <t>川投能源10月24日被沪股通减持111.56万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-24 07:23</t>
+          <t>10-25 07:47</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,600674,1237915624.html</t>
+          <t>/news,600674,1238447684.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>东吴证券给予川投能源买入评级 自然灾害拖累发电量表现 利润增长主要来自于雅砻江水电</t>
+          <t>川投能源：连续7日融资净买入累计1.09亿元（10-24）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-24 07:09</t>
+          <t>10-25 07:29</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,600674,1237914624.html</t>
+          <t>/news,600674,1238443879.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,29 +2547,29 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>中国银河维持川投能源推荐评级 预计2022年净利润同比增长7.02%</t>
+          <t>国海证券给予川投能源买入评级</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-24 07:06</t>
+          <t>10-25 07:08</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,600674,1237914166.html</t>
+          <t>/news,600674,1238441787.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>东吴证券维持川投能源买入评级 预计2022年净利润同比增长14.24%</t>
+          <t>国海证券维持川投能源买入评级 预计2022年净利润同比增长8.05%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-24 06:30</t>
+          <t>10-25 06:53</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,600674,1237913185.html</t>
+          <t>/news,600674,1238440213.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>372</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,61 +2611,61 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入8535.19万元，居电力行业板块第三</t>
+          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-23 15:08</t>
+          <t>10-24 09:11</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,600674,1237864909.html</t>
+          <t>/news,600674,1237928643.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>476</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>华泰证券维持川投能源买入评级 目标价14.72元</t>
+          <t>中国银河给予川投能源推荐评级：雅砻江Q3发电量实现正增长 沿江新能源打开新成长空间</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-23 14:10</t>
+          <t>10-24 07:23</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,600674,1237860794.html</t>
+          <t>/news,600674,1237915624.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>417</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,29 +2675,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加4373.88万元，居电力行业板块第八</t>
+          <t>东吴证券给予川投能源买入评级 自然灾害拖累发电量表现 利润增长主要来自于雅砻江水电</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-23 14:06</t>
+          <t>10-24 07:09</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,600674,1237860359.html</t>
+          <t>/news,600674,1237914624.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,29 +2707,29 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>民生证券给予川投能源谨慎推荐评级：缺水、地震接踵而至 雅砻江稳中有增</t>
+          <t>中国银河维持川投能源推荐评级 预计2022年净利润同比增长7.02%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-23 14:02</t>
+          <t>10-24 07:06</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,600674,1237860656.html</t>
+          <t>/news,600674,1237914166.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>民生证券维持川投能源谨慎推荐评级 目标价12.8元</t>
+          <t>东吴证券维持川投能源买入评级 预计2022年净利润同比增长14.24%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-23 13:05</t>
+          <t>10-24 06:30</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,600674,1237856960.html</t>
+          <t>/news,600674,1237913185.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>438</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,29 +2771,29 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>川投能源10月21日获沪股通增持62.34万股</t>
+          <t>川投能源本周融资净买入8535.19万元，居电力行业板块第三</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-22 07:45</t>
+          <t>10-23 15:08</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,600674,1237796375.html</t>
+          <t>/news,600674,1237864909.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>366</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,29 +2803,29 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>川投能源：连续6日融资净买入累计8807.37万元（10-21）</t>
+          <t>华泰证券维持川投能源买入评级 目标价14.72元</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-22 07:33</t>
+          <t>10-23 14:10</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,600674,1237794834.html</t>
+          <t>/news,600674,1237860794.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,39 +2835,39 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>【图解季报】川投能源：2022年前三季度归母净利润同比增长5%，约为29.2亿元</t>
+          <t>川投能源本周沪股通持股市值增加4373.88万元，居电力行业板块第八</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-21 22:10</t>
+          <t>10-23 14:06</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,600674,1237763963.html</t>
+          <t>/news,600674,1237860359.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>川投能源：前三季度归母净利润29.19亿元</t>
+          <t>民生证券给予川投能源谨慎推荐评级：缺水、地震接踵而至 雅砻江稳中有增</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-21 20:03</t>
+          <t>10-23 14:02</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,600674,1237738860.html</t>
+          <t>/news,600674,1237860656.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,29 +2899,29 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>川投能源：2022年前三季度净利润约29.19亿元</t>
+          <t>民生证券维持川投能源谨慎推荐评级 目标价12.8元</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-21 19:07</t>
+          <t>10-23 13:05</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,600674,1237728875.html</t>
+          <t>/news,600674,1237856960.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>川投能源股东户数下降8.85%，户均持股151.04万元</t>
+          <t>川投能源10月21日获沪股通增持62.34万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-21 18:55</t>
+          <t>10-22 07:45</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,600674,1237726629.html</t>
+          <t>/news,600674,1237796375.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,29 +2963,29 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>川投能源：2022年前三季度净利润同比增长5.02%</t>
+          <t>川投能源：连续6日融资净买入累计8807.37万元（10-21）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-21 18:49</t>
+          <t>10-22 07:33</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,600674,1237725578.html</t>
+          <t>/news,600674,1237794834.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>川投能源10月20日被沪股通减持148.64万股</t>
+          <t>【图解季报】川投能源：2022年前三季度归母净利润同比增长5%，约为29.2亿元</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-21 07:48</t>
+          <t>10-21 22:10</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,600674,1237347913.html</t>
+          <t>/news,600674,1237763963.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/600674.xlsx
+++ b/news_ann/news/tmp/600674.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -489,7 +489,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -585,12 +585,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1587</t>
+          <t>1624</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -617,7 +617,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -649,7 +649,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -681,7 +681,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1923</t>
+          <t>1931</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -713,7 +713,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>22740</t>
+          <t>22752</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -809,7 +809,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2644</t>
+          <t>2645</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -841,7 +841,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1439</t>
+          <t>1440</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -873,7 +873,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2289</t>
+          <t>2290</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1033,7 +1033,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5171</t>
+          <t>5172</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1193,7 +1193,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">

--- a/news_ann/news/tmp/600674.xlsx
+++ b/news_ann/news/tmp/600674.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>111</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,29 +467,29 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入5281.47万元，居电力行业板块第四</t>
+          <t>川投能源11月21日被沪股通减持24.87万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-20 15:07</t>
+          <t>11-22 07:53</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,600674,1248769419.html</t>
+          <t>/news,600674,1249348966.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>118</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,29 +499,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加1158.71万元，居电力行业板块第七</t>
+          <t>川投能源：融资净偿还49.55万元，融资余额7.23亿元（11-21）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-20 14:07</t>
+          <t>11-22 07:38</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,600674,1248763255.html</t>
+          <t>/news,600674,1249346246.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,29 +531,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>川投能源11月18日获沪股通增持47.68万股</t>
+          <t>川投能源本周融资净买入5281.47万元，居电力行业板块第四</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-19 07:50</t>
+          <t>11-20 15:07</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,600674,1248638273.html</t>
+          <t>/news,600674,1248769419.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,39 +563,39 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还241.87万元，融资余额7.24亿元（11-18）</t>
+          <t>川投能源本周沪股通持股市值增加1158.71万元，居电力行业板块第七</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-19 07:30</t>
+          <t>11-20 14:07</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,600674,1248635633.html</t>
+          <t>/news,600674,1248763255.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1624</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>500亿元A股董事长被查！川投能源净利润超总营收2倍引关注 投资比主业还赚钱？</t>
+          <t>川投能源11月18日获沪股通增持47.68万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-18 21:34</t>
+          <t>11-19 07:50</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,600674,1248594560.html</t>
+          <t>/news,600674,1248638273.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>川投能源11月17日获沪股通增持36.02万股</t>
+          <t>川投能源：融资净偿还241.87万元，融资余额7.24亿元（11-18）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-18 07:42</t>
+          <t>11-19 07:30</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,600674,1248151786.html</t>
+          <t>/news,600674,1248635633.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>1790</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>川投能源：连续4日融资净买入累计5523.34万元（11-17）</t>
+          <t>500亿元A股董事长被查！川投能源净利润超总营收2倍引关注 投资比主业还赚钱？</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-18 07:33</t>
+          <t>11-18 21:34</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,600674,1248150190.html</t>
+          <t>/news,600674,1248594560.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1931</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>现任董事长又被查 川投能源四任“掌门”接连落马</t>
+          <t>川投能源11月17日获沪股通增持36.02万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-17 21:50</t>
+          <t>11-18 07:42</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,600674,1248097891.html</t>
+          <t>/news,600674,1248151786.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>22752</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>510亿A股公司董事长被查！月初刚公开现身 发生了什么？多家券商提示“谨慎推荐”</t>
+          <t>川投能源：连续4日融资净买入累计5523.34万元（11-17）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-17 08:14</t>
+          <t>11-18 07:33</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,600674,1247671546.html</t>
+          <t>/news,600674,1248150190.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>1977</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净买入累计1632.03万元（11-16）</t>
+          <t>现任董事长又被查 川投能源四任“掌门”接连落马</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-17 07:46</t>
+          <t>11-17 21:50</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,600674,1247666990.html</t>
+          <t>/news,600674,1248097891.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>22784</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>川投能源11月16日获沪股通增持23.2万股</t>
+          <t>510亿A股公司董事长被查！月初刚公开现身 发生了什么？多家券商提示“谨慎推荐”</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-17 07:31</t>
+          <t>11-17 08:14</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,600674,1247664225.html</t>
+          <t>/news,600674,1247671546.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2645</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>川投能源董事长刘体斌遭立案调查：执掌川投集团3年半 历任长虹系多家上市公司董事长</t>
+          <t>川投能源：连续3日融资净买入累计1632.03万元（11-16）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-17 07:19</t>
+          <t>11-17 07:46</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,600674,1247663799.html</t>
+          <t>/news,600674,1247666990.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1440</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>川投集团董事长刘体斌被立案调查</t>
+          <t>川投能源11月16日获沪股通增持23.2万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-17 06:27</t>
+          <t>11-17 07:31</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,600674,1247658204.html</t>
+          <t>/news,600674,1247664225.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2290</t>
+          <t>2676</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>突发！上市公司董事长被立案调查</t>
+          <t>川投能源董事长刘体斌遭立案调查：执掌川投集团3年半 历任长虹系多家上市公司董事长</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-16 22:26</t>
+          <t>11-17 07:19</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,600674,1247612569.html</t>
+          <t>/news,600674,1247663799.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1179</t>
+          <t>1460</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>川投能源董事长刘体斌被立案调查</t>
+          <t>川投集团董事长刘体斌被立案调查</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-16 22:06</t>
+          <t>11-17 06:27</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,600674,1247606433.html</t>
+          <t>/news,600674,1247658204.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1710</t>
+          <t>2308</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>突发！500亿A股董事长被立案调查</t>
+          <t>突发！上市公司董事长被立案调查</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-16 19:20</t>
+          <t>11-16 22:26</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,600674,1247560692.html</t>
+          <t>/news,600674,1247612569.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2616</t>
+          <t>1195</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>川投能源董事长刘体斌被立案调查 曾担任多家四川上市公司一把手</t>
+          <t>川投能源董事长刘体斌被立案调查</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-16 18:27</t>
+          <t>11-16 22:06</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,600674,1247548359.html</t>
+          <t>/news,600674,1247606433.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1374</t>
+          <t>1725</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>川投集团董事长刘体斌被四川省监察委立案调查 月初尚在出席会议</t>
+          <t>突发！500亿A股董事长被立案调查</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-16 17:22</t>
+          <t>11-16 19:20</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,600674,1247535065.html</t>
+          <t>/news,600674,1247560692.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5172</t>
+          <t>2626</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>川投能源董事长刘体斌被四川省监察委员会立案调查及实施留置措施</t>
+          <t>川投能源董事长刘体斌被立案调查 曾担任多家四川上市公司一把手</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-16 16:31</t>
+          <t>11-16 18:27</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,600674,1247520531.html</t>
+          <t>/news,600674,1247548359.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1199</t>
+          <t>1390</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>川投能源：公司董事长刘体斌被立案调查</t>
+          <t>川投集团董事长刘体斌被四川省监察委立案调查 月初尚在出席会议</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-16 15:51</t>
+          <t>11-16 17:22</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,600674,1247512404.html</t>
+          <t>/news,600674,1247535065.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>10.1万</t>
+          <t>5182</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>川投能源：公司董事长被立案调查</t>
+          <t>川投能源董事长刘体斌被四川省监察委员会立案调查及实施留置措施</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-16 15:48</t>
+          <t>11-16 16:31</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,600674,1247510787.html</t>
+          <t>/news,600674,1247520531.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>1214</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>川投能源11月15日获沪股通增持33.2万股</t>
+          <t>川投能源：公司董事长刘体斌被立案调查</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-16 07:54</t>
+          <t>11-16 15:51</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,600674,1247176211.html</t>
+          <t>/news,600674,1247512404.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>10.1万</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>264</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入129.5万元，融资余额6.84亿元（11-15）</t>
+          <t>川投能源：公司董事长被立案调查</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-16 07:27</t>
+          <t>11-16 15:48</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,600674,1247171748.html</t>
+          <t>/news,600674,1247510787.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>川投能源11月14日被沪股通减持38.11万股</t>
+          <t>川投能源11月15日获沪股通增持33.2万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-15 07:57</t>
+          <t>11-16 07:54</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,600674,1246691419.html</t>
+          <t>/news,600674,1247176211.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1186.56万元，融资余额6.83亿元（11-14）</t>
+          <t>川投能源：融资净买入129.5万元，融资余额6.84亿元（11-15）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,51 +1245,51 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-15 07:37</t>
+          <t>11-16 07:27</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,600674,1246688075.html</t>
+          <t>/news,600674,1247171748.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入2574.49万元，居电力行业板块第七</t>
+          <t>川投能源11月14日被沪股通减持38.11万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-13 15:07</t>
+          <t>11-15 07:57</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,600674,1246099606.html</t>
+          <t>/news,600674,1246691419.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,61 +1299,61 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加1350.02万元，居电力行业板块第二</t>
+          <t>川投能源：融资净买入1186.56万元，融资余额6.83亿元（11-14）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-13 14:10</t>
+          <t>11-15 07:37</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,600674,1246094601.html</t>
+          <t>/news,600674,1246688075.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>川投能源11月11日获沪股通增持90.7万股</t>
+          <t>川投能源本周融资净买入2574.49万元，居电力行业板块第七</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-12 07:43</t>
+          <t>11-13 15:07</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,600674,1245985827.html</t>
+          <t>/news,600674,1246099606.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,29 +1363,29 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还565.86万元，融资余额6.71亿元（11-11）</t>
+          <t>川投能源本周沪股通持股市值增加1350.02万元，居电力行业板块第二</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-12 07:31</t>
+          <t>11-13 14:10</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,600674,1245984248.html</t>
+          <t>/news,600674,1246094601.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>396</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>川投能源：连续4日融资净买入累计3140.35万元（11-10）</t>
+          <t>川投能源11月11日获沪股通增持90.7万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-11 07:37</t>
+          <t>11-12 07:43</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,600674,1245410017.html</t>
+          <t>/news,600674,1245985827.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>328</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>川投能源11月09日获沪股通增持22.29万股</t>
+          <t>川投能源：融资净偿还565.86万元，融资余额6.71亿元（11-11）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-10 07:39</t>
+          <t>11-12 07:31</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,600674,1244888907.html</t>
+          <t>/news,600674,1245984248.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净买入累计2307.22万元（11-09）</t>
+          <t>川投能源：连续4日融资净买入累计3140.35万元（11-10）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-10 07:27</t>
+          <t>11-11 07:37</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,600674,1244886962.html</t>
+          <t>/news,600674,1245410017.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>328</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1153.08万元，融资余额6.67亿元（11-08）</t>
+          <t>川投能源11月09日获沪股通增持22.29万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-09 07:31</t>
+          <t>11-10 07:39</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,600674,1244424771.html</t>
+          <t>/news,600674,1244888907.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>川投能源11月07日获沪股通增持11.99万股</t>
+          <t>川投能源：连续3日融资净买入累计2307.22万元（11-09）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-08 07:50</t>
+          <t>11-10 07:27</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,600674,1243974523.html</t>
+          <t>/news,600674,1244886962.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1002.96万元，融资余额6.55亿元（11-07）</t>
+          <t>川投能源：融资净买入1153.08万元，融资余额6.67亿元（11-08）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-08 07:29</t>
+          <t>11-09 07:31</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,600674,1243971057.html</t>
+          <t>/news,600674,1244424771.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>川投能源：公司及控股子公司之间的担保余额共计约2.89亿元</t>
+          <t>川投能源11月07日获沪股通增持11.99万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-07 16:50</t>
+          <t>11-08 07:50</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,600674,1243839821.html</t>
+          <t>/news,600674,1243974523.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,61 +1619,61 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>川投能源本周融资净偿还2823.08万元，居电力行业板块第二</t>
+          <t>川投能源：融资净买入1002.96万元，融资余额6.55亿元（11-07）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-06 15:20</t>
+          <t>11-08 07:29</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,600674,1243413079.html</t>
+          <t>/news,600674,1243971057.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>534</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>沪股通连续2周净卖出川投能源 累计净卖出6599.4万元</t>
+          <t>川投能源：公司及控股子公司之间的担保余额共计约2.89亿元</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-07 16:50</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,600674,1243404704.html</t>
+          <t>/news,600674,1243839821.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>490</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,61 +1683,61 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净偿还累计2571.62万元（11-04）</t>
+          <t>川投能源本周融资净偿还2823.08万元，居电力行业板块第二</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-05 07:40</t>
+          <t>11-06 15:20</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,600674,1243317219.html</t>
+          <t>/news,600674,1243413079.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>497</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>川投能源11月03日被沪股通减持82.42万股</t>
+          <t>沪股通连续2周净卖出川投能源 累计净卖出6599.4万元</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-04 07:47</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,600674,1242816855.html</t>
+          <t>/news,600674,1243404704.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还635.52万元，融资余额6.5亿元（11-03）</t>
+          <t>川投能源：连续3日融资净偿还累计2571.62万元（11-04）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-04 07:30</t>
+          <t>11-05 07:40</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,600674,1242813737.html</t>
+          <t>/news,600674,1243317219.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>486</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>川投能源11月02日被沪股通减持74万股</t>
+          <t>川投能源11月03日被沪股通减持82.42万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-04 07:47</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,600674,1242326355.html</t>
+          <t>/news,600674,1242816855.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还1427万元，融资余额6.57亿元（11-02）</t>
+          <t>川投能源：融资净偿还635.52万元，融资余额6.5亿元（11-03）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-03 07:29</t>
+          <t>11-04 07:30</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,600674,1242321485.html</t>
+          <t>/news,600674,1242813737.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>川投能源11月01日获沪股通增持51.68万股</t>
+          <t>川投能源11月02日被沪股通减持74万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-02 07:51</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,600674,1241801443.html</t>
+          <t>/news,600674,1242326355.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1119.71万元，融资余额6.71亿元（11-01）</t>
+          <t>川投能源：融资净偿还1427万元，融资余额6.57亿元（11-02）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-03 07:29</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,600674,1241800687.html</t>
+          <t>/news,600674,1242321485.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>川投能源10月31日被沪股通减持78.36万股</t>
+          <t>川投能源11月01日获沪股通增持51.68万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-01 07:52</t>
+          <t>11-02 07:51</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,600674,1241297048.html</t>
+          <t>/news,600674,1241801443.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还1371.17万元，融资余额6.6亿元（10-31）</t>
+          <t>川投能源：融资净买入1119.71万元，融资余额6.71亿元（11-01）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-01 07:28</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,600674,1241293200.html</t>
+          <t>/news,600674,1241800687.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>518</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,29 +1971,29 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>川财证券维持川投能源增持评级 预计2022年净利润同比增长11.76%</t>
+          <t>川投能源10月31日被沪股通减持78.36万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-31 22:05</t>
+          <t>11-01 07:52</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,600674,1241253673.html</t>
+          <t>/news,600674,1241297048.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>川财证券给予川投能源增持评级</t>
+          <t>川投能源：融资净偿还1371.17万元，融资余额6.6亿元（10-31）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-31 22:03</t>
+          <t>11-01 07:28</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,600674,1241261790.html</t>
+          <t>/news,600674,1241293200.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>683</t>
+          <t>521</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,29 +2035,29 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入2973.07万元，居电力行业板块第八</t>
+          <t>川财证券维持川投能源增持评级 预计2022年净利润同比增长11.76%</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>10-31 22:05</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,600674,1240712918.html</t>
+          <t>/news,600674,1241253673.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,29 +2067,29 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值减少4460.01万元，居电力行业板块第五</t>
+          <t>川财证券给予川投能源增持评级</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-30 14:08</t>
+          <t>10-31 22:03</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,600674,1240707423.html</t>
+          <t>/news,600674,1241261790.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>484</t>
+          <t>685</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,29 +2099,29 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>川投能源10月28日被沪股通减持16.12万股</t>
+          <t>川投能源本周融资净买入2973.07万元，居电力行业板块第八</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-29 07:56</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,600674,1240600933.html</t>
+          <t>/news,600674,1240712918.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>528</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,29 +2131,29 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净买入累计2728.82万元（10-28）</t>
+          <t>川投能源本周沪股通持股市值减少4460.01万元，居电力行业板块第五</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-29 07:33</t>
+          <t>10-30 14:08</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,600674,1240597339.html</t>
+          <t>/news,600674,1240707423.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>486</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>川投能源10月27日被沪股通减持11.71万股</t>
+          <t>川投能源10月28日被沪股通减持16.12万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-28 07:42</t>
+          <t>10-29 07:56</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,600674,1240046616.html</t>
+          <t>/news,600674,1240600933.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>366</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入499.33万元，融资余额6.68亿元（10-27）</t>
+          <t>川投能源：连续3日融资净买入累计2728.82万元（10-28）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-28 07:29</t>
+          <t>10-29 07:33</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,600674,1240044380.html</t>
+          <t>/news,600674,1240597339.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>川投能源10月26日被沪股通减持79.49万股</t>
+          <t>川投能源10月27日被沪股通减持11.71万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-27 07:44</t>
+          <t>10-28 07:42</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,600674,1239496318.html</t>
+          <t>/news,600674,1240046616.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1740.9万元，融资余额6.63亿元（10-26）</t>
+          <t>川投能源：融资净买入499.33万元，融资余额6.68亿元（10-27）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-27 07:33</t>
+          <t>10-28 07:29</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,600674,1239494829.html</t>
+          <t>/news,600674,1240044380.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>川投能源10月25日被沪股通减持173.77万股</t>
+          <t>川投能源10月26日被沪股通减持79.49万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,12 +2301,12 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-26 07:58</t>
+          <t>10-27 07:44</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,600674,1238970260.html</t>
+          <t>/news,600674,1239496318.html</t>
         </is>
       </c>
     </row>
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还1821.77万元，融资余额6.46亿元（10-25）</t>
+          <t>川投能源：融资净买入1740.9万元，融资余额6.63亿元（10-26）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-26 07:31</t>
+          <t>10-27 07:33</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,600674,1238965647.html</t>
+          <t>/news,600674,1239494829.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,29 +2355,29 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>长城证券维持川投能源增持评级 预计2022年净利润同比增长16.75%</t>
+          <t>川投能源10月25日被沪股通减持173.77万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-25 21:21</t>
+          <t>10-26 07:58</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,600674,1238894339.html</t>
+          <t>/news,600674,1238970260.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>首创证券给予川投能源买入评级 来水影响发电量 雅砻江公司成为业绩保障</t>
+          <t>川投能源：融资净偿还1821.77万元，融资余额6.46亿元（10-25）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-25 13:22</t>
+          <t>10-26 07:31</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,600674,1246194590.html</t>
+          <t>/news,600674,1238965647.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>528</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,29 +2419,29 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>首创证券给予川投能源买入评级 来水影响发电量 雅砻江公司成为业绩保障</t>
+          <t>长城证券维持川投能源增持评级 预计2022年净利润同比增长16.75%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-25 13:22</t>
+          <t>10-25 21:21</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,600674,1238695111.html</t>
+          <t>/news,600674,1238894339.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>106</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,29 +2451,29 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>首创证券维持川投能源买入评级 预计2022年净利润同比增长9.15%</t>
+          <t>首创证券给予川投能源买入评级 来水影响发电量 雅砻江公司成为业绩保障</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-25 13:17</t>
+          <t>10-25 13:22</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,600674,1238689042.html</t>
+          <t>/news,600674,1246194590.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>408</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>川投能源10月24日被沪股通减持111.56万股</t>
+          <t>首创证券给予川投能源买入评级 来水影响发电量 雅砻江公司成为业绩保障</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-25 07:47</t>
+          <t>10-25 13:22</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,600674,1238447684.html</t>
+          <t>/news,600674,1238695111.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,29 +2515,29 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>川投能源：连续7日融资净买入累计1.09亿元（10-24）</t>
+          <t>首创证券维持川投能源买入评级 预计2022年净利润同比增长9.15%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-25 07:29</t>
+          <t>10-25 13:17</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,600674,1238443879.html</t>
+          <t>/news,600674,1238689042.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>国海证券给予川投能源买入评级</t>
+          <t>川投能源10月24日被沪股通减持111.56万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-25 07:08</t>
+          <t>10-25 07:47</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,600674,1238441787.html</t>
+          <t>/news,600674,1238447684.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,29 +2579,29 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>国海证券维持川投能源买入评级 预计2022年净利润同比增长8.05%</t>
+          <t>川投能源：连续7日融资净买入累计1.09亿元（10-24）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-25 06:53</t>
+          <t>10-25 07:29</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,600674,1238440213.html</t>
+          <t>/news,600674,1238443879.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,61 +2611,61 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
+          <t>国海证券给予川投能源买入评级</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-24 09:11</t>
+          <t>10-25 07:08</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,600674,1237928643.html</t>
+          <t>/news,600674,1238441787.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>中国银河给予川投能源推荐评级：雅砻江Q3发电量实现正增长 沿江新能源打开新成长空间</t>
+          <t>国海证券维持川投能源买入评级 预计2022年净利润同比增长8.05%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-24 07:23</t>
+          <t>10-25 06:53</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,600674,1237915624.html</t>
+          <t>/news,600674,1238440213.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>374</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,61 +2675,61 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>东吴证券给予川投能源买入评级 自然灾害拖累发电量表现 利润增长主要来自于雅砻江水电</t>
+          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-24 07:09</t>
+          <t>10-24 09:11</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,600674,1237914624.html</t>
+          <t>/news,600674,1237928643.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>479</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>中国银河维持川投能源推荐评级 预计2022年净利润同比增长7.02%</t>
+          <t>中国银河给予川投能源推荐评级：雅砻江Q3发电量实现正增长 沿江新能源打开新成长空间</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-24 07:06</t>
+          <t>10-24 07:23</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,600674,1237914166.html</t>
+          <t>/news,600674,1237915624.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>419</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,29 +2739,29 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>东吴证券维持川投能源买入评级 预计2022年净利润同比增长14.24%</t>
+          <t>东吴证券给予川投能源买入评级 自然灾害拖累发电量表现 利润增长主要来自于雅砻江水电</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-24 06:30</t>
+          <t>10-24 07:09</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,600674,1237913185.html</t>
+          <t>/news,600674,1237914624.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,29 +2771,29 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入8535.19万元，居电力行业板块第三</t>
+          <t>中国银河维持川投能源推荐评级 预计2022年净利润同比增长7.02%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-23 15:08</t>
+          <t>10-24 07:06</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,600674,1237864909.html</t>
+          <t>/news,600674,1237914166.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>华泰证券维持川投能源买入评级 目标价14.72元</t>
+          <t>东吴证券维持川投能源买入评级 预计2022年净利润同比增长14.24%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-23 14:10</t>
+          <t>10-24 06:30</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,600674,1237860794.html</t>
+          <t>/news,600674,1237913185.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,29 +2835,29 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加4373.88万元，居电力行业板块第八</t>
+          <t>川投能源本周融资净买入8535.19万元，居电力行业板块第三</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-23 14:06</t>
+          <t>10-23 15:08</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,600674,1237860359.html</t>
+          <t>/news,600674,1237864909.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,29 +2867,29 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>民生证券给予川投能源谨慎推荐评级：缺水、地震接踵而至 雅砻江稳中有增</t>
+          <t>华泰证券维持川投能源买入评级 目标价14.72元</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-23 14:02</t>
+          <t>10-23 14:10</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,600674,1237860656.html</t>
+          <t>/news,600674,1237860794.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>425</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,29 +2899,29 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>民生证券维持川投能源谨慎推荐评级 目标价12.8元</t>
+          <t>川投能源本周沪股通持股市值增加4373.88万元，居电力行业板块第八</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-23 13:05</t>
+          <t>10-23 14:06</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,600674,1237856960.html</t>
+          <t>/news,600674,1237860359.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>川投能源10月21日获沪股通增持62.34万股</t>
+          <t>民生证券给予川投能源谨慎推荐评级：缺水、地震接踵而至 雅砻江稳中有增</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-22 07:45</t>
+          <t>10-23 14:02</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,600674,1237796375.html</t>
+          <t>/news,600674,1237860656.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>366</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,29 +2963,29 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>川投能源：连续6日融资净买入累计8807.37万元（10-21）</t>
+          <t>民生证券维持川投能源谨慎推荐评级 目标价12.8元</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-22 07:33</t>
+          <t>10-23 13:05</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,600674,1237794834.html</t>
+          <t>/news,600674,1237856960.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>【图解季报】川投能源：2022年前三季度归母净利润同比增长5%，约为29.2亿元</t>
+          <t>川投能源10月21日获沪股通增持62.34万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-21 22:10</t>
+          <t>10-22 07:45</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,600674,1237763963.html</t>
+          <t>/news,600674,1237796375.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/600674.xlsx
+++ b/news_ann/news/tmp/600674.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>146</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>川投能源11月21日被沪股通减持24.87万股</t>
+          <t>川投能源11月22日获沪股通增持203.5万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-22 07:53</t>
+          <t>11-23 07:50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,600674,1249348966.html</t>
+          <t>/news,600674,1249875641.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>137</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还49.55万元，融资余额7.23亿元（11-21）</t>
+          <t>川投能源：连续3日融资净偿还累计2567.8万元（11-22）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-22 07:38</t>
+          <t>11-23 07:30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,600674,1249346246.html</t>
+          <t>/news,600674,1249872043.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,29 +531,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入5281.47万元，居电力行业板块第四</t>
+          <t>川投能源11月21日被沪股通减持24.87万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-20 15:07</t>
+          <t>11-22 07:53</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,600674,1248769419.html</t>
+          <t>/news,600674,1249348966.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,29 +563,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加1158.71万元，居电力行业板块第七</t>
+          <t>川投能源：融资净偿还49.55万元，融资余额7.23亿元（11-21）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-20 14:07</t>
+          <t>11-22 07:38</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,600674,1248763255.html</t>
+          <t>/news,600674,1249346246.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>327</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,29 +595,29 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>川投能源11月18日获沪股通增持47.68万股</t>
+          <t>川投能源本周融资净买入5281.47万元，居电力行业板块第四</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-19 07:50</t>
+          <t>11-20 15:07</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,600674,1248638273.html</t>
+          <t>/news,600674,1248769419.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,39 +627,39 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还241.87万元，融资余额7.24亿元（11-18）</t>
+          <t>川投能源本周沪股通持股市值增加1158.71万元，居电力行业板块第七</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-19 07:30</t>
+          <t>11-20 14:07</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,600674,1248635633.html</t>
+          <t>/news,600674,1248763255.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1790</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>500亿元A股董事长被查！川投能源净利润超总营收2倍引关注 投资比主业还赚钱？</t>
+          <t>川投能源11月18日获沪股通增持47.68万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-18 21:34</t>
+          <t>11-19 07:50</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,600674,1248594560.html</t>
+          <t>/news,600674,1248638273.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>川投能源11月17日获沪股通增持36.02万股</t>
+          <t>川投能源：融资净偿还241.87万元，融资余额7.24亿元（11-18）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-18 07:42</t>
+          <t>11-19 07:30</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,600674,1248151786.html</t>
+          <t>/news,600674,1248635633.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>1976</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>川投能源：连续4日融资净买入累计5523.34万元（11-17）</t>
+          <t>500亿元A股董事长被查！川投能源净利润超总营收2倍引关注 投资比主业还赚钱？</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-18 07:33</t>
+          <t>11-18 21:34</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,600674,1248150190.html</t>
+          <t>/news,600674,1248594560.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1977</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>现任董事长又被查 川投能源四任“掌门”接连落马</t>
+          <t>川投能源11月17日获沪股通增持36.02万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-17 21:50</t>
+          <t>11-18 07:42</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,600674,1248097891.html</t>
+          <t>/news,600674,1248151786.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>22784</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>510亿A股公司董事长被查！月初刚公开现身 发生了什么？多家券商提示“谨慎推荐”</t>
+          <t>川投能源：连续4日融资净买入累计5523.34万元（11-17）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-17 08:14</t>
+          <t>11-18 07:33</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,600674,1247671546.html</t>
+          <t>/news,600674,1248150190.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净买入累计1632.03万元（11-16）</t>
+          <t>现任董事长又被查 川投能源四任“掌门”接连落马</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-17 07:46</t>
+          <t>11-17 21:50</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,600674,1247666990.html</t>
+          <t>/news,600674,1248097891.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>22809</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>川投能源11月16日获沪股通增持23.2万股</t>
+          <t>510亿A股公司董事长被查！月初刚公开现身 发生了什么？多家券商提示“谨慎推荐”</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-17 07:31</t>
+          <t>11-17 08:14</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,600674,1247664225.html</t>
+          <t>/news,600674,1247671546.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2676</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>川投能源董事长刘体斌遭立案调查：执掌川投集团3年半 历任长虹系多家上市公司董事长</t>
+          <t>川投能源：连续3日融资净买入累计1632.03万元（11-16）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-17 07:19</t>
+          <t>11-17 07:46</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,600674,1247663799.html</t>
+          <t>/news,600674,1247666990.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1460</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>川投集团董事长刘体斌被立案调查</t>
+          <t>川投能源11月16日获沪股通增持23.2万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-17 06:27</t>
+          <t>11-17 07:31</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,600674,1247658204.html</t>
+          <t>/news,600674,1247664225.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2308</t>
+          <t>2697</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>突发！上市公司董事长被立案调查</t>
+          <t>川投能源董事长刘体斌遭立案调查：执掌川投集团3年半 历任长虹系多家上市公司董事长</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-16 22:26</t>
+          <t>11-17 07:19</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,600674,1247612569.html</t>
+          <t>/news,600674,1247663799.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1195</t>
+          <t>1479</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>川投能源董事长刘体斌被立案调查</t>
+          <t>川投集团董事长刘体斌被立案调查</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-16 22:06</t>
+          <t>11-17 06:27</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,600674,1247606433.html</t>
+          <t>/news,600674,1247658204.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1725</t>
+          <t>2326</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>突发！500亿A股董事长被立案调查</t>
+          <t>突发！上市公司董事长被立案调查</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-16 19:20</t>
+          <t>11-16 22:26</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,600674,1247560692.html</t>
+          <t>/news,600674,1247612569.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2626</t>
+          <t>1207</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>川投能源董事长刘体斌被立案调查 曾担任多家四川上市公司一把手</t>
+          <t>川投能源董事长刘体斌被立案调查</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-16 18:27</t>
+          <t>11-16 22:06</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,600674,1247548359.html</t>
+          <t>/news,600674,1247606433.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1390</t>
+          <t>1740</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>川投集团董事长刘体斌被四川省监察委立案调查 月初尚在出席会议</t>
+          <t>突发！500亿A股董事长被立案调查</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-16 17:22</t>
+          <t>11-16 19:20</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,600674,1247535065.html</t>
+          <t>/news,600674,1247560692.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5182</t>
+          <t>2643</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>川投能源董事长刘体斌被四川省监察委员会立案调查及实施留置措施</t>
+          <t>川投能源董事长刘体斌被立案调查 曾担任多家四川上市公司一把手</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-16 16:31</t>
+          <t>11-16 18:27</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,600674,1247520531.html</t>
+          <t>/news,600674,1247548359.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1214</t>
+          <t>1395</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>川投能源：公司董事长刘体斌被立案调查</t>
+          <t>川投集团董事长刘体斌被四川省监察委立案调查 月初尚在出席会议</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-16 15:51</t>
+          <t>11-16 17:22</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,600674,1247512404.html</t>
+          <t>/news,600674,1247535065.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>10.1万</t>
+          <t>5192</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>川投能源：公司董事长被立案调查</t>
+          <t>川投能源董事长刘体斌被四川省监察委员会立案调查及实施留置措施</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-16 15:48</t>
+          <t>11-16 16:31</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,600674,1247510787.html</t>
+          <t>/news,600674,1247520531.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>1231</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>川投能源11月15日获沪股通增持33.2万股</t>
+          <t>川投能源：公司董事长刘体斌被立案调查</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-16 07:54</t>
+          <t>11-16 15:51</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,600674,1247176211.html</t>
+          <t>/news,600674,1247512404.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>10.1万</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>264</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入129.5万元，融资余额6.84亿元（11-15）</t>
+          <t>川投能源：公司董事长被立案调查</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-16 07:27</t>
+          <t>11-16 15:48</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,600674,1247171748.html</t>
+          <t>/news,600674,1247510787.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>川投能源11月14日被沪股通减持38.11万股</t>
+          <t>川投能源11月15日获沪股通增持33.2万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-15 07:57</t>
+          <t>11-16 07:54</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,600674,1246691419.html</t>
+          <t>/news,600674,1247176211.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1186.56万元，融资余额6.83亿元（11-14）</t>
+          <t>川投能源：融资净买入129.5万元，融资余额6.84亿元（11-15）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,51 +1309,51 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-15 07:37</t>
+          <t>11-16 07:27</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,600674,1246688075.html</t>
+          <t>/news,600674,1247171748.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入2574.49万元，居电力行业板块第七</t>
+          <t>川投能源11月14日被沪股通减持38.11万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-13 15:07</t>
+          <t>11-15 07:57</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,600674,1246099606.html</t>
+          <t>/news,600674,1246691419.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,61 +1363,61 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加1350.02万元，居电力行业板块第二</t>
+          <t>川投能源：融资净买入1186.56万元，融资余额6.83亿元（11-14）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-13 14:10</t>
+          <t>11-15 07:37</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,600674,1246094601.html</t>
+          <t>/news,600674,1246688075.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>川投能源11月11日获沪股通增持90.7万股</t>
+          <t>川投能源本周融资净买入2574.49万元，居电力行业板块第七</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-12 07:43</t>
+          <t>11-13 15:07</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,600674,1245985827.html</t>
+          <t>/news,600674,1246099606.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,29 +1427,29 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还565.86万元，融资余额6.71亿元（11-11）</t>
+          <t>川投能源本周沪股通持股市值增加1350.02万元，居电力行业板块第二</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-12 07:31</t>
+          <t>11-13 14:10</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,600674,1245984248.html</t>
+          <t>/news,600674,1246094601.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>401</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>川投能源：连续4日融资净买入累计3140.35万元（11-10）</t>
+          <t>川投能源11月11日获沪股通增持90.7万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-11 07:37</t>
+          <t>11-12 07:43</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,600674,1245410017.html</t>
+          <t>/news,600674,1245985827.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>川投能源11月09日获沪股通增持22.29万股</t>
+          <t>川投能源：融资净偿还565.86万元，融资余额6.71亿元（11-11）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-10 07:39</t>
+          <t>11-12 07:31</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,600674,1244888907.html</t>
+          <t>/news,600674,1245984248.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净买入累计2307.22万元（11-09）</t>
+          <t>川投能源：连续4日融资净买入累计3140.35万元（11-10）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-10 07:27</t>
+          <t>11-11 07:37</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,600674,1244886962.html</t>
+          <t>/news,600674,1245410017.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1153.08万元，融资余额6.67亿元（11-08）</t>
+          <t>川投能源11月09日获沪股通增持22.29万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-09 07:31</t>
+          <t>11-10 07:39</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,600674,1244424771.html</t>
+          <t>/news,600674,1244888907.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>川投能源11月07日获沪股通增持11.99万股</t>
+          <t>川投能源：连续3日融资净买入累计2307.22万元（11-09）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-08 07:50</t>
+          <t>11-10 07:27</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,600674,1243974523.html</t>
+          <t>/news,600674,1244886962.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1002.96万元，融资余额6.55亿元（11-07）</t>
+          <t>川投能源：融资净买入1153.08万元，融资余额6.67亿元（11-08）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-08 07:29</t>
+          <t>11-09 07:31</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,600674,1243971057.html</t>
+          <t>/news,600674,1244424771.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>534</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>川投能源：公司及控股子公司之间的担保余额共计约2.89亿元</t>
+          <t>川投能源11月07日获沪股通增持11.99万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-07 16:50</t>
+          <t>11-08 07:50</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,600674,1243839821.html</t>
+          <t>/news,600674,1243974523.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,61 +1683,61 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>川投能源本周融资净偿还2823.08万元，居电力行业板块第二</t>
+          <t>川投能源：融资净买入1002.96万元，融资余额6.55亿元（11-07）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-06 15:20</t>
+          <t>11-08 07:29</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,600674,1243413079.html</t>
+          <t>/news,600674,1243971057.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>534</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>沪股通连续2周净卖出川投能源 累计净卖出6599.4万元</t>
+          <t>川投能源：公司及控股子公司之间的担保余额共计约2.89亿元</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-07 16:50</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,600674,1243404704.html</t>
+          <t>/news,600674,1243839821.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>491</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,61 +1747,61 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净偿还累计2571.62万元（11-04）</t>
+          <t>川投能源本周融资净偿还2823.08万元，居电力行业板块第二</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-05 07:40</t>
+          <t>11-06 15:20</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,600674,1243317219.html</t>
+          <t>/news,600674,1243413079.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>498</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>川投能源11月03日被沪股通减持82.42万股</t>
+          <t>沪股通连续2周净卖出川投能源 累计净卖出6599.4万元</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-04 07:47</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,600674,1242816855.html</t>
+          <t>/news,600674,1243404704.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还635.52万元，融资余额6.5亿元（11-03）</t>
+          <t>川投能源：连续3日融资净偿还累计2571.62万元（11-04）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-04 07:30</t>
+          <t>11-05 07:40</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,600674,1242813737.html</t>
+          <t>/news,600674,1243317219.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>487</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>川投能源11月02日被沪股通减持74万股</t>
+          <t>川投能源11月03日被沪股通减持82.42万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-04 07:47</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,600674,1242326355.html</t>
+          <t>/news,600674,1242816855.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还1427万元，融资余额6.57亿元（11-02）</t>
+          <t>川投能源：融资净偿还635.52万元，融资余额6.5亿元（11-03）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-03 07:29</t>
+          <t>11-04 07:30</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,600674,1242321485.html</t>
+          <t>/news,600674,1242813737.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>川投能源11月01日获沪股通增持51.68万股</t>
+          <t>川投能源11月02日被沪股通减持74万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-02 07:51</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,600674,1241801443.html</t>
+          <t>/news,600674,1242326355.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1119.71万元，融资余额6.71亿元（11-01）</t>
+          <t>川投能源：融资净偿还1427万元，融资余额6.57亿元（11-02）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-03 07:29</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,600674,1241800687.html</t>
+          <t>/news,600674,1242321485.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>川投能源10月31日被沪股通减持78.36万股</t>
+          <t>川投能源11月01日获沪股通增持51.68万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-01 07:52</t>
+          <t>11-02 07:51</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,600674,1241297048.html</t>
+          <t>/news,600674,1241801443.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还1371.17万元，融资余额6.6亿元（10-31）</t>
+          <t>川投能源：融资净买入1119.71万元，融资余额6.71亿元（11-01）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-01 07:28</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,600674,1241293200.html</t>
+          <t>/news,600674,1241800687.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>521</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,29 +2035,29 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>川财证券维持川投能源增持评级 预计2022年净利润同比增长11.76%</t>
+          <t>川投能源10月31日被沪股通减持78.36万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-31 22:05</t>
+          <t>11-01 07:52</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,600674,1241253673.html</t>
+          <t>/news,600674,1241297048.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>川财证券给予川投能源增持评级</t>
+          <t>川投能源：融资净偿还1371.17万元，融资余额6.6亿元（10-31）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-31 22:03</t>
+          <t>11-01 07:28</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,600674,1241261790.html</t>
+          <t>/news,600674,1241293200.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>685</t>
+          <t>521</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,29 +2099,29 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入2973.07万元，居电力行业板块第八</t>
+          <t>川财证券维持川投能源增持评级 预计2022年净利润同比增长11.76%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>10-31 22:05</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,600674,1240712918.html</t>
+          <t>/news,600674,1241253673.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,29 +2131,29 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值减少4460.01万元，居电力行业板块第五</t>
+          <t>川财证券给予川投能源增持评级</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-30 14:08</t>
+          <t>10-31 22:03</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,600674,1240707423.html</t>
+          <t>/news,600674,1241261790.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>685</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,29 +2163,29 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>川投能源10月28日被沪股通减持16.12万股</t>
+          <t>川投能源本周融资净买入2973.07万元，居电力行业板块第八</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-29 07:56</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,600674,1240600933.html</t>
+          <t>/news,600674,1240712918.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>529</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,29 +2195,29 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净买入累计2728.82万元（10-28）</t>
+          <t>川投能源本周沪股通持股市值减少4460.01万元，居电力行业板块第五</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-29 07:33</t>
+          <t>10-30 14:08</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,600674,1240597339.html</t>
+          <t>/news,600674,1240707423.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>487</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>川投能源10月27日被沪股通减持11.71万股</t>
+          <t>川投能源10月28日被沪股通减持16.12万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-28 07:42</t>
+          <t>10-29 07:56</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,600674,1240046616.html</t>
+          <t>/news,600674,1240600933.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>366</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入499.33万元，融资余额6.68亿元（10-27）</t>
+          <t>川投能源：连续3日融资净买入累计2728.82万元（10-28）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-28 07:29</t>
+          <t>10-29 07:33</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,600674,1240044380.html</t>
+          <t>/news,600674,1240597339.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>川投能源10月26日被沪股通减持79.49万股</t>
+          <t>川投能源10月27日被沪股通减持11.71万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-27 07:44</t>
+          <t>10-28 07:42</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,600674,1239496318.html</t>
+          <t>/news,600674,1240046616.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1740.9万元，融资余额6.63亿元（10-26）</t>
+          <t>川投能源：融资净买入499.33万元，融资余额6.68亿元（10-27）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-27 07:33</t>
+          <t>10-28 07:29</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,600674,1239494829.html</t>
+          <t>/news,600674,1240044380.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>川投能源10月25日被沪股通减持173.77万股</t>
+          <t>川投能源10月26日被沪股通减持79.49万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-26 07:58</t>
+          <t>10-27 07:44</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,600674,1238970260.html</t>
+          <t>/news,600674,1239496318.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还1821.77万元，融资余额6.46亿元（10-25）</t>
+          <t>川投能源：融资净买入1740.9万元，融资余额6.63亿元（10-26）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-26 07:31</t>
+          <t>10-27 07:33</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,600674,1238965647.html</t>
+          <t>/news,600674,1239494829.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,29 +2419,29 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>长城证券维持川投能源增持评级 预计2022年净利润同比增长16.75%</t>
+          <t>川投能源10月25日被沪股通减持173.77万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-25 21:21</t>
+          <t>10-26 07:58</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,600674,1238894339.html</t>
+          <t>/news,600674,1238970260.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>首创证券给予川投能源买入评级 来水影响发电量 雅砻江公司成为业绩保障</t>
+          <t>川投能源：融资净偿还1821.77万元，融资余额6.46亿元（10-25）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-25 13:22</t>
+          <t>10-26 07:31</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,600674,1246194590.html</t>
+          <t>/news,600674,1238965647.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>528</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,29 +2483,29 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>首创证券给予川投能源买入评级 来水影响发电量 雅砻江公司成为业绩保障</t>
+          <t>长城证券维持川投能源增持评级 预计2022年净利润同比增长16.75%</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-25 13:22</t>
+          <t>10-25 21:21</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,600674,1238695111.html</t>
+          <t>/news,600674,1238894339.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>110</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,29 +2515,29 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>首创证券维持川投能源买入评级 预计2022年净利润同比增长9.15%</t>
+          <t>首创证券给予川投能源买入评级 来水影响发电量 雅砻江公司成为业绩保障</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-25 13:17</t>
+          <t>10-25 13:22</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,600674,1238689042.html</t>
+          <t>/news,600674,1246194590.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>408</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>川投能源10月24日被沪股通减持111.56万股</t>
+          <t>首创证券给予川投能源买入评级 来水影响发电量 雅砻江公司成为业绩保障</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-25 07:47</t>
+          <t>10-25 13:22</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,600674,1238447684.html</t>
+          <t>/news,600674,1238695111.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,29 +2579,29 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>川投能源：连续7日融资净买入累计1.09亿元（10-24）</t>
+          <t>首创证券维持川投能源买入评级 预计2022年净利润同比增长9.15%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-25 07:29</t>
+          <t>10-25 13:17</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,600674,1238443879.html</t>
+          <t>/news,600674,1238689042.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>国海证券给予川投能源买入评级</t>
+          <t>川投能源10月24日被沪股通减持111.56万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-25 07:08</t>
+          <t>10-25 07:47</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,600674,1238441787.html</t>
+          <t>/news,600674,1238447684.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,29 +2643,29 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>国海证券维持川投能源买入评级 预计2022年净利润同比增长8.05%</t>
+          <t>川投能源：连续7日融资净买入累计1.09亿元（10-24）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-25 06:53</t>
+          <t>10-25 07:29</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,600674,1238440213.html</t>
+          <t>/news,600674,1238443879.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,61 +2675,61 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
+          <t>国海证券给予川投能源买入评级</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-24 09:11</t>
+          <t>10-25 07:08</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,600674,1237928643.html</t>
+          <t>/news,600674,1238441787.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>中国银河给予川投能源推荐评级：雅砻江Q3发电量实现正增长 沿江新能源打开新成长空间</t>
+          <t>国海证券维持川投能源买入评级 预计2022年净利润同比增长8.05%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-24 07:23</t>
+          <t>10-25 06:53</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,600674,1237915624.html</t>
+          <t>/news,600674,1238440213.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>374</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,61 +2739,61 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>东吴证券给予川投能源买入评级 自然灾害拖累发电量表现 利润增长主要来自于雅砻江水电</t>
+          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-24 07:09</t>
+          <t>10-24 09:11</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,600674,1237914624.html</t>
+          <t>/news,600674,1237928643.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>480</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>中国银河维持川投能源推荐评级 预计2022年净利润同比增长7.02%</t>
+          <t>中国银河给予川投能源推荐评级：雅砻江Q3发电量实现正增长 沿江新能源打开新成长空间</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-24 07:06</t>
+          <t>10-24 07:23</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,600674,1237914166.html</t>
+          <t>/news,600674,1237915624.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>419</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,29 +2803,29 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>东吴证券维持川投能源买入评级 预计2022年净利润同比增长14.24%</t>
+          <t>东吴证券给予川投能源买入评级 自然灾害拖累发电量表现 利润增长主要来自于雅砻江水电</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-24 06:30</t>
+          <t>10-24 07:09</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,600674,1237913185.html</t>
+          <t>/news,600674,1237914624.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,29 +2835,29 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入8535.19万元，居电力行业板块第三</t>
+          <t>中国银河维持川投能源推荐评级 预计2022年净利润同比增长7.02%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-23 15:08</t>
+          <t>10-24 07:06</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,600674,1237864909.html</t>
+          <t>/news,600674,1237914166.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>华泰证券维持川投能源买入评级 目标价14.72元</t>
+          <t>东吴证券维持川投能源买入评级 预计2022年净利润同比增长14.24%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-23 14:10</t>
+          <t>10-24 06:30</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,600674,1237860794.html</t>
+          <t>/news,600674,1237913185.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,29 +2899,29 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加4373.88万元，居电力行业板块第八</t>
+          <t>川投能源本周融资净买入8535.19万元，居电力行业板块第三</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-23 14:06</t>
+          <t>10-23 15:08</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,600674,1237860359.html</t>
+          <t>/news,600674,1237864909.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,29 +2931,29 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>民生证券给予川投能源谨慎推荐评级：缺水、地震接踵而至 雅砻江稳中有增</t>
+          <t>华泰证券维持川投能源买入评级 目标价14.72元</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-23 14:02</t>
+          <t>10-23 14:10</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,600674,1237860656.html</t>
+          <t>/news,600674,1237860794.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>425</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,29 +2963,29 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>民生证券维持川投能源谨慎推荐评级 目标价12.8元</t>
+          <t>川投能源本周沪股通持股市值增加4373.88万元，居电力行业板块第八</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-23 13:05</t>
+          <t>10-23 14:06</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,600674,1237856960.html</t>
+          <t>/news,600674,1237860359.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>川投能源10月21日获沪股通增持62.34万股</t>
+          <t>民生证券给予川投能源谨慎推荐评级：缺水、地震接踵而至 雅砻江稳中有增</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-22 07:45</t>
+          <t>10-23 14:02</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,600674,1237796375.html</t>
+          <t>/news,600674,1237860656.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/600674.xlsx
+++ b/news_ann/news/tmp/600674.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>135</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>川投能源11月22日获沪股通增持203.5万股</t>
+          <t>川投能源11月23日获沪股通增持82.83万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-23 07:50</t>
+          <t>11-24 07:45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,600674,1249875641.html</t>
+          <t>/news,600674,1250419050.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>117</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净偿还累计2567.8万元（11-22）</t>
+          <t>川投能源：连续4日融资净偿还累计3490.94万元（11-23）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-23 07:30</t>
+          <t>11-24 07:32</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,600674,1249872043.html</t>
+          <t>/news,600674,1250416668.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>1104</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>川投能源11月21日被沪股通减持24.87万股</t>
+          <t>川投能源：以40.13亿元成功竞买国能大渡河10%股权</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-22 07:53</t>
+          <t>11-23 22:02</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,600674,1249348966.html</t>
+          <t>/news,600674,1250328863.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还49.55万元，融资余额7.23亿元（11-21）</t>
+          <t>川投能源：40.13亿元竞得国能大渡河10%股权</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-22 07:38</t>
+          <t>11-23 18:05</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,600674,1249346246.html</t>
+          <t>/news,600674,1250258012.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>519</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,61 +595,61 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入5281.47万元，居电力行业板块第四</t>
+          <t>川投能源：40.13亿元竞得国能大渡河流域水电开发公司10%股权</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-20 15:07</t>
+          <t>11-23 17:53</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,600674,1248769419.html</t>
+          <t>/news,600674,1250253648.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>1731</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加1158.71万元，居电力行业板块第七</t>
+          <t>川投能源：拟以40亿元竞买国能大渡河10%股权</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-20 14:07</t>
+          <t>11-23 17:36</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,600674,1248763255.html</t>
+          <t>/news,600674,1250249217.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>川投能源11月18日获沪股通增持47.68万股</t>
+          <t>川投能源11月22日获沪股通增持203.5万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-19 07:50</t>
+          <t>11-23 07:50</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,600674,1248638273.html</t>
+          <t>/news,600674,1249875641.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还241.87万元，融资余额7.24亿元（11-18）</t>
+          <t>川投能源：连续3日融资净偿还累计2567.8万元（11-22）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-19 07:30</t>
+          <t>11-23 07:30</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,600674,1248635633.html</t>
+          <t>/news,600674,1249872043.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1976</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>500亿元A股董事长被查！川投能源净利润超总营收2倍引关注 投资比主业还赚钱？</t>
+          <t>川投能源11月21日被沪股通减持24.87万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-18 21:34</t>
+          <t>11-22 07:53</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,600674,1248594560.html</t>
+          <t>/news,600674,1249348966.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>川投能源11月17日获沪股通增持36.02万股</t>
+          <t>川投能源：融资净偿还49.55万元，融资余额7.23亿元（11-21）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-18 07:42</t>
+          <t>11-22 07:38</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,600674,1248151786.html</t>
+          <t>/news,600674,1249346246.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,71 +787,71 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>川投能源：连续4日融资净买入累计5523.34万元（11-17）</t>
+          <t>川投能源本周融资净买入5281.47万元，居电力行业板块第四</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-18 07:33</t>
+          <t>11-20 15:07</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,600674,1248150190.html</t>
+          <t>/news,600674,1248769419.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>现任董事长又被查 川投能源四任“掌门”接连落马</t>
+          <t>川投能源本周沪股通持股市值增加1158.71万元，居电力行业板块第七</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-17 21:50</t>
+          <t>11-20 14:07</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,600674,1248097891.html</t>
+          <t>/news,600674,1248763255.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>22809</t>
+          <t>468</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>510亿A股公司董事长被查！月初刚公开现身 发生了什么？多家券商提示“谨慎推荐”</t>
+          <t>川投能源11月18日获沪股通增持47.68万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-17 08:14</t>
+          <t>11-19 07:50</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,600674,1247671546.html</t>
+          <t>/news,600674,1248638273.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净买入累计1632.03万元（11-16）</t>
+          <t>川投能源：融资净偿还241.87万元，融资余额7.24亿元（11-18）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-17 07:46</t>
+          <t>11-19 07:30</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,600674,1247666990.html</t>
+          <t>/news,600674,1248635633.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>川投能源11月16日获沪股通增持23.2万股</t>
+          <t>500亿元A股董事长被查！川投能源净利润超总营收2倍引关注 投资比主业还赚钱？</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-17 07:31</t>
+          <t>11-18 21:34</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,600674,1247664225.html</t>
+          <t>/news,600674,1248594560.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2697</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>川投能源董事长刘体斌遭立案调查：执掌川投集团3年半 历任长虹系多家上市公司董事长</t>
+          <t>川投能源11月17日获沪股通增持36.02万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-17 07:19</t>
+          <t>11-18 07:42</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,600674,1247663799.html</t>
+          <t>/news,600674,1248151786.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1479</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>川投集团董事长刘体斌被立案调查</t>
+          <t>川投能源：连续4日融资净买入累计5523.34万元（11-17）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-17 06:27</t>
+          <t>11-18 07:33</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,600674,1247658204.html</t>
+          <t>/news,600674,1248150190.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2326</t>
+          <t>2027</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>突发！上市公司董事长被立案调查</t>
+          <t>现任董事长又被查 川投能源四任“掌门”接连落马</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-16 22:26</t>
+          <t>11-17 21:50</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,600674,1247612569.html</t>
+          <t>/news,600674,1248097891.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1207</t>
+          <t>22819</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>川投能源董事长刘体斌被立案调查</t>
+          <t>510亿A股公司董事长被查！月初刚公开现身 发生了什么？多家券商提示“谨慎推荐”</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-16 22:06</t>
+          <t>11-17 08:14</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,600674,1247606433.html</t>
+          <t>/news,600674,1247671546.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1740</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>突发！500亿A股董事长被立案调查</t>
+          <t>川投能源：连续3日融资净买入累计1632.03万元（11-16）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-16 19:20</t>
+          <t>11-17 07:46</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,600674,1247560692.html</t>
+          <t>/news,600674,1247666990.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2643</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>川投能源董事长刘体斌被立案调查 曾担任多家四川上市公司一把手</t>
+          <t>川投能源11月16日获沪股通增持23.2万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-16 18:27</t>
+          <t>11-17 07:31</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,600674,1247548359.html</t>
+          <t>/news,600674,1247664225.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1395</t>
+          <t>2711</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>川投集团董事长刘体斌被四川省监察委立案调查 月初尚在出席会议</t>
+          <t>川投能源董事长刘体斌遭立案调查：执掌川投集团3年半 历任长虹系多家上市公司董事长</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-16 17:22</t>
+          <t>11-17 07:19</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,600674,1247535065.html</t>
+          <t>/news,600674,1247663799.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5192</t>
+          <t>1485</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>川投能源董事长刘体斌被四川省监察委员会立案调查及实施留置措施</t>
+          <t>川投集团董事长刘体斌被立案调查</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-16 16:31</t>
+          <t>11-17 06:27</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,600674,1247520531.html</t>
+          <t>/news,600674,1247658204.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1231</t>
+          <t>2331</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>川投能源：公司董事长刘体斌被立案调查</t>
+          <t>突发！上市公司董事长被立案调查</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-16 15:51</t>
+          <t>11-16 22:26</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,600674,1247512404.html</t>
+          <t>/news,600674,1247612569.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>10.1万</t>
+          <t>1209</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>川投能源：公司董事长被立案调查</t>
+          <t>川投能源董事长刘体斌被立案调查</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-16 15:48</t>
+          <t>11-16 22:06</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,600674,1247510787.html</t>
+          <t>/news,600674,1247606433.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>1743</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>川投能源11月15日获沪股通增持33.2万股</t>
+          <t>突发！500亿A股董事长被立案调查</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-16 07:54</t>
+          <t>11-16 19:20</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,600674,1247176211.html</t>
+          <t>/news,600674,1247560692.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>2644</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入129.5万元，融资余额6.84亿元（11-15）</t>
+          <t>川投能源董事长刘体斌被立案调查 曾担任多家四川上市公司一把手</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-16 07:27</t>
+          <t>11-16 18:27</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,600674,1247171748.html</t>
+          <t>/news,600674,1247548359.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>1396</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>川投能源11月14日被沪股通减持38.11万股</t>
+          <t>川投集团董事长刘体斌被四川省监察委立案调查 月初尚在出席会议</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-15 07:57</t>
+          <t>11-16 17:22</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,600674,1246691419.html</t>
+          <t>/news,600674,1247535065.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>5194</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1186.56万元，融资余额6.83亿元（11-14）</t>
+          <t>川投能源董事长刘体斌被四川省监察委员会立案调查及实施留置措施</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-15 07:37</t>
+          <t>11-16 16:31</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,600674,1246688075.html</t>
+          <t>/news,600674,1247520531.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>1232</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,61 +1395,61 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入2574.49万元，居电力行业板块第七</t>
+          <t>川投能源：公司董事长刘体斌被立案调查</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-13 15:07</t>
+          <t>11-16 15:51</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,600674,1246099606.html</t>
+          <t>/news,600674,1247512404.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>10.1万</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>264</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加1350.02万元，居电力行业板块第二</t>
+          <t>川投能源：公司董事长被立案调查</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-13 14:10</t>
+          <t>11-16 15:48</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,600674,1246094601.html</t>
+          <t>/news,600674,1247510787.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>川投能源11月11日获沪股通增持90.7万股</t>
+          <t>川投能源11月15日获沪股通增持33.2万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-12 07:43</t>
+          <t>11-16 07:54</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,600674,1245985827.html</t>
+          <t>/news,600674,1247176211.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还565.86万元，融资余额6.71亿元（11-11）</t>
+          <t>川投能源：融资净买入129.5万元，融资余额6.84亿元（11-15）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-12 07:31</t>
+          <t>11-16 07:27</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,600674,1245984248.html</t>
+          <t>/news,600674,1247171748.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>川投能源：连续4日融资净买入累计3140.35万元（11-10）</t>
+          <t>川投能源11月14日被沪股通减持38.11万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-11 07:37</t>
+          <t>11-15 07:57</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,600674,1245410017.html</t>
+          <t>/news,600674,1246691419.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>川投能源11月09日获沪股通增持22.29万股</t>
+          <t>川投能源：融资净买入1186.56万元，融资余额6.83亿元（11-14）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,51 +1565,51 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-10 07:39</t>
+          <t>11-15 07:37</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,600674,1244888907.html</t>
+          <t>/news,600674,1246688075.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净买入累计2307.22万元（11-09）</t>
+          <t>川投能源本周融资净买入2574.49万元，居电力行业板块第七</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-10 07:27</t>
+          <t>11-13 15:07</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,600674,1244886962.html</t>
+          <t>/news,600674,1246099606.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,29 +1619,29 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1153.08万元，融资余额6.67亿元（11-08）</t>
+          <t>川投能源本周沪股通持股市值增加1350.02万元，居电力行业板块第二</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-09 07:31</t>
+          <t>11-13 14:10</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,600674,1244424771.html</t>
+          <t>/news,600674,1246094601.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>401</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>川投能源11月07日获沪股通增持11.99万股</t>
+          <t>川投能源11月11日获沪股通增持90.7万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-08 07:50</t>
+          <t>11-12 07:43</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,600674,1243974523.html</t>
+          <t>/news,600674,1245985827.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1002.96万元，融资余额6.55亿元（11-07）</t>
+          <t>川投能源：融资净偿还565.86万元，融资余额6.71亿元（11-11）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-08 07:29</t>
+          <t>11-12 07:31</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,600674,1243971057.html</t>
+          <t>/news,600674,1245984248.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>534</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>川投能源：公司及控股子公司之间的担保余额共计约2.89亿元</t>
+          <t>川投能源：连续4日融资净买入累计3140.35万元（11-10）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-07 16:50</t>
+          <t>11-11 07:37</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,600674,1243839821.html</t>
+          <t>/news,600674,1245410017.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,29 +1747,29 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>川投能源本周融资净偿还2823.08万元，居电力行业板块第二</t>
+          <t>川投能源11月09日获沪股通增持22.29万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-06 15:20</t>
+          <t>11-10 07:39</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,600674,1243413079.html</t>
+          <t>/news,600674,1244888907.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>498</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,29 +1779,29 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>沪股通连续2周净卖出川投能源 累计净卖出6599.4万元</t>
+          <t>川投能源：连续3日融资净买入累计2307.22万元（11-09）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-10 07:27</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,600674,1243404704.html</t>
+          <t>/news,600674,1244886962.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净偿还累计2571.62万元（11-04）</t>
+          <t>川投能源：融资净买入1153.08万元，融资余额6.67亿元（11-08）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-05 07:40</t>
+          <t>11-09 07:31</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,600674,1243317219.html</t>
+          <t>/news,600674,1244424771.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>川投能源11月03日被沪股通减持82.42万股</t>
+          <t>川投能源11月07日获沪股通增持11.99万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-04 07:47</t>
+          <t>11-08 07:50</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,600674,1242816855.html</t>
+          <t>/news,600674,1243974523.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还635.52万元，融资余额6.5亿元（11-03）</t>
+          <t>川投能源：融资净买入1002.96万元，融资余额6.55亿元（11-07）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-04 07:30</t>
+          <t>11-08 07:29</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,600674,1242813737.html</t>
+          <t>/news,600674,1243971057.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>534</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>川投能源11月02日被沪股通减持74万股</t>
+          <t>川投能源：公司及控股子公司之间的担保余额共计约2.89亿元</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-07 16:50</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,600674,1242326355.html</t>
+          <t>/news,600674,1243839821.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>491</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,29 +1939,29 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还1427万元，融资余额6.57亿元（11-02）</t>
+          <t>川投能源本周融资净偿还2823.08万元，居电力行业板块第二</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-03 07:29</t>
+          <t>11-06 15:20</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,600674,1242321485.html</t>
+          <t>/news,600674,1243413079.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>498</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,29 +1971,29 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>川投能源11月01日获沪股通增持51.68万股</t>
+          <t>沪股通连续2周净卖出川投能源 累计净卖出6599.4万元</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-02 07:51</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,600674,1241801443.html</t>
+          <t>/news,600674,1243404704.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1119.71万元，融资余额6.71亿元（11-01）</t>
+          <t>川投能源：连续3日融资净偿还累计2571.62万元（11-04）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-05 07:40</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,600674,1241800687.html</t>
+          <t>/news,600674,1243317219.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>487</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>川投能源10月31日被沪股通减持78.36万股</t>
+          <t>川投能源11月03日被沪股通减持82.42万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-01 07:52</t>
+          <t>11-04 07:47</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,600674,1241297048.html</t>
+          <t>/news,600674,1242816855.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还1371.17万元，融资余额6.6亿元（10-31）</t>
+          <t>川投能源：融资净偿还635.52万元，融资余额6.5亿元（11-03）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-01 07:28</t>
+          <t>11-04 07:30</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,600674,1241293200.html</t>
+          <t>/news,600674,1242813737.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>521</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,29 +2099,29 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>川财证券维持川投能源增持评级 预计2022年净利润同比增长11.76%</t>
+          <t>川投能源11月02日被沪股通减持74万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-31 22:05</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,600674,1241253673.html</t>
+          <t>/news,600674,1242326355.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>川财证券给予川投能源增持评级</t>
+          <t>川投能源：融资净偿还1427万元，融资余额6.57亿元（11-02）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-31 22:03</t>
+          <t>11-03 07:29</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,600674,1241261790.html</t>
+          <t>/news,600674,1242321485.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>685</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,29 +2163,29 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入2973.07万元，居电力行业板块第八</t>
+          <t>川投能源11月01日获沪股通增持51.68万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>11-02 07:51</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,600674,1240712918.html</t>
+          <t>/news,600674,1241801443.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>529</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,29 +2195,29 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值减少4460.01万元，居电力行业板块第五</t>
+          <t>川投能源：融资净买入1119.71万元，融资余额6.71亿元（11-01）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-30 14:08</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,600674,1240707423.html</t>
+          <t>/news,600674,1241800687.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>川投能源10月28日被沪股通减持16.12万股</t>
+          <t>川投能源10月31日被沪股通减持78.36万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-29 07:56</t>
+          <t>11-01 07:52</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,600674,1240600933.html</t>
+          <t>/news,600674,1241297048.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净买入累计2728.82万元（10-28）</t>
+          <t>川投能源：融资净偿还1371.17万元，融资余额6.6亿元（10-31）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-29 07:33</t>
+          <t>11-01 07:28</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,600674,1240597339.html</t>
+          <t>/news,600674,1241293200.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>521</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,29 +2291,29 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>川投能源10月27日被沪股通减持11.71万股</t>
+          <t>川财证券维持川投能源增持评级 预计2022年净利润同比增长11.76%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-28 07:42</t>
+          <t>10-31 22:05</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,600674,1240046616.html</t>
+          <t>/news,600674,1241253673.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入499.33万元，融资余额6.68亿元（10-27）</t>
+          <t>川财证券给予川投能源增持评级</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-28 07:29</t>
+          <t>10-31 22:03</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,600674,1240044380.html</t>
+          <t>/news,600674,1241261790.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>685</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,29 +2355,29 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>川投能源10月26日被沪股通减持79.49万股</t>
+          <t>川投能源本周融资净买入2973.07万元，居电力行业板块第八</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-27 07:44</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,600674,1239496318.html</t>
+          <t>/news,600674,1240712918.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>529</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,29 +2387,29 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1740.9万元，融资余额6.63亿元（10-26）</t>
+          <t>川投能源本周沪股通持股市值减少4460.01万元，居电力行业板块第五</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-27 07:33</t>
+          <t>10-30 14:08</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,600674,1239494829.html</t>
+          <t>/news,600674,1240707423.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>489</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>川投能源10月25日被沪股通减持173.77万股</t>
+          <t>川投能源10月28日被沪股通减持16.12万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-26 07:58</t>
+          <t>10-29 07:56</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,600674,1238970260.html</t>
+          <t>/news,600674,1240600933.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>366</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还1821.77万元，融资余额6.46亿元（10-25）</t>
+          <t>川投能源：连续3日融资净买入累计2728.82万元（10-28）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-26 07:31</t>
+          <t>10-29 07:33</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,600674,1238965647.html</t>
+          <t>/news,600674,1240597339.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,29 +2483,29 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>长城证券维持川投能源增持评级 预计2022年净利润同比增长16.75%</t>
+          <t>川投能源10月27日被沪股通减持11.71万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-25 21:21</t>
+          <t>10-28 07:42</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,600674,1238894339.html</t>
+          <t>/news,600674,1240046616.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>首创证券给予川投能源买入评级 来水影响发电量 雅砻江公司成为业绩保障</t>
+          <t>川投能源：融资净买入499.33万元，融资余额6.68亿元（10-27）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-25 13:22</t>
+          <t>10-28 07:29</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,600674,1246194590.html</t>
+          <t>/news,600674,1240044380.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>首创证券给予川投能源买入评级 来水影响发电量 雅砻江公司成为业绩保障</t>
+          <t>川投能源10月26日被沪股通减持79.49万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-25 13:22</t>
+          <t>10-27 07:44</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,600674,1238695111.html</t>
+          <t>/news,600674,1239496318.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,29 +2579,29 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>首创证券维持川投能源买入评级 预计2022年净利润同比增长9.15%</t>
+          <t>川投能源：融资净买入1740.9万元，融资余额6.63亿元（10-26）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-25 13:17</t>
+          <t>10-27 07:33</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,600674,1238689042.html</t>
+          <t>/news,600674,1239494829.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>川投能源10月24日被沪股通减持111.56万股</t>
+          <t>川投能源10月25日被沪股通减持173.77万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-25 07:47</t>
+          <t>10-26 07:58</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,600674,1238447684.html</t>
+          <t>/news,600674,1238970260.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>川投能源：连续7日融资净买入累计1.09亿元（10-24）</t>
+          <t>川投能源：融资净偿还1821.77万元，融资余额6.46亿元（10-25）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-25 07:29</t>
+          <t>10-26 07:31</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,600674,1238443879.html</t>
+          <t>/news,600674,1238965647.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>528</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,29 +2675,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>国海证券给予川投能源买入评级</t>
+          <t>长城证券维持川投能源增持评级 预计2022年净利润同比增长16.75%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-25 07:08</t>
+          <t>10-25 21:21</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,600674,1238441787.html</t>
+          <t>/news,600674,1238894339.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>110</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,29 +2707,29 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>国海证券维持川投能源买入评级 预计2022年净利润同比增长8.05%</t>
+          <t>首创证券给予川投能源买入评级 来水影响发电量 雅砻江公司成为业绩保障</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-25 06:53</t>
+          <t>10-25 13:22</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,600674,1238440213.html</t>
+          <t>/news,600674,1246194590.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>408</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,61 +2739,61 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
+          <t>首创证券给予川投能源买入评级 来水影响发电量 雅砻江公司成为业绩保障</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-24 09:11</t>
+          <t>10-25 13:22</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,600674,1237928643.html</t>
+          <t>/news,600674,1238695111.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>中国银河给予川投能源推荐评级：雅砻江Q3发电量实现正增长 沿江新能源打开新成长空间</t>
+          <t>首创证券维持川投能源买入评级 预计2022年净利润同比增长9.15%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-24 07:23</t>
+          <t>10-25 13:17</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,600674,1237915624.html</t>
+          <t>/news,600674,1238689042.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>东吴证券给予川投能源买入评级 自然灾害拖累发电量表现 利润增长主要来自于雅砻江水电</t>
+          <t>川投能源10月24日被沪股通减持111.56万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-24 07:09</t>
+          <t>10-25 07:47</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,600674,1237914624.html</t>
+          <t>/news,600674,1238447684.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,29 +2835,29 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>中国银河维持川投能源推荐评级 预计2022年净利润同比增长7.02%</t>
+          <t>川投能源：连续7日融资净买入累计1.09亿元（10-24）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-24 07:06</t>
+          <t>10-25 07:29</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,600674,1237914166.html</t>
+          <t>/news,600674,1238443879.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,29 +2867,29 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>东吴证券维持川投能源买入评级 预计2022年净利润同比增长14.24%</t>
+          <t>国海证券给予川投能源买入评级</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-24 06:30</t>
+          <t>10-25 07:08</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,600674,1237913185.html</t>
+          <t>/news,600674,1238441787.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,29 +2899,29 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入8535.19万元，居电力行业板块第三</t>
+          <t>国海证券维持川投能源买入评级 预计2022年净利润同比增长8.05%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-23 15:08</t>
+          <t>10-25 06:53</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,600674,1237864909.html</t>
+          <t>/news,600674,1238440213.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>374</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>华泰证券维持川投能源买入评级 目标价14.72元</t>
+          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,51 +2941,51 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-23 14:10</t>
+          <t>10-24 09:11</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,600674,1237860794.html</t>
+          <t>/news,600674,1237928643.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>480</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加4373.88万元，居电力行业板块第八</t>
+          <t>中国银河给予川投能源推荐评级：雅砻江Q3发电量实现正增长 沿江新能源打开新成长空间</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-23 14:06</t>
+          <t>10-24 07:23</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,600674,1237860359.html</t>
+          <t>/news,600674,1237915624.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>民生证券给予川投能源谨慎推荐评级：缺水、地震接踵而至 雅砻江稳中有增</t>
+          <t>东吴证券给予川投能源买入评级 自然灾害拖累发电量表现 利润增长主要来自于雅砻江水电</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-23 14:02</t>
+          <t>10-24 07:09</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,600674,1237860656.html</t>
+          <t>/news,600674,1237914624.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/600674.xlsx
+++ b/news_ann/news/tmp/600674.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>114</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>川投能源11月23日获沪股通增持82.83万股</t>
+          <t>川投能源11月24日获沪股通增持65.52万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-24 07:45</t>
+          <t>11-25 07:39</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,600674,1250419050.html</t>
+          <t>/news,600674,1250940834.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>110</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>川投能源：连续4日融资净偿还累计3490.94万元（11-23）</t>
+          <t>川投能源：连续5日融资净偿还累计5040.75万元（11-24）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,61 +509,61 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-24 07:32</t>
+          <t>11-25 07:29</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,600674,1250416668.html</t>
+          <t>/news,600674,1250938811.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1104</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>川投能源：以40.13亿元成功竞买国能大渡河10%股权</t>
+          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-23 22:02</t>
+          <t>11-24 20:21</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,600674,1250328863.html</t>
+          <t>/news,600674,1250810423.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>川投能源：40.13亿元竞得国能大渡河10%股权</t>
+          <t>川投能源：公司目前采用纸质合同 未采用电子合同</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-23 18:05</t>
+          <t>11-24 15:09</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,600674,1250258012.html</t>
+          <t>/news,600674,1250736533.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>川投能源：40.13亿元竞得国能大渡河流域水电开发公司10%股权</t>
+          <t>川投能源：公司暂时未建立财务共享中心 已经建立了资金结算中心</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-23 17:53</t>
+          <t>11-24 15:09</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,600674,1250253648.html</t>
+          <t>/news,600674,1250736338.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1731</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>川投能源：拟以40亿元竞买国能大渡河10%股权</t>
+          <t>川投能源：公司目前暂无增发计划</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-23 17:36</t>
+          <t>11-24 15:09</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,600674,1250249217.html</t>
+          <t>/news,600674,1250736534.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>174</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>川投能源11月22日获沪股通增持203.5万股</t>
+          <t>川投能源11月23日获沪股通增持82.83万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-23 07:50</t>
+          <t>11-24 07:45</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,600674,1249875641.html</t>
+          <t>/news,600674,1250419050.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净偿还累计2567.8万元（11-22）</t>
+          <t>川投能源：连续4日融资净偿还累计3490.94万元（11-23）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-23 07:30</t>
+          <t>11-24 07:32</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,600674,1249872043.html</t>
+          <t>/news,600674,1250416668.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>1312</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>川投能源11月21日被沪股通减持24.87万股</t>
+          <t>川投能源：以40.13亿元成功竞买国能大渡河10%股权</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-22 07:53</t>
+          <t>11-23 22:02</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,600674,1249348966.html</t>
+          <t>/news,600674,1250328863.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>589</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还49.55万元，融资余额7.23亿元（11-21）</t>
+          <t>川投能源：40.13亿元竞得国能大渡河10%股权</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-22 07:38</t>
+          <t>11-23 18:05</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,600674,1249346246.html</t>
+          <t>/news,600674,1250258012.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>563</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,61 +787,61 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入5281.47万元，居电力行业板块第四</t>
+          <t>川投能源：40.13亿元竞得国能大渡河流域水电开发公司10%股权</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-20 15:07</t>
+          <t>11-23 17:53</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,600674,1248769419.html</t>
+          <t>/news,600674,1250253648.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>1798</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加1158.71万元，居电力行业板块第七</t>
+          <t>川投能源：拟以40亿元竞买国能大渡河10%股权</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-20 14:07</t>
+          <t>11-23 17:36</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,600674,1248763255.html</t>
+          <t>/news,600674,1250249217.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>468</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>川投能源11月18日获沪股通增持47.68万股</t>
+          <t>川投能源11月22日获沪股通增持203.5万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-19 07:50</t>
+          <t>11-23 07:50</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,600674,1248638273.html</t>
+          <t>/news,600674,1249875641.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还241.87万元，融资余额7.24亿元（11-18）</t>
+          <t>川投能源：连续3日融资净偿还累计2567.8万元（11-22）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-19 07:30</t>
+          <t>11-23 07:30</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,600674,1248635633.html</t>
+          <t>/news,600674,1249872043.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>500亿元A股董事长被查！川投能源净利润超总营收2倍引关注 投资比主业还赚钱？</t>
+          <t>川投能源11月21日被沪股通减持24.87万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-18 21:34</t>
+          <t>11-22 07:53</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,600674,1248594560.html</t>
+          <t>/news,600674,1249348966.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>川投能源11月17日获沪股通增持36.02万股</t>
+          <t>川投能源：融资净偿还49.55万元，融资余额7.23亿元（11-21）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-18 07:42</t>
+          <t>11-22 07:38</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,600674,1248151786.html</t>
+          <t>/news,600674,1249346246.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,71 +979,71 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>川投能源：连续4日融资净买入累计5523.34万元（11-17）</t>
+          <t>川投能源本周融资净买入5281.47万元，居电力行业板块第四</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-18 07:33</t>
+          <t>11-20 15:07</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,600674,1248150190.html</t>
+          <t>/news,600674,1248769419.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>现任董事长又被查 川投能源四任“掌门”接连落马</t>
+          <t>川投能源本周沪股通持股市值增加1158.71万元，居电力行业板块第七</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-17 21:50</t>
+          <t>11-20 14:07</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,600674,1248097891.html</t>
+          <t>/news,600674,1248763255.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>22819</t>
+          <t>470</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>510亿A股公司董事长被查！月初刚公开现身 发生了什么？多家券商提示“谨慎推荐”</t>
+          <t>川投能源11月18日获沪股通增持47.68万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-17 08:14</t>
+          <t>11-19 07:50</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,600674,1247671546.html</t>
+          <t>/news,600674,1248638273.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净买入累计1632.03万元（11-16）</t>
+          <t>川投能源：融资净偿还241.87万元，融资余额7.24亿元（11-18）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-17 07:46</t>
+          <t>11-19 07:30</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,600674,1247666990.html</t>
+          <t>/news,600674,1248635633.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>2064</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>川投能源11月16日获沪股通增持23.2万股</t>
+          <t>500亿元A股董事长被查！川投能源净利润超总营收2倍引关注 投资比主业还赚钱？</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-17 07:31</t>
+          <t>11-18 21:34</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,600674,1247664225.html</t>
+          <t>/news,600674,1248594560.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2711</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>川投能源董事长刘体斌遭立案调查：执掌川投集团3年半 历任长虹系多家上市公司董事长</t>
+          <t>川投能源11月17日获沪股通增持36.02万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-17 07:19</t>
+          <t>11-18 07:42</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,600674,1247663799.html</t>
+          <t>/news,600674,1248151786.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1485</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>川投集团董事长刘体斌被立案调查</t>
+          <t>川投能源：连续4日融资净买入累计5523.34万元（11-17）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-17 06:27</t>
+          <t>11-18 07:33</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,600674,1247658204.html</t>
+          <t>/news,600674,1248150190.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2331</t>
+          <t>2040</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>突发！上市公司董事长被立案调查</t>
+          <t>现任董事长又被查 川投能源四任“掌门”接连落马</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-16 22:26</t>
+          <t>11-17 21:50</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,600674,1247612569.html</t>
+          <t>/news,600674,1248097891.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1209</t>
+          <t>22829</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>川投能源董事长刘体斌被立案调查</t>
+          <t>510亿A股公司董事长被查！月初刚公开现身 发生了什么？多家券商提示“谨慎推荐”</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-16 22:06</t>
+          <t>11-17 08:14</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,600674,1247606433.html</t>
+          <t>/news,600674,1247671546.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1743</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>突发！500亿A股董事长被立案调查</t>
+          <t>川投能源：连续3日融资净买入累计1632.03万元（11-16）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-16 19:20</t>
+          <t>11-17 07:46</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,600674,1247560692.html</t>
+          <t>/news,600674,1247666990.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2644</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>川投能源董事长刘体斌被立案调查 曾担任多家四川上市公司一把手</t>
+          <t>川投能源11月16日获沪股通增持23.2万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-16 18:27</t>
+          <t>11-17 07:31</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,600674,1247548359.html</t>
+          <t>/news,600674,1247664225.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1396</t>
+          <t>2728</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>川投集团董事长刘体斌被四川省监察委立案调查 月初尚在出席会议</t>
+          <t>川投能源董事长刘体斌遭立案调查：执掌川投集团3年半 历任长虹系多家上市公司董事长</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-16 17:22</t>
+          <t>11-17 07:19</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,600674,1247535065.html</t>
+          <t>/news,600674,1247663799.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5194</t>
+          <t>1498</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>川投能源董事长刘体斌被四川省监察委员会立案调查及实施留置措施</t>
+          <t>川投集团董事长刘体斌被立案调查</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-16 16:31</t>
+          <t>11-17 06:27</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,600674,1247520531.html</t>
+          <t>/news,600674,1247658204.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1232</t>
+          <t>2338</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>川投能源：公司董事长刘体斌被立案调查</t>
+          <t>突发！上市公司董事长被立案调查</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-16 15:51</t>
+          <t>11-16 22:26</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,600674,1247512404.html</t>
+          <t>/news,600674,1247612569.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>10.1万</t>
+          <t>1212</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>川投能源：公司董事长被立案调查</t>
+          <t>川投能源董事长刘体斌被立案调查</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-16 15:48</t>
+          <t>11-16 22:06</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,600674,1247510787.html</t>
+          <t>/news,600674,1247606433.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>1748</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>川投能源11月15日获沪股通增持33.2万股</t>
+          <t>突发！500亿A股董事长被立案调查</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-16 07:54</t>
+          <t>11-16 19:20</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,600674,1247176211.html</t>
+          <t>/news,600674,1247560692.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>2651</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入129.5万元，融资余额6.84亿元（11-15）</t>
+          <t>川投能源董事长刘体斌被立案调查 曾担任多家四川上市公司一把手</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-16 07:27</t>
+          <t>11-16 18:27</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,600674,1247171748.html</t>
+          <t>/news,600674,1247548359.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>1402</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>川投能源11月14日被沪股通减持38.11万股</t>
+          <t>川投集团董事长刘体斌被四川省监察委立案调查 月初尚在出席会议</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-15 07:57</t>
+          <t>11-16 17:22</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,600674,1246691419.html</t>
+          <t>/news,600674,1247535065.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>5195</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1186.56万元，融资余额6.83亿元（11-14）</t>
+          <t>川投能源董事长刘体斌被四川省监察委员会立案调查及实施留置措施</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-15 07:37</t>
+          <t>11-16 16:31</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,600674,1246688075.html</t>
+          <t>/news,600674,1247520531.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>1232</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,61 +1587,61 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入2574.49万元，居电力行业板块第七</t>
+          <t>川投能源：公司董事长刘体斌被立案调查</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-13 15:07</t>
+          <t>11-16 15:51</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,600674,1246099606.html</t>
+          <t>/news,600674,1247512404.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>10.1万</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>264</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加1350.02万元，居电力行业板块第二</t>
+          <t>川投能源：公司董事长被立案调查</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-13 14:10</t>
+          <t>11-16 15:48</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,600674,1246094601.html</t>
+          <t>/news,600674,1247510787.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>川投能源11月11日获沪股通增持90.7万股</t>
+          <t>川投能源11月15日获沪股通增持33.2万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-12 07:43</t>
+          <t>11-16 07:54</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,600674,1245985827.html</t>
+          <t>/news,600674,1247176211.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还565.86万元，融资余额6.71亿元（11-11）</t>
+          <t>川投能源：融资净买入129.5万元，融资余额6.84亿元（11-15）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-12 07:31</t>
+          <t>11-16 07:27</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,600674,1245984248.html</t>
+          <t>/news,600674,1247171748.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>川投能源：连续4日融资净买入累计3140.35万元（11-10）</t>
+          <t>川投能源11月14日被沪股通减持38.11万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-11 07:37</t>
+          <t>11-15 07:57</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,600674,1245410017.html</t>
+          <t>/news,600674,1246691419.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>川投能源11月09日获沪股通增持22.29万股</t>
+          <t>川投能源：融资净买入1186.56万元，融资余额6.83亿元（11-14）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,51 +1757,51 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-10 07:39</t>
+          <t>11-15 07:37</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,600674,1244888907.html</t>
+          <t>/news,600674,1246688075.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净买入累计2307.22万元（11-09）</t>
+          <t>川投能源本周融资净买入2574.49万元，居电力行业板块第七</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-10 07:27</t>
+          <t>11-13 15:07</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,600674,1244886962.html</t>
+          <t>/news,600674,1246099606.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,29 +1811,29 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1153.08万元，融资余额6.67亿元（11-08）</t>
+          <t>川投能源本周沪股通持股市值增加1350.02万元，居电力行业板块第二</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-09 07:31</t>
+          <t>11-13 14:10</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,600674,1244424771.html</t>
+          <t>/news,600674,1246094601.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>401</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>川投能源11月07日获沪股通增持11.99万股</t>
+          <t>川投能源11月11日获沪股通增持90.7万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-08 07:50</t>
+          <t>11-12 07:43</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,600674,1243974523.html</t>
+          <t>/news,600674,1245985827.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1002.96万元，融资余额6.55亿元（11-07）</t>
+          <t>川投能源：融资净偿还565.86万元，融资余额6.71亿元（11-11）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-08 07:29</t>
+          <t>11-12 07:31</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,600674,1243971057.html</t>
+          <t>/news,600674,1245984248.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>534</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>川投能源：公司及控股子公司之间的担保余额共计约2.89亿元</t>
+          <t>川投能源：连续4日融资净买入累计3140.35万元（11-10）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-07 16:50</t>
+          <t>11-11 07:37</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,600674,1243839821.html</t>
+          <t>/news,600674,1245410017.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,29 +1939,29 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>川投能源本周融资净偿还2823.08万元，居电力行业板块第二</t>
+          <t>川投能源11月09日获沪股通增持22.29万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-06 15:20</t>
+          <t>11-10 07:39</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,600674,1243413079.html</t>
+          <t>/news,600674,1244888907.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>498</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,29 +1971,29 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>沪股通连续2周净卖出川投能源 累计净卖出6599.4万元</t>
+          <t>川投能源：连续3日融资净买入累计2307.22万元（11-09）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-10 07:27</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,600674,1243404704.html</t>
+          <t>/news,600674,1244886962.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净偿还累计2571.62万元（11-04）</t>
+          <t>川投能源：融资净买入1153.08万元，融资余额6.67亿元（11-08）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-05 07:40</t>
+          <t>11-09 07:31</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,600674,1243317219.html</t>
+          <t>/news,600674,1244424771.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>川投能源11月03日被沪股通减持82.42万股</t>
+          <t>川投能源11月07日获沪股通增持11.99万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-04 07:47</t>
+          <t>11-08 07:50</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,600674,1242816855.html</t>
+          <t>/news,600674,1243974523.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还635.52万元，融资余额6.5亿元（11-03）</t>
+          <t>川投能源：融资净买入1002.96万元，融资余额6.55亿元（11-07）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-04 07:30</t>
+          <t>11-08 07:29</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,600674,1242813737.html</t>
+          <t>/news,600674,1243971057.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>534</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>川投能源11月02日被沪股通减持74万股</t>
+          <t>川投能源：公司及控股子公司之间的担保余额共计约2.89亿元</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-07 16:50</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,600674,1242326355.html</t>
+          <t>/news,600674,1243839821.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>491</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,29 +2131,29 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还1427万元，融资余额6.57亿元（11-02）</t>
+          <t>川投能源本周融资净偿还2823.08万元，居电力行业板块第二</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-03 07:29</t>
+          <t>11-06 15:20</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,600674,1242321485.html</t>
+          <t>/news,600674,1243413079.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>498</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,29 +2163,29 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>川投能源11月01日获沪股通增持51.68万股</t>
+          <t>沪股通连续2周净卖出川投能源 累计净卖出6599.4万元</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-02 07:51</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,600674,1241801443.html</t>
+          <t>/news,600674,1243404704.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1119.71万元，融资余额6.71亿元（11-01）</t>
+          <t>川投能源：连续3日融资净偿还累计2571.62万元（11-04）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-05 07:40</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,600674,1241800687.html</t>
+          <t>/news,600674,1243317219.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>489</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>川投能源10月31日被沪股通减持78.36万股</t>
+          <t>川投能源11月03日被沪股通减持82.42万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-01 07:52</t>
+          <t>11-04 07:47</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,600674,1241297048.html</t>
+          <t>/news,600674,1242816855.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还1371.17万元，融资余额6.6亿元（10-31）</t>
+          <t>川投能源：融资净偿还635.52万元，融资余额6.5亿元（11-03）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-01 07:28</t>
+          <t>11-04 07:30</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,600674,1241293200.html</t>
+          <t>/news,600674,1242813737.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>521</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,29 +2291,29 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>川财证券维持川投能源增持评级 预计2022年净利润同比增长11.76%</t>
+          <t>川投能源11月02日被沪股通减持74万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-31 22:05</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,600674,1241253673.html</t>
+          <t>/news,600674,1242326355.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>川财证券给予川投能源增持评级</t>
+          <t>川投能源：融资净偿还1427万元，融资余额6.57亿元（11-02）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-31 22:03</t>
+          <t>11-03 07:29</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,600674,1241261790.html</t>
+          <t>/news,600674,1242321485.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>685</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,29 +2355,29 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入2973.07万元，居电力行业板块第八</t>
+          <t>川投能源11月01日获沪股通增持51.68万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>11-02 07:51</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,600674,1240712918.html</t>
+          <t>/news,600674,1241801443.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>529</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,29 +2387,29 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值减少4460.01万元，居电力行业板块第五</t>
+          <t>川投能源：融资净买入1119.71万元，融资余额6.71亿元（11-01）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-30 14:08</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,600674,1240707423.html</t>
+          <t>/news,600674,1241800687.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>川投能源10月28日被沪股通减持16.12万股</t>
+          <t>川投能源10月31日被沪股通减持78.36万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-29 07:56</t>
+          <t>11-01 07:52</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,600674,1240600933.html</t>
+          <t>/news,600674,1241297048.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净买入累计2728.82万元（10-28）</t>
+          <t>川投能源：融资净偿还1371.17万元，融资余额6.6亿元（10-31）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-29 07:33</t>
+          <t>11-01 07:28</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,600674,1240597339.html</t>
+          <t>/news,600674,1241293200.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,29 +2483,29 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>川投能源10月27日被沪股通减持11.71万股</t>
+          <t>川财证券维持川投能源增持评级 预计2022年净利润同比增长11.76%</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-28 07:42</t>
+          <t>10-31 22:05</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,600674,1240046616.html</t>
+          <t>/news,600674,1241253673.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入499.33万元，融资余额6.68亿元（10-27）</t>
+          <t>川财证券给予川投能源增持评级</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-28 07:29</t>
+          <t>10-31 22:03</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,600674,1240044380.html</t>
+          <t>/news,600674,1241261790.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>685</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,29 +2547,29 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>川投能源10月26日被沪股通减持79.49万股</t>
+          <t>川投能源本周融资净买入2973.07万元，居电力行业板块第八</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-27 07:44</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,600674,1239496318.html</t>
+          <t>/news,600674,1240712918.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>529</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,29 +2579,29 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1740.9万元，融资余额6.63亿元（10-26）</t>
+          <t>川投能源本周沪股通持股市值减少4460.01万元，居电力行业板块第五</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-27 07:33</t>
+          <t>10-30 14:08</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,600674,1239494829.html</t>
+          <t>/news,600674,1240707423.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>489</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>川投能源10月25日被沪股通减持173.77万股</t>
+          <t>川投能源10月28日被沪股通减持16.12万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-26 07:58</t>
+          <t>10-29 07:56</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,600674,1238970260.html</t>
+          <t>/news,600674,1240600933.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>366</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还1821.77万元，融资余额6.46亿元（10-25）</t>
+          <t>川投能源：连续3日融资净买入累计2728.82万元（10-28）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-26 07:31</t>
+          <t>10-29 07:33</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,600674,1238965647.html</t>
+          <t>/news,600674,1240597339.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,29 +2675,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>长城证券维持川投能源增持评级 预计2022年净利润同比增长16.75%</t>
+          <t>川投能源10月27日被沪股通减持11.71万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-25 21:21</t>
+          <t>10-28 07:42</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,600674,1238894339.html</t>
+          <t>/news,600674,1240046616.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>首创证券给予川投能源买入评级 来水影响发电量 雅砻江公司成为业绩保障</t>
+          <t>川投能源：融资净买入499.33万元，融资余额6.68亿元（10-27）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-25 13:22</t>
+          <t>10-28 07:29</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,600674,1246194590.html</t>
+          <t>/news,600674,1240044380.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>首创证券给予川投能源买入评级 来水影响发电量 雅砻江公司成为业绩保障</t>
+          <t>川投能源10月26日被沪股通减持79.49万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-25 13:22</t>
+          <t>10-27 07:44</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,600674,1238695111.html</t>
+          <t>/news,600674,1239496318.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,29 +2771,29 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>首创证券维持川投能源买入评级 预计2022年净利润同比增长9.15%</t>
+          <t>川投能源：融资净买入1740.9万元，融资余额6.63亿元（10-26）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-25 13:17</t>
+          <t>10-27 07:33</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,600674,1238689042.html</t>
+          <t>/news,600674,1239494829.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>川投能源10月24日被沪股通减持111.56万股</t>
+          <t>川投能源10月25日被沪股通减持173.77万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-25 07:47</t>
+          <t>10-26 07:58</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,600674,1238447684.html</t>
+          <t>/news,600674,1238970260.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>川投能源：连续7日融资净买入累计1.09亿元（10-24）</t>
+          <t>川投能源：融资净偿还1821.77万元，融资余额6.46亿元（10-25）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-25 07:29</t>
+          <t>10-26 07:31</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,600674,1238443879.html</t>
+          <t>/news,600674,1238965647.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>529</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,29 +2867,29 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>国海证券给予川投能源买入评级</t>
+          <t>长城证券维持川投能源增持评级 预计2022年净利润同比增长16.75%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-25 07:08</t>
+          <t>10-25 21:21</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,600674,1238441787.html</t>
+          <t>/news,600674,1238894339.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>110</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,29 +2899,29 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>国海证券维持川投能源买入评级 预计2022年净利润同比增长8.05%</t>
+          <t>首创证券给予川投能源买入评级 来水影响发电量 雅砻江公司成为业绩保障</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-25 06:53</t>
+          <t>10-25 13:22</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,600674,1238440213.html</t>
+          <t>/news,600674,1246194590.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>408</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,61 +2931,61 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
+          <t>首创证券给予川投能源买入评级 来水影响发电量 雅砻江公司成为业绩保障</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-24 09:11</t>
+          <t>10-25 13:22</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,600674,1237928643.html</t>
+          <t>/news,600674,1238695111.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>452</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>中国银河给予川投能源推荐评级：雅砻江Q3发电量实现正增长 沿江新能源打开新成长空间</t>
+          <t>首创证券维持川投能源买入评级 预计2022年净利润同比增长9.15%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-24 07:23</t>
+          <t>10-25 13:17</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,600674,1237915624.html</t>
+          <t>/news,600674,1238689042.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>东吴证券给予川投能源买入评级 自然灾害拖累发电量表现 利润增长主要来自于雅砻江水电</t>
+          <t>川投能源10月24日被沪股通减持111.56万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-24 07:09</t>
+          <t>10-25 07:47</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,600674,1237914624.html</t>
+          <t>/news,600674,1238447684.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/600674.xlsx
+++ b/news_ann/news/tmp/600674.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,29 +467,29 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>川投能源11月24日获沪股通增持65.52万股</t>
+          <t>川投能源本周融资净偿还2877.13万元，居电力行业板块第二</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-25 07:39</t>
+          <t>12-04 15:10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,600674,1250940834.html</t>
+          <t>/news,600674,1254651475.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,61 +499,61 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>川投能源：连续5日融资净偿还累计5040.75万元（11-24）</t>
+          <t>川投能源本周沪股通持股市值增加9169.91万元，居电力行业板块第三</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-25 07:29</t>
+          <t>12-04 14:06</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,600674,1250938811.html</t>
+          <t>/news,600674,1254643296.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
+          <t>川投能源12月02日获沪股通增持149.45万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-24 20:21</t>
+          <t>12-03 07:45</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,600674,1250810423.html</t>
+          <t>/news,600674,1254511410.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>川投能源：公司目前采用纸质合同 未采用电子合同</t>
+          <t>川投能源：融资净偿还626.68万元，融资余额6.3亿元（12-02）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-24 15:09</t>
+          <t>12-03 07:33</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,600674,1250736533.html</t>
+          <t>/news,600674,1254509618.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>川投能源：公司暂时未建立财务共享中心 已经建立了资金结算中心</t>
+          <t>川投能源12月01日获沪股通增持142.44万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-24 15:09</t>
+          <t>12-02 07:48</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,600674,1250736338.html</t>
+          <t>/news,600674,1253912819.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>川投能源：公司目前暂无增发计划</t>
+          <t>川投能源：融资净买入246.77万元，融资余额6.36亿元（12-01）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-24 15:09</t>
+          <t>12-02 07:27</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,600674,1250736534.html</t>
+          <t>/news,600674,1253909709.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>1510</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>川投能源11月23日获沪股通增持82.83万股</t>
+          <t>川投能源重大资产重组 拟斥资40亿购买大渡河公司10%股权</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-24 07:45</t>
+          <t>12-02 05:56</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,600674,1250419050.html</t>
+          <t>/news,600674,1253903819.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>川投能源：连续4日融资净偿还累计3490.94万元（11-23）</t>
+          <t>川投能源：融资净偿还211.1万元，融资余额6.34亿元（11-30）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-24 07:32</t>
+          <t>12-01 07:53</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,600674,1250416668.html</t>
+          <t>/news,600674,1253302219.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1312</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>川投能源：以40.13亿元成功竞买国能大渡河10%股权</t>
+          <t>川投能源11月30日获沪股通增持73.28万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-23 22:02</t>
+          <t>12-01 07:44</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,600674,1250328863.html</t>
+          <t>/news,600674,1253300632.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>2059</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>川投能源：40.13亿元竞得国能大渡河10%股权</t>
+          <t>川投能源重大资产重组：拟斥资40亿购买大渡河公司10%股权</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-23 18:05</t>
+          <t>11-30 22:16</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,600674,1250258012.html</t>
+          <t>/news,600674,1253248684.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>川投能源：40.13亿元竞得国能大渡河流域水电开发公司10%股权</t>
+          <t>川投能源11月29日获沪股通增持89.6万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-23 17:53</t>
+          <t>11-30 07:49</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,600674,1250253648.html</t>
+          <t>/news,600674,1252778156.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1798</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>川投能源：拟以40亿元竞买国能大渡河10%股权</t>
+          <t>川投能源：融资净买入334.46万元，融资余额6.36亿元（11-29）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-23 17:36</t>
+          <t>11-30 07:31</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,600674,1250249217.html</t>
+          <t>/news,600674,1252774807.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>川投能源11月22日获沪股通增持203.5万股</t>
+          <t>川投能源11月28日获沪股通增持314.46万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-23 07:50</t>
+          <t>11-29 07:53</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,600674,1249875641.html</t>
+          <t>/news,600674,1252213632.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净偿还累计2567.8万元（11-22）</t>
+          <t>川投能源：连续7日融资净偿还累计9327.76万元（11-28）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-23 07:30</t>
+          <t>11-29 07:34</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,600674,1249872043.html</t>
+          <t>/news,600674,1252209921.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,29 +915,29 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>川投能源11月21日被沪股通减持24.87万股</t>
+          <t>川投能源本周融资净偿还6465.31万元，居电力行业板块第三</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-22 07:53</t>
+          <t>11-27 15:16</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,600674,1249348966.html</t>
+          <t>/news,600674,1251592452.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,29 +947,29 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还49.55万元，融资余额7.23亿元（11-21）</t>
+          <t>川投能源本周沪股通持股市值增加4521.68万元，居电力行业板块第七</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-22 07:38</t>
+          <t>11-27 14:06</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,600674,1249346246.html</t>
+          <t>/news,600674,1251584368.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,29 +979,29 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入5281.47万元，居电力行业板块第四</t>
+          <t>川投能源11月25日获沪股通增持59.2万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-20 15:07</t>
+          <t>11-26 07:46</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,600674,1248769419.html</t>
+          <t>/news,600674,1251433134.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,29 +1011,29 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加1158.71万元，居电力行业板块第七</t>
+          <t>川投能源：连续6日融资净偿还累计6707.18万元（11-25）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-20 14:07</t>
+          <t>11-26 07:33</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,600674,1248763255.html</t>
+          <t>/news,600674,1251430980.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>470</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>川投能源11月18日获沪股通增持47.68万股</t>
+          <t>川投能源11月24日获沪股通增持65.52万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-19 07:50</t>
+          <t>11-25 07:39</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,600674,1248638273.html</t>
+          <t>/news,600674,1250940834.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还241.87万元，融资余额7.24亿元（11-18）</t>
+          <t>川投能源：连续5日融资净偿还累计5040.75万元（11-24）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,51 +1085,51 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-19 07:30</t>
+          <t>11-25 07:29</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,600674,1248635633.html</t>
+          <t>/news,600674,1250938811.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2064</t>
+          <t>540</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>500亿元A股董事长被查！川投能源净利润超总营收2倍引关注 投资比主业还赚钱？</t>
+          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-18 21:34</t>
+          <t>11-24 20:21</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,600674,1248594560.html</t>
+          <t>/news,600674,1250810423.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>490</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>川投能源11月17日获沪股通增持36.02万股</t>
+          <t>川投能源：公司目前采用纸质合同 未采用电子合同</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-18 07:42</t>
+          <t>11-24 15:09</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,600674,1248151786.html</t>
+          <t>/news,600674,1250736533.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>川投能源：连续4日融资净买入累计5523.34万元（11-17）</t>
+          <t>川投能源：公司暂时未建立财务共享中心 已经建立了资金结算中心</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-18 07:33</t>
+          <t>11-24 15:09</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,600674,1248150190.html</t>
+          <t>/news,600674,1250736338.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2040</t>
+          <t>394</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>现任董事长又被查 川投能源四任“掌门”接连落马</t>
+          <t>川投能源：公司目前暂无增发计划</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-17 21:50</t>
+          <t>11-24 15:09</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,600674,1248097891.html</t>
+          <t>/news,600674,1250736534.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>22829</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>510亿A股公司董事长被查！月初刚公开现身 发生了什么？多家券商提示“谨慎推荐”</t>
+          <t>川投能源11月23日获沪股通增持82.83万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-17 08:14</t>
+          <t>11-24 07:45</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,600674,1247671546.html</t>
+          <t>/news,600674,1250419050.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净买入累计1632.03万元（11-16）</t>
+          <t>川投能源：连续4日融资净偿还累计3490.94万元（11-23）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-17 07:46</t>
+          <t>11-24 07:32</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,600674,1247666990.html</t>
+          <t>/news,600674,1250416668.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>1683</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>川投能源11月16日获沪股通增持23.2万股</t>
+          <t>川投能源：以40.13亿元成功竞买国能大渡河10%股权</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-17 07:31</t>
+          <t>11-23 22:02</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,600674,1247664225.html</t>
+          <t>/news,600674,1250328863.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2728</t>
+          <t>679</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>川投能源董事长刘体斌遭立案调查：执掌川投集团3年半 历任长虹系多家上市公司董事长</t>
+          <t>川投能源：40.13亿元竞得国能大渡河10%股权</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-17 07:19</t>
+          <t>11-23 18:05</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,600674,1247663799.html</t>
+          <t>/news,600674,1250258012.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1498</t>
+          <t>643</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>川投集团董事长刘体斌被立案调查</t>
+          <t>川投能源：40.13亿元竞得国能大渡河流域水电开发公司10%股权</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-17 06:27</t>
+          <t>11-23 17:53</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,600674,1247658204.html</t>
+          <t>/news,600674,1250253648.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2338</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>突发！上市公司董事长被立案调查</t>
+          <t>川投能源：拟以40亿元竞买国能大渡河10%股权</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-16 22:26</t>
+          <t>11-23 17:36</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,600674,1247612569.html</t>
+          <t>/news,600674,1250249217.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1212</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>川投能源董事长刘体斌被立案调查</t>
+          <t>川投能源11月22日获沪股通增持203.5万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-16 22:06</t>
+          <t>11-23 07:50</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,600674,1247606433.html</t>
+          <t>/news,600674,1249875641.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1748</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>突发！500亿A股董事长被立案调查</t>
+          <t>川投能源：连续3日融资净偿还累计2567.8万元（11-22）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-16 19:20</t>
+          <t>11-23 07:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,600674,1247560692.html</t>
+          <t>/news,600674,1249872043.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2651</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>川投能源董事长刘体斌被立案调查 曾担任多家四川上市公司一把手</t>
+          <t>川投能源11月21日被沪股通减持24.87万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-16 18:27</t>
+          <t>11-22 07:53</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,600674,1247548359.html</t>
+          <t>/news,600674,1249348966.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1402</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>川投集团董事长刘体斌被四川省监察委立案调查 月初尚在出席会议</t>
+          <t>川投能源：融资净偿还49.55万元，融资余额7.23亿元（11-21）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,93 +1533,93 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-16 17:22</t>
+          <t>11-22 07:38</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,600674,1247535065.html</t>
+          <t>/news,600674,1249346246.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5195</t>
+          <t>425</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>川投能源董事长刘体斌被四川省监察委员会立案调查及实施留置措施</t>
+          <t>川投能源本周融资净买入5281.47万元，居电力行业板块第四</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-16 16:31</t>
+          <t>11-20 15:07</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,600674,1247520531.html</t>
+          <t>/news,600674,1248769419.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1232</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>川投能源：公司董事长刘体斌被立案调查</t>
+          <t>川投能源本周沪股通持股市值增加1158.71万元，居电力行业板块第七</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-16 15:51</t>
+          <t>11-20 14:07</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,600674,1247512404.html</t>
+          <t>/news,600674,1248763255.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>10.1万</t>
+          <t>508</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>川投能源：公司董事长被立案调查</t>
+          <t>川投能源11月18日获沪股通增持47.68万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-16 15:48</t>
+          <t>11-19 07:50</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,600674,1247510787.html</t>
+          <t>/news,600674,1248638273.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>川投能源11月15日获沪股通增持33.2万股</t>
+          <t>川投能源：融资净偿还241.87万元，融资余额7.24亿元（11-18）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-16 07:54</t>
+          <t>11-19 07:30</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,600674,1247176211.html</t>
+          <t>/news,600674,1248635633.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>2330</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入129.5万元，融资余额6.84亿元（11-15）</t>
+          <t>500亿元A股董事长被查！川投能源净利润超总营收2倍引关注 投资比主业还赚钱？</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-16 07:27</t>
+          <t>11-18 21:34</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,600674,1247171748.html</t>
+          <t>/news,600674,1248594560.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>川投能源11月14日被沪股通减持38.11万股</t>
+          <t>川投能源11月17日获沪股通增持36.02万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-15 07:57</t>
+          <t>11-18 07:42</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,600674,1246691419.html</t>
+          <t>/news,600674,1248151786.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1186.56万元，融资余额6.83亿元（11-14）</t>
+          <t>川投能源：连续4日融资净买入累计5523.34万元（11-17）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,83 +1757,83 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-15 07:37</t>
+          <t>11-18 07:33</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,600674,1246688075.html</t>
+          <t>/news,600674,1248150190.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>2113</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入2574.49万元，居电力行业板块第七</t>
+          <t>现任董事长又被查 川投能源四任“掌门”接连落马</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-13 15:07</t>
+          <t>11-17 21:50</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,600674,1246099606.html</t>
+          <t>/news,600674,1248097891.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>22878</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加1350.02万元，居电力行业板块第二</t>
+          <t>510亿A股公司董事长被查！月初刚公开现身 发生了什么？多家券商提示“谨慎推荐”</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-13 14:10</t>
+          <t>11-17 08:14</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,600674,1246094601.html</t>
+          <t>/news,600674,1247671546.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>川投能源11月11日获沪股通增持90.7万股</t>
+          <t>川投能源：连续3日融资净买入累计1632.03万元（11-16）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-12 07:43</t>
+          <t>11-17 07:46</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,600674,1245985827.html</t>
+          <t>/news,600674,1247666990.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还565.86万元，融资余额6.71亿元（11-11）</t>
+          <t>川投能源11月16日获沪股通增持23.2万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-12 07:31</t>
+          <t>11-17 07:31</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,600674,1245984248.html</t>
+          <t>/news,600674,1247664225.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>2819</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>川投能源：连续4日融资净买入累计3140.35万元（11-10）</t>
+          <t>川投能源董事长刘体斌遭立案调查：执掌川投集团3年半 历任长虹系多家上市公司董事长</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-11 07:37</t>
+          <t>11-17 07:19</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,600674,1245410017.html</t>
+          <t>/news,600674,1247663799.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>1560</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>川投能源11月09日获沪股通增持22.29万股</t>
+          <t>川投集团董事长刘体斌被立案调查</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-10 07:39</t>
+          <t>11-17 06:27</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,600674,1244888907.html</t>
+          <t>/news,600674,1247658204.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>2384</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净买入累计2307.22万元（11-09）</t>
+          <t>突发！上市公司董事长被立案调查</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-10 07:27</t>
+          <t>11-16 22:26</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,600674,1244886962.html</t>
+          <t>/news,600674,1247612569.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>1264</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1153.08万元，融资余额6.67亿元（11-08）</t>
+          <t>川投能源董事长刘体斌被立案调查</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-09 07:31</t>
+          <t>11-16 22:06</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,600674,1244424771.html</t>
+          <t>/news,600674,1247606433.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>1791</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>川投能源11月07日获沪股通增持11.99万股</t>
+          <t>突发！500亿A股董事长被立案调查</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-08 07:50</t>
+          <t>11-16 19:20</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,600674,1243974523.html</t>
+          <t>/news,600674,1247560692.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>2688</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1002.96万元，融资余额6.55亿元（11-07）</t>
+          <t>川投能源董事长刘体斌被立案调查 曾担任多家四川上市公司一把手</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-08 07:29</t>
+          <t>11-16 18:27</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,600674,1243971057.html</t>
+          <t>/news,600674,1247548359.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>534</t>
+          <t>1432</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>川投能源：公司及控股子公司之间的担保余额共计约2.89亿元</t>
+          <t>川投集团董事长刘体斌被四川省监察委立案调查 月初尚在出席会议</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,93 +2109,93 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-07 16:50</t>
+          <t>11-16 17:22</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,600674,1243839821.html</t>
+          <t>/news,600674,1247535065.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>5235</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>川投能源本周融资净偿还2823.08万元，居电力行业板块第二</t>
+          <t>川投能源董事长刘体斌被四川省监察委员会立案调查及实施留置措施</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-06 15:20</t>
+          <t>11-16 16:31</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,600674,1243413079.html</t>
+          <t>/news,600674,1247520531.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>498</t>
+          <t>1257</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>沪股通连续2周净卖出川投能源 累计净卖出6599.4万元</t>
+          <t>川投能源：公司董事长刘体斌被立案调查</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-16 15:51</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,600674,1243404704.html</t>
+          <t>/news,600674,1247512404.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>10.2万</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>264</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净偿还累计2571.62万元（11-04）</t>
+          <t>川投能源：公司董事长被立案调查</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-05 07:40</t>
+          <t>11-16 15:48</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,600674,1243317219.html</t>
+          <t>/news,600674,1247510787.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>川投能源11月03日被沪股通减持82.42万股</t>
+          <t>川投能源11月15日获沪股通增持33.2万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-04 07:47</t>
+          <t>11-16 07:54</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,600674,1242816855.html</t>
+          <t>/news,600674,1247176211.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还635.52万元，融资余额6.5亿元（11-03）</t>
+          <t>川投能源：融资净买入129.5万元，融资余额6.84亿元（11-15）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-04 07:30</t>
+          <t>11-16 07:27</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,600674,1242813737.html</t>
+          <t>/news,600674,1247171748.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>川投能源11月02日被沪股通减持74万股</t>
+          <t>川投能源11月14日被沪股通减持38.11万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-15 07:57</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,600674,1242326355.html</t>
+          <t>/news,600674,1246691419.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还1427万元，融资余额6.57亿元（11-02）</t>
+          <t>川投能源：融资净买入1186.56万元，融资余额6.83亿元（11-14）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,51 +2333,51 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-03 07:29</t>
+          <t>11-15 07:37</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,600674,1242321485.html</t>
+          <t>/news,600674,1246688075.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>川投能源11月01日获沪股通增持51.68万股</t>
+          <t>川投能源本周融资净买入2574.49万元，居电力行业板块第七</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-02 07:51</t>
+          <t>11-13 15:07</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,600674,1241801443.html</t>
+          <t>/news,600674,1246099606.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,29 +2387,29 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1119.71万元，融资余额6.71亿元（11-01）</t>
+          <t>川投能源本周沪股通持股市值增加1350.02万元，居电力行业板块第二</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-13 14:10</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,600674,1241800687.html</t>
+          <t>/news,600674,1246094601.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>415</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>川投能源10月31日被沪股通减持78.36万股</t>
+          <t>川投能源11月11日获沪股通增持90.7万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-01 07:52</t>
+          <t>11-12 07:43</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,600674,1241297048.html</t>
+          <t>/news,600674,1245985827.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还1371.17万元，融资余额6.6亿元（10-31）</t>
+          <t>川投能源：融资净偿还565.86万元，融资余额6.71亿元（11-11）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-01 07:28</t>
+          <t>11-12 07:31</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,600674,1241293200.html</t>
+          <t>/news,600674,1245984248.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,29 +2483,29 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>川财证券维持川投能源增持评级 预计2022年净利润同比增长11.76%</t>
+          <t>川投能源：连续4日融资净买入累计3140.35万元（11-10）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-31 22:05</t>
+          <t>11-11 07:37</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,600674,1241253673.html</t>
+          <t>/news,600674,1245410017.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>川财证券给予川投能源增持评级</t>
+          <t>川投能源11月09日获沪股通增持22.29万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-31 22:03</t>
+          <t>11-10 07:39</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,600674,1241261790.html</t>
+          <t>/news,600674,1244888907.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>685</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,29 +2547,29 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入2973.07万元，居电力行业板块第八</t>
+          <t>川投能源：连续3日融资净买入累计2307.22万元（11-09）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>11-10 07:27</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,600674,1240712918.html</t>
+          <t>/news,600674,1244886962.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>529</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,29 +2579,29 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值减少4460.01万元，居电力行业板块第五</t>
+          <t>川投能源：融资净买入1153.08万元，融资余额6.67亿元（11-08）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-30 14:08</t>
+          <t>11-09 07:31</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,600674,1240707423.html</t>
+          <t>/news,600674,1244424771.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>川投能源10月28日被沪股通减持16.12万股</t>
+          <t>川投能源11月07日获沪股通增持11.99万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-29 07:56</t>
+          <t>11-08 07:50</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,600674,1240600933.html</t>
+          <t>/news,600674,1243974523.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>309</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净买入累计2728.82万元（10-28）</t>
+          <t>川投能源：融资净买入1002.96万元，融资余额6.55亿元（11-07）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-29 07:33</t>
+          <t>11-08 07:29</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,600674,1240597339.html</t>
+          <t>/news,600674,1243971057.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>548</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>川投能源10月27日被沪股通减持11.71万股</t>
+          <t>川投能源：公司及控股子公司之间的担保余额共计约2.89亿元</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-28 07:42</t>
+          <t>11-07 16:50</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,600674,1240046616.html</t>
+          <t>/news,600674,1243839821.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>503</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,29 +2707,29 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入499.33万元，融资余额6.68亿元（10-27）</t>
+          <t>川投能源本周融资净偿还2823.08万元，居电力行业板块第二</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-28 07:29</t>
+          <t>11-06 15:20</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,600674,1240044380.html</t>
+          <t>/news,600674,1243413079.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>505</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,29 +2739,29 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>川投能源10月26日被沪股通减持79.49万股</t>
+          <t>沪股通连续2周净卖出川投能源 累计净卖出6599.4万元</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-27 07:44</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,600674,1239496318.html</t>
+          <t>/news,600674,1243404704.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>419</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1740.9万元，融资余额6.63亿元（10-26）</t>
+          <t>川投能源：连续3日融资净偿还累计2571.62万元（11-04）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-27 07:33</t>
+          <t>11-05 07:40</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,600674,1239494829.html</t>
+          <t>/news,600674,1243317219.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>502</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>川投能源10月25日被沪股通减持173.77万股</t>
+          <t>川投能源11月03日被沪股通减持82.42万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-26 07:58</t>
+          <t>11-04 07:47</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,600674,1238970260.html</t>
+          <t>/news,600674,1242816855.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还1821.77万元，融资余额6.46亿元（10-25）</t>
+          <t>川投能源：融资净偿还635.52万元，融资余额6.5亿元（11-03）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-26 07:31</t>
+          <t>11-04 07:30</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,600674,1238965647.html</t>
+          <t>/news,600674,1242813737.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>529</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,29 +2867,29 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>长城证券维持川投能源增持评级 预计2022年净利润同比增长16.75%</t>
+          <t>川投能源11月02日被沪股通减持74万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-25 21:21</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,600674,1238894339.html</t>
+          <t>/news,600674,1242326355.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>首创证券给予川投能源买入评级 来水影响发电量 雅砻江公司成为业绩保障</t>
+          <t>川投能源：融资净偿还1427万元，融资余额6.57亿元（11-02）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-25 13:22</t>
+          <t>11-03 07:29</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,600674,1246194590.html</t>
+          <t>/news,600674,1242321485.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>首创证券给予川投能源买入评级 来水影响发电量 雅砻江公司成为业绩保障</t>
+          <t>川投能源11月01日获沪股通增持51.68万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-25 13:22</t>
+          <t>11-02 07:51</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,600674,1238695111.html</t>
+          <t>/news,600674,1241801443.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,29 +2963,29 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>首创证券维持川投能源买入评级 预计2022年净利润同比增长9.15%</t>
+          <t>川投能源：融资净买入1119.71万元，融资余额6.71亿元（11-01）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-25 13:17</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,600674,1238689042.html</t>
+          <t>/news,600674,1241800687.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>川投能源10月24日被沪股通减持111.56万股</t>
+          <t>川投能源10月31日被沪股通减持78.36万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-25 07:47</t>
+          <t>11-01 07:52</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,600674,1238447684.html</t>
+          <t>/news,600674,1241297048.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/600674.xlsx
+++ b/news_ann/news/tmp/600674.xlsx
@@ -457,71 +457,71 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>川投能源本周融资净偿还2877.13万元，居电力行业板块第二</t>
+          <t>川投能源12月05日获沪股通增持259.99万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-04 15:10</t>
+          <t>12-06 07:46</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,600674,1254651475.html</t>
+          <t>/news,600674,1255447449.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>144</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加9169.91万元，居电力行业板块第三</t>
+          <t>川投能源：融资净买入9.89万元，融资余额6.3亿元（12-05）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-04 14:06</t>
+          <t>12-06 07:32</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,600674,1254643296.html</t>
+          <t>/news,600674,1255444835.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,29 +531,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>川投能源12月02日获沪股通增持149.45万股</t>
+          <t>川投能源本周融资净偿还2877.13万元，居电力行业板块第二</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-03 07:45</t>
+          <t>12-04 15:10</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,600674,1254511410.html</t>
+          <t>/news,600674,1254651475.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,29 +563,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还626.68万元，融资余额6.3亿元（12-02）</t>
+          <t>川投能源本周沪股通持股市值增加9169.91万元，居电力行业板块第三</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-03 07:33</t>
+          <t>12-04 14:06</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,600674,1254509618.html</t>
+          <t>/news,600674,1254643296.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>川投能源12月01日获沪股通增持142.44万股</t>
+          <t>川投能源12月02日获沪股通增持149.45万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-02 07:48</t>
+          <t>12-03 07:45</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,600674,1253912819.html</t>
+          <t>/news,600674,1254511410.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入246.77万元，融资余额6.36亿元（12-01）</t>
+          <t>川投能源：融资净偿还626.68万元，融资余额6.3亿元（12-02）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-02 07:27</t>
+          <t>12-03 07:33</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,600674,1253909709.html</t>
+          <t>/news,600674,1254509618.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1510</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>川投能源重大资产重组 拟斥资40亿购买大渡河公司10%股权</t>
+          <t>川投能源12月01日获沪股通增持142.44万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-02 05:56</t>
+          <t>12-02 07:48</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,600674,1253903819.html</t>
+          <t>/news,600674,1253912819.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还211.1万元，融资余额6.34亿元（11-30）</t>
+          <t>川投能源：融资净买入246.77万元，融资余额6.36亿元（12-01）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-01 07:53</t>
+          <t>12-02 07:27</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,600674,1253302219.html</t>
+          <t>/news,600674,1253909709.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>1560</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>川投能源11月30日获沪股通增持73.28万股</t>
+          <t>川投能源重大资产重组 拟斥资40亿购买大渡河公司10%股权</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-01 07:44</t>
+          <t>12-02 05:56</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,600674,1253300632.html</t>
+          <t>/news,600674,1253903819.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2059</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>川投能源重大资产重组：拟斥资40亿购买大渡河公司10%股权</t>
+          <t>川投能源：融资净偿还211.1万元，融资余额6.34亿元（11-30）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-30 22:16</t>
+          <t>12-01 07:53</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,600674,1253248684.html</t>
+          <t>/news,600674,1253302219.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>川投能源11月29日获沪股通增持89.6万股</t>
+          <t>川投能源11月30日获沪股通增持73.28万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-30 07:49</t>
+          <t>12-01 07:44</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,600674,1252778156.html</t>
+          <t>/news,600674,1253300632.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>2102</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入334.46万元，融资余额6.36亿元（11-29）</t>
+          <t>川投能源重大资产重组：拟斥资40亿购买大渡河公司10%股权</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-30 07:31</t>
+          <t>11-30 22:16</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,600674,1252774807.html</t>
+          <t>/news,600674,1253248684.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>川投能源11月28日获沪股通增持314.46万股</t>
+          <t>川投能源11月29日获沪股通增持89.6万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-29 07:53</t>
+          <t>11-30 07:49</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,600674,1252213632.html</t>
+          <t>/news,600674,1252778156.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>川投能源：连续7日融资净偿还累计9327.76万元（11-28）</t>
+          <t>川投能源：融资净买入334.46万元，融资余额6.36亿元（11-29）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-29 07:34</t>
+          <t>11-30 07:31</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,600674,1252209921.html</t>
+          <t>/news,600674,1252774807.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,29 +915,29 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>川投能源本周融资净偿还6465.31万元，居电力行业板块第三</t>
+          <t>川投能源11月28日获沪股通增持314.46万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-27 15:16</t>
+          <t>11-29 07:53</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,600674,1251592452.html</t>
+          <t>/news,600674,1252213632.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,29 +947,29 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加4521.68万元，居电力行业板块第七</t>
+          <t>川投能源：连续7日融资净偿还累计9327.76万元（11-28）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-27 14:06</t>
+          <t>11-29 07:34</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,600674,1251584368.html</t>
+          <t>/news,600674,1252209921.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,29 +979,29 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>川投能源11月25日获沪股通增持59.2万股</t>
+          <t>川投能源本周融资净偿还6465.31万元，居电力行业板块第三</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-26 07:46</t>
+          <t>11-27 15:16</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,600674,1251433134.html</t>
+          <t>/news,600674,1251592452.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,29 +1011,29 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>川投能源：连续6日融资净偿还累计6707.18万元（11-25）</t>
+          <t>川投能源本周沪股通持股市值增加4521.68万元，居电力行业板块第七</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-26 07:33</t>
+          <t>11-27 14:06</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,600674,1251430980.html</t>
+          <t>/news,600674,1251584368.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>川投能源11月24日获沪股通增持65.52万股</t>
+          <t>川投能源11月25日获沪股通增持59.2万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-25 07:39</t>
+          <t>11-26 07:46</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,600674,1250940834.html</t>
+          <t>/news,600674,1251433134.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>346</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>川投能源：连续5日融资净偿还累计5040.75万元（11-24）</t>
+          <t>川投能源：连续6日融资净偿还累计6707.18万元（11-25）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,51 +1085,51 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-25 07:29</t>
+          <t>11-26 07:33</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,600674,1250938811.html</t>
+          <t>/news,600674,1251430980.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>540</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
+          <t>川投能源11月24日获沪股通增持65.52万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-24 20:21</t>
+          <t>11-25 07:39</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,600674,1250810423.html</t>
+          <t>/news,600674,1250940834.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>川投能源：公司目前采用纸质合同 未采用电子合同</t>
+          <t>川投能源：连续5日融资净偿还累计5040.75万元（11-24）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,51 +1149,51 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-24 15:09</t>
+          <t>11-25 07:29</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,600674,1250736533.html</t>
+          <t>/news,600674,1250938811.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>川投能源：公司暂时未建立财务共享中心 已经建立了资金结算中心</t>
+          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-24 15:09</t>
+          <t>11-24 20:21</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,600674,1250736338.html</t>
+          <t>/news,600674,1250810423.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>496</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>川投能源：公司目前暂无增发计划</t>
+          <t>川投能源：公司目前采用纸质合同 未采用电子合同</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1218,14 +1218,14 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,600674,1250736534.html</t>
+          <t>/news,600674,1250736533.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>川投能源11月23日获沪股通增持82.83万股</t>
+          <t>川投能源：公司暂时未建立财务共享中心 已经建立了资金结算中心</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-24 07:45</t>
+          <t>11-24 15:09</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,600674,1250419050.html</t>
+          <t>/news,600674,1250736338.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>401</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>川投能源：连续4日融资净偿还累计3490.94万元（11-23）</t>
+          <t>川投能源：公司目前暂无增发计划</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-24 07:32</t>
+          <t>11-24 15:09</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,600674,1250416668.html</t>
+          <t>/news,600674,1250736534.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1683</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>川投能源：以40.13亿元成功竞买国能大渡河10%股权</t>
+          <t>川投能源11月23日获沪股通增持82.83万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-23 22:02</t>
+          <t>11-24 07:45</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,600674,1250328863.html</t>
+          <t>/news,600674,1250419050.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>679</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>川投能源：40.13亿元竞得国能大渡河10%股权</t>
+          <t>川投能源：连续4日融资净偿还累计3490.94万元（11-23）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-23 18:05</t>
+          <t>11-24 07:32</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,600674,1250258012.html</t>
+          <t>/news,600674,1250416668.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>643</t>
+          <t>1694</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>川投能源：40.13亿元竞得国能大渡河流域水电开发公司10%股权</t>
+          <t>川投能源：以40.13亿元成功竞买国能大渡河10%股权</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-23 17:53</t>
+          <t>11-23 22:02</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,600674,1250253648.html</t>
+          <t>/news,600674,1250328863.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>683</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>川投能源：拟以40亿元竞买国能大渡河10%股权</t>
+          <t>川投能源：40.13亿元竞得国能大渡河10%股权</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-23 17:36</t>
+          <t>11-23 18:05</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,600674,1250249217.html</t>
+          <t>/news,600674,1250258012.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>649</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>川投能源11月22日获沪股通增持203.5万股</t>
+          <t>川投能源：40.13亿元竞得国能大渡河流域水电开发公司10%股权</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-23 07:50</t>
+          <t>11-23 17:53</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,600674,1249875641.html</t>
+          <t>/news,600674,1250253648.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净偿还累计2567.8万元（11-22）</t>
+          <t>川投能源：拟以40亿元竞买国能大渡河10%股权</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-23 07:30</t>
+          <t>11-23 17:36</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,600674,1249872043.html</t>
+          <t>/news,600674,1250249217.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>川投能源11月21日被沪股通减持24.87万股</t>
+          <t>川投能源11月22日获沪股通增持203.5万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-22 07:53</t>
+          <t>11-23 07:50</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,600674,1249348966.html</t>
+          <t>/news,600674,1249875641.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还49.55万元，融资余额7.23亿元（11-21）</t>
+          <t>川投能源：连续3日融资净偿还累计2567.8万元（11-22）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-22 07:38</t>
+          <t>11-23 07:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,600674,1249346246.html</t>
+          <t>/news,600674,1249872043.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,29 +1555,29 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入5281.47万元，居电力行业板块第四</t>
+          <t>川投能源11月21日被沪股通减持24.87万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-20 15:07</t>
+          <t>11-22 07:53</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,600674,1248769419.html</t>
+          <t>/news,600674,1249348966.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,29 +1587,29 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加1158.71万元，居电力行业板块第七</t>
+          <t>川投能源：融资净偿还49.55万元，融资余额7.23亿元（11-21）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-20 14:07</t>
+          <t>11-22 07:38</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,600674,1248763255.html</t>
+          <t>/news,600674,1249346246.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>429</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,29 +1619,29 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>川投能源11月18日获沪股通增持47.68万股</t>
+          <t>川投能源本周融资净买入5281.47万元，居电力行业板块第四</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-19 07:50</t>
+          <t>11-20 15:07</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,600674,1248638273.html</t>
+          <t>/news,600674,1248769419.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>380</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,39 +1651,39 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还241.87万元，融资余额7.24亿元（11-18）</t>
+          <t>川投能源本周沪股通持股市值增加1158.71万元，居电力行业板块第七</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-19 07:30</t>
+          <t>11-20 14:07</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,600674,1248635633.html</t>
+          <t>/news,600674,1248763255.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2330</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>500亿元A股董事长被查！川投能源净利润超总营收2倍引关注 投资比主业还赚钱？</t>
+          <t>川投能源11月18日获沪股通增持47.68万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-18 21:34</t>
+          <t>11-19 07:50</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,600674,1248594560.html</t>
+          <t>/news,600674,1248638273.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>川投能源11月17日获沪股通增持36.02万股</t>
+          <t>川投能源：融资净偿还241.87万元，融资余额7.24亿元（11-18）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-18 07:42</t>
+          <t>11-19 07:30</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,600674,1248151786.html</t>
+          <t>/news,600674,1248635633.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>2343</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>川投能源：连续4日融资净买入累计5523.34万元（11-17）</t>
+          <t>500亿元A股董事长被查！川投能源净利润超总营收2倍引关注 投资比主业还赚钱？</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-18 07:33</t>
+          <t>11-18 21:34</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,600674,1248150190.html</t>
+          <t>/news,600674,1248594560.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2113</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>现任董事长又被查 川投能源四任“掌门”接连落马</t>
+          <t>川投能源11月17日获沪股通增持36.02万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-17 21:50</t>
+          <t>11-18 07:42</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,600674,1248097891.html</t>
+          <t>/news,600674,1248151786.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>22878</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>510亿A股公司董事长被查！月初刚公开现身 发生了什么？多家券商提示“谨慎推荐”</t>
+          <t>川投能源：连续4日融资净买入累计5523.34万元（11-17）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-17 08:14</t>
+          <t>11-18 07:33</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,600674,1247671546.html</t>
+          <t>/news,600674,1248150190.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>2123</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净买入累计1632.03万元（11-16）</t>
+          <t>现任董事长又被查 川投能源四任“掌门”接连落马</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-17 07:46</t>
+          <t>11-17 21:50</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,600674,1247666990.html</t>
+          <t>/news,600674,1248097891.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>22887</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>川投能源11月16日获沪股通增持23.2万股</t>
+          <t>510亿A股公司董事长被查！月初刚公开现身 发生了什么？多家券商提示“谨慎推荐”</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-17 07:31</t>
+          <t>11-17 08:14</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,600674,1247664225.html</t>
+          <t>/news,600674,1247671546.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2819</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>川投能源董事长刘体斌遭立案调查：执掌川投集团3年半 历任长虹系多家上市公司董事长</t>
+          <t>川投能源：连续3日融资净买入累计1632.03万元（11-16）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-17 07:19</t>
+          <t>11-17 07:46</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,600674,1247663799.html</t>
+          <t>/news,600674,1247666990.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1560</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>川投集团董事长刘体斌被立案调查</t>
+          <t>川投能源11月16日获沪股通增持23.2万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-17 06:27</t>
+          <t>11-17 07:31</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,600674,1247658204.html</t>
+          <t>/news,600674,1247664225.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2384</t>
+          <t>2830</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>突发！上市公司董事长被立案调查</t>
+          <t>川投能源董事长刘体斌遭立案调查：执掌川投集团3年半 历任长虹系多家上市公司董事长</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-16 22:26</t>
+          <t>11-17 07:19</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,600674,1247612569.html</t>
+          <t>/news,600674,1247663799.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1264</t>
+          <t>1563</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>川投能源董事长刘体斌被立案调查</t>
+          <t>川投集团董事长刘体斌被立案调查</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-16 22:06</t>
+          <t>11-17 06:27</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,600674,1247606433.html</t>
+          <t>/news,600674,1247658204.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1791</t>
+          <t>2388</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>突发！500亿A股董事长被立案调查</t>
+          <t>突发！上市公司董事长被立案调查</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-16 19:20</t>
+          <t>11-16 22:26</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,600674,1247560692.html</t>
+          <t>/news,600674,1247612569.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2688</t>
+          <t>1269</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>川投能源董事长刘体斌被立案调查 曾担任多家四川上市公司一把手</t>
+          <t>川投能源董事长刘体斌被立案调查</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-16 18:27</t>
+          <t>11-16 22:06</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,600674,1247548359.html</t>
+          <t>/news,600674,1247606433.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1432</t>
+          <t>1795</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>川投集团董事长刘体斌被四川省监察委立案调查 月初尚在出席会议</t>
+          <t>突发！500亿A股董事长被立案调查</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-16 17:22</t>
+          <t>11-16 19:20</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,600674,1247535065.html</t>
+          <t>/news,600674,1247560692.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>2690</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>川投能源董事长刘体斌被四川省监察委员会立案调查及实施留置措施</t>
+          <t>川投能源董事长刘体斌被立案调查 曾担任多家四川上市公司一把手</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-16 16:31</t>
+          <t>11-16 18:27</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,600674,1247520531.html</t>
+          <t>/news,600674,1247548359.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1257</t>
+          <t>1437</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>川投能源：公司董事长刘体斌被立案调查</t>
+          <t>川投集团董事长刘体斌被四川省监察委立案调查 月初尚在出席会议</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-16 15:51</t>
+          <t>11-16 17:22</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,600674,1247512404.html</t>
+          <t>/news,600674,1247535065.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>10.2万</t>
+          <t>5238</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>川投能源：公司董事长被立案调查</t>
+          <t>川投能源董事长刘体斌被四川省监察委员会立案调查及实施留置措施</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-16 15:48</t>
+          <t>11-16 16:31</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,600674,1247510787.html</t>
+          <t>/news,600674,1247520531.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>1257</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>川投能源11月15日获沪股通增持33.2万股</t>
+          <t>川投能源：公司董事长刘体斌被立案调查</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-16 07:54</t>
+          <t>11-16 15:51</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,600674,1247176211.html</t>
+          <t>/news,600674,1247512404.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>10.2万</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>264</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入129.5万元，融资余额6.84亿元（11-15）</t>
+          <t>川投能源：公司董事长被立案调查</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-16 07:27</t>
+          <t>11-16 15:48</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,600674,1247171748.html</t>
+          <t>/news,600674,1247510787.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>川投能源11月14日被沪股通减持38.11万股</t>
+          <t>川投能源11月15日获沪股通增持33.2万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-15 07:57</t>
+          <t>11-16 07:54</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,600674,1246691419.html</t>
+          <t>/news,600674,1247176211.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1186.56万元，融资余额6.83亿元（11-14）</t>
+          <t>川投能源：融资净买入129.5万元，融资余额6.84亿元（11-15）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,51 +2333,51 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-15 07:37</t>
+          <t>11-16 07:27</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,600674,1246688075.html</t>
+          <t>/news,600674,1247171748.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入2574.49万元，居电力行业板块第七</t>
+          <t>川投能源11月14日被沪股通减持38.11万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-13 15:07</t>
+          <t>11-15 07:57</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,600674,1246099606.html</t>
+          <t>/news,600674,1246691419.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,61 +2387,61 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加1350.02万元，居电力行业板块第二</t>
+          <t>川投能源：融资净买入1186.56万元，融资余额6.83亿元（11-14）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-13 14:10</t>
+          <t>11-15 07:37</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,600674,1246094601.html</t>
+          <t>/news,600674,1246688075.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>川投能源11月11日获沪股通增持90.7万股</t>
+          <t>川投能源本周融资净买入2574.49万元，居电力行业板块第七</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-12 07:43</t>
+          <t>11-13 15:07</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,600674,1245985827.html</t>
+          <t>/news,600674,1246099606.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,29 +2451,29 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还565.86万元，融资余额6.71亿元（11-11）</t>
+          <t>川投能源本周沪股通持股市值增加1350.02万元，居电力行业板块第二</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-12 07:31</t>
+          <t>11-13 14:10</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,600674,1245984248.html</t>
+          <t>/news,600674,1246094601.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>415</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>川投能源：连续4日融资净买入累计3140.35万元（11-10）</t>
+          <t>川投能源11月11日获沪股通增持90.7万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-11 07:37</t>
+          <t>11-12 07:43</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,600674,1245410017.html</t>
+          <t>/news,600674,1245985827.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>346</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>川投能源11月09日获沪股通增持22.29万股</t>
+          <t>川投能源：融资净偿还565.86万元，融资余额6.71亿元（11-11）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-10 07:39</t>
+          <t>11-12 07:31</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,600674,1244888907.html</t>
+          <t>/news,600674,1245984248.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净买入累计2307.22万元（11-09）</t>
+          <t>川投能源：连续4日融资净买入累计3140.35万元（11-10）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-10 07:27</t>
+          <t>11-11 07:37</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,600674,1244886962.html</t>
+          <t>/news,600674,1245410017.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1153.08万元，融资余额6.67亿元（11-08）</t>
+          <t>川投能源11月09日获沪股通增持22.29万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-09 07:31</t>
+          <t>11-10 07:39</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,600674,1244424771.html</t>
+          <t>/news,600674,1244888907.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>川投能源11月07日获沪股通增持11.99万股</t>
+          <t>川投能源：连续3日融资净买入累计2307.22万元（11-09）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-08 07:50</t>
+          <t>11-10 07:27</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,600674,1243974523.html</t>
+          <t>/news,600674,1244886962.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1002.96万元，融资余额6.55亿元（11-07）</t>
+          <t>川投能源：融资净买入1153.08万元，融资余额6.67亿元（11-08）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-08 07:29</t>
+          <t>11-09 07:31</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,600674,1243971057.html</t>
+          <t>/news,600674,1244424771.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>548</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>川投能源：公司及控股子公司之间的担保余额共计约2.89亿元</t>
+          <t>川投能源11月07日获沪股通增持11.99万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-07 16:50</t>
+          <t>11-08 07:50</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,600674,1243839821.html</t>
+          <t>/news,600674,1243974523.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>309</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,61 +2707,61 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>川投能源本周融资净偿还2823.08万元，居电力行业板块第二</t>
+          <t>川投能源：融资净买入1002.96万元，融资余额6.55亿元（11-07）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-06 15:20</t>
+          <t>11-08 07:29</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,600674,1243413079.html</t>
+          <t>/news,600674,1243971057.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>505</t>
+          <t>548</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>沪股通连续2周净卖出川投能源 累计净卖出6599.4万元</t>
+          <t>川投能源：公司及控股子公司之间的担保余额共计约2.89亿元</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-07 16:50</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,600674,1243404704.html</t>
+          <t>/news,600674,1243839821.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>503</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,61 +2771,61 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净偿还累计2571.62万元（11-04）</t>
+          <t>川投能源本周融资净偿还2823.08万元，居电力行业板块第二</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-05 07:40</t>
+          <t>11-06 15:20</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,600674,1243317219.html</t>
+          <t>/news,600674,1243413079.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>506</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>川投能源11月03日被沪股通减持82.42万股</t>
+          <t>沪股通连续2周净卖出川投能源 累计净卖出6599.4万元</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-04 07:47</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,600674,1242816855.html</t>
+          <t>/news,600674,1243404704.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>419</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还635.52万元，融资余额6.5亿元（11-03）</t>
+          <t>川投能源：连续3日融资净偿还累计2571.62万元（11-04）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-04 07:30</t>
+          <t>11-05 07:40</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,600674,1242813737.html</t>
+          <t>/news,600674,1243317219.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>502</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>川投能源11月02日被沪股通减持74万股</t>
+          <t>川投能源11月03日被沪股通减持82.42万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-04 07:47</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,600674,1242326355.html</t>
+          <t>/news,600674,1242816855.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还1427万元，融资余额6.57亿元（11-02）</t>
+          <t>川投能源：融资净偿还635.52万元，融资余额6.5亿元（11-03）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-03 07:29</t>
+          <t>11-04 07:30</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,600674,1242321485.html</t>
+          <t>/news,600674,1242813737.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>川投能源11月01日获沪股通增持51.68万股</t>
+          <t>川投能源11月02日被沪股通减持74万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-02 07:51</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,600674,1241801443.html</t>
+          <t>/news,600674,1242326355.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1119.71万元，融资余额6.71亿元（11-01）</t>
+          <t>川投能源：融资净偿还1427万元，融资余额6.57亿元（11-02）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-03 07:29</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,600674,1241800687.html</t>
+          <t>/news,600674,1242321485.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>川投能源10月31日被沪股通减持78.36万股</t>
+          <t>川投能源11月01日获沪股通增持51.68万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-01 07:52</t>
+          <t>11-02 07:51</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,600674,1241297048.html</t>
+          <t>/news,600674,1241801443.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/600674.xlsx
+++ b/news_ann/news/tmp/600674.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>川投能源12月05日获沪股通增持259.99万股</t>
+          <t>川投能源12月06日获沪股通增持122.84万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-06 07:46</t>
+          <t>12-07 07:45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,600674,1255447449.html</t>
+          <t>/news,600674,1256090361.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>141</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入9.89万元，融资余额6.3亿元（12-05）</t>
+          <t>川投能源：融资净买入455.01万元，融资余额6.35亿元（12-06）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,83 +509,83 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-06 07:32</t>
+          <t>12-07 07:30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,600674,1255444835.html</t>
+          <t>/news,600674,1256087792.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>川投能源本周融资净偿还2877.13万元，居电力行业板块第二</t>
+          <t>川投能源12月05日获沪股通增持259.99万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-04 15:10</t>
+          <t>12-06 07:46</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,600674,1254651475.html</t>
+          <t>/news,600674,1255447449.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加9169.91万元，居电力行业板块第三</t>
+          <t>川投能源：融资净买入9.89万元，融资余额6.3亿元（12-05）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-04 14:06</t>
+          <t>12-06 07:32</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,600674,1254643296.html</t>
+          <t>/news,600674,1255444835.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,29 +595,29 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>川投能源12月02日获沪股通增持149.45万股</t>
+          <t>川投能源本周融资净偿还2877.13万元，居电力行业板块第二</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-03 07:45</t>
+          <t>12-04 15:10</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,600674,1254511410.html</t>
+          <t>/news,600674,1254651475.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,29 +627,29 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还626.68万元，融资余额6.3亿元（12-02）</t>
+          <t>川投能源本周沪股通持股市值增加9169.91万元，居电力行业板块第三</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-03 07:33</t>
+          <t>12-04 14:06</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,600674,1254509618.html</t>
+          <t>/news,600674,1254643296.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>317</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>川投能源12月01日获沪股通增持142.44万股</t>
+          <t>川投能源12月02日获沪股通增持149.45万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-02 07:48</t>
+          <t>12-03 07:45</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,600674,1253912819.html</t>
+          <t>/news,600674,1254511410.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入246.77万元，融资余额6.36亿元（12-01）</t>
+          <t>川投能源：融资净偿还626.68万元，融资余额6.3亿元（12-02）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-02 07:27</t>
+          <t>12-03 07:33</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,600674,1253909709.html</t>
+          <t>/news,600674,1254509618.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1560</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>川投能源重大资产重组 拟斥资40亿购买大渡河公司10%股权</t>
+          <t>川投能源12月01日获沪股通增持142.44万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-02 05:56</t>
+          <t>12-02 07:48</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,600674,1253903819.html</t>
+          <t>/news,600674,1253912819.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还211.1万元，融资余额6.34亿元（11-30）</t>
+          <t>川投能源：融资净买入246.77万元，融资余额6.36亿元（12-01）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-01 07:53</t>
+          <t>12-02 07:27</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,600674,1253302219.html</t>
+          <t>/news,600674,1253909709.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>1601</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>川投能源11月30日获沪股通增持73.28万股</t>
+          <t>川投能源重大资产重组 拟斥资40亿购买大渡河公司10%股权</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-01 07:44</t>
+          <t>12-02 05:56</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,600674,1253300632.html</t>
+          <t>/news,600674,1253903819.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2102</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>川投能源重大资产重组：拟斥资40亿购买大渡河公司10%股权</t>
+          <t>川投能源：融资净偿还211.1万元，融资余额6.34亿元（11-30）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-30 22:16</t>
+          <t>12-01 07:53</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,600674,1253248684.html</t>
+          <t>/news,600674,1253302219.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>川投能源11月29日获沪股通增持89.6万股</t>
+          <t>川投能源11月30日获沪股通增持73.28万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-30 07:49</t>
+          <t>12-01 07:44</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,600674,1252778156.html</t>
+          <t>/news,600674,1253300632.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>2120</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入334.46万元，融资余额6.36亿元（11-29）</t>
+          <t>川投能源重大资产重组：拟斥资40亿购买大渡河公司10%股权</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-30 07:31</t>
+          <t>11-30 22:16</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,600674,1252774807.html</t>
+          <t>/news,600674,1253248684.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>川投能源11月28日获沪股通增持314.46万股</t>
+          <t>川投能源11月29日获沪股通增持89.6万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-29 07:53</t>
+          <t>11-30 07:49</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,600674,1252213632.html</t>
+          <t>/news,600674,1252778156.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>川投能源：连续7日融资净偿还累计9327.76万元（11-28）</t>
+          <t>川投能源：融资净买入334.46万元，融资余额6.36亿元（11-29）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-29 07:34</t>
+          <t>11-30 07:31</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,600674,1252209921.html</t>
+          <t>/news,600674,1252774807.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,29 +979,29 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>川投能源本周融资净偿还6465.31万元，居电力行业板块第三</t>
+          <t>川投能源11月28日获沪股通增持314.46万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-27 15:16</t>
+          <t>11-29 07:53</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,600674,1251592452.html</t>
+          <t>/news,600674,1252213632.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,29 +1011,29 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加4521.68万元，居电力行业板块第七</t>
+          <t>川投能源：连续7日融资净偿还累计9327.76万元（11-28）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-27 14:06</t>
+          <t>11-29 07:34</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,600674,1251584368.html</t>
+          <t>/news,600674,1252209921.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,29 +1043,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>川投能源11月25日获沪股通增持59.2万股</t>
+          <t>川投能源本周融资净偿还6465.31万元，居电力行业板块第三</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-26 07:46</t>
+          <t>11-27 15:16</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,600674,1251433134.html</t>
+          <t>/news,600674,1251592452.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,29 +1075,29 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>川投能源：连续6日融资净偿还累计6707.18万元（11-25）</t>
+          <t>川投能源本周沪股通持股市值增加4521.68万元，居电力行业板块第七</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-26 07:33</t>
+          <t>11-27 14:06</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,600674,1251430980.html</t>
+          <t>/news,600674,1251584368.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>川投能源11月24日获沪股通增持65.52万股</t>
+          <t>川投能源11月25日获沪股通增持59.2万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-25 07:39</t>
+          <t>11-26 07:46</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,600674,1250940834.html</t>
+          <t>/news,600674,1251433134.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>346</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>川投能源：连续5日融资净偿还累计5040.75万元（11-24）</t>
+          <t>川投能源：连续6日融资净偿还累计6707.18万元（11-25）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,51 +1149,51 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-25 07:29</t>
+          <t>11-26 07:33</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,600674,1250938811.html</t>
+          <t>/news,600674,1251430980.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
+          <t>川投能源11月24日获沪股通增持65.52万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-24 20:21</t>
+          <t>11-25 07:39</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,600674,1250810423.html</t>
+          <t>/news,600674,1250940834.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>川投能源：公司目前采用纸质合同 未采用电子合同</t>
+          <t>川投能源：连续5日融资净偿还累计5040.75万元（11-24）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,51 +1213,51 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-24 15:09</t>
+          <t>11-25 07:29</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,600674,1250736533.html</t>
+          <t>/news,600674,1250938811.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>554</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>川投能源：公司暂时未建立财务共享中心 已经建立了资金结算中心</t>
+          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-24 15:09</t>
+          <t>11-24 20:21</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,600674,1250736338.html</t>
+          <t>/news,600674,1250810423.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>497</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>川投能源：公司目前暂无增发计划</t>
+          <t>川投能源：公司目前采用纸质合同 未采用电子合同</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1282,14 +1282,14 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,600674,1250736534.html</t>
+          <t>/news,600674,1250736533.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>川投能源11月23日获沪股通增持82.83万股</t>
+          <t>川投能源：公司暂时未建立财务共享中心 已经建立了资金结算中心</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-24 07:45</t>
+          <t>11-24 15:09</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,600674,1250419050.html</t>
+          <t>/news,600674,1250736338.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>川投能源：连续4日融资净偿还累计3490.94万元（11-23）</t>
+          <t>川投能源：公司目前暂无增发计划</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-24 07:32</t>
+          <t>11-24 15:09</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,600674,1250416668.html</t>
+          <t>/news,600674,1250736534.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1694</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>川投能源：以40.13亿元成功竞买国能大渡河10%股权</t>
+          <t>川投能源11月23日获沪股通增持82.83万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-23 22:02</t>
+          <t>11-24 07:45</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,600674,1250328863.html</t>
+          <t>/news,600674,1250419050.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>683</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>川投能源：40.13亿元竞得国能大渡河10%股权</t>
+          <t>川投能源：连续4日融资净偿还累计3490.94万元（11-23）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-23 18:05</t>
+          <t>11-24 07:32</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,600674,1250258012.html</t>
+          <t>/news,600674,1250416668.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>1699</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>川投能源：40.13亿元竞得国能大渡河流域水电开发公司10%股权</t>
+          <t>川投能源：以40.13亿元成功竞买国能大渡河10%股权</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-23 17:53</t>
+          <t>11-23 22:02</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,600674,1250253648.html</t>
+          <t>/news,600674,1250328863.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>684</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>川投能源：拟以40亿元竞买国能大渡河10%股权</t>
+          <t>川投能源：40.13亿元竞得国能大渡河10%股权</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-23 17:36</t>
+          <t>11-23 18:05</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,600674,1250249217.html</t>
+          <t>/news,600674,1250258012.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>650</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>川投能源11月22日获沪股通增持203.5万股</t>
+          <t>川投能源：40.13亿元竞得国能大渡河流域水电开发公司10%股权</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-23 07:50</t>
+          <t>11-23 17:53</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,600674,1249875641.html</t>
+          <t>/news,600674,1250253648.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净偿还累计2567.8万元（11-22）</t>
+          <t>川投能源：拟以40亿元竞买国能大渡河10%股权</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-23 07:30</t>
+          <t>11-23 17:36</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,600674,1249872043.html</t>
+          <t>/news,600674,1250249217.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>川投能源11月21日被沪股通减持24.87万股</t>
+          <t>川投能源11月22日获沪股通增持203.5万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-22 07:53</t>
+          <t>11-23 07:50</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,600674,1249348966.html</t>
+          <t>/news,600674,1249875641.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还49.55万元，融资余额7.23亿元（11-21）</t>
+          <t>川投能源：连续3日融资净偿还累计2567.8万元（11-22）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-22 07:38</t>
+          <t>11-23 07:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,600674,1249346246.html</t>
+          <t>/news,600674,1249872043.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,29 +1619,29 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入5281.47万元，居电力行业板块第四</t>
+          <t>川投能源11月21日被沪股通减持24.87万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-20 15:07</t>
+          <t>11-22 07:53</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,600674,1248769419.html</t>
+          <t>/news,600674,1249348966.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,29 +1651,29 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加1158.71万元，居电力行业板块第七</t>
+          <t>川投能源：融资净偿还49.55万元，融资余额7.23亿元（11-21）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-20 14:07</t>
+          <t>11-22 07:38</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,600674,1248763255.html</t>
+          <t>/news,600674,1249346246.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>430</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,29 +1683,29 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>川投能源11月18日获沪股通增持47.68万股</t>
+          <t>川投能源本周融资净买入5281.47万元，居电力行业板块第四</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-19 07:50</t>
+          <t>11-20 15:07</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,600674,1248638273.html</t>
+          <t>/news,600674,1248769419.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,39 +1715,39 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还241.87万元，融资余额7.24亿元（11-18）</t>
+          <t>川投能源本周沪股通持股市值增加1158.71万元，居电力行业板块第七</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-19 07:30</t>
+          <t>11-20 14:07</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,600674,1248635633.html</t>
+          <t>/news,600674,1248763255.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2343</t>
+          <t>510</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>500亿元A股董事长被查！川投能源净利润超总营收2倍引关注 投资比主业还赚钱？</t>
+          <t>川投能源11月18日获沪股通增持47.68万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-18 21:34</t>
+          <t>11-19 07:50</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,600674,1248594560.html</t>
+          <t>/news,600674,1248638273.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>川投能源11月17日获沪股通增持36.02万股</t>
+          <t>川投能源：融资净偿还241.87万元，融资余额7.24亿元（11-18）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-18 07:42</t>
+          <t>11-19 07:30</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,600674,1248151786.html</t>
+          <t>/news,600674,1248635633.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>2348</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>川投能源：连续4日融资净买入累计5523.34万元（11-17）</t>
+          <t>500亿元A股董事长被查！川投能源净利润超总营收2倍引关注 投资比主业还赚钱？</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-18 07:33</t>
+          <t>11-18 21:34</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,600674,1248150190.html</t>
+          <t>/news,600674,1248594560.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2123</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>现任董事长又被查 川投能源四任“掌门”接连落马</t>
+          <t>川投能源11月17日获沪股通增持36.02万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-17 21:50</t>
+          <t>11-18 07:42</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,600674,1248097891.html</t>
+          <t>/news,600674,1248151786.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>22887</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>510亿A股公司董事长被查！月初刚公开现身 发生了什么？多家券商提示“谨慎推荐”</t>
+          <t>川投能源：连续4日融资净买入累计5523.34万元（11-17）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-17 08:14</t>
+          <t>11-18 07:33</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,600674,1247671546.html</t>
+          <t>/news,600674,1248150190.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>2127</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净买入累计1632.03万元（11-16）</t>
+          <t>现任董事长又被查 川投能源四任“掌门”接连落马</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-17 07:46</t>
+          <t>11-17 21:50</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,600674,1247666990.html</t>
+          <t>/news,600674,1248097891.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>22890</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>川投能源11月16日获沪股通增持23.2万股</t>
+          <t>510亿A股公司董事长被查！月初刚公开现身 发生了什么？多家券商提示“谨慎推荐”</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-17 07:31</t>
+          <t>11-17 08:14</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,600674,1247664225.html</t>
+          <t>/news,600674,1247671546.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2830</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>川投能源董事长刘体斌遭立案调查：执掌川投集团3年半 历任长虹系多家上市公司董事长</t>
+          <t>川投能源：连续3日融资净买入累计1632.03万元（11-16）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-17 07:19</t>
+          <t>11-17 07:46</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,600674,1247663799.html</t>
+          <t>/news,600674,1247666990.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1563</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>川投集团董事长刘体斌被立案调查</t>
+          <t>川投能源11月16日获沪股通增持23.2万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-17 06:27</t>
+          <t>11-17 07:31</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,600674,1247658204.html</t>
+          <t>/news,600674,1247664225.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2388</t>
+          <t>2833</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>突发！上市公司董事长被立案调查</t>
+          <t>川投能源董事长刘体斌遭立案调查：执掌川投集团3年半 历任长虹系多家上市公司董事长</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-16 22:26</t>
+          <t>11-17 07:19</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,600674,1247612569.html</t>
+          <t>/news,600674,1247663799.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1269</t>
+          <t>1567</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>川投能源董事长刘体斌被立案调查</t>
+          <t>川投集团董事长刘体斌被立案调查</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-16 22:06</t>
+          <t>11-17 06:27</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,600674,1247606433.html</t>
+          <t>/news,600674,1247658204.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1795</t>
+          <t>2392</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>突发！500亿A股董事长被立案调查</t>
+          <t>突发！上市公司董事长被立案调查</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-16 19:20</t>
+          <t>11-16 22:26</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,600674,1247560692.html</t>
+          <t>/news,600674,1247612569.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2690</t>
+          <t>1272</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>川投能源董事长刘体斌被立案调查 曾担任多家四川上市公司一把手</t>
+          <t>川投能源董事长刘体斌被立案调查</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-16 18:27</t>
+          <t>11-16 22:06</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,600674,1247548359.html</t>
+          <t>/news,600674,1247606433.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1437</t>
+          <t>1797</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>川投集团董事长刘体斌被四川省监察委立案调查 月初尚在出席会议</t>
+          <t>突发！500亿A股董事长被立案调查</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-16 17:22</t>
+          <t>11-16 19:20</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,600674,1247535065.html</t>
+          <t>/news,600674,1247560692.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>5238</t>
+          <t>2691</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>川投能源董事长刘体斌被四川省监察委员会立案调查及实施留置措施</t>
+          <t>川投能源董事长刘体斌被立案调查 曾担任多家四川上市公司一把手</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-16 16:31</t>
+          <t>11-16 18:27</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,600674,1247520531.html</t>
+          <t>/news,600674,1247548359.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1257</t>
+          <t>1438</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>川投能源：公司董事长刘体斌被立案调查</t>
+          <t>川投集团董事长刘体斌被四川省监察委立案调查 月初尚在出席会议</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-16 15:51</t>
+          <t>11-16 17:22</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,600674,1247512404.html</t>
+          <t>/news,600674,1247535065.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>10.2万</t>
+          <t>5239</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>川投能源：公司董事长被立案调查</t>
+          <t>川投能源董事长刘体斌被四川省监察委员会立案调查及实施留置措施</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-16 15:48</t>
+          <t>11-16 16:31</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,600674,1247510787.html</t>
+          <t>/news,600674,1247520531.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>1257</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>川投能源11月15日获沪股通增持33.2万股</t>
+          <t>川投能源：公司董事长刘体斌被立案调查</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-16 07:54</t>
+          <t>11-16 15:51</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,600674,1247176211.html</t>
+          <t>/news,600674,1247512404.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>10.2万</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>264</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入129.5万元，融资余额6.84亿元（11-15）</t>
+          <t>川投能源：公司董事长被立案调查</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-16 07:27</t>
+          <t>11-16 15:48</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,600674,1247171748.html</t>
+          <t>/news,600674,1247510787.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>川投能源11月14日被沪股通减持38.11万股</t>
+          <t>川投能源11月15日获沪股通增持33.2万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-15 07:57</t>
+          <t>11-16 07:54</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,600674,1246691419.html</t>
+          <t>/news,600674,1247176211.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1186.56万元，融资余额6.83亿元（11-14）</t>
+          <t>川投能源：融资净买入129.5万元，融资余额6.84亿元（11-15）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,51 +2397,51 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-15 07:37</t>
+          <t>11-16 07:27</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,600674,1246688075.html</t>
+          <t>/news,600674,1247171748.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入2574.49万元，居电力行业板块第七</t>
+          <t>川投能源11月14日被沪股通减持38.11万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-13 15:07</t>
+          <t>11-15 07:57</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,600674,1246099606.html</t>
+          <t>/news,600674,1246691419.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,61 +2451,61 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加1350.02万元，居电力行业板块第二</t>
+          <t>川投能源：融资净买入1186.56万元，融资余额6.83亿元（11-14）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-13 14:10</t>
+          <t>11-15 07:37</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,600674,1246094601.html</t>
+          <t>/news,600674,1246688075.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>川投能源11月11日获沪股通增持90.7万股</t>
+          <t>川投能源本周融资净买入2574.49万元，居电力行业板块第七</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-12 07:43</t>
+          <t>11-13 15:07</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,600674,1245985827.html</t>
+          <t>/news,600674,1246099606.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,29 +2515,29 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还565.86万元，融资余额6.71亿元（11-11）</t>
+          <t>川投能源本周沪股通持股市值增加1350.02万元，居电力行业板块第二</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-12 07:31</t>
+          <t>11-13 14:10</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,600674,1245984248.html</t>
+          <t>/news,600674,1246094601.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>415</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>川投能源：连续4日融资净买入累计3140.35万元（11-10）</t>
+          <t>川投能源11月11日获沪股通增持90.7万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-11 07:37</t>
+          <t>11-12 07:43</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,600674,1245410017.html</t>
+          <t>/news,600674,1245985827.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>346</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>川投能源11月09日获沪股通增持22.29万股</t>
+          <t>川投能源：融资净偿还565.86万元，融资余额6.71亿元（11-11）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-10 07:39</t>
+          <t>11-12 07:31</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,600674,1244888907.html</t>
+          <t>/news,600674,1245984248.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净买入累计2307.22万元（11-09）</t>
+          <t>川投能源：连续4日融资净买入累计3140.35万元（11-10）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-10 07:27</t>
+          <t>11-11 07:37</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,600674,1244886962.html</t>
+          <t>/news,600674,1245410017.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1153.08万元，融资余额6.67亿元（11-08）</t>
+          <t>川投能源11月09日获沪股通增持22.29万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-09 07:31</t>
+          <t>11-10 07:39</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,600674,1244424771.html</t>
+          <t>/news,600674,1244888907.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>川投能源11月07日获沪股通增持11.99万股</t>
+          <t>川投能源：连续3日融资净买入累计2307.22万元（11-09）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-08 07:50</t>
+          <t>11-10 07:27</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,600674,1243974523.html</t>
+          <t>/news,600674,1244886962.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1002.96万元，融资余额6.55亿元（11-07）</t>
+          <t>川投能源：融资净买入1153.08万元，融资余额6.67亿元（11-08）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-08 07:29</t>
+          <t>11-09 07:31</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,600674,1243971057.html</t>
+          <t>/news,600674,1244424771.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>548</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>川投能源：公司及控股子公司之间的担保余额共计约2.89亿元</t>
+          <t>川投能源11月07日获沪股通增持11.99万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-07 16:50</t>
+          <t>11-08 07:50</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,600674,1243839821.html</t>
+          <t>/news,600674,1243974523.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>309</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,61 +2771,61 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>川投能源本周融资净偿还2823.08万元，居电力行业板块第二</t>
+          <t>川投能源：融资净买入1002.96万元，融资余额6.55亿元（11-07）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-06 15:20</t>
+          <t>11-08 07:29</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,600674,1243413079.html</t>
+          <t>/news,600674,1243971057.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>506</t>
+          <t>550</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>沪股通连续2周净卖出川投能源 累计净卖出6599.4万元</t>
+          <t>川投能源：公司及控股子公司之间的担保余额共计约2.89亿元</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-07 16:50</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,600674,1243404704.html</t>
+          <t>/news,600674,1243839821.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>503</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,61 +2835,61 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净偿还累计2571.62万元（11-04）</t>
+          <t>川投能源本周融资净偿还2823.08万元，居电力行业板块第二</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-05 07:40</t>
+          <t>11-06 15:20</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,600674,1243317219.html</t>
+          <t>/news,600674,1243413079.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>506</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>川投能源11月03日被沪股通减持82.42万股</t>
+          <t>沪股通连续2周净卖出川投能源 累计净卖出6599.4万元</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-04 07:47</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,600674,1242816855.html</t>
+          <t>/news,600674,1243404704.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>419</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还635.52万元，融资余额6.5亿元（11-03）</t>
+          <t>川投能源：连续3日融资净偿还累计2571.62万元（11-04）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-04 07:30</t>
+          <t>11-05 07:40</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,600674,1242813737.html</t>
+          <t>/news,600674,1243317219.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>502</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>川投能源11月02日被沪股通减持74万股</t>
+          <t>川投能源11月03日被沪股通减持82.42万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-04 07:47</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,600674,1242326355.html</t>
+          <t>/news,600674,1242816855.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还1427万元，融资余额6.57亿元（11-02）</t>
+          <t>川投能源：融资净偿还635.52万元，融资余额6.5亿元（11-03）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-03 07:29</t>
+          <t>11-04 07:30</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,600674,1242321485.html</t>
+          <t>/news,600674,1242813737.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>川投能源11月01日获沪股通增持51.68万股</t>
+          <t>川投能源11月02日被沪股通减持74万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-02 07:51</t>
+          <t>11-03 07:55</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,600674,1241801443.html</t>
+          <t>/news,600674,1242326355.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/600674.xlsx
+++ b/news_ann/news/tmp/600674.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>川投能源12月06日获沪股通增持122.84万股</t>
+          <t>川投能源12月07日获沪股通增持39.36万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-07 07:45</t>
+          <t>12-08 07:46</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,600674,1256090361.html</t>
+          <t>/news,600674,1256755252.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>142</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入455.01万元，融资余额6.35亿元（12-06）</t>
+          <t>川投能源：连续3日融资净买入累计1707.59万元（12-07）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-07 07:30</t>
+          <t>12-08 07:41</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,600674,1256087792.html</t>
+          <t>/news,600674,1256754367.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>618</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>川投能源12月05日获沪股通增持259.99万股</t>
+          <t>川投能源：两河口和杨房沟水电站已全部投产</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-06 07:46</t>
+          <t>12-07 14:48</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,600674,1255447449.html</t>
+          <t>/news,600674,1256480700.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入9.89万元，融资余额6.3亿元（12-05）</t>
+          <t>川投能源：公司暂无定增计划</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,51 +573,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-06 07:32</t>
+          <t>12-07 14:48</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,600674,1255444835.html</t>
+          <t>/news,600674,1256480070.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>400</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>川投能源本周融资净偿还2877.13万元，居电力行业板块第二</t>
+          <t>川投能源：公司可转债目前未满足强赎条件</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-04 15:10</t>
+          <t>12-07 14:48</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,600674,1254651475.html</t>
+          <t>/news,600674,1256480702.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,29 +627,29 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加9169.91万元，居电力行业板块第三</t>
+          <t>川投能源12月06日获沪股通增持122.84万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-04 14:06</t>
+          <t>12-07 07:45</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,600674,1254643296.html</t>
+          <t>/news,600674,1256090361.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>川投能源12月02日获沪股通增持149.45万股</t>
+          <t>川投能源：融资净买入455.01万元，融资余额6.35亿元（12-06）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-03 07:45</t>
+          <t>12-07 07:30</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,600674,1254511410.html</t>
+          <t>/news,600674,1256087792.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还626.68万元，融资余额6.3亿元（12-02）</t>
+          <t>川投能源12月05日获沪股通增持259.99万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-03 07:33</t>
+          <t>12-06 07:46</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,600674,1254509618.html</t>
+          <t>/news,600674,1255447449.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>川投能源12月01日获沪股通增持142.44万股</t>
+          <t>川投能源：融资净买入9.89万元，融资余额6.3亿元（12-05）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-02 07:48</t>
+          <t>12-06 07:32</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,600674,1253912819.html</t>
+          <t>/news,600674,1255444835.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,61 +755,61 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入246.77万元，融资余额6.36亿元（12-01）</t>
+          <t>川投能源本周融资净偿还2877.13万元，居电力行业板块第二</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-02 07:27</t>
+          <t>12-04 15:10</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,600674,1253909709.html</t>
+          <t>/news,600674,1254651475.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1601</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>川投能源重大资产重组 拟斥资40亿购买大渡河公司10%股权</t>
+          <t>川投能源本周沪股通持股市值增加9169.91万元，居电力行业板块第三</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-02 05:56</t>
+          <t>12-04 14:06</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,600674,1253903819.html</t>
+          <t>/news,600674,1254643296.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>328</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还211.1万元，融资余额6.34亿元（11-30）</t>
+          <t>川投能源12月02日获沪股通增持149.45万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-01 07:53</t>
+          <t>12-03 07:45</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,600674,1253302219.html</t>
+          <t>/news,600674,1254511410.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>川投能源11月30日获沪股通增持73.28万股</t>
+          <t>川投能源：融资净偿还626.68万元，融资余额6.3亿元（12-02）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-01 07:44</t>
+          <t>12-03 07:33</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,600674,1253300632.html</t>
+          <t>/news,600674,1254509618.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2120</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>川投能源重大资产重组：拟斥资40亿购买大渡河公司10%股权</t>
+          <t>川投能源12月01日获沪股通增持142.44万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-30 22:16</t>
+          <t>12-02 07:48</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,600674,1253248684.html</t>
+          <t>/news,600674,1253912819.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>川投能源11月29日获沪股通增持89.6万股</t>
+          <t>川投能源：融资净买入246.77万元，融资余额6.36亿元（12-01）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-30 07:49</t>
+          <t>12-02 07:27</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,600674,1252778156.html</t>
+          <t>/news,600674,1253909709.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>1629</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入334.46万元，融资余额6.36亿元（11-29）</t>
+          <t>川投能源重大资产重组 拟斥资40亿购买大渡河公司10%股权</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-30 07:31</t>
+          <t>12-02 05:56</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,600674,1252774807.html</t>
+          <t>/news,600674,1253903819.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>川投能源11月28日获沪股通增持314.46万股</t>
+          <t>川投能源：融资净偿还211.1万元，融资余额6.34亿元（11-30）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-29 07:53</t>
+          <t>12-01 07:53</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,600674,1252213632.html</t>
+          <t>/news,600674,1253302219.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>川投能源：连续7日融资净偿还累计9327.76万元（11-28）</t>
+          <t>川投能源11月30日获沪股通增持73.28万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,51 +1021,51 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-29 07:34</t>
+          <t>12-01 07:44</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,600674,1252209921.html</t>
+          <t>/news,600674,1253300632.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>2136</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>川投能源本周融资净偿还6465.31万元，居电力行业板块第三</t>
+          <t>川投能源重大资产重组：拟斥资40亿购买大渡河公司10%股权</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-27 15:16</t>
+          <t>11-30 22:16</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,600674,1251592452.html</t>
+          <t>/news,600674,1253248684.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,29 +1075,29 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加4521.68万元，居电力行业板块第七</t>
+          <t>川投能源11月29日获沪股通增持89.6万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-27 14:06</t>
+          <t>11-30 07:49</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,600674,1251584368.html</t>
+          <t>/news,600674,1252778156.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>川投能源11月25日获沪股通增持59.2万股</t>
+          <t>川投能源：融资净买入334.46万元，融资余额6.36亿元（11-29）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-26 07:46</t>
+          <t>11-30 07:31</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,600674,1251433134.html</t>
+          <t>/news,600674,1252774807.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>川投能源：连续6日融资净偿还累计6707.18万元（11-25）</t>
+          <t>川投能源11月28日获沪股通增持314.46万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-26 07:33</t>
+          <t>11-29 07:53</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,600674,1251430980.html</t>
+          <t>/news,600674,1252213632.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>川投能源11月24日获沪股通增持65.52万股</t>
+          <t>川投能源：连续7日融资净偿还累计9327.76万元（11-28）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-25 07:39</t>
+          <t>11-29 07:34</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,600674,1250940834.html</t>
+          <t>/news,600674,1252209921.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,61 +1203,61 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>川投能源：连续5日融资净偿还累计5040.75万元（11-24）</t>
+          <t>川投能源本周融资净偿还6465.31万元，居电力行业板块第三</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-25 07:29</t>
+          <t>11-27 15:16</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,600674,1250938811.html</t>
+          <t>/news,600674,1251592452.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
+          <t>川投能源本周沪股通持股市值增加4521.68万元，居电力行业板块第七</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-24 20:21</t>
+          <t>11-27 14:06</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,600674,1250810423.html</t>
+          <t>/news,600674,1251584368.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>川投能源：公司目前采用纸质合同 未采用电子合同</t>
+          <t>川投能源11月25日获沪股通增持59.2万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-24 15:09</t>
+          <t>11-26 07:46</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,600674,1250736533.html</t>
+          <t>/news,600674,1251433134.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>川投能源：公司暂时未建立财务共享中心 已经建立了资金结算中心</t>
+          <t>川投能源：连续6日融资净偿还累计6707.18万元（11-25）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-24 15:09</t>
+          <t>11-26 07:33</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,600674,1250736338.html</t>
+          <t>/news,600674,1251430980.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>川投能源：公司目前暂无增发计划</t>
+          <t>川投能源11月24日获沪股通增持65.52万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-24 15:09</t>
+          <t>11-25 07:39</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,600674,1250736534.html</t>
+          <t>/news,600674,1250940834.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>川投能源11月23日获沪股通增持82.83万股</t>
+          <t>川投能源：连续5日融资净偿还累计5040.75万元（11-24）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,61 +1373,61 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-24 07:45</t>
+          <t>11-25 07:29</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,600674,1250419050.html</t>
+          <t>/news,600674,1250938811.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>562</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>川投能源：连续4日融资净偿还累计3490.94万元（11-23）</t>
+          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-24 07:32</t>
+          <t>11-24 20:21</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,600674,1250416668.html</t>
+          <t>/news,600674,1250810423.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1699</t>
+          <t>501</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>川投能源：以40.13亿元成功竞买国能大渡河10%股权</t>
+          <t>川投能源：公司目前采用纸质合同 未采用电子合同</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-23 22:02</t>
+          <t>11-24 15:09</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,600674,1250328863.html</t>
+          <t>/news,600674,1250736533.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>684</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>川投能源：40.13亿元竞得国能大渡河10%股权</t>
+          <t>川投能源：公司暂时未建立财务共享中心 已经建立了资金结算中心</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-23 18:05</t>
+          <t>11-24 15:09</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,600674,1250258012.html</t>
+          <t>/news,600674,1250736338.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>407</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>川投能源：40.13亿元竞得国能大渡河流域水电开发公司10%股权</t>
+          <t>川投能源：公司目前暂无增发计划</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-23 17:53</t>
+          <t>11-24 15:09</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,600674,1250253648.html</t>
+          <t>/news,600674,1250736534.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>川投能源：拟以40亿元竞买国能大渡河10%股权</t>
+          <t>川投能源11月23日获沪股通增持82.83万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-23 17:36</t>
+          <t>11-24 07:45</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,600674,1250249217.html</t>
+          <t>/news,600674,1250419050.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>川投能源11月22日获沪股通增持203.5万股</t>
+          <t>川投能源：连续4日融资净偿还累计3490.94万元（11-23）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-23 07:50</t>
+          <t>11-24 07:32</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,600674,1249875641.html</t>
+          <t>/news,600674,1250416668.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>1713</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净偿还累计2567.8万元（11-22）</t>
+          <t>川投能源：以40.13亿元成功竞买国能大渡河10%股权</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-23 07:30</t>
+          <t>11-23 22:02</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,600674,1249872043.html</t>
+          <t>/news,600674,1250328863.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>690</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>川投能源11月21日被沪股通减持24.87万股</t>
+          <t>川投能源：40.13亿元竞得国能大渡河10%股权</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-22 07:53</t>
+          <t>11-23 18:05</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,600674,1249348966.html</t>
+          <t>/news,600674,1250258012.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>655</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还49.55万元，融资余额7.23亿元（11-21）</t>
+          <t>川投能源：40.13亿元竞得国能大渡河流域水电开发公司10%股权</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,51 +1661,51 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-22 07:38</t>
+          <t>11-23 17:53</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,600674,1249346246.html</t>
+          <t>/news,600674,1250253648.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>2031</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入5281.47万元，居电力行业板块第四</t>
+          <t>川投能源：拟以40亿元竞买国能大渡河10%股权</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-20 15:07</t>
+          <t>11-23 17:36</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,600674,1248769419.html</t>
+          <t>/news,600674,1250249217.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,29 +1715,29 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加1158.71万元，居电力行业板块第七</t>
+          <t>川投能源11月22日获沪股通增持203.5万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-20 14:07</t>
+          <t>11-23 07:50</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,600674,1248763255.html</t>
+          <t>/news,600674,1249875641.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>川投能源11月18日获沪股通增持47.68万股</t>
+          <t>川投能源：连续3日融资净偿还累计2567.8万元（11-22）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-19 07:50</t>
+          <t>11-23 07:30</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,600674,1248638273.html</t>
+          <t>/news,600674,1249872043.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还241.87万元，融资余额7.24亿元（11-18）</t>
+          <t>川投能源11月21日被沪股通减持24.87万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-19 07:30</t>
+          <t>11-22 07:53</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,600674,1248635633.html</t>
+          <t>/news,600674,1249348966.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2348</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>500亿元A股董事长被查！川投能源净利润超总营收2倍引关注 投资比主业还赚钱？</t>
+          <t>川投能源：融资净偿还49.55万元，融资余额7.23亿元（11-21）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-18 21:34</t>
+          <t>11-22 07:38</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,600674,1248594560.html</t>
+          <t>/news,600674,1249346246.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>432</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,29 +1843,29 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>川投能源11月17日获沪股通增持36.02万股</t>
+          <t>川投能源本周融资净买入5281.47万元，居电力行业板块第四</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-18 07:42</t>
+          <t>11-20 15:07</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,600674,1248151786.html</t>
+          <t>/news,600674,1248769419.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>384</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,39 +1875,39 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>川投能源：连续4日融资净买入累计5523.34万元（11-17）</t>
+          <t>川投能源本周沪股通持股市值增加1158.71万元，居电力行业板块第七</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-18 07:33</t>
+          <t>11-20 14:07</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,600674,1248150190.html</t>
+          <t>/news,600674,1248763255.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2127</t>
+          <t>518</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>现任董事长又被查 川投能源四任“掌门”接连落马</t>
+          <t>川投能源11月18日获沪股通增持47.68万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-17 21:50</t>
+          <t>11-19 07:50</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,600674,1248097891.html</t>
+          <t>/news,600674,1248638273.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>22890</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>510亿A股公司董事长被查！月初刚公开现身 发生了什么？多家券商提示“谨慎推荐”</t>
+          <t>川投能源：融资净偿还241.87万元，融资余额7.24亿元（11-18）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-17 08:14</t>
+          <t>11-19 07:30</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,600674,1247671546.html</t>
+          <t>/news,600674,1248635633.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>2350</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净买入累计1632.03万元（11-16）</t>
+          <t>500亿元A股董事长被查！川投能源净利润超总营收2倍引关注 投资比主业还赚钱？</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-17 07:46</t>
+          <t>11-18 21:34</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,600674,1247666990.html</t>
+          <t>/news,600674,1248594560.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>川投能源11月16日获沪股通增持23.2万股</t>
+          <t>川投能源11月17日获沪股通增持36.02万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-17 07:31</t>
+          <t>11-18 07:42</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,600674,1247664225.html</t>
+          <t>/news,600674,1248151786.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2833</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>川投能源董事长刘体斌遭立案调查：执掌川投集团3年半 历任长虹系多家上市公司董事长</t>
+          <t>川投能源：连续4日融资净买入累计5523.34万元（11-17）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-17 07:19</t>
+          <t>11-18 07:33</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,600674,1247663799.html</t>
+          <t>/news,600674,1248150190.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1567</t>
+          <t>2134</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>川投集团董事长刘体斌被立案调查</t>
+          <t>现任董事长又被查 川投能源四任“掌门”接连落马</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-17 06:27</t>
+          <t>11-17 21:50</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,600674,1247658204.html</t>
+          <t>/news,600674,1248097891.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2392</t>
+          <t>22897</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>突发！上市公司董事长被立案调查</t>
+          <t>510亿A股公司董事长被查！月初刚公开现身 发生了什么？多家券商提示“谨慎推荐”</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-16 22:26</t>
+          <t>11-17 08:14</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,600674,1247612569.html</t>
+          <t>/news,600674,1247671546.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1272</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>川投能源董事长刘体斌被立案调查</t>
+          <t>川投能源：连续3日融资净买入累计1632.03万元（11-16）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-16 22:06</t>
+          <t>11-17 07:46</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,600674,1247606433.html</t>
+          <t>/news,600674,1247666990.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1797</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>突发！500亿A股董事长被立案调查</t>
+          <t>川投能源11月16日获沪股通增持23.2万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-16 19:20</t>
+          <t>11-17 07:31</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,600674,1247560692.html</t>
+          <t>/news,600674,1247664225.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2691</t>
+          <t>2838</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>川投能源董事长刘体斌被立案调查 曾担任多家四川上市公司一把手</t>
+          <t>川投能源董事长刘体斌遭立案调查：执掌川投集团3年半 历任长虹系多家上市公司董事长</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-16 18:27</t>
+          <t>11-17 07:19</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,600674,1247548359.html</t>
+          <t>/news,600674,1247663799.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1438</t>
+          <t>1568</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>川投集团董事长刘体斌被四川省监察委立案调查 月初尚在出席会议</t>
+          <t>川投集团董事长刘体斌被立案调查</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-16 17:22</t>
+          <t>11-17 06:27</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,600674,1247535065.html</t>
+          <t>/news,600674,1247658204.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>5239</t>
+          <t>2395</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>川投能源董事长刘体斌被四川省监察委员会立案调查及实施留置措施</t>
+          <t>突发！上市公司董事长被立案调查</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-16 16:31</t>
+          <t>11-16 22:26</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,600674,1247520531.html</t>
+          <t>/news,600674,1247612569.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1257</t>
+          <t>1275</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>川投能源：公司董事长刘体斌被立案调查</t>
+          <t>川投能源董事长刘体斌被立案调查</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-16 15:51</t>
+          <t>11-16 22:06</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,600674,1247512404.html</t>
+          <t>/news,600674,1247606433.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>10.2万</t>
+          <t>1799</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>川投能源：公司董事长被立案调查</t>
+          <t>突发！500亿A股董事长被立案调查</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-16 15:48</t>
+          <t>11-16 19:20</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,600674,1247510787.html</t>
+          <t>/news,600674,1247560692.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>2693</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>川投能源11月15日获沪股通增持33.2万股</t>
+          <t>川投能源董事长刘体斌被立案调查 曾担任多家四川上市公司一把手</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-16 07:54</t>
+          <t>11-16 18:27</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,600674,1247176211.html</t>
+          <t>/news,600674,1247548359.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>1443</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入129.5万元，融资余额6.84亿元（11-15）</t>
+          <t>川投集团董事长刘体斌被四川省监察委立案调查 月初尚在出席会议</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-16 07:27</t>
+          <t>11-16 17:22</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,600674,1247171748.html</t>
+          <t>/news,600674,1247535065.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>5241</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>川投能源11月14日被沪股通减持38.11万股</t>
+          <t>川投能源董事长刘体斌被四川省监察委员会立案调查及实施留置措施</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-15 07:57</t>
+          <t>11-16 16:31</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,600674,1246691419.html</t>
+          <t>/news,600674,1247520531.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>1260</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1186.56万元，融资余额6.83亿元（11-14）</t>
+          <t>川投能源：公司董事长刘体斌被立案调查</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,51 +2461,51 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-15 07:37</t>
+          <t>11-16 15:51</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,600674,1246688075.html</t>
+          <t>/news,600674,1247512404.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>10.2万</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>264</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入2574.49万元，居电力行业板块第七</t>
+          <t>川投能源：公司董事长被立案调查</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-13 15:07</t>
+          <t>11-16 15:48</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,600674,1246099606.html</t>
+          <t>/news,600674,1247510787.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,29 +2515,29 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加1350.02万元，居电力行业板块第二</t>
+          <t>川投能源11月15日获沪股通增持33.2万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-13 14:10</t>
+          <t>11-16 07:54</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,600674,1246094601.html</t>
+          <t>/news,600674,1247176211.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>川投能源11月11日获沪股通增持90.7万股</t>
+          <t>川投能源：融资净买入129.5万元，融资余额6.84亿元（11-15）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-12 07:43</t>
+          <t>11-16 07:27</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,600674,1245985827.html</t>
+          <t>/news,600674,1247171748.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还565.86万元，融资余额6.71亿元（11-11）</t>
+          <t>川投能源11月14日被沪股通减持38.11万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-12 07:31</t>
+          <t>11-15 07:57</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,600674,1245984248.html</t>
+          <t>/news,600674,1246691419.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>川投能源：连续4日融资净买入累计3140.35万元（11-10）</t>
+          <t>川投能源：融资净买入1186.56万元，融资余额6.83亿元（11-14）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,51 +2621,51 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-11 07:37</t>
+          <t>11-15 07:37</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,600674,1245410017.html</t>
+          <t>/news,600674,1246688075.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>川投能源11月09日获沪股通增持22.29万股</t>
+          <t>川投能源本周融资净买入2574.49万元，居电力行业板块第七</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-10 07:39</t>
+          <t>11-13 15:07</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,600674,1244888907.html</t>
+          <t>/news,600674,1246099606.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,29 +2675,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净买入累计2307.22万元（11-09）</t>
+          <t>川投能源本周沪股通持股市值增加1350.02万元，居电力行业板块第二</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-10 07:27</t>
+          <t>11-13 14:10</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,600674,1244886962.html</t>
+          <t>/news,600674,1246094601.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>415</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1153.08万元，融资余额6.67亿元（11-08）</t>
+          <t>川投能源11月11日获沪股通增持90.7万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-09 07:31</t>
+          <t>11-12 07:43</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,600674,1244424771.html</t>
+          <t>/news,600674,1245985827.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>346</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>川投能源11月07日获沪股通增持11.99万股</t>
+          <t>川投能源：融资净偿还565.86万元，融资余额6.71亿元（11-11）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-08 07:50</t>
+          <t>11-12 07:31</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,600674,1243974523.html</t>
+          <t>/news,600674,1245984248.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1002.96万元，融资余额6.55亿元（11-07）</t>
+          <t>川投能源：连续4日融资净买入累计3140.35万元（11-10）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-08 07:29</t>
+          <t>11-11 07:37</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,600674,1243971057.html</t>
+          <t>/news,600674,1245410017.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>川投能源：公司及控股子公司之间的担保余额共计约2.89亿元</t>
+          <t>川投能源11月09日获沪股通增持22.29万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-07 16:50</t>
+          <t>11-10 07:39</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,600674,1243839821.html</t>
+          <t>/news,600674,1244888907.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,29 +2835,29 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>川投能源本周融资净偿还2823.08万元，居电力行业板块第二</t>
+          <t>川投能源：连续3日融资净买入累计2307.22万元（11-09）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-06 15:20</t>
+          <t>11-10 07:27</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,600674,1243413079.html</t>
+          <t>/news,600674,1244886962.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>506</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,29 +2867,29 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>沪股通连续2周净卖出川投能源 累计净卖出6599.4万元</t>
+          <t>川投能源：融资净买入1153.08万元，融资余额6.67亿元（11-08）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-09 07:31</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,600674,1243404704.html</t>
+          <t>/news,600674,1244424771.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净偿还累计2571.62万元（11-04）</t>
+          <t>川投能源11月07日获沪股通增持11.99万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-05 07:40</t>
+          <t>11-08 07:50</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,600674,1243317219.html</t>
+          <t>/news,600674,1243974523.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>川投能源11月03日被沪股通减持82.42万股</t>
+          <t>川投能源：融资净买入1002.96万元，融资余额6.55亿元（11-07）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-04 07:47</t>
+          <t>11-08 07:29</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,600674,1242816855.html</t>
+          <t>/news,600674,1243971057.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>550</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还635.52万元，融资余额6.5亿元（11-03）</t>
+          <t>川投能源：公司及控股子公司之间的担保余额共计约2.89亿元</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-04 07:30</t>
+          <t>11-07 16:50</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,600674,1242813737.html</t>
+          <t>/news,600674,1243839821.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>503</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>川投能源11月02日被沪股通减持74万股</t>
+          <t>川投能源本周融资净偿还2823.08万元，居电力行业板块第二</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-03 07:55</t>
+          <t>11-06 15:20</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,600674,1242326355.html</t>
+          <t>/news,600674,1243413079.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/600674.xlsx
+++ b/news_ann/news/tmp/600674.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>川投能源12月07日获沪股通增持39.36万股</t>
+          <t>川投能源12月08日被沪股通减持163.8万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-08 07:46</t>
+          <t>12-09 07:44</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,600674,1256755252.html</t>
+          <t>/news,600674,1257391868.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>133</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净买入累计1707.59万元（12-07）</t>
+          <t>川投能源：连续4日融资净买入累计2794.28万元（12-08）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-08 07:41</t>
+          <t>12-09 07:35</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,600674,1256754367.html</t>
+          <t>/news,600674,1257390220.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>618</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>川投能源：两河口和杨房沟水电站已全部投产</t>
+          <t>川投能源12月07日获沪股通增持39.36万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-07 14:48</t>
+          <t>12-08 07:46</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,600674,1256480700.html</t>
+          <t>/news,600674,1256755252.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>川投能源：公司暂无定增计划</t>
+          <t>川投能源：连续3日融资净买入累计1707.59万元（12-07）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-07 14:48</t>
+          <t>12-08 07:41</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,600674,1256480070.html</t>
+          <t>/news,600674,1256754367.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>699</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>川投能源：公司可转债目前未满足强赎条件</t>
+          <t>川投能源：两河口和杨房沟水电站已全部投产</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,24 +610,24 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,600674,1256480702.html</t>
+          <t>/news,600674,1256480700.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>川投能源12月06日获沪股通增持122.84万股</t>
+          <t>川投能源：公司暂无定增计划</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-07 07:45</t>
+          <t>12-07 14:48</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,600674,1256090361.html</t>
+          <t>/news,600674,1256480070.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>470</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入455.01万元，融资余额6.35亿元（12-06）</t>
+          <t>川投能源：公司可转债目前未满足强赎条件</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-07 07:30</t>
+          <t>12-07 14:48</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,600674,1256087792.html</t>
+          <t>/news,600674,1256480702.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>川投能源12月05日获沪股通增持259.99万股</t>
+          <t>川投能源12月06日获沪股通增持122.84万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-06 07:46</t>
+          <t>12-07 07:45</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,600674,1255447449.html</t>
+          <t>/news,600674,1256090361.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入9.89万元，融资余额6.3亿元（12-05）</t>
+          <t>川投能源：融资净买入455.01万元，融资余额6.35亿元（12-06）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,83 +733,83 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-06 07:32</t>
+          <t>12-07 07:30</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,600674,1255444835.html</t>
+          <t>/news,600674,1256087792.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>川投能源本周融资净偿还2877.13万元，居电力行业板块第二</t>
+          <t>川投能源12月05日获沪股通增持259.99万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-04 15:10</t>
+          <t>12-06 07:46</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,600674,1254651475.html</t>
+          <t>/news,600674,1255447449.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加9169.91万元，居电力行业板块第三</t>
+          <t>川投能源：融资净买入9.89万元，融资余额6.3亿元（12-05）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-04 14:06</t>
+          <t>12-06 07:32</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,600674,1254643296.html</t>
+          <t>/news,600674,1255444835.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,29 +819,29 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>川投能源12月02日获沪股通增持149.45万股</t>
+          <t>川投能源本周融资净偿还2877.13万元，居电力行业板块第二</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-03 07:45</t>
+          <t>12-04 15:10</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,600674,1254511410.html</t>
+          <t>/news,600674,1254651475.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,29 +851,29 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还626.68万元，融资余额6.3亿元（12-02）</t>
+          <t>川投能源本周沪股通持股市值增加9169.91万元，居电力行业板块第三</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-03 07:33</t>
+          <t>12-04 14:06</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,600674,1254509618.html</t>
+          <t>/news,600674,1254643296.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>川投能源12月01日获沪股通增持142.44万股</t>
+          <t>川投能源12月02日获沪股通增持149.45万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-02 07:48</t>
+          <t>12-03 07:45</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,600674,1253912819.html</t>
+          <t>/news,600674,1254511410.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入246.77万元，融资余额6.36亿元（12-01）</t>
+          <t>川投能源：融资净偿还626.68万元，融资余额6.3亿元（12-02）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-02 07:27</t>
+          <t>12-03 07:33</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,600674,1253909709.html</t>
+          <t>/news,600674,1254509618.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1629</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>川投能源重大资产重组 拟斥资40亿购买大渡河公司10%股权</t>
+          <t>川投能源12月01日获沪股通增持142.44万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-02 05:56</t>
+          <t>12-02 07:48</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,600674,1253903819.html</t>
+          <t>/news,600674,1253912819.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还211.1万元，融资余额6.34亿元（11-30）</t>
+          <t>川投能源：融资净买入246.77万元，融资余额6.36亿元（12-01）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-01 07:53</t>
+          <t>12-02 07:27</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,600674,1253302219.html</t>
+          <t>/news,600674,1253909709.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>1645</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>川投能源11月30日获沪股通增持73.28万股</t>
+          <t>川投能源重大资产重组 拟斥资40亿购买大渡河公司10%股权</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-01 07:44</t>
+          <t>12-02 05:56</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,600674,1253300632.html</t>
+          <t>/news,600674,1253903819.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2136</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>川投能源重大资产重组：拟斥资40亿购买大渡河公司10%股权</t>
+          <t>川投能源：融资净偿还211.1万元，融资余额6.34亿元（11-30）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-30 22:16</t>
+          <t>12-01 07:53</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,600674,1253248684.html</t>
+          <t>/news,600674,1253302219.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>川投能源11月29日获沪股通增持89.6万股</t>
+          <t>川投能源11月30日获沪股通增持73.28万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-30 07:49</t>
+          <t>12-01 07:44</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,600674,1252778156.html</t>
+          <t>/news,600674,1253300632.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>2143</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入334.46万元，融资余额6.36亿元（11-29）</t>
+          <t>川投能源重大资产重组：拟斥资40亿购买大渡河公司10%股权</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-30 07:31</t>
+          <t>11-30 22:16</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,600674,1252774807.html</t>
+          <t>/news,600674,1253248684.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>川投能源11月28日获沪股通增持314.46万股</t>
+          <t>川投能源11月29日获沪股通增持89.6万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-29 07:53</t>
+          <t>11-30 07:49</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,600674,1252213632.html</t>
+          <t>/news,600674,1252778156.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>川投能源：连续7日融资净偿还累计9327.76万元（11-28）</t>
+          <t>川投能源：融资净买入334.46万元，融资余额6.36亿元（11-29）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-29 07:34</t>
+          <t>11-30 07:31</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,600674,1252209921.html</t>
+          <t>/news,600674,1252774807.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,29 +1203,29 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>川投能源本周融资净偿还6465.31万元，居电力行业板块第三</t>
+          <t>川投能源11月28日获沪股通增持314.46万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-27 15:16</t>
+          <t>11-29 07:53</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,600674,1251592452.html</t>
+          <t>/news,600674,1252213632.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,29 +1235,29 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加4521.68万元，居电力行业板块第七</t>
+          <t>川投能源：连续7日融资净偿还累计9327.76万元（11-28）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-27 14:06</t>
+          <t>11-29 07:34</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,600674,1251584368.html</t>
+          <t>/news,600674,1252209921.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,29 +1267,29 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>川投能源11月25日获沪股通增持59.2万股</t>
+          <t>川投能源本周融资净偿还6465.31万元，居电力行业板块第三</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-26 07:46</t>
+          <t>11-27 15:16</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,600674,1251433134.html</t>
+          <t>/news,600674,1251592452.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>334</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,29 +1299,29 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>川投能源：连续6日融资净偿还累计6707.18万元（11-25）</t>
+          <t>川投能源本周沪股通持股市值增加4521.68万元，居电力行业板块第七</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-26 07:33</t>
+          <t>11-27 14:06</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,600674,1251430980.html</t>
+          <t>/news,600674,1251584368.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>川投能源11月24日获沪股通增持65.52万股</t>
+          <t>川投能源11月25日获沪股通增持59.2万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-25 07:39</t>
+          <t>11-26 07:46</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,600674,1250940834.html</t>
+          <t>/news,600674,1251433134.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>川投能源：连续5日融资净偿还累计5040.75万元（11-24）</t>
+          <t>川投能源：连续6日融资净偿还累计6707.18万元（11-25）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,51 +1373,51 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-25 07:29</t>
+          <t>11-26 07:33</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,600674,1250938811.html</t>
+          <t>/news,600674,1251430980.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
+          <t>川投能源11月24日获沪股通增持65.52万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-24 20:21</t>
+          <t>11-25 07:39</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,600674,1250810423.html</t>
+          <t>/news,600674,1250940834.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>川投能源：公司目前采用纸质合同 未采用电子合同</t>
+          <t>川投能源：连续5日融资净偿还累计5040.75万元（11-24）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,51 +1437,51 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-24 15:09</t>
+          <t>11-25 07:29</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,600674,1250736533.html</t>
+          <t>/news,600674,1250938811.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>563</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>川投能源：公司暂时未建立财务共享中心 已经建立了资金结算中心</t>
+          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-24 15:09</t>
+          <t>11-24 20:21</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,600674,1250736338.html</t>
+          <t>/news,600674,1250810423.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>502</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>川投能源：公司目前暂无增发计划</t>
+          <t>川投能源：公司目前采用纸质合同 未采用电子合同</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1506,14 +1506,14 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,600674,1250736534.html</t>
+          <t>/news,600674,1250736533.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>川投能源11月23日获沪股通增持82.83万股</t>
+          <t>川投能源：公司暂时未建立财务共享中心 已经建立了资金结算中心</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-24 07:45</t>
+          <t>11-24 15:09</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,600674,1250419050.html</t>
+          <t>/news,600674,1250736338.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>408</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>川投能源：连续4日融资净偿还累计3490.94万元（11-23）</t>
+          <t>川投能源：公司目前暂无增发计划</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-24 07:32</t>
+          <t>11-24 15:09</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,600674,1250416668.html</t>
+          <t>/news,600674,1250736534.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1713</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>川投能源：以40.13亿元成功竞买国能大渡河10%股权</t>
+          <t>川投能源11月23日获沪股通增持82.83万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-23 22:02</t>
+          <t>11-24 07:45</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,600674,1250328863.html</t>
+          <t>/news,600674,1250419050.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>690</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>川投能源：40.13亿元竞得国能大渡河10%股权</t>
+          <t>川投能源：连续4日融资净偿还累计3490.94万元（11-23）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-23 18:05</t>
+          <t>11-24 07:32</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,600674,1250258012.html</t>
+          <t>/news,600674,1250416668.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>655</t>
+          <t>1717</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>川投能源：40.13亿元竞得国能大渡河流域水电开发公司10%股权</t>
+          <t>川投能源：以40.13亿元成功竞买国能大渡河10%股权</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-23 17:53</t>
+          <t>11-23 22:02</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,600674,1250253648.html</t>
+          <t>/news,600674,1250328863.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2031</t>
+          <t>692</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>川投能源：拟以40亿元竞买国能大渡河10%股权</t>
+          <t>川投能源：40.13亿元竞得国能大渡河10%股权</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-23 17:36</t>
+          <t>11-23 18:05</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,600674,1250249217.html</t>
+          <t>/news,600674,1250258012.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>656</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>川投能源11月22日获沪股通增持203.5万股</t>
+          <t>川投能源：40.13亿元竞得国能大渡河流域水电开发公司10%股权</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-23 07:50</t>
+          <t>11-23 17:53</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,600674,1249875641.html</t>
+          <t>/news,600674,1250253648.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>2034</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净偿还累计2567.8万元（11-22）</t>
+          <t>川投能源：拟以40亿元竞买国能大渡河10%股权</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-23 07:30</t>
+          <t>11-23 17:36</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,600674,1249872043.html</t>
+          <t>/news,600674,1250249217.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>川投能源11月21日被沪股通减持24.87万股</t>
+          <t>川投能源11月22日获沪股通增持203.5万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-22 07:53</t>
+          <t>11-23 07:50</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,600674,1249348966.html</t>
+          <t>/news,600674,1249875641.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还49.55万元，融资余额7.23亿元（11-21）</t>
+          <t>川投能源：连续3日融资净偿还累计2567.8万元（11-22）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-22 07:38</t>
+          <t>11-23 07:30</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,600674,1249346246.html</t>
+          <t>/news,600674,1249872043.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,29 +1843,29 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入5281.47万元，居电力行业板块第四</t>
+          <t>川投能源11月21日被沪股通减持24.87万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-20 15:07</t>
+          <t>11-22 07:53</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,600674,1248769419.html</t>
+          <t>/news,600674,1249348966.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,29 +1875,29 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加1158.71万元，居电力行业板块第七</t>
+          <t>川投能源：融资净偿还49.55万元，融资余额7.23亿元（11-21）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-20 14:07</t>
+          <t>11-22 07:38</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,600674,1248763255.html</t>
+          <t>/news,600674,1249346246.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>518</t>
+          <t>433</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,29 +1907,29 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>川投能源11月18日获沪股通增持47.68万股</t>
+          <t>川投能源本周融资净买入5281.47万元，居电力行业板块第四</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-19 07:50</t>
+          <t>11-20 15:07</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,600674,1248638273.html</t>
+          <t>/news,600674,1248769419.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>385</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,39 +1939,39 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还241.87万元，融资余额7.24亿元（11-18）</t>
+          <t>川投能源本周沪股通持股市值增加1158.71万元，居电力行业板块第七</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-19 07:30</t>
+          <t>11-20 14:07</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,600674,1248635633.html</t>
+          <t>/news,600674,1248763255.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2350</t>
+          <t>521</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>500亿元A股董事长被查！川投能源净利润超总营收2倍引关注 投资比主业还赚钱？</t>
+          <t>川投能源11月18日获沪股通增持47.68万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-18 21:34</t>
+          <t>11-19 07:50</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,600674,1248594560.html</t>
+          <t>/news,600674,1248638273.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>川投能源11月17日获沪股通增持36.02万股</t>
+          <t>川投能源：融资净偿还241.87万元，融资余额7.24亿元（11-18）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-18 07:42</t>
+          <t>11-19 07:30</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,600674,1248151786.html</t>
+          <t>/news,600674,1248635633.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>2353</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>川投能源：连续4日融资净买入累计5523.34万元（11-17）</t>
+          <t>500亿元A股董事长被查！川投能源净利润超总营收2倍引关注 投资比主业还赚钱？</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-18 07:33</t>
+          <t>11-18 21:34</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,600674,1248150190.html</t>
+          <t>/news,600674,1248594560.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2134</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>现任董事长又被查 川投能源四任“掌门”接连落马</t>
+          <t>川投能源11月17日获沪股通增持36.02万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-17 21:50</t>
+          <t>11-18 07:42</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,600674,1248097891.html</t>
+          <t>/news,600674,1248151786.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>22897</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>510亿A股公司董事长被查！月初刚公开现身 发生了什么？多家券商提示“谨慎推荐”</t>
+          <t>川投能源：连续4日融资净买入累计5523.34万元（11-17）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-17 08:14</t>
+          <t>11-18 07:33</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,600674,1247671546.html</t>
+          <t>/news,600674,1248150190.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>2137</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净买入累计1632.03万元（11-16）</t>
+          <t>现任董事长又被查 川投能源四任“掌门”接连落马</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-17 07:46</t>
+          <t>11-17 21:50</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,600674,1247666990.html</t>
+          <t>/news,600674,1248097891.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>22900</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>川投能源11月16日获沪股通增持23.2万股</t>
+          <t>510亿A股公司董事长被查！月初刚公开现身 发生了什么？多家券商提示“谨慎推荐”</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-17 07:31</t>
+          <t>11-17 08:14</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,600674,1247664225.html</t>
+          <t>/news,600674,1247671546.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2838</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>川投能源董事长刘体斌遭立案调查：执掌川投集团3年半 历任长虹系多家上市公司董事长</t>
+          <t>川投能源：连续3日融资净买入累计1632.03万元（11-16）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-17 07:19</t>
+          <t>11-17 07:46</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,600674,1247663799.html</t>
+          <t>/news,600674,1247666990.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1568</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>川投集团董事长刘体斌被立案调查</t>
+          <t>川投能源11月16日获沪股通增持23.2万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-17 06:27</t>
+          <t>11-17 07:31</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,600674,1247658204.html</t>
+          <t>/news,600674,1247664225.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2395</t>
+          <t>2843</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>突发！上市公司董事长被立案调查</t>
+          <t>川投能源董事长刘体斌遭立案调查：执掌川投集团3年半 历任长虹系多家上市公司董事长</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-16 22:26</t>
+          <t>11-17 07:19</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,600674,1247612569.html</t>
+          <t>/news,600674,1247663799.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1275</t>
+          <t>1569</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>川投能源董事长刘体斌被立案调查</t>
+          <t>川投集团董事长刘体斌被立案调查</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-16 22:06</t>
+          <t>11-17 06:27</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,600674,1247606433.html</t>
+          <t>/news,600674,1247658204.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1799</t>
+          <t>2401</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>突发！500亿A股董事长被立案调查</t>
+          <t>突发！上市公司董事长被立案调查</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-16 19:20</t>
+          <t>11-16 22:26</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,600674,1247560692.html</t>
+          <t>/news,600674,1247612569.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2693</t>
+          <t>1278</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>川投能源董事长刘体斌被立案调查 曾担任多家四川上市公司一把手</t>
+          <t>川投能源董事长刘体斌被立案调查</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-16 18:27</t>
+          <t>11-16 22:06</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,600674,1247548359.html</t>
+          <t>/news,600674,1247606433.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1443</t>
+          <t>1800</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>川投集团董事长刘体斌被四川省监察委立案调查 月初尚在出席会议</t>
+          <t>突发！500亿A股董事长被立案调查</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-16 17:22</t>
+          <t>11-16 19:20</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,600674,1247535065.html</t>
+          <t>/news,600674,1247560692.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>5241</t>
+          <t>2698</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>川投能源董事长刘体斌被四川省监察委员会立案调查及实施留置措施</t>
+          <t>川投能源董事长刘体斌被立案调查 曾担任多家四川上市公司一把手</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-16 16:31</t>
+          <t>11-16 18:27</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,600674,1247520531.html</t>
+          <t>/news,600674,1247548359.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1260</t>
+          <t>1444</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>川投能源：公司董事长刘体斌被立案调查</t>
+          <t>川投集团董事长刘体斌被四川省监察委立案调查 月初尚在出席会议</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-16 15:51</t>
+          <t>11-16 17:22</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,600674,1247512404.html</t>
+          <t>/news,600674,1247535065.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>10.2万</t>
+          <t>5242</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>川投能源：公司董事长被立案调查</t>
+          <t>川投能源董事长刘体斌被四川省监察委员会立案调查及实施留置措施</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-16 15:48</t>
+          <t>11-16 16:31</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,600674,1247510787.html</t>
+          <t>/news,600674,1247520531.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>1261</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>川投能源11月15日获沪股通增持33.2万股</t>
+          <t>川投能源：公司董事长刘体斌被立案调查</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-16 07:54</t>
+          <t>11-16 15:51</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,600674,1247176211.html</t>
+          <t>/news,600674,1247512404.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>10.2万</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>264</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入129.5万元，融资余额6.84亿元（11-15）</t>
+          <t>川投能源：公司董事长被立案调查</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-16 07:27</t>
+          <t>11-16 15:48</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,600674,1247171748.html</t>
+          <t>/news,600674,1247510787.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>川投能源11月14日被沪股通减持38.11万股</t>
+          <t>川投能源11月15日获沪股通增持33.2万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-15 07:57</t>
+          <t>11-16 07:54</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,600674,1246691419.html</t>
+          <t>/news,600674,1247176211.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1186.56万元，融资余额6.83亿元（11-14）</t>
+          <t>川投能源：融资净买入129.5万元，融资余额6.84亿元（11-15）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,51 +2621,51 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-15 07:37</t>
+          <t>11-16 07:27</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,600674,1246688075.html</t>
+          <t>/news,600674,1247171748.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入2574.49万元，居电力行业板块第七</t>
+          <t>川投能源11月14日被沪股通减持38.11万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-13 15:07</t>
+          <t>11-15 07:57</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,600674,1246099606.html</t>
+          <t>/news,600674,1246691419.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,61 +2675,61 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加1350.02万元，居电力行业板块第二</t>
+          <t>川投能源：融资净买入1186.56万元，融资余额6.83亿元（11-14）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-13 14:10</t>
+          <t>11-15 07:37</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,600674,1246094601.html</t>
+          <t>/news,600674,1246688075.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>川投能源11月11日获沪股通增持90.7万股</t>
+          <t>川投能源本周融资净买入2574.49万元，居电力行业板块第七</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-12 07:43</t>
+          <t>11-13 15:07</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,600674,1245985827.html</t>
+          <t>/news,600674,1246099606.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,29 +2739,29 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还565.86万元，融资余额6.71亿元（11-11）</t>
+          <t>川投能源本周沪股通持股市值增加1350.02万元，居电力行业板块第二</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-12 07:31</t>
+          <t>11-13 14:10</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,600674,1245984248.html</t>
+          <t>/news,600674,1246094601.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>415</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>川投能源：连续4日融资净买入累计3140.35万元（11-10）</t>
+          <t>川投能源11月11日获沪股通增持90.7万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-11 07:37</t>
+          <t>11-12 07:43</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,600674,1245410017.html</t>
+          <t>/news,600674,1245985827.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>346</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>川投能源11月09日获沪股通增持22.29万股</t>
+          <t>川投能源：融资净偿还565.86万元，融资余额6.71亿元（11-11）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-10 07:39</t>
+          <t>11-12 07:31</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,600674,1244888907.html</t>
+          <t>/news,600674,1245984248.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净买入累计2307.22万元（11-09）</t>
+          <t>川投能源：连续4日融资净买入累计3140.35万元（11-10）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-10 07:27</t>
+          <t>11-11 07:37</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,600674,1244886962.html</t>
+          <t>/news,600674,1245410017.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1153.08万元，融资余额6.67亿元（11-08）</t>
+          <t>川投能源11月09日获沪股通增持22.29万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-09 07:31</t>
+          <t>11-10 07:39</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,600674,1244424771.html</t>
+          <t>/news,600674,1244888907.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>川投能源11月07日获沪股通增持11.99万股</t>
+          <t>川投能源：连续3日融资净买入累计2307.22万元（11-09）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-08 07:50</t>
+          <t>11-10 07:27</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,600674,1243974523.html</t>
+          <t>/news,600674,1244886962.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>328</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1002.96万元，融资余额6.55亿元（11-07）</t>
+          <t>川投能源：融资净买入1153.08万元，融资余额6.67亿元（11-08）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-08 07:29</t>
+          <t>11-09 07:31</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,600674,1243971057.html</t>
+          <t>/news,600674,1244424771.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>川投能源：公司及控股子公司之间的担保余额共计约2.89亿元</t>
+          <t>川投能源11月07日获沪股通增持11.99万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-07 16:50</t>
+          <t>11-08 07:50</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,600674,1243839821.html</t>
+          <t>/news,600674,1243974523.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>川投能源本周融资净偿还2823.08万元，居电力行业板块第二</t>
+          <t>川投能源：融资净买入1002.96万元，融资余额6.55亿元（11-07）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-06 15:20</t>
+          <t>11-08 07:29</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,600674,1243413079.html</t>
+          <t>/news,600674,1243971057.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/600674.xlsx
+++ b/news_ann/news/tmp/600674.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,29 +467,29 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>川投能源12月08日被沪股通减持163.8万股</t>
+          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-09 07:44</t>
+          <t>12-12 12:52</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,600674,1257391868.html</t>
+          <t>/news,600674,1258406178.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,29 +499,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>川投能源：连续4日融资净买入累计2794.28万元（12-08）</t>
+          <t>川投能源本周融资净买入2937.31万元，居电力行业板块第九</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-09 07:35</t>
+          <t>12-11 15:08</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,600674,1257390220.html</t>
+          <t>/news,600674,1258089959.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,29 +531,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>川投能源12月07日获沪股通增持39.36万股</t>
+          <t>川投能源本周沪股通持股市值减少8549.24万元，居电力行业板块第六</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-08 07:46</t>
+          <t>12-11 14:09</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,600674,1256755252.html</t>
+          <t>/news,600674,1258082546.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净买入累计1707.59万元（12-07）</t>
+          <t>川投能源12月09日被沪股通减持1006.07万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-08 07:41</t>
+          <t>12-10 07:46</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,600674,1256754367.html</t>
+          <t>/news,600674,1257964002.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>699</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>川投能源：两河口和杨房沟水电站已全部投产</t>
+          <t>川投能源：连续5日融资净买入累计2937.31万元（12-09）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-07 14:48</t>
+          <t>12-10 07:32</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,600674,1256480700.html</t>
+          <t>/news,600674,1257962007.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>840</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>川投能源：公司暂无定增计划</t>
+          <t>四川川投能源股份有限公司十一届十二次监事会决议公告</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-07 14:48</t>
+          <t>12-10 01:44</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,600674,1256480070.html</t>
+          <t>/news,600674,1257943802.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>470</t>
+          <t>947</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>川投能源：公司可转债目前未满足强赎条件</t>
+          <t>四川川投能源股份有限公司十一届十二次董事会决议公告</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-07 14:48</t>
+          <t>12-10 01:44</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,600674,1256480702.html</t>
+          <t>/news,600674,1257943774.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>726</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>川投能源12月06日获沪股通增持122.84万股</t>
+          <t>四川川投能源股份有限公司关于不提前赎回“川投转债”的公告</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-07 07:45</t>
+          <t>12-10 01:44</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,600674,1256090361.html</t>
+          <t>/news,600674,1257943773.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>868</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入455.01万元，融资余额6.35亿元（12-06）</t>
+          <t>四川川投能源股份有限公司关于变更持续督导保荐代表人的公告</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-07 07:30</t>
+          <t>12-10 01:44</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,600674,1256087792.html</t>
+          <t>/news,600674,1257943772.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>535</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>川投能源12月05日获沪股通增持259.99万股</t>
+          <t>川投能源：董事会决定不提前赎回“川投转债”</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-06 07:46</t>
+          <t>12-09 16:57</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,600674,1255447449.html</t>
+          <t>/news,600674,1257796216.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入9.89万元，融资余额6.3亿元（12-05）</t>
+          <t>川投能源12月08日被沪股通减持163.8万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-06 07:32</t>
+          <t>12-09 07:44</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,600674,1255444835.html</t>
+          <t>/news,600674,1257391868.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,29 +819,29 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>川投能源本周融资净偿还2877.13万元，居电力行业板块第二</t>
+          <t>川投能源：连续4日融资净买入累计2794.28万元（12-08）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-04 15:10</t>
+          <t>12-09 07:35</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,600674,1254651475.html</t>
+          <t>/news,600674,1257390220.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,29 +851,29 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加9169.91万元，居电力行业板块第三</t>
+          <t>川投能源12月07日获沪股通增持39.36万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-04 14:06</t>
+          <t>12-08 07:46</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,600674,1254643296.html</t>
+          <t>/news,600674,1256755252.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>川投能源12月02日获沪股通增持149.45万股</t>
+          <t>川投能源：连续3日融资净买入累计1707.59万元（12-07）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-03 07:45</t>
+          <t>12-08 07:41</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,600674,1254511410.html</t>
+          <t>/news,600674,1256754367.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>934</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还626.68万元，融资余额6.3亿元（12-02）</t>
+          <t>川投能源：两河口和杨房沟水电站已全部投产</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-03 07:33</t>
+          <t>12-07 14:48</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,600674,1254509618.html</t>
+          <t>/news,600674,1256480700.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>417</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>川投能源12月01日获沪股通增持142.44万股</t>
+          <t>川投能源：公司暂无定增计划</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-02 07:48</t>
+          <t>12-07 14:48</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,600674,1253912819.html</t>
+          <t>/news,600674,1256480070.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入246.77万元，融资余额6.36亿元（12-01）</t>
+          <t>川投能源：公司可转债目前未满足强赎条件</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-02 07:27</t>
+          <t>12-07 14:48</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,600674,1253909709.html</t>
+          <t>/news,600674,1256480702.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1645</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>川投能源重大资产重组 拟斥资40亿购买大渡河公司10%股权</t>
+          <t>川投能源12月06日获沪股通增持122.84万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-02 05:56</t>
+          <t>12-07 07:45</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,600674,1253903819.html</t>
+          <t>/news,600674,1256090361.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还211.1万元，融资余额6.34亿元（11-30）</t>
+          <t>川投能源：融资净买入455.01万元，融资余额6.35亿元（12-06）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-01 07:53</t>
+          <t>12-07 07:30</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,600674,1253302219.html</t>
+          <t>/news,600674,1256087792.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>327</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>川投能源11月30日获沪股通增持73.28万股</t>
+          <t>川投能源12月05日获沪股通增持259.99万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-01 07:44</t>
+          <t>12-06 07:46</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,600674,1253300632.html</t>
+          <t>/news,600674,1255447449.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2143</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>川投能源重大资产重组：拟斥资40亿购买大渡河公司10%股权</t>
+          <t>川投能源：融资净买入9.89万元，融资余额6.3亿元（12-05）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-30 22:16</t>
+          <t>12-06 07:32</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,600674,1253248684.html</t>
+          <t>/news,600674,1255444835.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,29 +1139,29 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>川投能源11月29日获沪股通增持89.6万股</t>
+          <t>川投能源本周融资净偿还2877.13万元，居电力行业板块第二</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-30 07:49</t>
+          <t>12-04 15:10</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,600674,1252778156.html</t>
+          <t>/news,600674,1254651475.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,29 +1171,29 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入334.46万元，融资余额6.36亿元（11-29）</t>
+          <t>川投能源本周沪股通持股市值增加9169.91万元，居电力行业板块第三</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-30 07:31</t>
+          <t>12-04 14:06</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,600674,1252774807.html</t>
+          <t>/news,600674,1254643296.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>川投能源11月28日获沪股通增持314.46万股</t>
+          <t>川投能源12月02日获沪股通增持149.45万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-29 07:53</t>
+          <t>12-03 07:45</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,600674,1252213632.html</t>
+          <t>/news,600674,1254511410.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>川投能源：连续7日融资净偿还累计9327.76万元（11-28）</t>
+          <t>川投能源：融资净偿还626.68万元，融资余额6.3亿元（12-02）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-29 07:34</t>
+          <t>12-03 07:33</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,600674,1252209921.html</t>
+          <t>/news,600674,1254509618.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,29 +1267,29 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>川投能源本周融资净偿还6465.31万元，居电力行业板块第三</t>
+          <t>川投能源12月01日获沪股通增持142.44万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-27 15:16</t>
+          <t>12-02 07:48</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,600674,1251592452.html</t>
+          <t>/news,600674,1253912819.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,39 +1299,39 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加4521.68万元，居电力行业板块第七</t>
+          <t>川投能源：融资净买入246.77万元，融资余额6.36亿元（12-01）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-27 14:06</t>
+          <t>12-02 07:27</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,600674,1251584368.html</t>
+          <t>/news,600674,1253909709.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>1678</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>川投能源11月25日获沪股通增持59.2万股</t>
+          <t>川投能源重大资产重组 拟斥资40亿购买大渡河公司10%股权</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-26 07:46</t>
+          <t>12-02 05:56</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,600674,1251433134.html</t>
+          <t>/news,600674,1253903819.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>川投能源：连续6日融资净偿还累计6707.18万元（11-25）</t>
+          <t>川投能源：融资净偿还211.1万元，融资余额6.34亿元（11-30）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-26 07:33</t>
+          <t>12-01 07:53</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,600674,1251430980.html</t>
+          <t>/news,600674,1253302219.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>川投能源11月24日获沪股通增持65.52万股</t>
+          <t>川投能源11月30日获沪股通增持73.28万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-25 07:39</t>
+          <t>12-01 07:44</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,600674,1250940834.html</t>
+          <t>/news,600674,1253300632.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>2166</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>川投能源：连续5日融资净偿还累计5040.75万元（11-24）</t>
+          <t>川投能源重大资产重组：拟斥资40亿购买大渡河公司10%股权</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,51 +1437,51 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-25 07:29</t>
+          <t>11-30 22:16</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,600674,1250938811.html</t>
+          <t>/news,600674,1253248684.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
+          <t>川投能源11月29日获沪股通增持89.6万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-24 20:21</t>
+          <t>11-30 07:49</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,600674,1250810423.html</t>
+          <t>/news,600674,1252778156.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>川投能源：公司目前采用纸质合同 未采用电子合同</t>
+          <t>川投能源：融资净买入334.46万元，融资余额6.36亿元（11-29）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-24 15:09</t>
+          <t>11-30 07:31</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,600674,1250736533.html</t>
+          <t>/news,600674,1252774807.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>336</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>川投能源：公司暂时未建立财务共享中心 已经建立了资金结算中心</t>
+          <t>川投能源11月28日获沪股通增持314.46万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-24 15:09</t>
+          <t>11-29 07:53</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,600674,1250736338.html</t>
+          <t>/news,600674,1252213632.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>川投能源：公司目前暂无增发计划</t>
+          <t>川投能源：连续7日融资净偿还累计9327.76万元（11-28）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-24 15:09</t>
+          <t>11-29 07:34</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,600674,1250736534.html</t>
+          <t>/news,600674,1252209921.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,29 +1587,29 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>川投能源11月23日获沪股通增持82.83万股</t>
+          <t>川投能源本周融资净偿还6465.31万元，居电力行业板块第三</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-24 07:45</t>
+          <t>11-27 15:16</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,600674,1250419050.html</t>
+          <t>/news,600674,1251592452.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,39 +1619,39 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>川投能源：连续4日融资净偿还累计3490.94万元（11-23）</t>
+          <t>川投能源本周沪股通持股市值增加4521.68万元，居电力行业板块第七</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-24 07:32</t>
+          <t>11-27 14:06</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,600674,1250416668.html</t>
+          <t>/news,600674,1251584368.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1717</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>川投能源：以40.13亿元成功竞买国能大渡河10%股权</t>
+          <t>川投能源11月25日获沪股通增持59.2万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-23 22:02</t>
+          <t>11-26 07:46</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,600674,1250328863.html</t>
+          <t>/news,600674,1251433134.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>692</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>川投能源：40.13亿元竞得国能大渡河10%股权</t>
+          <t>川投能源：连续6日融资净偿还累计6707.18万元（11-25）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-23 18:05</t>
+          <t>11-26 07:33</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,600674,1250258012.html</t>
+          <t>/news,600674,1251430980.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>656</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>川投能源：40.13亿元竞得国能大渡河流域水电开发公司10%股权</t>
+          <t>川投能源11月24日获沪股通增持65.52万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-23 17:53</t>
+          <t>11-25 07:39</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,600674,1250253648.html</t>
+          <t>/news,600674,1250940834.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2034</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>川投能源：拟以40亿元竞买国能大渡河10%股权</t>
+          <t>川投能源：连续5日融资净偿还累计5040.75万元（11-24）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,51 +1757,51 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-23 17:36</t>
+          <t>11-25 07:29</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,600674,1250249217.html</t>
+          <t>/news,600674,1250938811.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>574</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>川投能源11月22日获沪股通增持203.5万股</t>
+          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-23 07:50</t>
+          <t>11-24 20:21</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,600674,1249875641.html</t>
+          <t>/news,600674,1250810423.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>511</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净偿还累计2567.8万元（11-22）</t>
+          <t>川投能源：公司目前采用纸质合同 未采用电子合同</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-23 07:30</t>
+          <t>11-24 15:09</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,600674,1249872043.html</t>
+          <t>/news,600674,1250736533.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>366</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>川投能源11月21日被沪股通减持24.87万股</t>
+          <t>川投能源：公司暂时未建立财务共享中心 已经建立了资金结算中心</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-22 07:53</t>
+          <t>11-24 15:09</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,600674,1249348966.html</t>
+          <t>/news,600674,1250736338.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>419</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还49.55万元，融资余额7.23亿元（11-21）</t>
+          <t>川投能源：公司目前暂无增发计划</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-22 07:38</t>
+          <t>11-24 15:09</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,600674,1249346246.html</t>
+          <t>/news,600674,1250736534.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,29 +1907,29 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入5281.47万元，居电力行业板块第四</t>
+          <t>川投能源11月23日获沪股通增持82.83万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-20 15:07</t>
+          <t>11-24 07:45</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,600674,1248769419.html</t>
+          <t>/news,600674,1250419050.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,39 +1939,39 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加1158.71万元，居电力行业板块第七</t>
+          <t>川投能源：连续4日融资净偿还累计3490.94万元（11-23）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-20 14:07</t>
+          <t>11-24 07:32</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,600674,1248763255.html</t>
+          <t>/news,600674,1250416668.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>521</t>
+          <t>1733</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>川投能源11月18日获沪股通增持47.68万股</t>
+          <t>川投能源：以40.13亿元成功竞买国能大渡河10%股权</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-19 07:50</t>
+          <t>11-23 22:02</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,600674,1248638273.html</t>
+          <t>/news,600674,1250328863.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>698</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还241.87万元，融资余额7.24亿元（11-18）</t>
+          <t>川投能源：40.13亿元竞得国能大渡河10%股权</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-19 07:30</t>
+          <t>11-23 18:05</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,600674,1248635633.html</t>
+          <t>/news,600674,1250258012.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2353</t>
+          <t>663</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>500亿元A股董事长被查！川投能源净利润超总营收2倍引关注 投资比主业还赚钱？</t>
+          <t>川投能源：40.13亿元竞得国能大渡河流域水电开发公司10%股权</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-18 21:34</t>
+          <t>11-23 17:53</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,600674,1248594560.html</t>
+          <t>/news,600674,1250253648.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>2044</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>川投能源11月17日获沪股通增持36.02万股</t>
+          <t>川投能源：拟以40亿元竞买国能大渡河10%股权</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-18 07:42</t>
+          <t>11-23 17:36</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,600674,1248151786.html</t>
+          <t>/news,600674,1250249217.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>川投能源：连续4日融资净买入累计5523.34万元（11-17）</t>
+          <t>川投能源11月22日获沪股通增持203.5万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-18 07:33</t>
+          <t>11-23 07:50</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,600674,1248150190.html</t>
+          <t>/news,600674,1249875641.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2137</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>现任董事长又被查 川投能源四任“掌门”接连落马</t>
+          <t>川投能源：连续3日融资净偿还累计2567.8万元（11-22）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-17 21:50</t>
+          <t>11-23 07:30</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,600674,1248097891.html</t>
+          <t>/news,600674,1249872043.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>22900</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>510亿A股公司董事长被查！月初刚公开现身 发生了什么？多家券商提示“谨慎推荐”</t>
+          <t>川投能源11月21日被沪股通减持24.87万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-17 08:14</t>
+          <t>11-22 07:53</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,600674,1247671546.html</t>
+          <t>/news,600674,1249348966.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净买入累计1632.03万元（11-16）</t>
+          <t>川投能源：融资净偿还49.55万元，融资余额7.23亿元（11-21）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-17 07:46</t>
+          <t>11-22 07:38</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,600674,1247666990.html</t>
+          <t>/news,600674,1249346246.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,61 +2227,61 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>川投能源11月16日获沪股通增持23.2万股</t>
+          <t>川投能源本周融资净买入5281.47万元，居电力行业板块第四</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-17 07:31</t>
+          <t>11-20 15:07</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,600674,1247664225.html</t>
+          <t>/news,600674,1248769419.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2843</t>
+          <t>388</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>川投能源董事长刘体斌遭立案调查：执掌川投集团3年半 历任长虹系多家上市公司董事长</t>
+          <t>川投能源本周沪股通持股市值增加1158.71万元，居电力行业板块第七</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-17 07:19</t>
+          <t>11-20 14:07</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,600674,1247663799.html</t>
+          <t>/news,600674,1248763255.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1569</t>
+          <t>524</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>川投集团董事长刘体斌被立案调查</t>
+          <t>川投能源11月18日获沪股通增持47.68万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-17 06:27</t>
+          <t>11-19 07:50</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,600674,1247658204.html</t>
+          <t>/news,600674,1248638273.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2401</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>突发！上市公司董事长被立案调查</t>
+          <t>川投能源：融资净偿还241.87万元，融资余额7.24亿元（11-18）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-16 22:26</t>
+          <t>11-19 07:30</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,600674,1247612569.html</t>
+          <t>/news,600674,1248635633.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1278</t>
+          <t>2365</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>川投能源董事长刘体斌被立案调查</t>
+          <t>500亿元A股董事长被查！川投能源净利润超总营收2倍引关注 投资比主业还赚钱？</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-16 22:06</t>
+          <t>11-18 21:34</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,600674,1247606433.html</t>
+          <t>/news,600674,1248594560.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1800</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>突发！500亿A股董事长被立案调查</t>
+          <t>川投能源11月17日获沪股通增持36.02万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-16 19:20</t>
+          <t>11-18 07:42</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,600674,1247560692.html</t>
+          <t>/news,600674,1248151786.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2698</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>川投能源董事长刘体斌被立案调查 曾担任多家四川上市公司一把手</t>
+          <t>川投能源：连续4日融资净买入累计5523.34万元（11-17）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-16 18:27</t>
+          <t>11-18 07:33</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,600674,1247548359.html</t>
+          <t>/news,600674,1248150190.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1444</t>
+          <t>2144</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>川投集团董事长刘体斌被四川省监察委立案调查 月初尚在出席会议</t>
+          <t>现任董事长又被查 川投能源四任“掌门”接连落马</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-16 17:22</t>
+          <t>11-17 21:50</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,600674,1247535065.html</t>
+          <t>/news,600674,1248097891.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>5242</t>
+          <t>22910</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>川投能源董事长刘体斌被四川省监察委员会立案调查及实施留置措施</t>
+          <t>510亿A股公司董事长被查！月初刚公开现身 发生了什么？多家券商提示“谨慎推荐”</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-16 16:31</t>
+          <t>11-17 08:14</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,600674,1247520531.html</t>
+          <t>/news,600674,1247671546.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1261</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>川投能源：公司董事长刘体斌被立案调查</t>
+          <t>川投能源：连续3日融资净买入累计1632.03万元（11-16）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-16 15:51</t>
+          <t>11-17 07:46</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,600674,1247512404.html</t>
+          <t>/news,600674,1247666990.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>10.2万</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>川投能源：公司董事长被立案调查</t>
+          <t>川投能源11月16日获沪股通增持23.2万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-16 15:48</t>
+          <t>11-17 07:31</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,600674,1247510787.html</t>
+          <t>/news,600674,1247664225.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>2857</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>川投能源11月15日获沪股通增持33.2万股</t>
+          <t>川投能源董事长刘体斌遭立案调查：执掌川投集团3年半 历任长虹系多家上市公司董事长</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-16 07:54</t>
+          <t>11-17 07:19</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,600674,1247176211.html</t>
+          <t>/news,600674,1247663799.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>1575</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入129.5万元，融资余额6.84亿元（11-15）</t>
+          <t>川投集团董事长刘体斌被立案调查</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-16 07:27</t>
+          <t>11-17 06:27</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,600674,1247171748.html</t>
+          <t>/news,600674,1247658204.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>2407</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>川投能源11月14日被沪股通减持38.11万股</t>
+          <t>突发！上市公司董事长被立案调查</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-15 07:57</t>
+          <t>11-16 22:26</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,600674,1246691419.html</t>
+          <t>/news,600674,1247612569.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>1282</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1186.56万元，融资余额6.83亿元（11-14）</t>
+          <t>川投能源董事长刘体斌被立案调查</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,93 +2685,93 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-15 07:37</t>
+          <t>11-16 22:06</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,600674,1246688075.html</t>
+          <t>/news,600674,1247606433.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>1805</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入2574.49万元，居电力行业板块第七</t>
+          <t>突发！500亿A股董事长被立案调查</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-13 15:07</t>
+          <t>11-16 19:20</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,600674,1246099606.html</t>
+          <t>/news,600674,1247560692.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>2701</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加1350.02万元，居电力行业板块第二</t>
+          <t>川投能源董事长刘体斌被立案调查 曾担任多家四川上市公司一把手</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-13 14:10</t>
+          <t>11-16 18:27</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,600674,1246094601.html</t>
+          <t>/news,600674,1247548359.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>1446</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>川投能源11月11日获沪股通增持90.7万股</t>
+          <t>川投集团董事长刘体斌被四川省监察委立案调查 月初尚在出席会议</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-12 07:43</t>
+          <t>11-16 17:22</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,600674,1245985827.html</t>
+          <t>/news,600674,1247535065.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>5244</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还565.86万元，融资余额6.71亿元（11-11）</t>
+          <t>川投能源董事长刘体斌被四川省监察委员会立案调查及实施留置措施</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-12 07:31</t>
+          <t>11-16 16:31</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,600674,1245984248.html</t>
+          <t>/news,600674,1247520531.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>1264</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>川投能源：连续4日融资净买入累计3140.35万元（11-10）</t>
+          <t>川投能源：公司董事长刘体斌被立案调查</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-11 07:37</t>
+          <t>11-16 15:51</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,600674,1245410017.html</t>
+          <t>/news,600674,1247512404.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>10.2万</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>264</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>川投能源11月09日获沪股通增持22.29万股</t>
+          <t>川投能源：公司董事长被立案调查</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-10 07:39</t>
+          <t>11-16 15:48</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,600674,1244888907.html</t>
+          <t>/news,600674,1247510787.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净买入累计2307.22万元（11-09）</t>
+          <t>川投能源11月15日获沪股通增持33.2万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-10 07:27</t>
+          <t>11-16 07:54</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,600674,1244886962.html</t>
+          <t>/news,600674,1247176211.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1153.08万元，融资余额6.67亿元（11-08）</t>
+          <t>川投能源：融资净买入129.5万元，融资余额6.84亿元（11-15）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-09 07:31</t>
+          <t>11-16 07:27</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,600674,1244424771.html</t>
+          <t>/news,600674,1247171748.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>川投能源11月07日获沪股通增持11.99万股</t>
+          <t>川投能源11月14日被沪股通减持38.11万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-08 07:50</t>
+          <t>11-15 07:57</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,600674,1243974523.html</t>
+          <t>/news,600674,1246691419.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1002.96万元，融资余额6.55亿元（11-07）</t>
+          <t>川投能源：融资净买入1186.56万元，融资余额6.83亿元（11-14）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-08 07:29</t>
+          <t>11-15 07:37</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,600674,1243971057.html</t>
+          <t>/news,600674,1246688075.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/600674.xlsx
+++ b/news_ann/news/tmp/600674.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>162</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,29 +467,29 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
+          <t>川投能源12月12日被沪股通减持199.61万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-12 12:52</t>
+          <t>12-13 07:53</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,600674,1258406178.html</t>
+          <t>/news,600674,1258761783.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,29 +499,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入2937.31万元，居电力行业板块第九</t>
+          <t>川投能源：连续6日融资净买入累计4357.23万元（12-12）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-11 15:08</t>
+          <t>12-13 07:30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,600674,1258089959.html</t>
+          <t>/news,600674,1258758080.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,29 +531,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值减少8549.24万元，居电力行业板块第六</t>
+          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-11 14:09</t>
+          <t>12-12 12:52</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,600674,1258082546.html</t>
+          <t>/news,600674,1258406178.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,29 +563,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>川投能源12月09日被沪股通减持1006.07万股</t>
+          <t>川投能源本周融资净买入2937.31万元，居电力行业板块第九</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-10 07:46</t>
+          <t>12-11 15:08</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,600674,1257964002.html</t>
+          <t>/news,600674,1258089959.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,29 +595,29 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>川投能源：连续5日融资净买入累计2937.31万元（12-09）</t>
+          <t>川投能源本周沪股通持股市值减少8549.24万元，居电力行业板块第六</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-10 07:32</t>
+          <t>12-11 14:09</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,600674,1257962007.html</t>
+          <t>/news,600674,1258082546.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>840</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>四川川投能源股份有限公司十一届十二次监事会决议公告</t>
+          <t>川投能源12月09日被沪股通减持1006.07万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-10 01:44</t>
+          <t>12-10 07:46</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,600674,1257943802.html</t>
+          <t>/news,600674,1257964002.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>947</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>四川川投能源股份有限公司十一届十二次董事会决议公告</t>
+          <t>川投能源：连续5日融资净买入累计2937.31万元（12-09）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-10 01:44</t>
+          <t>12-10 07:32</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,600674,1257943774.html</t>
+          <t>/news,600674,1257962007.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>726</t>
+          <t>860</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>四川川投能源股份有限公司关于不提前赎回“川投转债”的公告</t>
+          <t>四川川投能源股份有限公司十一届十二次监事会决议公告</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -706,14 +706,14 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,600674,1257943773.html</t>
+          <t>/news,600674,1257943802.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>868</t>
+          <t>967</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>四川川投能源股份有限公司关于变更持续督导保荐代表人的公告</t>
+          <t>四川川投能源股份有限公司十一届十二次董事会决议公告</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -738,24 +738,24 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,600674,1257943772.html</t>
+          <t>/news,600674,1257943774.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>535</t>
+          <t>758</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>川投能源：董事会决定不提前赎回“川投转债”</t>
+          <t>四川川投能源股份有限公司关于不提前赎回“川投转债”的公告</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-09 16:57</t>
+          <t>12-10 01:44</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,600674,1257796216.html</t>
+          <t>/news,600674,1257943773.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>886</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>川投能源12月08日被沪股通减持163.8万股</t>
+          <t>四川川投能源股份有限公司关于变更持续督导保荐代表人的公告</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-09 07:44</t>
+          <t>12-10 01:44</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,600674,1257391868.html</t>
+          <t>/news,600674,1257943772.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>552</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>川投能源：连续4日融资净买入累计2794.28万元（12-08）</t>
+          <t>川投能源：董事会决定不提前赎回“川投转债”</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-09 07:35</t>
+          <t>12-09 16:57</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,600674,1257390220.html</t>
+          <t>/news,600674,1257796216.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>川投能源12月07日获沪股通增持39.36万股</t>
+          <t>川投能源12月08日被沪股通减持163.8万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-08 07:46</t>
+          <t>12-09 07:44</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,600674,1256755252.html</t>
+          <t>/news,600674,1257391868.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净买入累计1707.59万元（12-07）</t>
+          <t>川投能源：连续4日融资净买入累计2794.28万元（12-08）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-08 07:41</t>
+          <t>12-09 07:35</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,600674,1256754367.html</t>
+          <t>/news,600674,1257390220.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>934</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>川投能源：两河口和杨房沟水电站已全部投产</t>
+          <t>川投能源12月07日获沪股通增持39.36万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-07 14:48</t>
+          <t>12-08 07:46</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,600674,1256480700.html</t>
+          <t>/news,600674,1256755252.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>川投能源：公司暂无定增计划</t>
+          <t>川投能源：连续3日融资净买入累计1707.59万元（12-07）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-07 14:48</t>
+          <t>12-08 07:41</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,600674,1256480070.html</t>
+          <t>/news,600674,1256754367.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>1044</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>川投能源：公司可转债目前未满足强赎条件</t>
+          <t>川投能源：两河口和杨房沟水电站已全部投产</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -994,24 +994,24 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,600674,1256480702.html</t>
+          <t>/news,600674,1256480700.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>川投能源12月06日获沪股通增持122.84万股</t>
+          <t>川投能源：公司暂无定增计划</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-07 07:45</t>
+          <t>12-07 14:48</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,600674,1256090361.html</t>
+          <t>/news,600674,1256480070.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>531</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入455.01万元，融资余额6.35亿元（12-06）</t>
+          <t>川投能源：公司可转债目前未满足强赎条件</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-07 07:30</t>
+          <t>12-07 14:48</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,600674,1256087792.html</t>
+          <t>/news,600674,1256480702.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>川投能源12月05日获沪股通增持259.99万股</t>
+          <t>川投能源12月06日获沪股通增持122.84万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-06 07:46</t>
+          <t>12-07 07:45</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,600674,1255447449.html</t>
+          <t>/news,600674,1256090361.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入9.89万元，融资余额6.3亿元（12-05）</t>
+          <t>川投能源：融资净买入455.01万元，融资余额6.35亿元（12-06）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,83 +1117,83 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-06 07:32</t>
+          <t>12-07 07:30</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,600674,1255444835.html</t>
+          <t>/news,600674,1256087792.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>334</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>川投能源本周融资净偿还2877.13万元，居电力行业板块第二</t>
+          <t>川投能源12月05日获沪股通增持259.99万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-04 15:10</t>
+          <t>12-06 07:46</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,600674,1254651475.html</t>
+          <t>/news,600674,1255447449.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加9169.91万元，居电力行业板块第三</t>
+          <t>川投能源：融资净买入9.89万元，融资余额6.3亿元（12-05）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12-04 14:06</t>
+          <t>12-06 07:32</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,600674,1254643296.html</t>
+          <t>/news,600674,1255444835.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,29 +1203,29 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>川投能源12月02日获沪股通增持149.45万股</t>
+          <t>川投能源本周融资净偿还2877.13万元，居电力行业板块第二</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>12-03 07:45</t>
+          <t>12-04 15:10</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,600674,1254511410.html</t>
+          <t>/news,600674,1254651475.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,29 +1235,29 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还626.68万元，融资余额6.3亿元（12-02）</t>
+          <t>川投能源本周沪股通持股市值增加9169.91万元，居电力行业板块第三</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>12-03 07:33</t>
+          <t>12-04 14:06</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,600674,1254509618.html</t>
+          <t>/news,600674,1254643296.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>川投能源12月01日获沪股通增持142.44万股</t>
+          <t>川投能源12月02日获沪股通增持149.45万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>12-02 07:48</t>
+          <t>12-03 07:45</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,600674,1253912819.html</t>
+          <t>/news,600674,1254511410.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入246.77万元，融资余额6.36亿元（12-01）</t>
+          <t>川投能源：融资净偿还626.68万元，融资余额6.3亿元（12-02）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>12-02 07:27</t>
+          <t>12-03 07:33</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,600674,1253909709.html</t>
+          <t>/news,600674,1254509618.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1678</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>川投能源重大资产重组 拟斥资40亿购买大渡河公司10%股权</t>
+          <t>川投能源12月01日获沪股通增持142.44万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>12-02 05:56</t>
+          <t>12-02 07:48</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,600674,1253903819.html</t>
+          <t>/news,600674,1253912819.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还211.1万元，融资余额6.34亿元（11-30）</t>
+          <t>川投能源：融资净买入246.77万元，融资余额6.36亿元（12-01）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>12-01 07:53</t>
+          <t>12-02 07:27</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,600674,1253302219.html</t>
+          <t>/news,600674,1253909709.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>1683</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>川投能源11月30日获沪股通增持73.28万股</t>
+          <t>川投能源重大资产重组 拟斥资40亿购买大渡河公司10%股权</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>12-01 07:44</t>
+          <t>12-02 05:56</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,600674,1253300632.html</t>
+          <t>/news,600674,1253903819.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2166</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>川投能源重大资产重组：拟斥资40亿购买大渡河公司10%股权</t>
+          <t>川投能源：融资净偿还211.1万元，融资余额6.34亿元（11-30）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-30 22:16</t>
+          <t>12-01 07:53</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,600674,1253248684.html</t>
+          <t>/news,600674,1253302219.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>川投能源11月29日获沪股通增持89.6万股</t>
+          <t>川投能源11月30日获沪股通增持73.28万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-30 07:49</t>
+          <t>12-01 07:44</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,600674,1252778156.html</t>
+          <t>/news,600674,1253300632.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>2173</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入334.46万元，融资余额6.36亿元（11-29）</t>
+          <t>川投能源重大资产重组：拟斥资40亿购买大渡河公司10%股权</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-30 07:31</t>
+          <t>11-30 22:16</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,600674,1252774807.html</t>
+          <t>/news,600674,1253248684.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>川投能源11月28日获沪股通增持314.46万股</t>
+          <t>川投能源11月29日获沪股通增持89.6万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-29 07:53</t>
+          <t>11-30 07:49</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,600674,1252213632.html</t>
+          <t>/news,600674,1252778156.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>川投能源：连续7日融资净偿还累计9327.76万元（11-28）</t>
+          <t>川投能源：融资净买入334.46万元，融资余额6.36亿元（11-29）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-29 07:34</t>
+          <t>11-30 07:31</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,600674,1252209921.html</t>
+          <t>/news,600674,1252774807.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,29 +1587,29 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>川投能源本周融资净偿还6465.31万元，居电力行业板块第三</t>
+          <t>川投能源11月28日获沪股通增持314.46万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-27 15:16</t>
+          <t>11-29 07:53</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,600674,1251592452.html</t>
+          <t>/news,600674,1252213632.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,29 +1619,29 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加4521.68万元，居电力行业板块第七</t>
+          <t>川投能源：连续7日融资净偿还累计9327.76万元（11-28）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-27 14:06</t>
+          <t>11-29 07:34</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,600674,1251584368.html</t>
+          <t>/news,600674,1252209921.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,29 +1651,29 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>川投能源11月25日获沪股通增持59.2万股</t>
+          <t>川投能源本周融资净偿还6465.31万元，居电力行业板块第三</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-26 07:46</t>
+          <t>11-27 15:16</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,600674,1251433134.html</t>
+          <t>/news,600674,1251592452.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,29 +1683,29 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>川投能源：连续6日融资净偿还累计6707.18万元（11-25）</t>
+          <t>川投能源本周沪股通持股市值增加4521.68万元，居电力行业板块第七</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-26 07:33</t>
+          <t>11-27 14:06</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,600674,1251430980.html</t>
+          <t>/news,600674,1251584368.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>川投能源11月24日获沪股通增持65.52万股</t>
+          <t>川投能源11月25日获沪股通增持59.2万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-25 07:39</t>
+          <t>11-26 07:46</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,600674,1250940834.html</t>
+          <t>/news,600674,1251433134.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>川投能源：连续5日融资净偿还累计5040.75万元（11-24）</t>
+          <t>川投能源：连续6日融资净偿还累计6707.18万元（11-25）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,51 +1757,51 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-25 07:29</t>
+          <t>11-26 07:33</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,600674,1250938811.html</t>
+          <t>/news,600674,1251430980.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
+          <t>川投能源11月24日获沪股通增持65.52万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-24 20:21</t>
+          <t>11-25 07:39</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,600674,1250810423.html</t>
+          <t>/news,600674,1250940834.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>川投能源：公司目前采用纸质合同 未采用电子合同</t>
+          <t>川投能源：连续5日融资净偿还累计5040.75万元（11-24）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,51 +1821,51 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-24 15:09</t>
+          <t>11-25 07:29</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,600674,1250736533.html</t>
+          <t>/news,600674,1250938811.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>579</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>川投能源：公司暂时未建立财务共享中心 已经建立了资金结算中心</t>
+          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-24 15:09</t>
+          <t>11-24 20:21</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,600674,1250736338.html</t>
+          <t>/news,600674,1250810423.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>513</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>川投能源：公司目前暂无增发计划</t>
+          <t>川投能源：公司目前采用纸质合同 未采用电子合同</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1890,14 +1890,14 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,600674,1250736534.html</t>
+          <t>/news,600674,1250736533.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>川投能源11月23日获沪股通增持82.83万股</t>
+          <t>川投能源：公司暂时未建立财务共享中心 已经建立了资金结算中心</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-24 07:45</t>
+          <t>11-24 15:09</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,600674,1250419050.html</t>
+          <t>/news,600674,1250736338.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>421</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>川投能源：连续4日融资净偿还累计3490.94万元（11-23）</t>
+          <t>川投能源：公司目前暂无增发计划</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-24 07:32</t>
+          <t>11-24 15:09</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,600674,1250416668.html</t>
+          <t>/news,600674,1250736534.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1733</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>川投能源：以40.13亿元成功竞买国能大渡河10%股权</t>
+          <t>川投能源11月23日获沪股通增持82.83万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-23 22:02</t>
+          <t>11-24 07:45</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,600674,1250328863.html</t>
+          <t>/news,600674,1250419050.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>川投能源：40.13亿元竞得国能大渡河10%股权</t>
+          <t>川投能源：连续4日融资净偿还累计3490.94万元（11-23）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-23 18:05</t>
+          <t>11-24 07:32</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,600674,1250258012.html</t>
+          <t>/news,600674,1250416668.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>663</t>
+          <t>1736</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>川投能源：40.13亿元竞得国能大渡河流域水电开发公司10%股权</t>
+          <t>川投能源：以40.13亿元成功竞买国能大渡河10%股权</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-23 17:53</t>
+          <t>11-23 22:02</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,600674,1250253648.html</t>
+          <t>/news,600674,1250328863.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2044</t>
+          <t>699</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>川投能源：拟以40亿元竞买国能大渡河10%股权</t>
+          <t>川投能源：40.13亿元竞得国能大渡河10%股权</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-23 17:36</t>
+          <t>11-23 18:05</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,600674,1250249217.html</t>
+          <t>/news,600674,1250258012.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>663</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>川投能源11月22日获沪股通增持203.5万股</t>
+          <t>川投能源：40.13亿元竞得国能大渡河流域水电开发公司10%股权</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-23 07:50</t>
+          <t>11-23 17:53</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,600674,1249875641.html</t>
+          <t>/news,600674,1250253648.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>2045</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净偿还累计2567.8万元（11-22）</t>
+          <t>川投能源：拟以40亿元竞买国能大渡河10%股权</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-23 07:30</t>
+          <t>11-23 17:36</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,600674,1249872043.html</t>
+          <t>/news,600674,1250249217.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>川投能源11月21日被沪股通减持24.87万股</t>
+          <t>川投能源11月22日获沪股通增持203.5万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-22 07:53</t>
+          <t>11-23 07:50</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,600674,1249348966.html</t>
+          <t>/news,600674,1249875641.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还49.55万元，融资余额7.23亿元（11-21）</t>
+          <t>川投能源：连续3日融资净偿还累计2567.8万元（11-22）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-22 07:38</t>
+          <t>11-23 07:30</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,600674,1249346246.html</t>
+          <t>/news,600674,1249872043.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,29 +2227,29 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入5281.47万元，居电力行业板块第四</t>
+          <t>川投能源11月21日被沪股通减持24.87万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-20 15:07</t>
+          <t>11-22 07:53</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,600674,1248769419.html</t>
+          <t>/news,600674,1249348966.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,29 +2259,29 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加1158.71万元，居电力行业板块第七</t>
+          <t>川投能源：融资净偿还49.55万元，融资余额7.23亿元（11-21）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-20 14:07</t>
+          <t>11-22 07:38</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,600674,1248763255.html</t>
+          <t>/news,600674,1249346246.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>524</t>
+          <t>438</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,29 +2291,29 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>川投能源11月18日获沪股通增持47.68万股</t>
+          <t>川投能源本周融资净买入5281.47万元，居电力行业板块第四</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-19 07:50</t>
+          <t>11-20 15:07</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,600674,1248638273.html</t>
+          <t>/news,600674,1248769419.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>389</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,39 +2323,39 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还241.87万元，融资余额7.24亿元（11-18）</t>
+          <t>川投能源本周沪股通持股市值增加1158.71万元，居电力行业板块第七</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-19 07:30</t>
+          <t>11-20 14:07</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,600674,1248635633.html</t>
+          <t>/news,600674,1248763255.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2365</t>
+          <t>524</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>500亿元A股董事长被查！川投能源净利润超总营收2倍引关注 投资比主业还赚钱？</t>
+          <t>川投能源11月18日获沪股通增持47.68万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-18 21:34</t>
+          <t>11-19 07:50</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,600674,1248594560.html</t>
+          <t>/news,600674,1248638273.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>川投能源11月17日获沪股通增持36.02万股</t>
+          <t>川投能源：融资净偿还241.87万元，融资余额7.24亿元（11-18）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-18 07:42</t>
+          <t>11-19 07:30</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,600674,1248151786.html</t>
+          <t>/news,600674,1248635633.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>2368</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>川投能源：连续4日融资净买入累计5523.34万元（11-17）</t>
+          <t>500亿元A股董事长被查！川投能源净利润超总营收2倍引关注 投资比主业还赚钱？</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-18 07:33</t>
+          <t>11-18 21:34</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,600674,1248150190.html</t>
+          <t>/news,600674,1248594560.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2144</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>现任董事长又被查 川投能源四任“掌门”接连落马</t>
+          <t>川投能源11月17日获沪股通增持36.02万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-17 21:50</t>
+          <t>11-18 07:42</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,600674,1248097891.html</t>
+          <t>/news,600674,1248151786.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>22910</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>510亿A股公司董事长被查！月初刚公开现身 发生了什么？多家券商提示“谨慎推荐”</t>
+          <t>川投能源：连续4日融资净买入累计5523.34万元（11-17）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-17 08:14</t>
+          <t>11-18 07:33</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,600674,1247671546.html</t>
+          <t>/news,600674,1248150190.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>2146</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净买入累计1632.03万元（11-16）</t>
+          <t>现任董事长又被查 川投能源四任“掌门”接连落马</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-17 07:46</t>
+          <t>11-17 21:50</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,600674,1247666990.html</t>
+          <t>/news,600674,1248097891.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>22911</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>川投能源11月16日获沪股通增持23.2万股</t>
+          <t>510亿A股公司董事长被查！月初刚公开现身 发生了什么？多家券商提示“谨慎推荐”</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-17 07:31</t>
+          <t>11-17 08:14</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,600674,1247664225.html</t>
+          <t>/news,600674,1247671546.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2857</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>川投能源董事长刘体斌遭立案调查：执掌川投集团3年半 历任长虹系多家上市公司董事长</t>
+          <t>川投能源：连续3日融资净买入累计1632.03万元（11-16）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-17 07:19</t>
+          <t>11-17 07:46</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,600674,1247663799.html</t>
+          <t>/news,600674,1247666990.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1575</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>川投集团董事长刘体斌被立案调查</t>
+          <t>川投能源11月16日获沪股通增持23.2万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-17 06:27</t>
+          <t>11-17 07:31</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,600674,1247658204.html</t>
+          <t>/news,600674,1247664225.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2407</t>
+          <t>2859</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>突发！上市公司董事长被立案调查</t>
+          <t>川投能源董事长刘体斌遭立案调查：执掌川投集团3年半 历任长虹系多家上市公司董事长</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-16 22:26</t>
+          <t>11-17 07:19</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,600674,1247612569.html</t>
+          <t>/news,600674,1247663799.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1282</t>
+          <t>1577</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>川投能源董事长刘体斌被立案调查</t>
+          <t>川投集团董事长刘体斌被立案调查</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-16 22:06</t>
+          <t>11-17 06:27</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,600674,1247606433.html</t>
+          <t>/news,600674,1247658204.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1805</t>
+          <t>2408</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>突发！500亿A股董事长被立案调查</t>
+          <t>突发！上市公司董事长被立案调查</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-16 19:20</t>
+          <t>11-16 22:26</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,600674,1247560692.html</t>
+          <t>/news,600674,1247612569.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2701</t>
+          <t>1283</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>川投能源董事长刘体斌被立案调查 曾担任多家四川上市公司一把手</t>
+          <t>川投能源董事长刘体斌被立案调查</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-16 18:27</t>
+          <t>11-16 22:06</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,600674,1247548359.html</t>
+          <t>/news,600674,1247606433.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1446</t>
+          <t>1805</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>川投集团董事长刘体斌被四川省监察委立案调查 月初尚在出席会议</t>
+          <t>突发！500亿A股董事长被立案调查</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-16 17:22</t>
+          <t>11-16 19:20</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,600674,1247535065.html</t>
+          <t>/news,600674,1247560692.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>5244</t>
+          <t>2701</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>川投能源董事长刘体斌被四川省监察委员会立案调查及实施留置措施</t>
+          <t>川投能源董事长刘体斌被立案调查 曾担任多家四川上市公司一把手</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-16 16:31</t>
+          <t>11-16 18:27</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,600674,1247520531.html</t>
+          <t>/news,600674,1247548359.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1264</t>
+          <t>1446</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>川投能源：公司董事长刘体斌被立案调查</t>
+          <t>川投集团董事长刘体斌被四川省监察委立案调查 月初尚在出席会议</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-16 15:51</t>
+          <t>11-16 17:22</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,600674,1247512404.html</t>
+          <t>/news,600674,1247535065.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>10.2万</t>
+          <t>5244</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>川投能源：公司董事长被立案调查</t>
+          <t>川投能源董事长刘体斌被四川省监察委员会立案调查及实施留置措施</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-16 15:48</t>
+          <t>11-16 16:31</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,600674,1247510787.html</t>
+          <t>/news,600674,1247520531.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>1264</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>川投能源11月15日获沪股通增持33.2万股</t>
+          <t>川投能源：公司董事长刘体斌被立案调查</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-16 07:54</t>
+          <t>11-16 15:51</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,600674,1247176211.html</t>
+          <t>/news,600674,1247512404.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>10.2万</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>264</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入129.5万元，融资余额6.84亿元（11-15）</t>
+          <t>川投能源：公司董事长被立案调查</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-16 07:27</t>
+          <t>11-16 15:48</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,600674,1247171748.html</t>
+          <t>/news,600674,1247510787.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>川投能源11月14日被沪股通减持38.11万股</t>
+          <t>川投能源11月15日获沪股通增持33.2万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-15 07:57</t>
+          <t>11-16 07:54</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,600674,1246691419.html</t>
+          <t>/news,600674,1247176211.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1186.56万元，融资余额6.83亿元（11-14）</t>
+          <t>川投能源：融资净买入129.5万元，融资余额6.84亿元（11-15）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-15 07:37</t>
+          <t>11-16 07:27</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,600674,1246688075.html</t>
+          <t>/news,600674,1247171748.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/600674.xlsx
+++ b/news_ann/news/tmp/600674.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>125</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>川投能源12月12日被沪股通减持199.61万股</t>
+          <t>川投能源12月13日获沪股通增持23.1万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-13 07:53</t>
+          <t>12-14 07:57</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,600674,1258761783.html</t>
+          <t>/news,600674,1259348181.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>124</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>川投能源：连续6日融资净买入累计4357.23万元（12-12）</t>
+          <t>川投能源：连续7日融资净买入累计4711.82万元（12-13）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-13 07:30</t>
+          <t>12-14 07:32</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,600674,1258758080.html</t>
+          <t>/news,600674,1259343820.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,29 +531,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
+          <t>川投能源12月12日被沪股通减持199.61万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-12 12:52</t>
+          <t>12-13 07:53</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,600674,1258406178.html</t>
+          <t>/news,600674,1258761783.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,29 +563,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入2937.31万元，居电力行业板块第九</t>
+          <t>川投能源：连续6日融资净买入累计4357.23万元（12-12）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-11 15:08</t>
+          <t>12-13 07:30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,600674,1258089959.html</t>
+          <t>/news,600674,1258758080.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,29 +595,29 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值减少8549.24万元，居电力行业板块第六</t>
+          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-11 14:09</t>
+          <t>12-12 12:52</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,600674,1258082546.html</t>
+          <t>/news,600674,1258406178.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,29 +627,29 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>川投能源12月09日被沪股通减持1006.07万股</t>
+          <t>川投能源本周融资净买入2937.31万元，居电力行业板块第九</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-10 07:46</t>
+          <t>12-11 15:08</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,600674,1257964002.html</t>
+          <t>/news,600674,1258089959.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,29 +659,29 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>川投能源：连续5日融资净买入累计2937.31万元（12-09）</t>
+          <t>川投能源本周沪股通持股市值减少8549.24万元，居电力行业板块第六</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-10 07:32</t>
+          <t>12-11 14:09</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,600674,1257962007.html</t>
+          <t>/news,600674,1258082546.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>860</t>
+          <t>407</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>四川川投能源股份有限公司十一届十二次监事会决议公告</t>
+          <t>川投能源12月09日被沪股通减持1006.07万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-10 01:44</t>
+          <t>12-10 07:46</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,600674,1257943802.html</t>
+          <t>/news,600674,1257964002.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>967</t>
+          <t>328</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>四川川投能源股份有限公司十一届十二次董事会决议公告</t>
+          <t>川投能源：连续5日融资净买入累计2937.31万元（12-09）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-10 01:44</t>
+          <t>12-10 07:32</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,600674,1257943774.html</t>
+          <t>/news,600674,1257962007.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>758</t>
+          <t>870</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>四川川投能源股份有限公司关于不提前赎回“川投转债”的公告</t>
+          <t>四川川投能源股份有限公司十一届十二次监事会决议公告</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -770,14 +770,14 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,600674,1257943773.html</t>
+          <t>/news,600674,1257943802.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>886</t>
+          <t>982</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>四川川投能源股份有限公司关于变更持续督导保荐代表人的公告</t>
+          <t>四川川投能源股份有限公司十一届十二次董事会决议公告</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -802,24 +802,24 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,600674,1257943772.html</t>
+          <t>/news,600674,1257943774.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>772</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>川投能源：董事会决定不提前赎回“川投转债”</t>
+          <t>四川川投能源股份有限公司关于不提前赎回“川投转债”的公告</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-09 16:57</t>
+          <t>12-10 01:44</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,600674,1257796216.html</t>
+          <t>/news,600674,1257943773.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>893</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>川投能源12月08日被沪股通减持163.8万股</t>
+          <t>四川川投能源股份有限公司关于变更持续督导保荐代表人的公告</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-09 07:44</t>
+          <t>12-10 01:44</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,600674,1257391868.html</t>
+          <t>/news,600674,1257943772.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>川投能源：连续4日融资净买入累计2794.28万元（12-08）</t>
+          <t>川投能源：董事会决定不提前赎回“川投转债”</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-09 07:35</t>
+          <t>12-09 16:57</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,600674,1257390220.html</t>
+          <t>/news,600674,1257796216.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>川投能源12月07日获沪股通增持39.36万股</t>
+          <t>川投能源12月08日被沪股通减持163.8万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-08 07:46</t>
+          <t>12-09 07:44</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,600674,1256755252.html</t>
+          <t>/news,600674,1257391868.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净买入累计1707.59万元（12-07）</t>
+          <t>川投能源：连续4日融资净买入累计2794.28万元（12-08）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-08 07:41</t>
+          <t>12-09 07:35</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,600674,1256754367.html</t>
+          <t>/news,600674,1257390220.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1044</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>川投能源：两河口和杨房沟水电站已全部投产</t>
+          <t>川投能源12月07日获沪股通增持39.36万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-07 14:48</t>
+          <t>12-08 07:46</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,600674,1256480700.html</t>
+          <t>/news,600674,1256755252.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>川投能源：公司暂无定增计划</t>
+          <t>川投能源：连续3日融资净买入累计1707.59万元（12-07）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-07 14:48</t>
+          <t>12-08 07:41</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,600674,1256480070.html</t>
+          <t>/news,600674,1256754367.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>1071</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>川投能源：公司可转债目前未满足强赎条件</t>
+          <t>川投能源：两河口和杨房沟水电站已全部投产</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1058,24 +1058,24 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,600674,1256480702.html</t>
+          <t>/news,600674,1256480700.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>433</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>川投能源12月06日获沪股通增持122.84万股</t>
+          <t>川投能源：公司暂无定增计划</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-07 07:45</t>
+          <t>12-07 14:48</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,600674,1256090361.html</t>
+          <t>/news,600674,1256480070.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>543</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入455.01万元，融资余额6.35亿元（12-06）</t>
+          <t>川投能源：公司可转债目前未满足强赎条件</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-07 07:30</t>
+          <t>12-07 14:48</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,600674,1256087792.html</t>
+          <t>/news,600674,1256480702.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>川投能源12月05日获沪股通增持259.99万股</t>
+          <t>川投能源12月06日获沪股通增持122.84万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-06 07:46</t>
+          <t>12-07 07:45</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,600674,1255447449.html</t>
+          <t>/news,600674,1256090361.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入9.89万元，融资余额6.3亿元（12-05）</t>
+          <t>川投能源：融资净买入455.01万元，融资余额6.35亿元（12-06）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,83 +1181,83 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12-06 07:32</t>
+          <t>12-07 07:30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,600674,1255444835.html</t>
+          <t>/news,600674,1256087792.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>346</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>川投能源本周融资净偿还2877.13万元，居电力行业板块第二</t>
+          <t>川投能源12月05日获沪股通增持259.99万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>12-04 15:10</t>
+          <t>12-06 07:46</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,600674,1254651475.html</t>
+          <t>/news,600674,1255447449.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加9169.91万元，居电力行业板块第三</t>
+          <t>川投能源：融资净买入9.89万元，融资余额6.3亿元（12-05）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>12-04 14:06</t>
+          <t>12-06 07:32</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,600674,1254643296.html</t>
+          <t>/news,600674,1255444835.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,29 +1267,29 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>川投能源12月02日获沪股通增持149.45万股</t>
+          <t>川投能源本周融资净偿还2877.13万元，居电力行业板块第二</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>12-03 07:45</t>
+          <t>12-04 15:10</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,600674,1254511410.html</t>
+          <t>/news,600674,1254651475.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,29 +1299,29 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还626.68万元，融资余额6.3亿元（12-02）</t>
+          <t>川投能源本周沪股通持股市值增加</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>12-03 07:33</t>
+          <t>12-04 14:06</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,600674,1254509618.html</t>
+          <t>/news,600674,1254643296.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>367</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>川投能源12月01日获沪股通增持142.44万股</t>
+          <t>川投能源12月02日获沪股通增持149.45万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>12-02 07:48</t>
+          <t>12-03 07:45</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,600674,1253912819.html</t>
+          <t>/news,600674,1254511410.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入246.77万元，融资余额6.36亿元（12-01）</t>
+          <t>川投能源：融资净偿还626.68万元，融资余额6.3亿元（12-02）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>12-02 07:27</t>
+          <t>12-03 07:33</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,600674,1253909709.html</t>
+          <t>/news,600674,1254509618.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1683</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>川投能源重大资产重组 拟斥资40亿购买大渡河公司10%股权</t>
+          <t>川投能源12月01日获沪股通增持142.44万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>12-02 05:56</t>
+          <t>12-02 07:48</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,600674,1253903819.html</t>
+          <t>/news,600674,1253912819.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还211.1万元，融资余额6.34亿元（11-30）</t>
+          <t>川投能源：融资净买入246.77万元，融资余额6.36亿元（12-01）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>12-01 07:53</t>
+          <t>12-02 07:27</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,600674,1253302219.html</t>
+          <t>/news,600674,1253909709.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>1693</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>川投能源11月30日获沪股通增持73.28万股</t>
+          <t>川投能源重大资产重组 拟斥资40亿购买大渡河公司10%股权</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>12-01 07:44</t>
+          <t>12-02 05:56</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,600674,1253300632.html</t>
+          <t>/news,600674,1253903819.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2173</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>川投能源重大资产重组：拟斥资40亿购买大渡河公司10%股权</t>
+          <t>川投能源：融资净偿还211.1万元，融资余额6.34亿元（11-30）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-30 22:16</t>
+          <t>12-01 07:53</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,600674,1253248684.html</t>
+          <t>/news,600674,1253302219.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>川投能源11月29日获沪股通增持89.6万股</t>
+          <t>川投能源11月30日获沪股通增持73.28万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-30 07:49</t>
+          <t>12-01 07:44</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,600674,1252778156.html</t>
+          <t>/news,600674,1253300632.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>2177</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入334.46万元，融资余额6.36亿元（11-29）</t>
+          <t>川投能源重大资产重组：拟斥资40亿购买大渡河公司10%股权</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-30 07:31</t>
+          <t>11-30 22:16</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,600674,1252774807.html</t>
+          <t>/news,600674,1253248684.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>川投能源11月28日获沪股通增持314.46万股</t>
+          <t>川投能源11月29日获沪股通增持89.6万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-29 07:53</t>
+          <t>11-30 07:49</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,600674,1252213632.html</t>
+          <t>/news,600674,1252778156.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>334</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>川投能源：连续7日融资净偿还累计9327.76万元（11-28）</t>
+          <t>川投能源：融资净买入334.46万元，融资余额6.36亿元（11-29）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-29 07:34</t>
+          <t>11-30 07:31</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,600674,1252209921.html</t>
+          <t>/news,600674,1252774807.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,29 +1651,29 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>川投能源本周融资净偿还6465.31万元，居电力行业板块第三</t>
+          <t>川投能源11月28日获沪股通增持314.46万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-27 15:16</t>
+          <t>11-29 07:53</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,600674,1251592452.html</t>
+          <t>/news,600674,1252213632.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,29 +1683,29 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加4521.68万元，居电力行业板块第七</t>
+          <t>川投能源：连续7日融资净偿还累计9327.76万元（11-28）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-27 14:06</t>
+          <t>11-29 07:34</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,600674,1251584368.html</t>
+          <t>/news,600674,1252209921.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,29 +1715,29 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>川投能源11月25日获沪股通增持59.2万股</t>
+          <t>川投能源本周融资净偿还6465.31万元，居电力行业板块第三</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-26 07:46</t>
+          <t>11-27 15:16</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,600674,1251433134.html</t>
+          <t>/news,600674,1251592452.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>346</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,29 +1747,29 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>川投能源：连续6日融资净偿还累计6707.18万元（11-25）</t>
+          <t>川投能源本周沪股通持股市值增加4521.68万元，居电力行业板块第七</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-26 07:33</t>
+          <t>11-27 14:06</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,600674,1251430980.html</t>
+          <t>/news,600674,1251584368.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>川投能源11月24日获沪股通增持65.52万股</t>
+          <t>川投能源11月25日获沪股通增持59.2万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-25 07:39</t>
+          <t>11-26 07:46</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,600674,1250940834.html</t>
+          <t>/news,600674,1251433134.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>川投能源：连续5日融资净偿还累计5040.75万元（11-24）</t>
+          <t>川投能源：连续6日融资净偿还累计6707.18万元（11-25）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,51 +1821,51 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-25 07:29</t>
+          <t>11-26 07:33</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,600674,1250938811.html</t>
+          <t>/news,600674,1251430980.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
+          <t>川投能源11月24日获沪股通增持65.52万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-24 20:21</t>
+          <t>11-25 07:39</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,600674,1250810423.html</t>
+          <t>/news,600674,1250940834.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>513</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>川投能源：公司目前采用纸质合同 未采用电子合同</t>
+          <t>川投能源：连续5日融资净偿还累计5040.75万元（11-24）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,51 +1885,51 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-24 15:09</t>
+          <t>11-25 07:29</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,600674,1250736533.html</t>
+          <t>/news,600674,1250938811.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>川投能源：公司暂时未建立财务共享中心 已经建立了资金结算中心</t>
+          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-24 15:09</t>
+          <t>11-24 20:21</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,600674,1250736338.html</t>
+          <t>/news,600674,1250810423.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>513</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>川投能源：公司目前暂无增发计划</t>
+          <t>川投能源：公司目前采用纸质合同 未采用电子合同</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1954,14 +1954,14 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,600674,1250736534.html</t>
+          <t>/news,600674,1250736533.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>川投能源11月23日获沪股通增持82.83万股</t>
+          <t>川投能源：公司暂时未建立财务共享中心 已经建立了资金结算中心</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-24 07:45</t>
+          <t>11-24 15:09</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,600674,1250419050.html</t>
+          <t>/news,600674,1250736338.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>川投能源：连续4日融资净偿还累计3490.94万元（11-23）</t>
+          <t>川投能源：公司目前暂无增发计划</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-24 07:32</t>
+          <t>11-24 15:09</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,600674,1250416668.html</t>
+          <t>/news,600674,1250736534.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1736</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>川投能源：以40.13亿元成功竞买国能大渡河10%股权</t>
+          <t>川投能源11月23日获沪股通增持82.83万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-23 22:02</t>
+          <t>11-24 07:45</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,600674,1250328863.html</t>
+          <t>/news,600674,1250419050.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>699</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>川投能源：40.13亿元竞得国能大渡河10%股权</t>
+          <t>川投能源：连续4日融资净偿还累计3490.94万元（11-23）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-23 18:05</t>
+          <t>11-24 07:32</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,600674,1250258012.html</t>
+          <t>/news,600674,1250416668.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>663</t>
+          <t>1745</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>川投能源：40.13亿元竞得国能大渡河流域水电开发公司10%股权</t>
+          <t>川投能源：以40.13亿元成功竞买国能大渡河10%股权</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-23 17:53</t>
+          <t>11-23 22:02</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,600674,1250253648.html</t>
+          <t>/news,600674,1250328863.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2045</t>
+          <t>700</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>川投能源：拟以40亿元竞买国能大渡河10%股权</t>
+          <t>川投能源：40.13亿元竞得国能大渡河10%股权</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-23 17:36</t>
+          <t>11-23 18:05</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,600674,1250249217.html</t>
+          <t>/news,600674,1250258012.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>664</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>川投能源11月22日获沪股通增持203.5万股</t>
+          <t>川投能源：40.13亿元竞得国能大渡河流域水电开发公司10%股权</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-23 07:50</t>
+          <t>11-23 17:53</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,600674,1249875641.html</t>
+          <t>/news,600674,1250253648.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>2046</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净偿还累计2567.8万元（11-22）</t>
+          <t>川投能源：拟以40亿元竞买国能大渡河10%股权</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-23 07:30</t>
+          <t>11-23 17:36</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,600674,1249872043.html</t>
+          <t>/news,600674,1250249217.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>川投能源11月21日被沪股通减持24.87万股</t>
+          <t>川投能源11月22日获沪股通增持203.5万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-22 07:53</t>
+          <t>11-23 07:50</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,600674,1249348966.html</t>
+          <t>/news,600674,1249875641.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还49.55万元，融资余额7.23亿元（11-21）</t>
+          <t>川投能源：连续3日融资净偿还累计2567.8万元（11-22）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-22 07:38</t>
+          <t>11-23 07:30</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,600674,1249346246.html</t>
+          <t>/news,600674,1249872043.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,29 +2291,29 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入5281.47万元，居电力行业板块第四</t>
+          <t>川投能源11月21日被沪股通减持24.87万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-20 15:07</t>
+          <t>11-22 07:53</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,600674,1248769419.html</t>
+          <t>/news,600674,1249348966.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,29 +2323,29 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加1158.71万元，居电力行业板块第七</t>
+          <t>川投能源：融资净偿还49.55万元，融资余额7.23亿元（11-21）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-20 14:07</t>
+          <t>11-22 07:38</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,600674,1248763255.html</t>
+          <t>/news,600674,1249346246.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>524</t>
+          <t>442</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,29 +2355,29 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>川投能源11月18日获沪股通增持47.68万股</t>
+          <t>川投能源本周融资净买入5281.47万元，居电力行业板块第四</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-19 07:50</t>
+          <t>11-20 15:07</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,600674,1248638273.html</t>
+          <t>/news,600674,1248769419.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,39 +2387,39 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还241.87万元，融资余额7.24亿元（11-18）</t>
+          <t>川投能源本周沪股通持股市值增加1158.71万元，居电力行业板块第七</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-19 07:30</t>
+          <t>11-20 14:07</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,600674,1248635633.html</t>
+          <t>/news,600674,1248763255.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2368</t>
+          <t>524</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>500亿元A股董事长被查！川投能源净利润超总营收2倍引关注 投资比主业还赚钱？</t>
+          <t>川投能源11月18日获沪股通增持47.68万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-18 21:34</t>
+          <t>11-19 07:50</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,600674,1248594560.html</t>
+          <t>/news,600674,1248638273.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>川投能源11月17日获沪股通增持36.02万股</t>
+          <t>川投能源：融资净偿还241.87万元，融资余额7.24亿元（11-18）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-18 07:42</t>
+          <t>11-19 07:30</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,600674,1248151786.html</t>
+          <t>/news,600674,1248635633.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>2371</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>川投能源：连续4日融资净买入累计5523.34万元（11-17）</t>
+          <t>500亿元A股董事长被查！川投能源净利润超总营收2倍引关注 投资比主业还赚钱？</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-18 07:33</t>
+          <t>11-18 21:34</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,600674,1248150190.html</t>
+          <t>/news,600674,1248594560.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2146</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>现任董事长又被查 川投能源四任“掌门”接连落马</t>
+          <t>川投能源11月17日获沪股通增持36.02万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-17 21:50</t>
+          <t>11-18 07:42</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,600674,1248097891.html</t>
+          <t>/news,600674,1248151786.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>22911</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>510亿A股公司董事长被查！月初刚公开现身 发生了什么？多家券商提示“谨慎推荐”</t>
+          <t>川投能源：连续4日融资净买入累计5523.34万元（11-17）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-17 08:14</t>
+          <t>11-18 07:33</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,600674,1247671546.html</t>
+          <t>/news,600674,1248150190.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>2149</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净买入累计1632.03万元（11-16）</t>
+          <t>现任董事长又被查 川投能源四任“掌门”接连落马</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-17 07:46</t>
+          <t>11-17 21:50</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,600674,1247666990.html</t>
+          <t>/news,600674,1248097891.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>22912</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>川投能源11月16日获沪股通增持23.2万股</t>
+          <t>510亿A股公司董事长被查！月初刚公开现身 发生了什么？多家券商提示“谨慎推荐”</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-17 07:31</t>
+          <t>11-17 08:14</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,600674,1247664225.html</t>
+          <t>/news,600674,1247671546.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2859</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>川投能源董事长刘体斌遭立案调查：执掌川投集团3年半 历任长虹系多家上市公司董事长</t>
+          <t>川投能源：连续3日融资净买入累计1632.03万元（11-16）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-17 07:19</t>
+          <t>11-17 07:46</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,600674,1247663799.html</t>
+          <t>/news,600674,1247666990.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1577</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>川投集团董事长刘体斌被立案调查</t>
+          <t>川投能源11月16日获沪股通增持23.2万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-17 06:27</t>
+          <t>11-17 07:31</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,600674,1247658204.html</t>
+          <t>/news,600674,1247664225.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2408</t>
+          <t>2859</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>突发！上市公司董事长被立案调查</t>
+          <t>川投能源董事长刘体斌遭立案调查：执掌川投集团3年半 历任长虹系多家上市公司董事长</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-16 22:26</t>
+          <t>11-17 07:19</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,600674,1247612569.html</t>
+          <t>/news,600674,1247663799.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1283</t>
+          <t>1577</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>川投能源董事长刘体斌被立案调查</t>
+          <t>川投集团董事长刘体斌被立案调查</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-16 22:06</t>
+          <t>11-17 06:27</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,600674,1247606433.html</t>
+          <t>/news,600674,1247658204.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1805</t>
+          <t>2408</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>突发！500亿A股董事长被立案调查</t>
+          <t>突发！上市公司董事长被立案调查</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-16 19:20</t>
+          <t>11-16 22:26</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,600674,1247560692.html</t>
+          <t>/news,600674,1247612569.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2701</t>
+          <t>1284</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>川投能源董事长刘体斌被立案调查 曾担任多家四川上市公司一把手</t>
+          <t>川投能源董事长刘体斌被立案调查</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-16 18:27</t>
+          <t>11-16 22:06</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,600674,1247548359.html</t>
+          <t>/news,600674,1247606433.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1446</t>
+          <t>1805</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>川投集团董事长刘体斌被四川省监察委立案调查 月初尚在出席会议</t>
+          <t>突发！500亿A股董事长被立案调查</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-16 17:22</t>
+          <t>11-16 19:20</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,600674,1247535065.html</t>
+          <t>/news,600674,1247560692.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>5244</t>
+          <t>2702</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>川投能源董事长刘体斌被四川省监察委员会立案调查及实施留置措施</t>
+          <t>川投能源董事长刘体斌被立案调查 曾担任多家四川上市公司一把手</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-16 16:31</t>
+          <t>11-16 18:27</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,600674,1247520531.html</t>
+          <t>/news,600674,1247548359.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1264</t>
+          <t>1446</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>川投能源：公司董事长刘体斌被立案调查</t>
+          <t>川投集团董事长刘体斌被四川省监察委立案调查 月初尚在出席会议</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-16 15:51</t>
+          <t>11-16 17:22</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,600674,1247512404.html</t>
+          <t>/news,600674,1247535065.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>10.2万</t>
+          <t>5244</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>川投能源：公司董事长被立案调查</t>
+          <t>川投能源董事长刘体斌被四川省监察委员会立案调查及实施留置措施</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-16 15:48</t>
+          <t>11-16 16:31</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,600674,1247510787.html</t>
+          <t>/news,600674,1247520531.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>1264</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>川投能源11月15日获沪股通增持33.2万股</t>
+          <t>川投能源：公司董事长刘体斌被立案调查</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-16 07:54</t>
+          <t>11-16 15:51</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,600674,1247176211.html</t>
+          <t>/news,600674,1247512404.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>10.2万</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>264</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入129.5万元，融资余额6.84亿元（11-15）</t>
+          <t>川投能源：公司董事长被立案调查</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-16 07:27</t>
+          <t>11-16 15:48</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,600674,1247171748.html</t>
+          <t>/news,600674,1247510787.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/600674.xlsx
+++ b/news_ann/news/tmp/600674.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>76</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>川投能源12月13日获沪股通增持23.1万股</t>
+          <t>川投能源12月19日被沪股通减持19.32万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-14 07:57</t>
+          <t>12-20 07:33</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,600674,1259348181.html</t>
+          <t>/news,600674,1261721484.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>76</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>川投能源：连续7日融资净买入累计4711.82万元（12-13）</t>
+          <t>川投能源：融资净买入1285.31万元，融资余额6.87亿元（12-19）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-14 07:32</t>
+          <t>12-20 07:27</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,600674,1259343820.html</t>
+          <t>/news,600674,1261719119.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,29 +531,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>川投能源12月12日被沪股通减持199.61万股</t>
+          <t>川投能源本周融资净买入1251.97万元，居电力行业板块第十一</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-13 07:53</t>
+          <t>12-18 15:32</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,600674,1258761783.html</t>
+          <t>/news,600674,1261090894.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,29 +563,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>川投能源：连续6日融资净买入累计4357.23万元（12-12）</t>
+          <t>川投能源本周沪股通持股市值减少1800.99万元，居电力行业板块第九</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-13 07:30</t>
+          <t>12-18 14:16</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,600674,1258758080.html</t>
+          <t>/news,600674,1261082022.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>396</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,29 +595,29 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
+          <t>川投能源12月16日获沪股通增持99.59万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-12 12:52</t>
+          <t>12-17 07:42</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,600674,1258406178.html</t>
+          <t>/news,600674,1260974553.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,29 +627,29 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入2937.31万元，居电力行业板块第九</t>
+          <t>川投能源：融资净偿还971.64万元，融资余额6.73亿元（12-16）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-11 15:08</t>
+          <t>12-17 07:29</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,600674,1258089959.html</t>
+          <t>/news,600674,1260972956.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,29 +659,29 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值减少8549.24万元，居电力行业板块第六</t>
+          <t>川投能源12月15日被沪股通减持51.62万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-11 14:09</t>
+          <t>12-16 07:42</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,600674,1258082546.html</t>
+          <t>/news,600674,1260475773.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>川投能源12月09日被沪股通减持1006.07万股</t>
+          <t>川投能源：连续9日融资净买入累计5160.92万元（12-15）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-10 07:46</t>
+          <t>12-16 07:29</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,600674,1257964002.html</t>
+          <t>/news,600674,1260473535.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>川投能源：连续5日融资净买入累计2937.31万元（12-09）</t>
+          <t>川投能源12月14日被沪股通减持25.14万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-10 07:32</t>
+          <t>12-15 07:53</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,600674,1257962007.html</t>
+          <t>/news,600674,1259933998.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>870</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>四川川投能源股份有限公司十一届十二次监事会决议公告</t>
+          <t>川投能源：连续8日融资净买入累计5114.15万元（12-14）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-10 01:44</t>
+          <t>12-15 07:28</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,600674,1257943802.html</t>
+          <t>/news,600674,1259928970.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>982</t>
+          <t>667</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>四川川投能源股份有限公司十一届十二次董事会决议公告</t>
+          <t>川投能源重组被问询 被要求披露本次交易对价的具体资金来源、筹措方式、筹措规模及融资成本</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-10 01:44</t>
+          <t>12-14 19:42</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,600674,1257943774.html</t>
+          <t>/news,600674,1259774290.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>772</t>
+          <t>746</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>四川川投能源股份有限公司关于不提前赎回“川投转债”的公告</t>
+          <t>上交所向川投能源发出问询函</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-10 01:44</t>
+          <t>12-14 17:29</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,600674,1257943773.html</t>
+          <t>/news,600674,1259721106.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>893</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>四川川投能源股份有限公司关于变更持续督导保荐代表人的公告</t>
+          <t>川投能源12月13日获沪股通增持23.1万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-10 01:44</t>
+          <t>12-14 07:57</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,600674,1257943772.html</t>
+          <t>/news,600674,1259348181.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>川投能源：董事会决定不提前赎回“川投转债”</t>
+          <t>川投能源：连续7日融资净买入累计4711.82万元（12-13）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-09 16:57</t>
+          <t>12-14 07:32</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,600674,1257796216.html</t>
+          <t>/news,600674,1259343820.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>川投能源12月08日被沪股通减持163.8万股</t>
+          <t>川投能源12月12日被沪股通减持199.61万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-09 07:44</t>
+          <t>12-13 07:53</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,600674,1257391868.html</t>
+          <t>/news,600674,1258761783.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>川投能源：连续4日融资净买入累计2794.28万元（12-08）</t>
+          <t>川投能源：连续6日融资净买入累计4357.23万元（12-12）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-09 07:35</t>
+          <t>12-13 07:30</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,600674,1257390220.html</t>
+          <t>/news,600674,1258758080.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,29 +979,29 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>川投能源12月07日获沪股通增持39.36万股</t>
+          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-08 07:46</t>
+          <t>12-12 12:52</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,600674,1256755252.html</t>
+          <t>/news,600674,1258406178.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,71 +1011,71 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净买入累计1707.59万元（12-07）</t>
+          <t>川投能源本周融资净买入2937.31万元，居电力行业板块第九</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-08 07:41</t>
+          <t>12-11 15:08</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,600674,1256754367.html</t>
+          <t>/news,600674,1258089959.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1071</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>川投能源：两河口和杨房沟水电站已全部投产</t>
+          <t>川投能源本周沪股通持股市值减少8549.24万元，居电力行业板块第六</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-07 14:48</t>
+          <t>12-11 14:09</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,600674,1256480700.html</t>
+          <t>/news,600674,1258082546.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>458</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>川投能源：公司暂无定增计划</t>
+          <t>川投能源12月09日被沪股通减持1006.07万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-07 14:48</t>
+          <t>12-10 07:46</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,600674,1256480070.html</t>
+          <t>/news,600674,1257964002.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>543</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>川投能源：公司可转债目前未满足强赎条件</t>
+          <t>川投能源：连续5日融资净买入累计2937.31万元（12-09）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-07 14:48</t>
+          <t>12-10 07:32</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,600674,1256480702.html</t>
+          <t>/news,600674,1257962007.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>939</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>川投能源12月06日获沪股通增持122.84万股</t>
+          <t>四川川投能源股份有限公司十一届十二次监事会决议公告</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-07 07:45</t>
+          <t>12-10 01:44</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,600674,1256090361.html</t>
+          <t>/news,600674,1257943802.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>1069</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入455.01万元，融资余额6.35亿元（12-06）</t>
+          <t>四川川投能源股份有限公司十一届十二次董事会决议公告</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12-07 07:30</t>
+          <t>12-10 01:44</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,600674,1256087792.html</t>
+          <t>/news,600674,1257943774.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>852</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>川投能源12月05日获沪股通增持259.99万股</t>
+          <t>四川川投能源股份有限公司关于不提前赎回“川投转债”的公告</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>12-06 07:46</t>
+          <t>12-10 01:44</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,600674,1255447449.html</t>
+          <t>/news,600674,1257943773.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>966</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入9.89万元，融资余额6.3亿元（12-05）</t>
+          <t>四川川投能源股份有限公司关于变更持续督导保荐代表人的公告</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,51 +1245,51 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>12-06 07:32</t>
+          <t>12-10 01:44</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,600674,1255444835.html</t>
+          <t>/news,600674,1257943772.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>631</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>川投能源本周融资净偿还2877.13万元，居电力行业板块第二</t>
+          <t>川投能源：董事会决定不提前赎回“川投转债”</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>12-04 15:10</t>
+          <t>12-09 16:57</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,600674,1254651475.html</t>
+          <t>/news,600674,1257796216.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,29 +1299,29 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加</t>
+          <t>川投能源12月08日被沪股通减持163.8万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>12-04 14:06</t>
+          <t>12-09 07:44</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,600674,1254643296.html</t>
+          <t>/news,600674,1257391868.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>川投能源12月02日获沪股通增持149.45万股</t>
+          <t>川投能源：连续4日融资净买入累计2794.28万元（12-08）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>12-03 07:45</t>
+          <t>12-09 07:35</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,600674,1254511410.html</t>
+          <t>/news,600674,1257390220.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还626.68万元，融资余额6.3亿元（12-02）</t>
+          <t>川投能源12月07日获沪股通增持39.36万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>12-03 07:33</t>
+          <t>12-08 07:46</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,600674,1254509618.html</t>
+          <t>/news,600674,1256755252.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>川投能源12月01日获沪股通增持142.44万股</t>
+          <t>川投能源：连续3日融资净买入累计1707.59万元（12-07）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>12-02 07:48</t>
+          <t>12-08 07:41</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,600674,1253912819.html</t>
+          <t>/news,600674,1256754367.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>1192</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入246.77万元，融资余额6.36亿元（12-01）</t>
+          <t>川投能源：两河口和杨房沟水电站已全部投产</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>12-02 07:27</t>
+          <t>12-07 14:48</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,600674,1253909709.html</t>
+          <t>/news,600674,1256480700.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1693</t>
+          <t>492</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>川投能源重大资产重组 拟斥资40亿购买大渡河公司10%股权</t>
+          <t>川投能源：公司暂无定增计划</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>12-02 05:56</t>
+          <t>12-07 14:48</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,600674,1253903819.html</t>
+          <t>/news,600674,1256480070.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>607</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还211.1万元，融资余额6.34亿元（11-30）</t>
+          <t>川投能源：公司可转债目前未满足强赎条件</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>12-01 07:53</t>
+          <t>12-07 14:48</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,600674,1253302219.html</t>
+          <t>/news,600674,1256480702.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>川投能源11月30日获沪股通增持73.28万股</t>
+          <t>川投能源12月06日获沪股通增持122.84万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>12-01 07:44</t>
+          <t>12-07 07:45</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,600674,1253300632.html</t>
+          <t>/news,600674,1256090361.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2177</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>川投能源重大资产重组：拟斥资40亿购买大渡河公司10%股权</t>
+          <t>川投能源：融资净买入455.01万元，融资余额6.35亿元（12-06）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-30 22:16</t>
+          <t>12-07 07:30</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,600674,1253248684.html</t>
+          <t>/news,600674,1256087792.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>川投能源11月29日获沪股通增持89.6万股</t>
+          <t>川投能源12月05日获沪股通增持259.99万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-30 07:49</t>
+          <t>12-06 07:46</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,600674,1252778156.html</t>
+          <t>/news,600674,1255447449.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入334.46万元，融资余额6.36亿元（11-29）</t>
+          <t>川投能源：融资净买入9.89万元，融资余额6.3亿元（12-05）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-30 07:31</t>
+          <t>12-06 07:32</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,600674,1252774807.html</t>
+          <t>/news,600674,1255444835.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,29 +1651,29 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>川投能源11月28日获沪股通增持314.46万股</t>
+          <t>川投能源本周融资净偿还2877.13万元，居电力行业板块第二</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-29 07:53</t>
+          <t>12-04 15:10</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,600674,1252213632.html</t>
+          <t>/news,600674,1254651475.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,29 +1683,29 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>川投能源：连续7日融资净偿还累计9327.76万元（11-28）</t>
+          <t>川投能源本周沪股通持股市值增加9169.91万元，居电力行业板块第三</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-29 07:34</t>
+          <t>12-04 14:06</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,600674,1252209921.html</t>
+          <t>/news,600674,1254643296.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>387</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,29 +1715,29 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>川投能源本周融资净偿还6465.31万元，居电力行业板块第三</t>
+          <t>川投能源12月02日获沪股通增持149.45万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-27 15:16</t>
+          <t>12-03 07:45</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,600674,1251592452.html</t>
+          <t>/news,600674,1254511410.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,29 +1747,29 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加4521.68万元，居电力行业板块第七</t>
+          <t>川投能源：融资净偿还626.68万元，融资余额6.3亿元（12-02）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-27 14:06</t>
+          <t>12-03 07:33</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,600674,1251584368.html</t>
+          <t>/news,600674,1254509618.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>川投能源11月25日获沪股通增持59.2万股</t>
+          <t>川投能源12月01日获沪股通增持142.44万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-26 07:46</t>
+          <t>12-02 07:48</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,600674,1251433134.html</t>
+          <t>/news,600674,1253912819.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>川投能源：连续6日融资净偿还累计6707.18万元（11-25）</t>
+          <t>川投能源：融资净买入246.77万元，融资余额6.36亿元（12-01）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-26 07:33</t>
+          <t>12-02 07:27</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,600674,1251430980.html</t>
+          <t>/news,600674,1253909709.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>1726</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>川投能源11月24日获沪股通增持65.52万股</t>
+          <t>川投能源重大资产重组 拟斥资40亿购买大渡河公司10%股权</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-25 07:39</t>
+          <t>12-02 05:56</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,600674,1250940834.html</t>
+          <t>/news,600674,1253903819.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>川投能源：连续5日融资净偿还累计5040.75万元（11-24）</t>
+          <t>川投能源：融资净偿还211.1万元，融资余额6.34亿元（11-30）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,61 +1885,61 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-25 07:29</t>
+          <t>12-01 07:53</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,600674,1250938811.html</t>
+          <t>/news,600674,1253302219.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
+          <t>川投能源11月30日获沪股通增持73.28万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-24 20:21</t>
+          <t>12-01 07:44</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,600674,1250810423.html</t>
+          <t>/news,600674,1253300632.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>513</t>
+          <t>2210</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>川投能源：公司目前采用纸质合同 未采用电子合同</t>
+          <t>川投能源重大资产重组：拟斥资40亿购买大渡河公司10%股权</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-24 15:09</t>
+          <t>11-30 22:16</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,600674,1250736533.html</t>
+          <t>/news,600674,1253248684.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>336</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>川投能源：公司暂时未建立财务共享中心 已经建立了资金结算中心</t>
+          <t>川投能源11月29日获沪股通增持89.6万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-24 15:09</t>
+          <t>11-30 07:49</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,600674,1250736338.html</t>
+          <t>/news,600674,1252778156.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>川投能源：公司目前暂无增发计划</t>
+          <t>川投能源：融资净买入334.46万元，融资余额6.36亿元（11-29）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-24 15:09</t>
+          <t>11-30 07:31</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,600674,1250736534.html</t>
+          <t>/news,600674,1252774807.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>川投能源11月23日获沪股通增持82.83万股</t>
+          <t>川投能源11月28日获沪股通增持314.46万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-24 07:45</t>
+          <t>11-29 07:53</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,600674,1250419050.html</t>
+          <t>/news,600674,1252213632.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>川投能源：连续4日融资净偿还累计3490.94万元（11-23）</t>
+          <t>川投能源：连续7日融资净偿还累计9327.76万元（11-28）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,83 +2077,83 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-24 07:32</t>
+          <t>11-29 07:34</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,600674,1250416668.html</t>
+          <t>/news,600674,1252209921.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1745</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>川投能源：以40.13亿元成功竞买国能大渡河10%股权</t>
+          <t>川投能源本周融资净偿还6465.31万元，居电力行业板块第三</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-23 22:02</t>
+          <t>11-27 15:16</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,600674,1250328863.html</t>
+          <t>/news,600674,1251592452.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>川投能源：40.13亿元竞得国能大渡河10%股权</t>
+          <t>川投能源本周沪股通持股市值增加4521.68万元，居电力行业板块第七</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-23 18:05</t>
+          <t>11-27 14:06</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,600674,1250258012.html</t>
+          <t>/news,600674,1251584368.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>川投能源：40.13亿元竞得国能大渡河流域水电开发公司10%股权</t>
+          <t>川投能源11月25日获沪股通增持59.2万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-23 17:53</t>
+          <t>11-26 07:46</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,600674,1250253648.html</t>
+          <t>/news,600674,1251433134.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2046</t>
+          <t>387</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>川投能源：拟以40亿元竞买国能大渡河10%股权</t>
+          <t>川投能源：连续6日融资净偿还累计6707.18万元（11-25）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-23 17:36</t>
+          <t>11-26 07:33</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,600674,1250249217.html</t>
+          <t>/news,600674,1251430980.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>川投能源11月22日获沪股通增持203.5万股</t>
+          <t>川投能源11月24日获沪股通增持65.52万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-23 07:50</t>
+          <t>11-25 07:39</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,600674,1249875641.html</t>
+          <t>/news,600674,1250940834.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净偿还累计2567.8万元（11-22）</t>
+          <t>川投能源：连续5日融资净偿还累计5040.75万元（11-24）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,51 +2269,51 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-23 07:30</t>
+          <t>11-25 07:29</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,600674,1249872043.html</t>
+          <t>/news,600674,1250938811.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>598</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>川投能源11月21日被沪股通减持24.87万股</t>
+          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-22 07:53</t>
+          <t>11-24 20:21</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,600674,1249348966.html</t>
+          <t>/news,600674,1250810423.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>527</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还49.55万元，融资余额7.23亿元（11-21）</t>
+          <t>川投能源：公司目前采用纸质合同 未采用电子合同</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-22 07:38</t>
+          <t>11-24 15:09</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,600674,1249346246.html</t>
+          <t>/news,600674,1250736533.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>377</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,29 +2355,29 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入5281.47万元，居电力行业板块第四</t>
+          <t>川投能源：公司暂时未建立财务共享中心 已经建立了资金结算中心</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-20 15:07</t>
+          <t>11-24 15:09</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,600674,1248769419.html</t>
+          <t>/news,600674,1250736338.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,29 +2387,29 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加1158.71万元，居电力行业板块第七</t>
+          <t>川投能源：公司目前暂无增发计划</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-20 14:07</t>
+          <t>11-24 15:09</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,600674,1248763255.html</t>
+          <t>/news,600674,1250736534.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>524</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>川投能源11月18日获沪股通增持47.68万股</t>
+          <t>川投能源11月23日获沪股通增持82.83万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-19 07:50</t>
+          <t>11-24 07:45</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,600674,1248638273.html</t>
+          <t>/news,600674,1250419050.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还241.87万元，融资余额7.24亿元（11-18）</t>
+          <t>川投能源：连续4日融资净偿还累计3490.94万元（11-23）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-19 07:30</t>
+          <t>11-24 07:32</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,600674,1248635633.html</t>
+          <t>/news,600674,1250416668.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2371</t>
+          <t>1780</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>500亿元A股董事长被查！川投能源净利润超总营收2倍引关注 投资比主业还赚钱？</t>
+          <t>川投能源：以40.13亿元成功竞买国能大渡河10%股权</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-18 21:34</t>
+          <t>11-23 22:02</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,600674,1248594560.html</t>
+          <t>/news,600674,1250328863.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>711</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>川投能源11月17日获沪股通增持36.02万股</t>
+          <t>川投能源：40.13亿元竞得国能大渡河10%股权</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-18 07:42</t>
+          <t>11-23 18:05</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,600674,1248151786.html</t>
+          <t>/news,600674,1250258012.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>674</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>川投能源：连续4日融资净买入累计5523.34万元（11-17）</t>
+          <t>川投能源：40.13亿元竞得国能大渡河流域水电开发公司10%股权</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-18 07:33</t>
+          <t>11-23 17:53</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,600674,1248150190.html</t>
+          <t>/news,600674,1250253648.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2149</t>
+          <t>2064</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>现任董事长又被查 川投能源四任“掌门”接连落马</t>
+          <t>川投能源：拟以40亿元竞买国能大渡河10%股权</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-17 21:50</t>
+          <t>11-23 17:36</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,600674,1248097891.html</t>
+          <t>/news,600674,1250249217.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>22912</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>510亿A股公司董事长被查！月初刚公开现身 发生了什么？多家券商提示“谨慎推荐”</t>
+          <t>川投能源11月22日获沪股通增持203.5万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-17 08:14</t>
+          <t>11-23 07:50</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,600674,1247671546.html</t>
+          <t>/news,600674,1249875641.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净买入累计1632.03万元（11-16）</t>
+          <t>川投能源：连续3日融资净偿还累计2567.8万元（11-22）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-17 07:46</t>
+          <t>11-23 07:30</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,600674,1247666990.html</t>
+          <t>/news,600674,1249872043.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>川投能源11月16日获沪股通增持23.2万股</t>
+          <t>川投能源11月21日被沪股通减持24.87万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-17 07:31</t>
+          <t>11-22 07:53</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,600674,1247664225.html</t>
+          <t>/news,600674,1249348966.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2859</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>川投能源董事长刘体斌遭立案调查：执掌川投集团3年半 历任长虹系多家上市公司董事长</t>
+          <t>川投能源：融资净偿还49.55万元，融资余额7.23亿元（11-21）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-17 07:19</t>
+          <t>11-22 07:38</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,600674,1247663799.html</t>
+          <t>/news,600674,1249346246.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1577</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,71 +2739,71 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>川投集团董事长刘体斌被立案调查</t>
+          <t>川投能源本周融资净买入5281.47万元，居电力行业板块第四</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-17 06:27</t>
+          <t>11-20 15:07</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,600674,1247658204.html</t>
+          <t>/news,600674,1248769419.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2408</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>突发！上市公司董事长被立案调查</t>
+          <t>川投能源本周沪股通持股市值增加1158.71万元，居电力行业板块第七</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-16 22:26</t>
+          <t>11-20 14:07</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,600674,1247612569.html</t>
+          <t>/news,600674,1248763255.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1284</t>
+          <t>535</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>川投能源董事长刘体斌被立案调查</t>
+          <t>川投能源11月18日获沪股通增持47.68万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-16 22:06</t>
+          <t>11-19 07:50</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,600674,1247606433.html</t>
+          <t>/news,600674,1248638273.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1805</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>突发！500亿A股董事长被立案调查</t>
+          <t>川投能源：融资净偿还241.87万元，融资余额7.24亿元（11-18）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-16 19:20</t>
+          <t>11-19 07:30</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,600674,1247560692.html</t>
+          <t>/news,600674,1248635633.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2702</t>
+          <t>2390</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>川投能源董事长刘体斌被立案调查 曾担任多家四川上市公司一把手</t>
+          <t>500亿元A股董事长被查！川投能源净利润超总营收2倍引关注 投资比主业还赚钱？</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-16 18:27</t>
+          <t>11-18 21:34</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,600674,1247548359.html</t>
+          <t>/news,600674,1248594560.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1446</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>川投集团董事长刘体斌被四川省监察委立案调查 月初尚在出席会议</t>
+          <t>川投能源11月17日获沪股通增持36.02万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-16 17:22</t>
+          <t>11-18 07:42</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,600674,1247535065.html</t>
+          <t>/news,600674,1248151786.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>5244</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>川投能源董事长刘体斌被四川省监察委员会立案调查及实施留置措施</t>
+          <t>川投能源：连续4日融资净买入累计5523.34万元（11-17）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-16 16:31</t>
+          <t>11-18 07:33</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,600674,1247520531.html</t>
+          <t>/news,600674,1248150190.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>1264</t>
+          <t>2166</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>川投能源：公司董事长刘体斌被立案调查</t>
+          <t>现任董事长又被查 川投能源四任“掌门”接连落马</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-16 15:51</t>
+          <t>11-17 21:50</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,600674,1247512404.html</t>
+          <t>/news,600674,1248097891.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>10.2万</t>
+          <t>22925</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>川投能源：公司董事长被立案调查</t>
+          <t>510亿A股公司董事长被查！月初刚公开现身 发生了什么？多家券商提示“谨慎推荐”</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-16 15:48</t>
+          <t>11-17 08:14</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,600674,1247510787.html</t>
+          <t>/news,600674,1247671546.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/600674.xlsx
+++ b/news_ann/news/tmp/600674.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>川投能源12月19日被沪股通减持19.32万股</t>
+          <t>川投能源12月22日被沪股通减持20.71万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-20 07:33</t>
+          <t>12-23 07:43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,600674,1261721484.html</t>
+          <t>/news,600674,1263190807.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>78</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入1285.31万元，融资余额6.87亿元（12-19）</t>
+          <t>川投能源：融资净买入444.76万元，融资余额6.79亿元（12-22）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-20 07:27</t>
+          <t>12-23 07:36</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,600674,1261719119.html</t>
+          <t>/news,600674,1263189514.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,29 +531,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入1251.97万元，居电力行业板块第十一</t>
+          <t>川投能源12月21日获沪股通增持43.12万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-18 15:32</t>
+          <t>12-22 07:31</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,600674,1261090894.html</t>
+          <t>/news,600674,1262667746.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,39 +563,39 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值减少1800.99万元，居电力行业板块第九</t>
+          <t>川投能源：融资净偿还474.38万元，融资余额6.74亿元（12-21）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-18 14:16</t>
+          <t>12-22 07:24</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,600674,1261082022.html</t>
+          <t>/news,600674,1262666110.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>734</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>川投能源12月16日获沪股通增持99.59万股</t>
+          <t>川投能源：拟40.13亿元购买大渡河公司10%股权 已签订《产权交易合同》</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-17 07:42</t>
+          <t>12-21 22:01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,600674,1260974553.html</t>
+          <t>/news,600674,1262604086.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>2265</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还971.64万元，融资余额6.73亿元（12-16）</t>
+          <t>川投能源：拟40.13亿元购买大渡河公司10%股权</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-17 07:29</t>
+          <t>12-21 20:40</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,600674,1260972956.html</t>
+          <t>/news,600674,1262582652.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>川投能源12月15日被沪股通减持51.62万股</t>
+          <t>川投能源12月20日获沪股通增持81.36万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-16 07:42</t>
+          <t>12-21 07:31</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,600674,1260475773.html</t>
+          <t>/news,600674,1262195109.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>川投能源：连续9日融资净买入累计5160.92万元（12-15）</t>
+          <t>川投能源：融资净偿还806.61万元，融资余额6.79亿元（12-20）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-16 07:29</t>
+          <t>12-21 07:29</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,600674,1260473535.html</t>
+          <t>/news,600674,1262194496.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>1013</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>川投能源12月14日被沪股通减持25.14万股</t>
+          <t>四川川投能源股份有限公司关于公司重大资产购买预案修订说明的公告</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-15 07:53</t>
+          <t>12-21 02:43</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,600674,1259933998.html</t>
+          <t>/news,600674,1262176893.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>638</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>川投能源：连续8日融资净买入累计5114.15万元（12-14）</t>
+          <t>四川川投能源股份有限公司关于上海证券交易所 《关于对四川川投能源股份有限公司重大资产购买预案的问询函》 回复的公告</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-15 07:28</t>
+          <t>12-21 02:43</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,600674,1259928970.html</t>
+          <t>/news,600674,1262176931.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>667</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>川投能源重组被问询 被要求披露本次交易对价的具体资金来源、筹措方式、筹措规模及融资成本</t>
+          <t>川投能源12月19日被沪股通减持19.32万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-14 19:42</t>
+          <t>12-20 07:33</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,600674,1259774290.html</t>
+          <t>/news,600674,1261721484.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>746</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>上交所向川投能源发出问询函</t>
+          <t>川投能源：融资净买入1285.31万元，融资余额6.87亿元（12-19）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-14 17:29</t>
+          <t>12-20 07:27</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,600674,1259721106.html</t>
+          <t>/news,600674,1261719119.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,29 +851,29 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>川投能源12月13日获沪股通增持23.1万股</t>
+          <t>川投能源本周融资净买入1251.97万元，居电力行业板块第十一</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-14 07:57</t>
+          <t>12-18 15:32</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,600674,1259348181.html</t>
+          <t>/news,600674,1261090894.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,29 +883,29 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>川投能源：连续7日融资净买入累计4711.82万元（12-13）</t>
+          <t>川投能源本周沪股通持股市值减少1800.99万元，居电力行业板块第九</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-14 07:32</t>
+          <t>12-18 14:16</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,600674,1259343820.html</t>
+          <t>/news,600674,1261082022.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>444</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>川投能源12月12日被沪股通减持199.61万股</t>
+          <t>川投能源12月16日获沪股通增持99.59万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-13 07:53</t>
+          <t>12-17 07:42</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,600674,1258761783.html</t>
+          <t>/news,600674,1260974553.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>377</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>川投能源：连续6日融资净买入累计4357.23万元（12-12）</t>
+          <t>川投能源：融资净偿还971.64万元，融资余额6.73亿元（12-16）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-13 07:30</t>
+          <t>12-17 07:29</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,600674,1258758080.html</t>
+          <t>/news,600674,1260972956.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,29 +979,29 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
+          <t>川投能源12月15日被沪股通减持51.62万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-12 12:52</t>
+          <t>12-16 07:42</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,600674,1258406178.html</t>
+          <t>/news,600674,1260475773.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,29 +1011,29 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入2937.31万元，居电力行业板块第九</t>
+          <t>川投能源：连续9日融资净买入累计5160.92万元（12-15）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-11 15:08</t>
+          <t>12-16 07:29</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,600674,1258089959.html</t>
+          <t>/news,600674,1260473535.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>309</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,29 +1043,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值减少8549.24万元，居电力行业板块第六</t>
+          <t>川投能源12月14日被沪股通减持25.14万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-11 14:09</t>
+          <t>12-15 07:53</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,600674,1258082546.html</t>
+          <t>/news,600674,1259933998.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>川投能源12月09日被沪股通减持1006.07万股</t>
+          <t>川投能源：连续8日融资净买入累计5114.15万元（12-14）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-10 07:46</t>
+          <t>12-15 07:28</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,600674,1257964002.html</t>
+          <t>/news,600674,1259928970.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>751</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>川投能源：连续5日融资净买入累计2937.31万元（12-09）</t>
+          <t>川投能源重组被问询 被要求披露本次交易对价的具体资金来源、筹措方式、筹措规模及融资成本</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-10 07:32</t>
+          <t>12-14 19:42</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,600674,1257962007.html</t>
+          <t>/news,600674,1259774290.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>939</t>
+          <t>813</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>四川川投能源股份有限公司十一届十二次监事会决议公告</t>
+          <t>上交所向川投能源发出问询函</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-10 01:44</t>
+          <t>12-14 17:29</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,600674,1257943802.html</t>
+          <t>/news,600674,1259721106.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1069</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>四川川投能源股份有限公司十一届十二次董事会决议公告</t>
+          <t>川投能源12月13日获沪股通增持23.1万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12-10 01:44</t>
+          <t>12-14 07:57</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,600674,1257943774.html</t>
+          <t>/news,600674,1259348181.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>852</t>
+          <t>328</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>四川川投能源股份有限公司关于不提前赎回“川投转债”的公告</t>
+          <t>川投能源：连续7日融资净买入累计4711.82万元（12-13）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>12-10 01:44</t>
+          <t>12-14 07:32</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,600674,1257943773.html</t>
+          <t>/news,600674,1259343820.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>966</t>
+          <t>346</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>四川川投能源股份有限公司关于变更持续督导保荐代表人的公告</t>
+          <t>川投能源12月12日被沪股通减持199.61万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>12-10 01:44</t>
+          <t>12-13 07:53</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,600674,1257943772.html</t>
+          <t>/news,600674,1258761783.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>631</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>川投能源：董事会决定不提前赎回“川投转债”</t>
+          <t>川投能源：连续6日融资净买入累计4357.23万元（12-12）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>12-09 16:57</t>
+          <t>12-13 07:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,600674,1257796216.html</t>
+          <t>/news,600674,1258758080.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>457</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,29 +1299,29 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>川投能源12月08日被沪股通减持163.8万股</t>
+          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>12-09 07:44</t>
+          <t>12-12 12:52</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,600674,1257391868.html</t>
+          <t>/news,600674,1258406178.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>309</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,29 +1331,29 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>川投能源：连续4日融资净买入累计2794.28万元（12-08）</t>
+          <t>川投能源本周融资净买入2937.31万元，居电力行业板块第九</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>12-09 07:35</t>
+          <t>12-11 15:08</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,600674,1257390220.html</t>
+          <t>/news,600674,1258089959.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,29 +1363,29 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>川投能源12月07日获沪股通增持39.36万股</t>
+          <t>川投能源本周沪股通持股市值减少8549.24万元，居电力行业板块第六</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>12-08 07:46</t>
+          <t>12-11 14:09</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,600674,1256755252.html</t>
+          <t>/news,600674,1258082546.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>500</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净买入累计1707.59万元（12-07）</t>
+          <t>川投能源12月09日被沪股通减持1006.07万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>12-08 07:41</t>
+          <t>12-10 07:46</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,600674,1256754367.html</t>
+          <t>/news,600674,1257964002.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1192</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>川投能源：两河口和杨房沟水电站已全部投产</t>
+          <t>川投能源：连续5日融资净买入累计2937.31万元（12-09）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>12-07 14:48</t>
+          <t>12-10 07:32</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,600674,1256480700.html</t>
+          <t>/news,600674,1257962007.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>995</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>川投能源：公司暂无定增计划</t>
+          <t>四川川投能源股份有限公司十一届十二次监事会决议公告</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>12-07 14:48</t>
+          <t>12-10 01:44</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,600674,1256480070.html</t>
+          <t>/news,600674,1257943802.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>607</t>
+          <t>1120</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>川投能源：公司可转债目前未满足强赎条件</t>
+          <t>四川川投能源股份有限公司十一届十二次董事会决议公告</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>12-07 14:48</t>
+          <t>12-10 01:44</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,600674,1256480702.html</t>
+          <t>/news,600674,1257943774.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>905</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>川投能源12月06日获沪股通增持122.84万股</t>
+          <t>四川川投能源股份有限公司关于不提前赎回“川投转债”的公告</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>12-07 07:45</t>
+          <t>12-10 01:44</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,600674,1256090361.html</t>
+          <t>/news,600674,1257943773.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>1020</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入455.01万元，融资余额6.35亿元（12-06）</t>
+          <t>四川川投能源股份有限公司关于变更持续督导保荐代表人的公告</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>12-07 07:30</t>
+          <t>12-10 01:44</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,600674,1256087792.html</t>
+          <t>/news,600674,1257943772.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>672</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>川投能源12月05日获沪股通增持259.99万股</t>
+          <t>川投能源：董事会决定不提前赎回“川投转债”</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>12-06 07:46</t>
+          <t>12-09 16:57</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,600674,1255447449.html</t>
+          <t>/news,600674,1257796216.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入9.89万元，融资余额6.3亿元（12-05）</t>
+          <t>川投能源12月08日被沪股通减持163.8万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>12-06 07:32</t>
+          <t>12-09 07:44</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,600674,1255444835.html</t>
+          <t>/news,600674,1257391868.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,29 +1651,29 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>川投能源本周融资净偿还2877.13万元，居电力行业板块第二</t>
+          <t>川投能源：连续4日融资净买入累计2794.28万元（12-08）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>12-04 15:10</t>
+          <t>12-09 07:35</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,600674,1254651475.html</t>
+          <t>/news,600674,1257390220.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,29 +1683,29 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加9169.91万元，居电力行业板块第三</t>
+          <t>川投能源12月07日获沪股通增持39.36万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>12-04 14:06</t>
+          <t>12-08 07:46</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,600674,1254643296.html</t>
+          <t>/news,600674,1256755252.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>川投能源12月02日获沪股通增持149.45万股</t>
+          <t>川投能源：连续3日融资净买入累计1707.59万元（12-07）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>12-03 07:45</t>
+          <t>12-08 07:41</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,600674,1254511410.html</t>
+          <t>/news,600674,1256754367.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>1267</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还626.68万元，融资余额6.3亿元（12-02）</t>
+          <t>川投能源：两河口和杨房沟水电站已全部投产</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>12-03 07:33</t>
+          <t>12-07 14:48</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,600674,1254509618.html</t>
+          <t>/news,600674,1256480700.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>531</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>川投能源12月01日获沪股通增持142.44万股</t>
+          <t>川投能源：公司暂无定增计划</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>12-02 07:48</t>
+          <t>12-07 14:48</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,600674,1253912819.html</t>
+          <t>/news,600674,1256480070.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>655</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入246.77万元，融资余额6.36亿元（12-01）</t>
+          <t>川投能源：公司可转债目前未满足强赎条件</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>12-02 07:27</t>
+          <t>12-07 14:48</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,600674,1253909709.html</t>
+          <t>/news,600674,1256480702.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1726</t>
+          <t>334</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>川投能源重大资产重组 拟斥资40亿购买大渡河公司10%股权</t>
+          <t>川投能源12月06日获沪股通增持122.84万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>12-02 05:56</t>
+          <t>12-07 07:45</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,600674,1253903819.html</t>
+          <t>/news,600674,1256090361.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还211.1万元，融资余额6.34亿元（11-30）</t>
+          <t>川投能源：融资净买入455.01万元，融资余额6.35亿元（12-06）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>12-01 07:53</t>
+          <t>12-07 07:30</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,600674,1253302219.html</t>
+          <t>/news,600674,1256087792.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>川投能源11月30日获沪股通增持73.28万股</t>
+          <t>川投能源12月05日获沪股通增持259.99万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>12-01 07:44</t>
+          <t>12-06 07:46</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,600674,1253300632.html</t>
+          <t>/news,600674,1255447449.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2210</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>川投能源重大资产重组：拟斥资40亿购买大渡河公司10%股权</t>
+          <t>川投能源：融资净买入9.89万元，融资余额6.3亿元（12-05）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-30 22:16</t>
+          <t>12-06 07:32</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,600674,1253248684.html</t>
+          <t>/news,600674,1255444835.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,29 +1971,29 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>川投能源11月29日获沪股通增持89.6万股</t>
+          <t>川投能源本周融资净偿还2877.13万元，居电力行业板块第二</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-30 07:49</t>
+          <t>12-04 15:10</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,600674,1252778156.html</t>
+          <t>/news,600674,1254651475.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,29 +2003,29 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>川投能源：融资净买入334.46万元，融资余额6.36亿元（11-29）</t>
+          <t>川投能源本周沪股通持股市值增加9169.91万元，居电力行业板块第三</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-30 07:31</t>
+          <t>12-04 14:06</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,600674,1252774807.html</t>
+          <t>/news,600674,1254643296.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>410</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>川投能源11月28日获沪股通增持314.46万股</t>
+          <t>川投能源12月02日获沪股通增持149.45万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-29 07:53</t>
+          <t>12-03 07:45</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,600674,1252213632.html</t>
+          <t>/news,600674,1254511410.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>川投能源：连续7日融资净偿还累计9327.76万元（11-28）</t>
+          <t>川投能源：融资净偿还626.68万元，融资余额6.3亿元（12-02）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-29 07:34</t>
+          <t>12-03 07:33</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,600674,1252209921.html</t>
+          <t>/news,600674,1254509618.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,29 +2099,29 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>川投能源本周融资净偿还6465.31万元，居电力行业板块第三</t>
+          <t>川投能源12月01日获沪股通增持142.44万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-27 15:16</t>
+          <t>12-02 07:48</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,600674,1251592452.html</t>
+          <t>/news,600674,1253912819.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,39 +2131,39 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加4521.68万元，居电力行业板块第七</t>
+          <t>川投能源：融资净买入246.77万元，融资余额6.36亿元（12-01）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-27 14:06</t>
+          <t>12-02 07:27</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,600674,1251584368.html</t>
+          <t>/news,600674,1253909709.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>1761</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>川投能源11月25日获沪股通增持59.2万股</t>
+          <t>川投能源重大资产重组 拟斥资40亿购买大渡河公司10%股权</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-26 07:46</t>
+          <t>12-02 05:56</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,600674,1251433134.html</t>
+          <t>/news,600674,1253903819.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>川投能源：连续6日融资净偿还累计6707.18万元（11-25）</t>
+          <t>川投能源：融资净偿还211.1万元，融资余额6.34亿元（11-30）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-26 07:33</t>
+          <t>12-01 07:53</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,600674,1251430980.html</t>
+          <t>/news,600674,1253302219.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>川投能源11月24日获沪股通增持65.52万股</t>
+          <t>川投能源11月30日获沪股通增持73.28万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-25 07:39</t>
+          <t>12-01 07:44</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,600674,1250940834.html</t>
+          <t>/news,600674,1253300632.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>2240</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>川投能源：连续5日融资净偿还累计5040.75万元（11-24）</t>
+          <t>川投能源重大资产重组：拟斥资40亿购买大渡河公司10%股权</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,51 +2269,51 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-25 07:29</t>
+          <t>11-30 22:16</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,600674,1250938811.html</t>
+          <t>/news,600674,1253248684.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>598</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
+          <t>川投能源11月29日获沪股通增持89.6万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-24 20:21</t>
+          <t>11-30 07:49</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,600674,1250810423.html</t>
+          <t>/news,600674,1252778156.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>川投能源：公司目前采用纸质合同 未采用电子合同</t>
+          <t>川投能源：融资净买入334.46万元，融资余额6.36亿元（11-29）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-24 15:09</t>
+          <t>11-30 07:31</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,600674,1250736533.html</t>
+          <t>/news,600674,1252774807.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>382</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>川投能源：公司暂时未建立财务共享中心 已经建立了资金结算中心</t>
+          <t>川投能源11月28日获沪股通增持314.46万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-24 15:09</t>
+          <t>11-29 07:53</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,600674,1250736338.html</t>
+          <t>/news,600674,1252213632.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>川投能源：公司目前暂无增发计划</t>
+          <t>川投能源：连续7日融资净偿还累计9327.76万元（11-28）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-24 15:09</t>
+          <t>11-29 07:34</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,600674,1250736534.html</t>
+          <t>/news,600674,1252209921.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,29 +2419,29 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>川投能源11月23日获沪股通增持82.83万股</t>
+          <t>川投能源本周融资净偿还6465.31万元，居电力行业板块第三</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-24 07:45</t>
+          <t>11-27 15:16</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,600674,1250419050.html</t>
+          <t>/news,600674,1251592452.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>382</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,39 +2451,39 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>川投能源：连续4日融资净偿还累计3490.94万元（11-23）</t>
+          <t>川投能源本周沪股通持股市值增加4521.68万元，居电力行业板块第七</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-24 07:32</t>
+          <t>11-27 14:06</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,600674,1250416668.html</t>
+          <t>/news,600674,1251584368.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1780</t>
+          <t>416</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>川投能源：以40.13亿元成功竞买国能大渡河10%股权</t>
+          <t>川投能源11月25日获沪股通增持59.2万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-23 22:02</t>
+          <t>11-26 07:46</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,600674,1250328863.html</t>
+          <t>/news,600674,1251433134.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>711</t>
+          <t>407</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>川投能源：40.13亿元竞得国能大渡河10%股权</t>
+          <t>川投能源：连续6日融资净偿还累计6707.18万元（11-25）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-23 18:05</t>
+          <t>11-26 07:33</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,600674,1250258012.html</t>
+          <t>/news,600674,1251430980.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>674</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>川投能源：40.13亿元竞得国能大渡河流域水电开发公司10%股权</t>
+          <t>川投能源11月24日获沪股通增持65.52万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-23 17:53</t>
+          <t>11-25 07:39</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,600674,1250253648.html</t>
+          <t>/news,600674,1250940834.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2064</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>川投能源：拟以40亿元竞买国能大渡河10%股权</t>
+          <t>川投能源：连续5日融资净偿还累计5040.75万元（11-24）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,51 +2589,51 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-23 17:36</t>
+          <t>11-25 07:29</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,600674,1250249217.html</t>
+          <t>/news,600674,1250938811.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>618</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>川投能源11月22日获沪股通增持203.5万股</t>
+          <t>国泰君安维持川投能源增持评级 目标价15.6元</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>川投能源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-23 07:50</t>
+          <t>11-24 20:21</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,600674,1249875641.html</t>
+          <t>/news,600674,1250810423.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>551</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>川投能源：连续3日融资净偿还累计2567.8万元（11-22）</t>
+          <t>川投能源：公司目前采用纸质合同 未采用电子合同</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-23 07:30</t>
+          <t>11-24 15:09</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,600674,1249872043.html</t>
+          <t>/news,600674,1250736533.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>396</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>川投能源11月21日被沪股通减持24.87万股</t>
+          <t>川投能源：公司暂时未建立财务共享中心 已经建立了资金结算中心</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-22 07:53</t>
+          <t>11-24 15:09</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,600674,1249348966.html</t>
+          <t>/news,600674,1250736338.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>456</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还49.55万元，融资余额7.23亿元（11-21）</t>
+          <t>川投能源：公司目前暂无增发计划</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-22 07:38</t>
+          <t>11-24 15:09</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,600674,1249346246.html</t>
+          <t>/news,600674,1250736534.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,29 +2739,29 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>川投能源本周融资净买入5281.47万元，居电力行业板块第四</t>
+          <t>川投能源11月23日获沪股通增持82.83万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-20 15:07</t>
+          <t>11-24 07:45</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,600674,1248769419.html</t>
+          <t>/news,600674,1250419050.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,39 +2771,39 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>川投能源本周沪股通持股市值增加1158.71万元，居电力行业板块第七</t>
+          <t>川投能源：连续4日融资净偿还累计3490.94万元（11-23）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>川投能源资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-20 14:07</t>
+          <t>11-24 07:32</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,600674,1248763255.html</t>
+          <t>/news,600674,1250416668.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>535</t>
+          <t>1824</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>川投能源11月18日获沪股通增持47.68万股</t>
+          <t>川投能源：以40.13亿元成功竞买国能大渡河10%股权</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-19 07:50</t>
+          <t>11-23 22:02</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,600674,1248638273.html</t>
+          <t>/news,600674,1250328863.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>725</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>川投能源：融资净偿还241.87万元，融资余额7.24亿元（11-18）</t>
+          <t>川投能源：40.13亿元竞得国能大渡河10%股权</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-19 07:30</t>
+          <t>11-23 18:05</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,600674,1248635633.html</t>
+          <t>/news,600674,1250258012.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2390</t>
+          <t>691</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>500亿元A股董事长被查！川投能源净利润超总营收2倍引关注 投资比主业还赚钱？</t>
+          <t>川投能源：40.13亿元竞得国能大渡河流域水电开发公司10%股权</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-18 21:34</t>
+          <t>11-23 17:53</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,600674,1248594560.html</t>
+          <t>/news,600674,1250253648.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>2086</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>川投能源11月17日获沪股通增持36.02万股</t>
+          <t>川投能源：拟以40亿元竞买国能大渡河10%股权</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-18 07:42</t>
+          <t>11-23 17:36</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,600674,1248151786.html</t>
+          <t>/news,600674,1250249217.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>川投能源：连续4日融资净买入累计5523.34万元（11-17）</t>
+          <t>川投能源11月22日获沪股通增持203.5万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-18 07:33</t>
+          <t>11-23 07:50</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,600674,1248150190.html</t>
+          <t>/news,600674,1249875641.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2166</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>现任董事长又被查 川投能源四任“掌门”接连落马</t>
+          <t>川投能源：连续3日融资净偿还累计2567.8万元（11-22）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-17 21:50</t>
+          <t>11-23 07:30</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,600674,1248097891.html</t>
+          <t>/news,600674,1249872043.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>22925</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>510亿A股公司董事长被查！月初刚公开现身 发生了什么？多家券商提示“谨慎推荐”</t>
+          <t>川投能源11月21日被沪股通减持24.87万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-17 08:14</t>
+          <t>11-22 07:53</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,600674,1247671546.html</t>
+          <t>/news,600674,1249348966.html</t>
         </is>
       </c>
     </row>
